--- a/Rich Products Corporation - HQ @ Buffalo, NY.xlsx
+++ b/Rich Products Corporation - HQ @ Buffalo, NY.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="297">
   <si>
     <t>Rich Products Corporation - HQ @ Buffalo, NY</t>
   </si>
@@ -1444,6 +1444,18 @@
       <c r="I5" t="s">
         <v>21</v>
       </c>
+      <c r="J5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" t="s">
+        <v>21</v>
+      </c>
+      <c r="M5" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="6" spans="1:19">
       <c r="A6" t="s">
@@ -1470,6 +1482,18 @@
       <c r="I6" t="s">
         <v>21</v>
       </c>
+      <c r="J6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L6" t="s">
+        <v>21</v>
+      </c>
+      <c r="M6" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="7" spans="1:19">
       <c r="A7" t="s">
@@ -1496,6 +1520,18 @@
       <c r="I7" t="s">
         <v>21</v>
       </c>
+      <c r="J7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="8" spans="1:19">
       <c r="A8" t="s">
@@ -1525,6 +1561,18 @@
       <c r="I8" t="s">
         <v>21</v>
       </c>
+      <c r="J8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L8" t="s">
+        <v>21</v>
+      </c>
+      <c r="M8" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="9" spans="1:19">
       <c r="A9" t="s">
@@ -1554,6 +1602,18 @@
       <c r="I9" t="s">
         <v>21</v>
       </c>
+      <c r="J9" t="s">
+        <v>21</v>
+      </c>
+      <c r="K9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L9" t="s">
+        <v>21</v>
+      </c>
+      <c r="M9" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="10" spans="1:19">
       <c r="A10" t="s">
@@ -1580,6 +1640,18 @@
       <c r="I10" t="s">
         <v>21</v>
       </c>
+      <c r="J10" t="s">
+        <v>21</v>
+      </c>
+      <c r="K10" t="s">
+        <v>21</v>
+      </c>
+      <c r="L10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M10" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="11" spans="1:19">
       <c r="A11" t="s">
@@ -1609,6 +1681,18 @@
       <c r="I11" t="s">
         <v>40</v>
       </c>
+      <c r="J11" t="s">
+        <v>21</v>
+      </c>
+      <c r="K11" t="s">
+        <v>21</v>
+      </c>
+      <c r="L11" t="s">
+        <v>21</v>
+      </c>
+      <c r="M11" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="12" spans="1:19">
       <c r="A12" t="s">
@@ -1638,6 +1722,18 @@
       <c r="I12" t="s">
         <v>46</v>
       </c>
+      <c r="J12" t="s">
+        <v>21</v>
+      </c>
+      <c r="K12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L12" t="s">
+        <v>21</v>
+      </c>
+      <c r="M12" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="13" spans="1:19">
       <c r="A13" t="s">
@@ -1667,6 +1763,18 @@
       <c r="I13" t="s">
         <v>21</v>
       </c>
+      <c r="J13" t="s">
+        <v>21</v>
+      </c>
+      <c r="K13" t="s">
+        <v>21</v>
+      </c>
+      <c r="L13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M13" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="14" spans="1:19">
       <c r="A14" t="s">
@@ -1694,6 +1802,18 @@
         <v>25</v>
       </c>
       <c r="I14" t="s">
+        <v>21</v>
+      </c>
+      <c r="J14" t="s">
+        <v>21</v>
+      </c>
+      <c r="K14" t="s">
+        <v>21</v>
+      </c>
+      <c r="L14" t="s">
+        <v>21</v>
+      </c>
+      <c r="M14" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1748,8 +1868,20 @@
       <c r="I16" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="17" spans="1:9">
+      <c r="J16" t="s">
+        <v>21</v>
+      </c>
+      <c r="K16" t="s">
+        <v>21</v>
+      </c>
+      <c r="L16" t="s">
+        <v>21</v>
+      </c>
+      <c r="M16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -1777,8 +1909,20 @@
       <c r="I17" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="J17" t="s">
+        <v>21</v>
+      </c>
+      <c r="K17" t="s">
+        <v>21</v>
+      </c>
+      <c r="L17" t="s">
+        <v>21</v>
+      </c>
+      <c r="M17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -1806,8 +1950,20 @@
       <c r="I18" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="J18" t="s">
+        <v>21</v>
+      </c>
+      <c r="K18" t="s">
+        <v>21</v>
+      </c>
+      <c r="L18" t="s">
+        <v>21</v>
+      </c>
+      <c r="M18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" t="s">
         <v>14</v>
       </c>
@@ -1835,8 +1991,20 @@
       <c r="I19" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="20" spans="1:9">
+      <c r="J19" t="s">
+        <v>21</v>
+      </c>
+      <c r="K19" t="s">
+        <v>21</v>
+      </c>
+      <c r="L19" t="s">
+        <v>21</v>
+      </c>
+      <c r="M19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" t="s">
         <v>14</v>
       </c>
@@ -1864,8 +2032,20 @@
       <c r="I20" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="21" spans="1:9">
+      <c r="J20" t="s">
+        <v>21</v>
+      </c>
+      <c r="K20" t="s">
+        <v>21</v>
+      </c>
+      <c r="L20" t="s">
+        <v>21</v>
+      </c>
+      <c r="M20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" t="s">
         <v>14</v>
       </c>
@@ -1893,8 +2073,20 @@
       <c r="I21" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="22" spans="1:9">
+      <c r="J21" t="s">
+        <v>21</v>
+      </c>
+      <c r="K21" t="s">
+        <v>21</v>
+      </c>
+      <c r="L21" t="s">
+        <v>21</v>
+      </c>
+      <c r="M21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" t="s">
         <v>14</v>
       </c>
@@ -1922,8 +2114,20 @@
       <c r="I22" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="23" spans="1:9">
+      <c r="J22" t="s">
+        <v>21</v>
+      </c>
+      <c r="K22" t="s">
+        <v>21</v>
+      </c>
+      <c r="L22" t="s">
+        <v>21</v>
+      </c>
+      <c r="M22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" t="s">
         <v>14</v>
       </c>
@@ -1951,8 +2155,20 @@
       <c r="I23" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="24" spans="1:9">
+      <c r="J23" t="s">
+        <v>21</v>
+      </c>
+      <c r="K23" t="s">
+        <v>21</v>
+      </c>
+      <c r="L23" t="s">
+        <v>21</v>
+      </c>
+      <c r="M23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" t="s">
         <v>33</v>
       </c>
@@ -1980,8 +2196,20 @@
       <c r="I24" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="25" spans="1:9">
+      <c r="J24" t="s">
+        <v>21</v>
+      </c>
+      <c r="K24" t="s">
+        <v>21</v>
+      </c>
+      <c r="L24" t="s">
+        <v>21</v>
+      </c>
+      <c r="M24" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" t="s">
         <v>14</v>
       </c>
@@ -2009,8 +2237,20 @@
       <c r="I25" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="26" spans="1:9">
+      <c r="J25" t="s">
+        <v>21</v>
+      </c>
+      <c r="K25" t="s">
+        <v>21</v>
+      </c>
+      <c r="L25" t="s">
+        <v>21</v>
+      </c>
+      <c r="M25" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" t="s">
         <v>14</v>
       </c>
@@ -2038,8 +2278,20 @@
       <c r="I26" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="27" spans="1:9">
+      <c r="J26" t="s">
+        <v>21</v>
+      </c>
+      <c r="K26" t="s">
+        <v>21</v>
+      </c>
+      <c r="L26" t="s">
+        <v>21</v>
+      </c>
+      <c r="M26" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" t="s">
         <v>14</v>
       </c>
@@ -2067,8 +2319,20 @@
       <c r="I27" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="28" spans="1:9">
+      <c r="J27" t="s">
+        <v>21</v>
+      </c>
+      <c r="K27" t="s">
+        <v>21</v>
+      </c>
+      <c r="L27" t="s">
+        <v>21</v>
+      </c>
+      <c r="M27" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" t="s">
         <v>14</v>
       </c>
@@ -2096,8 +2360,20 @@
       <c r="I28" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="29" spans="1:9">
+      <c r="J28" t="s">
+        <v>21</v>
+      </c>
+      <c r="K28" t="s">
+        <v>21</v>
+      </c>
+      <c r="L28" t="s">
+        <v>21</v>
+      </c>
+      <c r="M28" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" t="s">
         <v>14</v>
       </c>
@@ -2125,8 +2401,20 @@
       <c r="I29" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="30" spans="1:9">
+      <c r="J29" t="s">
+        <v>21</v>
+      </c>
+      <c r="K29" t="s">
+        <v>21</v>
+      </c>
+      <c r="L29" t="s">
+        <v>21</v>
+      </c>
+      <c r="M29" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" t="s">
         <v>14</v>
       </c>
@@ -2154,8 +2442,20 @@
       <c r="I30" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="31" spans="1:9">
+      <c r="J30" t="s">
+        <v>21</v>
+      </c>
+      <c r="K30" t="s">
+        <v>21</v>
+      </c>
+      <c r="L30" t="s">
+        <v>21</v>
+      </c>
+      <c r="M30" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" t="s">
         <v>14</v>
       </c>
@@ -2183,8 +2483,20 @@
       <c r="I31" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="32" spans="1:9">
+      <c r="J31" t="s">
+        <v>21</v>
+      </c>
+      <c r="K31" t="s">
+        <v>21</v>
+      </c>
+      <c r="L31" t="s">
+        <v>21</v>
+      </c>
+      <c r="M31" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" t="s">
         <v>14</v>
       </c>
@@ -2212,8 +2524,20 @@
       <c r="I32" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="33" spans="1:9">
+      <c r="J32" t="s">
+        <v>21</v>
+      </c>
+      <c r="K32" t="s">
+        <v>21</v>
+      </c>
+      <c r="L32" t="s">
+        <v>21</v>
+      </c>
+      <c r="M32" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33" t="s">
         <v>14</v>
       </c>
@@ -2241,8 +2565,20 @@
       <c r="I33" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="34" spans="1:9">
+      <c r="J33" t="s">
+        <v>21</v>
+      </c>
+      <c r="K33" t="s">
+        <v>21</v>
+      </c>
+      <c r="L33" t="s">
+        <v>21</v>
+      </c>
+      <c r="M33" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34" t="s">
         <v>14</v>
       </c>
@@ -2270,8 +2606,20 @@
       <c r="I34" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="35" spans="1:9">
+      <c r="J34" t="s">
+        <v>21</v>
+      </c>
+      <c r="K34" t="s">
+        <v>21</v>
+      </c>
+      <c r="L34" t="s">
+        <v>21</v>
+      </c>
+      <c r="M34" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35" t="s">
         <v>14</v>
       </c>
@@ -2299,8 +2647,20 @@
       <c r="I35" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="36" spans="1:9">
+      <c r="J35" t="s">
+        <v>21</v>
+      </c>
+      <c r="K35" t="s">
+        <v>21</v>
+      </c>
+      <c r="L35" t="s">
+        <v>21</v>
+      </c>
+      <c r="M35" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36" t="s">
         <v>14</v>
       </c>
@@ -2328,8 +2688,20 @@
       <c r="I36" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="37" spans="1:9">
+      <c r="J36" t="s">
+        <v>21</v>
+      </c>
+      <c r="K36" t="s">
+        <v>21</v>
+      </c>
+      <c r="L36" t="s">
+        <v>21</v>
+      </c>
+      <c r="M36" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
       <c r="A37" t="s">
         <v>14</v>
       </c>
@@ -2357,8 +2729,20 @@
       <c r="I37" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="38" spans="1:9">
+      <c r="J37" t="s">
+        <v>21</v>
+      </c>
+      <c r="K37" t="s">
+        <v>21</v>
+      </c>
+      <c r="L37" t="s">
+        <v>21</v>
+      </c>
+      <c r="M37" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
       <c r="A38" t="s">
         <v>14</v>
       </c>
@@ -2386,8 +2770,20 @@
       <c r="I38" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="39" spans="1:9">
+      <c r="J38" t="s">
+        <v>21</v>
+      </c>
+      <c r="K38" t="s">
+        <v>21</v>
+      </c>
+      <c r="L38" t="s">
+        <v>21</v>
+      </c>
+      <c r="M38" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
       <c r="A39" t="s">
         <v>14</v>
       </c>
@@ -2415,8 +2811,20 @@
       <c r="I39" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="40" spans="1:9">
+      <c r="J39" t="s">
+        <v>21</v>
+      </c>
+      <c r="K39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M39" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
       <c r="A40" t="s">
         <v>14</v>
       </c>
@@ -2444,8 +2852,20 @@
       <c r="I40" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="41" spans="1:9">
+      <c r="J40" t="s">
+        <v>21</v>
+      </c>
+      <c r="K40" t="s">
+        <v>21</v>
+      </c>
+      <c r="L40" t="s">
+        <v>21</v>
+      </c>
+      <c r="M40" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
       <c r="A41" t="s">
         <v>33</v>
       </c>
@@ -2473,8 +2893,20 @@
       <c r="I41" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="42" spans="1:9">
+      <c r="J41" t="s">
+        <v>21</v>
+      </c>
+      <c r="K41" t="s">
+        <v>21</v>
+      </c>
+      <c r="L41" t="s">
+        <v>21</v>
+      </c>
+      <c r="M41" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
       <c r="A42" t="s">
         <v>33</v>
       </c>
@@ -2502,8 +2934,20 @@
       <c r="I42" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="43" spans="1:9">
+      <c r="J42" t="s">
+        <v>21</v>
+      </c>
+      <c r="K42" t="s">
+        <v>21</v>
+      </c>
+      <c r="L42" t="s">
+        <v>21</v>
+      </c>
+      <c r="M42" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
       <c r="A43" t="s">
         <v>14</v>
       </c>
@@ -2531,8 +2975,20 @@
       <c r="I43" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="44" spans="1:9">
+      <c r="J43" t="s">
+        <v>21</v>
+      </c>
+      <c r="K43" t="s">
+        <v>21</v>
+      </c>
+      <c r="L43" t="s">
+        <v>21</v>
+      </c>
+      <c r="M43" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
       <c r="A44" t="s">
         <v>14</v>
       </c>
@@ -2560,8 +3016,20 @@
       <c r="I44" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="45" spans="1:9">
+      <c r="J44" t="s">
+        <v>21</v>
+      </c>
+      <c r="K44" t="s">
+        <v>21</v>
+      </c>
+      <c r="L44" t="s">
+        <v>21</v>
+      </c>
+      <c r="M44" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
       <c r="A45" t="s">
         <v>14</v>
       </c>
@@ -2589,8 +3057,20 @@
       <c r="I45" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="46" spans="1:9">
+      <c r="J45" t="s">
+        <v>21</v>
+      </c>
+      <c r="K45" t="s">
+        <v>21</v>
+      </c>
+      <c r="L45" t="s">
+        <v>21</v>
+      </c>
+      <c r="M45" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
       <c r="A46" t="s">
         <v>14</v>
       </c>
@@ -2618,8 +3098,20 @@
       <c r="I46" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="47" spans="1:9">
+      <c r="J46" t="s">
+        <v>21</v>
+      </c>
+      <c r="K46" t="s">
+        <v>21</v>
+      </c>
+      <c r="L46" t="s">
+        <v>21</v>
+      </c>
+      <c r="M46" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
       <c r="A47" t="s">
         <v>14</v>
       </c>
@@ -2647,8 +3139,20 @@
       <c r="I47" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="48" spans="1:9">
+      <c r="J47" t="s">
+        <v>21</v>
+      </c>
+      <c r="K47" t="s">
+        <v>21</v>
+      </c>
+      <c r="L47" t="s">
+        <v>21</v>
+      </c>
+      <c r="M47" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
       <c r="A48" t="s">
         <v>14</v>
       </c>
@@ -2675,6 +3179,18 @@
       </c>
       <c r="I48" t="s">
         <v>116</v>
+      </c>
+      <c r="J48" t="s">
+        <v>21</v>
+      </c>
+      <c r="K48" t="s">
+        <v>21</v>
+      </c>
+      <c r="L48" t="s">
+        <v>21</v>
+      </c>
+      <c r="M48" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="49" spans="1:19">
@@ -2705,6 +3221,18 @@
       <c r="I49" t="s">
         <v>73</v>
       </c>
+      <c r="J49" t="s">
+        <v>21</v>
+      </c>
+      <c r="K49" t="s">
+        <v>21</v>
+      </c>
+      <c r="L49" t="s">
+        <v>21</v>
+      </c>
+      <c r="M49" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="50" spans="1:19">
       <c r="A50" t="s">
@@ -2734,6 +3262,18 @@
       <c r="I50" t="s">
         <v>192</v>
       </c>
+      <c r="J50" t="s">
+        <v>21</v>
+      </c>
+      <c r="K50" t="s">
+        <v>21</v>
+      </c>
+      <c r="L50" t="s">
+        <v>21</v>
+      </c>
+      <c r="M50" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="51" spans="1:19">
       <c r="A51" t="s">
@@ -2763,6 +3303,18 @@
       <c r="I51" t="s">
         <v>162</v>
       </c>
+      <c r="J51" t="s">
+        <v>21</v>
+      </c>
+      <c r="K51" t="s">
+        <v>21</v>
+      </c>
+      <c r="L51" t="s">
+        <v>21</v>
+      </c>
+      <c r="M51" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="52" spans="1:19">
       <c r="A52" t="s">
@@ -2791,6 +3343,18 @@
       </c>
       <c r="I52" t="s">
         <v>221</v>
+      </c>
+      <c r="J52" t="s">
+        <v>21</v>
+      </c>
+      <c r="K52" t="s">
+        <v>21</v>
+      </c>
+      <c r="L52" t="s">
+        <v>21</v>
+      </c>
+      <c r="M52" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="53" spans="1:19">
@@ -2835,6 +3399,18 @@
       <c r="I54" t="s">
         <v>21</v>
       </c>
+      <c r="J54" t="s">
+        <v>21</v>
+      </c>
+      <c r="K54" t="s">
+        <v>21</v>
+      </c>
+      <c r="L54" t="s">
+        <v>21</v>
+      </c>
+      <c r="M54" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="55" spans="1:19">
       <c r="C55" t="s">
@@ -2858,6 +3434,18 @@
       <c r="I55" t="s">
         <v>21</v>
       </c>
+      <c r="J55" t="s">
+        <v>21</v>
+      </c>
+      <c r="K55" t="s">
+        <v>21</v>
+      </c>
+      <c r="L55" t="s">
+        <v>21</v>
+      </c>
+      <c r="M55" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="56" spans="1:19">
       <c r="C56" t="s">
@@ -2879,6 +3467,18 @@
         <v>226</v>
       </c>
       <c r="I56" t="s">
+        <v>21</v>
+      </c>
+      <c r="J56" t="s">
+        <v>21</v>
+      </c>
+      <c r="K56" t="s">
+        <v>21</v>
+      </c>
+      <c r="L56" t="s">
+        <v>21</v>
+      </c>
+      <c r="M56" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2901,6 +3501,18 @@
       <c r="I57" t="s">
         <v>21</v>
       </c>
+      <c r="J57" t="s">
+        <v>21</v>
+      </c>
+      <c r="K57" t="s">
+        <v>21</v>
+      </c>
+      <c r="L57" t="s">
+        <v>21</v>
+      </c>
+      <c r="M57" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="58" spans="1:19">
       <c r="D58" t="s">
@@ -2919,6 +3531,18 @@
         <v>226</v>
       </c>
       <c r="I58" t="s">
+        <v>21</v>
+      </c>
+      <c r="J58" t="s">
+        <v>21</v>
+      </c>
+      <c r="K58" t="s">
+        <v>21</v>
+      </c>
+      <c r="L58" t="s">
+        <v>21</v>
+      </c>
+      <c r="M58" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2967,6 +3591,18 @@
       <c r="I60" t="s">
         <v>21</v>
       </c>
+      <c r="J60" t="s">
+        <v>21</v>
+      </c>
+      <c r="K60" t="s">
+        <v>21</v>
+      </c>
+      <c r="L60" t="s">
+        <v>21</v>
+      </c>
+      <c r="M60" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="61" spans="1:19">
       <c r="C61" t="s">
@@ -2988,6 +3624,18 @@
         <v>226</v>
       </c>
       <c r="I61" t="s">
+        <v>21</v>
+      </c>
+      <c r="J61" t="s">
+        <v>21</v>
+      </c>
+      <c r="K61" t="s">
+        <v>21</v>
+      </c>
+      <c r="L61" t="s">
+        <v>21</v>
+      </c>
+      <c r="M61" t="s">
         <v>21</v>
       </c>
     </row>
@@ -3008,6 +3656,18 @@
         <v>245</v>
       </c>
       <c r="I62" t="s">
+        <v>21</v>
+      </c>
+      <c r="J62" t="s">
+        <v>21</v>
+      </c>
+      <c r="K62" t="s">
+        <v>21</v>
+      </c>
+      <c r="L62" t="s">
+        <v>21</v>
+      </c>
+      <c r="M62" t="s">
         <v>21</v>
       </c>
     </row>
@@ -3062,6 +3722,18 @@
       <c r="I64" t="s">
         <v>252</v>
       </c>
+      <c r="J64" t="s">
+        <v>21</v>
+      </c>
+      <c r="K64" t="s">
+        <v>21</v>
+      </c>
+      <c r="L64" t="s">
+        <v>21</v>
+      </c>
+      <c r="M64" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="65" spans="1:19">
       <c r="A65" t="s">
@@ -3091,6 +3763,18 @@
       <c r="I65" t="s">
         <v>252</v>
       </c>
+      <c r="J65" t="s">
+        <v>21</v>
+      </c>
+      <c r="K65" t="s">
+        <v>21</v>
+      </c>
+      <c r="L65" t="s">
+        <v>21</v>
+      </c>
+      <c r="M65" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="66" spans="1:19">
       <c r="A66" t="s">
@@ -3120,6 +3804,18 @@
       <c r="I66" t="s">
         <v>260</v>
       </c>
+      <c r="J66" t="s">
+        <v>21</v>
+      </c>
+      <c r="K66" t="s">
+        <v>21</v>
+      </c>
+      <c r="L66" t="s">
+        <v>21</v>
+      </c>
+      <c r="M66" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="67" spans="1:19">
       <c r="A67" t="s">
@@ -3149,6 +3845,18 @@
       <c r="I67" t="s">
         <v>266</v>
       </c>
+      <c r="J67" t="s">
+        <v>21</v>
+      </c>
+      <c r="K67" t="s">
+        <v>21</v>
+      </c>
+      <c r="L67" t="s">
+        <v>21</v>
+      </c>
+      <c r="M67" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="68" spans="1:19">
       <c r="A68" t="s">
@@ -3178,6 +3886,18 @@
       <c r="I68" t="s">
         <v>266</v>
       </c>
+      <c r="J68" t="s">
+        <v>21</v>
+      </c>
+      <c r="K68" t="s">
+        <v>21</v>
+      </c>
+      <c r="L68" t="s">
+        <v>21</v>
+      </c>
+      <c r="M68" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="69" spans="1:19">
       <c r="A69" t="s">
@@ -3207,6 +3927,18 @@
       <c r="I69" t="s">
         <v>252</v>
       </c>
+      <c r="J69" t="s">
+        <v>21</v>
+      </c>
+      <c r="K69" t="s">
+        <v>21</v>
+      </c>
+      <c r="L69" t="s">
+        <v>21</v>
+      </c>
+      <c r="M69" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="70" spans="1:19">
       <c r="A70" t="s">
@@ -3236,6 +3968,18 @@
       <c r="I70" t="s">
         <v>266</v>
       </c>
+      <c r="J70" t="s">
+        <v>21</v>
+      </c>
+      <c r="K70" t="s">
+        <v>21</v>
+      </c>
+      <c r="L70" t="s">
+        <v>21</v>
+      </c>
+      <c r="M70" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="71" spans="1:19">
       <c r="A71" t="s">
@@ -3265,6 +4009,18 @@
       <c r="I71" t="s">
         <v>252</v>
       </c>
+      <c r="J71" t="s">
+        <v>21</v>
+      </c>
+      <c r="K71" t="s">
+        <v>21</v>
+      </c>
+      <c r="L71" t="s">
+        <v>21</v>
+      </c>
+      <c r="M71" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="72" spans="1:19">
       <c r="A72" t="s">
@@ -3293,6 +4049,18 @@
       </c>
       <c r="I72" t="s">
         <v>266</v>
+      </c>
+      <c r="J72" t="s">
+        <v>21</v>
+      </c>
+      <c r="K72" t="s">
+        <v>21</v>
+      </c>
+      <c r="L72" t="s">
+        <v>21</v>
+      </c>
+      <c r="M72" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="73" spans="1:19">
@@ -3340,6 +4108,18 @@
       <c r="I74" t="s">
         <v>21</v>
       </c>
+      <c r="J74" t="s">
+        <v>21</v>
+      </c>
+      <c r="K74" t="s">
+        <v>21</v>
+      </c>
+      <c r="L74" t="s">
+        <v>21</v>
+      </c>
+      <c r="M74" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="75" spans="1:19">
       <c r="D75" t="s">
@@ -3360,6 +4140,18 @@
       <c r="I75" t="s">
         <v>21</v>
       </c>
+      <c r="J75" t="s">
+        <v>21</v>
+      </c>
+      <c r="K75" t="s">
+        <v>21</v>
+      </c>
+      <c r="L75" t="s">
+        <v>21</v>
+      </c>
+      <c r="M75" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="76" spans="1:19">
       <c r="C76" t="s">
@@ -3381,6 +4173,18 @@
         <v>226</v>
       </c>
       <c r="I76" t="s">
+        <v>21</v>
+      </c>
+      <c r="J76" t="s">
+        <v>21</v>
+      </c>
+      <c r="K76" t="s">
+        <v>21</v>
+      </c>
+      <c r="L76" t="s">
+        <v>21</v>
+      </c>
+      <c r="M76" t="s">
         <v>21</v>
       </c>
     </row>
@@ -3410,6 +4214,18 @@
         <v>251</v>
       </c>
       <c r="I77" t="s">
+        <v>21</v>
+      </c>
+      <c r="J77" t="s">
+        <v>21</v>
+      </c>
+      <c r="K77" t="s">
+        <v>21</v>
+      </c>
+      <c r="L77" t="s">
+        <v>21</v>
+      </c>
+      <c r="M77" t="s">
         <v>21</v>
       </c>
     </row>

--- a/Rich Products Corporation - HQ @ Buffalo, NY.xlsx
+++ b/Rich Products Corporation - HQ @ Buffalo, NY.xlsx
@@ -14,9 +14,48 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="887" uniqueCount="310">
   <si>
     <t>Rich Products Corporation - HQ @ Buffalo, NY</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>Column2</t>
+  </si>
+  <si>
+    <t>Column3</t>
+  </si>
+  <si>
+    <t>Column4</t>
+  </si>
+  <si>
+    <t>Column5</t>
+  </si>
+  <si>
+    <t>Column6</t>
+  </si>
+  <si>
+    <t>Column7</t>
+  </si>
+  <si>
+    <t>Column8</t>
+  </si>
+  <si>
+    <t>Column9</t>
+  </si>
+  <si>
+    <t>Column10</t>
+  </si>
+  <si>
+    <t>Column11</t>
+  </si>
+  <si>
+    <t>Column12</t>
+  </si>
+  <si>
+    <t>Column13</t>
   </si>
   <si>
     <t>Make</t>
@@ -911,7 +950,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -922,50 +961,18 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF1E4F87"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF6EA06"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF1E4F87"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF879B20"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF002855"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -995,18 +1002,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1016,6 +1014,28 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:M100" totalsRowShown="0">
+  <autoFilter ref="A2:M100"/>
+  <tableColumns count="13">
+    <tableColumn id="1" name="Column1"/>
+    <tableColumn id="2" name="Column2"/>
+    <tableColumn id="3" name="Column3"/>
+    <tableColumn id="4" name="Column4"/>
+    <tableColumn id="5" name="Column5"/>
+    <tableColumn id="6" name="Column6"/>
+    <tableColumn id="7" name="Column7"/>
+    <tableColumn id="8" name="Column8"/>
+    <tableColumn id="9" name="Column9"/>
+    <tableColumn id="10" name="Column10"/>
+    <tableColumn id="11" name="Column11"/>
+    <tableColumn id="12" name="Column12"/>
+    <tableColumn id="13" name="Column13"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1333,2900 +1353,2900 @@
       <c r="S1" s="1"/>
     </row>
     <row r="2" spans="1:19">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>13</v>
+      <c r="A2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:19">
-      <c r="A3" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
+      <c r="A3" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
     </row>
     <row r="4" spans="1:19">
-      <c r="A4" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
+      <c r="A4" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
     </row>
     <row r="5" spans="1:19">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="G5" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="I5" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="J5" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="K5" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="L5" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="M5" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:19">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="F6" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="G6" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="H6" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="I6" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="J6" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="K6" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="L6" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="M6" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:19">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E7" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="F7" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="G7" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="H7" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="I7" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="J7" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="K7" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="L7" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="M7" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:19">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E8" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="F8" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="G8" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="H8" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="I8" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="J8" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="K8" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="L8" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="M8" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:19">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E9" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="F9" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="G9" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="H9" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="I9" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="J9" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="K9" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="L9" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="M9" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:19">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E10" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="F10" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G10" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="H10" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="I10" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="J10" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="K10" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="L10" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="M10" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:19">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E11" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="F11" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="G11" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="H11" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="I11" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="J11" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="K11" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="L11" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="M11" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:19">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="C12" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="D12" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="F12" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="H12" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="I12" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="J12" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="K12" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="L12" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="M12" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:19">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="D13" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E13" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="F13" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="G13" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="H13" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="I13" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="J13" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="K13" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="L13" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="M13" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:19">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="C14" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="D14" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E14" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="F14" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="G14" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="H14" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="I14" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="J14" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="K14" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="L14" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="M14" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:19">
-      <c r="A15" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="4"/>
-      <c r="S15" s="4"/>
+      <c r="A15" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
     </row>
     <row r="16" spans="1:19">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="C16" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="D16" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="E16" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="F16" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="G16" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="H16" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="I16" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="J16" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="K16" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="L16" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="M16" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B17" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="C17" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="D17" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="E17" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="F17" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="G17" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="H17" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="I17" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="J17" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="K17" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="L17" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="M17" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B18" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="C18" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="D18" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="E18" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="F18" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="G18" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="H18" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="I18" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="J18" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="K18" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="L18" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="M18" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="C19" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="D19" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="E19" t="s">
+        <v>83</v>
+      </c>
+      <c r="F19" t="s">
+        <v>84</v>
+      </c>
+      <c r="G19" t="s">
+        <v>85</v>
+      </c>
+      <c r="H19" t="s">
         <v>70</v>
       </c>
-      <c r="F19" t="s">
-        <v>71</v>
-      </c>
-      <c r="G19" t="s">
-        <v>72</v>
-      </c>
-      <c r="H19" t="s">
-        <v>57</v>
-      </c>
       <c r="I19" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="J19" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="K19" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="L19" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="M19" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B20" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="C20" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="D20" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="E20" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="F20" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="G20" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="H20" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="I20" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="J20" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="K20" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="L20" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="M20" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B21" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="C21" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="D21" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="E21" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="F21" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="G21" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="H21" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="I21" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="J21" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="K21" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="L21" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="M21" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B22" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="C22" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="D22" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="E22" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="F22" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="G22" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="H22" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="I22" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="J22" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="K22" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="L22" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="M22" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B23" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="C23" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="D23" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="E23" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="F23" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="G23" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="H23" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="I23" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="J23" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="K23" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="L23" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="M23" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="B24" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="C24" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="D24" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="E24" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="F24" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="G24" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="H24" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="I24" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="J24" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="K24" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="L24" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="M24" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="C25" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="D25" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="E25" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="F25" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="G25" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="H25" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="I25" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="J25" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="K25" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="L25" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="M25" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="C26" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="D26" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="E26" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="F26" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="G26" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="H26" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="I26" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="J26" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="K26" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="L26" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="M26" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="C27" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D27" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="E27" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="F27" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="G27" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="H27" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="I27" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="J27" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="K27" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="L27" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="M27" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="C28" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="D28" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="E28" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="F28" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="G28" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="H28" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="I28" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="J28" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="K28" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="L28" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="M28" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="C29" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="D29" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="E29" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="F29" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="G29" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="H29" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="I29" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="J29" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="K29" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="L29" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="M29" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="C30" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="D30" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="E30" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="F30" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="G30" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="H30" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="I30" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="J30" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="K30" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="L30" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="M30" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B31" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="C31" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="D31" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="E31" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="F31" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="G31" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="H31" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="I31" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="J31" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="K31" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="L31" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="M31" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:13">
       <c r="A32" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B32" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="C32" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="D32" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="E32" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="F32" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="G32" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="H32" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="I32" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="J32" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="K32" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="L32" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="M32" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33" spans="1:13">
       <c r="A33" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B33" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="C33" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="D33" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="E33" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="F33" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="G33" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="H33" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="I33" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="J33" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="K33" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="L33" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="M33" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B34" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="C34" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="D34" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="E34" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="F34" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="G34" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="H34" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="I34" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="J34" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="K34" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="L34" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="M34" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B35" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="C35" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="D35" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="E35" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="F35" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="G35" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="H35" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="I35" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="J35" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="K35" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="L35" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="M35" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B36" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="C36" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="D36" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="E36" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="F36" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="G36" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="H36" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="I36" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="J36" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="K36" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="L36" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="M36" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B37" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="C37" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="D37" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="E37" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="F37" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="G37" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="H37" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="I37" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="J37" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="K37" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="L37" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="M37" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="38" spans="1:13">
       <c r="A38" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B38" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="C38" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="D38" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="E38" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="F38" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="G38" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="H38" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="I38" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="J38" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="K38" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="L38" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="M38" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="39" spans="1:13">
       <c r="A39" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B39" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="C39" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="D39" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="E39" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="F39" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="G39" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="H39" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="I39" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="J39" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="K39" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="L39" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="M39" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="40" spans="1:13">
       <c r="A40" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B40" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="C40" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="D40" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="E40" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="F40" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="G40" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="H40" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="I40" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="J40" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="K40" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="L40" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="M40" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="41" spans="1:13">
       <c r="A41" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="B41" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="C41" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="D41" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="E41" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="F41" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="G41" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="H41" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="I41" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="J41" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="K41" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="L41" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="M41" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="42" spans="1:13">
       <c r="A42" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="B42" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="C42" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="D42" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="E42" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="F42" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="G42" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="H42" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="I42" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="J42" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="K42" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="L42" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="M42" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="43" spans="1:13">
       <c r="A43" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B43" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="C43" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="D43" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="E43" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="F43" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="G43" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="H43" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="I43" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="J43" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="K43" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="L43" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="M43" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="44" spans="1:13">
       <c r="A44" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B44" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="C44" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="D44" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="E44" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="F44" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="G44" t="s">
-        <v>186</v>
+        <v>199</v>
       </c>
       <c r="H44" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="I44" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="J44" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="K44" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="L44" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="M44" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="45" spans="1:13">
       <c r="A45" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B45" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="C45" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="D45" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="E45" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="F45" t="s">
-        <v>190</v>
+        <v>203</v>
       </c>
       <c r="G45" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="H45" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="I45" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="J45" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="K45" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="L45" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="M45" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="46" spans="1:13">
       <c r="A46" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B46" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="C46" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
       <c r="D46" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="E46" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="F46" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="G46" t="s">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c r="H46" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="I46" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="J46" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="K46" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="L46" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="M46" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="47" spans="1:13">
       <c r="A47" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B47" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="C47" t="s">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="D47" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="E47" t="s">
-        <v>198</v>
+        <v>211</v>
       </c>
       <c r="F47" t="s">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="G47" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="H47" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="I47" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="J47" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="K47" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="L47" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="M47" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="48" spans="1:13">
       <c r="A48" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B48" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="C48" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="D48" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="E48" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="F48" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="G48" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="H48" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="I48" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="J48" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="K48" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="L48" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="M48" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="49" spans="1:19">
       <c r="A49" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B49" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="C49" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="D49" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="E49" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="F49" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="G49" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="H49" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="I49" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="J49" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="K49" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="L49" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="M49" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="50" spans="1:19">
       <c r="A50" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B50" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="C50" t="s">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="D50" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="E50" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="F50" t="s">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="G50" t="s">
-        <v>212</v>
+        <v>225</v>
       </c>
       <c r="H50" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="I50" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="J50" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="K50" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="L50" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="M50" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="51" spans="1:19">
       <c r="A51" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B51" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="C51" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="D51" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="E51" t="s">
-        <v>214</v>
+        <v>227</v>
       </c>
       <c r="F51" t="s">
-        <v>215</v>
+        <v>228</v>
       </c>
       <c r="G51" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="H51" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="I51" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="J51" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="K51" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="L51" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="M51" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="52" spans="1:19">
       <c r="A52" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B52" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="C52" t="s">
-        <v>217</v>
+        <v>230</v>
       </c>
       <c r="D52" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="E52" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
       <c r="F52" t="s">
-        <v>219</v>
+        <v>232</v>
       </c>
       <c r="G52" t="s">
-        <v>220</v>
+        <v>233</v>
       </c>
       <c r="H52" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="I52" t="s">
-        <v>221</v>
+        <v>234</v>
       </c>
       <c r="J52" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="K52" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="L52" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="M52" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="53" spans="1:19">
-      <c r="A53" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="B53" s="4"/>
-      <c r="C53" s="4"/>
-      <c r="D53" s="4"/>
-      <c r="E53" s="4"/>
-      <c r="F53" s="4"/>
-      <c r="G53" s="4"/>
-      <c r="H53" s="4"/>
-      <c r="I53" s="4"/>
-      <c r="J53" s="4"/>
-      <c r="K53" s="4"/>
-      <c r="L53" s="4"/>
-      <c r="M53" s="4"/>
-      <c r="N53" s="4"/>
-      <c r="O53" s="4"/>
-      <c r="P53" s="4"/>
-      <c r="Q53" s="4"/>
-      <c r="R53" s="4"/>
-      <c r="S53" s="4"/>
+      <c r="A53" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="1"/>
+      <c r="N53" s="1"/>
+      <c r="O53" s="1"/>
+      <c r="P53" s="1"/>
+      <c r="Q53" s="1"/>
+      <c r="R53" s="1"/>
+      <c r="S53" s="1"/>
     </row>
     <row r="54" spans="1:19">
       <c r="D54" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="E54" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="F54" t="s">
-        <v>224</v>
+        <v>237</v>
       </c>
       <c r="G54" t="s">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="H54" t="s">
-        <v>226</v>
+        <v>239</v>
       </c>
       <c r="I54" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="J54" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="K54" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="L54" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="M54" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="55" spans="1:19">
       <c r="C55" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="D55" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="E55" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="F55" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="G55" t="s">
-        <v>228</v>
+        <v>241</v>
       </c>
       <c r="H55" t="s">
-        <v>226</v>
+        <v>239</v>
       </c>
       <c r="I55" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="J55" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="K55" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="L55" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="M55" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="56" spans="1:19">
       <c r="C56" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="D56" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="E56" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="F56" t="s">
-        <v>229</v>
+        <v>242</v>
       </c>
       <c r="G56" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="H56" t="s">
-        <v>226</v>
+        <v>239</v>
       </c>
       <c r="I56" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="J56" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="K56" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="L56" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="M56" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="57" spans="1:19">
       <c r="D57" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="E57" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="F57" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="G57" t="s">
-        <v>232</v>
+        <v>245</v>
       </c>
       <c r="H57" t="s">
-        <v>226</v>
+        <v>239</v>
       </c>
       <c r="I57" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="J57" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="K57" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="L57" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="M57" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="58" spans="1:19">
       <c r="D58" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="E58" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="F58" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="G58" t="s">
-        <v>234</v>
+        <v>247</v>
       </c>
       <c r="H58" t="s">
-        <v>226</v>
+        <v>239</v>
       </c>
       <c r="I58" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="J58" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="K58" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="L58" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="M58" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="59" spans="1:19">
-      <c r="A59" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="B59" s="4"/>
-      <c r="C59" s="4"/>
-      <c r="D59" s="4"/>
-      <c r="E59" s="4"/>
-      <c r="F59" s="4"/>
-      <c r="G59" s="4"/>
-      <c r="H59" s="4"/>
-      <c r="I59" s="4"/>
-      <c r="J59" s="4"/>
-      <c r="K59" s="4"/>
-      <c r="L59" s="4"/>
-      <c r="M59" s="4"/>
-      <c r="N59" s="4"/>
-      <c r="O59" s="4"/>
-      <c r="P59" s="4"/>
-      <c r="Q59" s="4"/>
-      <c r="R59" s="4"/>
-      <c r="S59" s="4"/>
+      <c r="A59" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+      <c r="M59" s="1"/>
+      <c r="N59" s="1"/>
+      <c r="O59" s="1"/>
+      <c r="P59" s="1"/>
+      <c r="Q59" s="1"/>
+      <c r="R59" s="1"/>
+      <c r="S59" s="1"/>
     </row>
     <row r="60" spans="1:19">
       <c r="C60" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="D60" t="s">
-        <v>236</v>
+        <v>249</v>
       </c>
       <c r="E60" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="F60" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="G60" t="s">
-        <v>238</v>
+        <v>251</v>
       </c>
       <c r="H60" t="s">
-        <v>226</v>
+        <v>239</v>
       </c>
       <c r="I60" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="J60" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="K60" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="L60" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="M60" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="61" spans="1:19">
       <c r="C61" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="D61" t="s">
-        <v>236</v>
+        <v>249</v>
       </c>
       <c r="E61" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="F61" t="s">
+        <v>252</v>
+      </c>
+      <c r="G61" t="s">
+        <v>253</v>
+      </c>
+      <c r="H61" t="s">
         <v>239</v>
       </c>
-      <c r="G61" t="s">
-        <v>240</v>
-      </c>
-      <c r="H61" t="s">
-        <v>226</v>
-      </c>
       <c r="I61" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="J61" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="K61" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="L61" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="M61" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="62" spans="1:19">
       <c r="D62" t="s">
-        <v>242</v>
+        <v>255</v>
       </c>
       <c r="E62" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="F62" t="s">
-        <v>243</v>
+        <v>256</v>
       </c>
       <c r="G62" t="s">
-        <v>244</v>
+        <v>257</v>
       </c>
       <c r="H62" t="s">
-        <v>245</v>
+        <v>258</v>
       </c>
       <c r="I62" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="J62" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="K62" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="L62" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="M62" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="63" spans="1:19">
-      <c r="A63" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="B63" s="4"/>
-      <c r="C63" s="4"/>
-      <c r="D63" s="4"/>
-      <c r="E63" s="4"/>
-      <c r="F63" s="4"/>
-      <c r="G63" s="4"/>
-      <c r="H63" s="4"/>
-      <c r="I63" s="4"/>
-      <c r="J63" s="4"/>
-      <c r="K63" s="4"/>
-      <c r="L63" s="4"/>
-      <c r="M63" s="4"/>
-      <c r="N63" s="4"/>
-      <c r="O63" s="4"/>
-      <c r="P63" s="4"/>
-      <c r="Q63" s="4"/>
-      <c r="R63" s="4"/>
-      <c r="S63" s="4"/>
+      <c r="A63" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+      <c r="I63" s="1"/>
+      <c r="J63" s="1"/>
+      <c r="K63" s="1"/>
+      <c r="L63" s="1"/>
+      <c r="M63" s="1"/>
+      <c r="N63" s="1"/>
+      <c r="O63" s="1"/>
+      <c r="P63" s="1"/>
+      <c r="Q63" s="1"/>
+      <c r="R63" s="1"/>
+      <c r="S63" s="1"/>
     </row>
     <row r="64" spans="1:19">
       <c r="A64" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="B64" t="s">
-        <v>246</v>
+        <v>259</v>
       </c>
       <c r="C64" t="s">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="D64" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="E64" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="F64" t="s">
-        <v>249</v>
+        <v>262</v>
       </c>
       <c r="G64" t="s">
-        <v>250</v>
+        <v>263</v>
       </c>
       <c r="H64" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="I64" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="J64" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="K64" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="L64" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="M64" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="65" spans="1:19">
       <c r="A65" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="B65" t="s">
-        <v>253</v>
+        <v>266</v>
       </c>
       <c r="C65" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="D65" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="E65" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="F65" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="G65" t="s">
-        <v>256</v>
+        <v>269</v>
       </c>
       <c r="H65" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="I65" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="J65" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="K65" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="L65" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="M65" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="66" spans="1:19">
       <c r="A66" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="B66" t="s">
-        <v>246</v>
+        <v>259</v>
       </c>
       <c r="C66" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="D66" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="E66" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="F66" t="s">
-        <v>258</v>
+        <v>271</v>
       </c>
       <c r="G66" t="s">
-        <v>259</v>
+        <v>272</v>
       </c>
       <c r="H66" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="I66" t="s">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c r="J66" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="K66" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="L66" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="M66" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="67" spans="1:19">
       <c r="A67" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="B67" t="s">
+        <v>274</v>
+      </c>
+      <c r="C67" t="s">
+        <v>275</v>
+      </c>
+      <c r="D67" t="s">
         <v>261</v>
       </c>
-      <c r="C67" t="s">
-        <v>262</v>
-      </c>
-      <c r="D67" t="s">
-        <v>248</v>
-      </c>
       <c r="E67" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="F67" t="s">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="G67" t="s">
-        <v>264</v>
+        <v>277</v>
       </c>
       <c r="H67" t="s">
-        <v>265</v>
+        <v>278</v>
       </c>
       <c r="I67" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="J67" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="K67" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="L67" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="M67" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="68" spans="1:19">
       <c r="A68" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="B68" t="s">
+        <v>274</v>
+      </c>
+      <c r="C68" t="s">
+        <v>280</v>
+      </c>
+      <c r="D68" t="s">
         <v>261</v>
       </c>
-      <c r="C68" t="s">
-        <v>267</v>
-      </c>
-      <c r="D68" t="s">
-        <v>248</v>
-      </c>
       <c r="E68" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="F68" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="G68" t="s">
-        <v>269</v>
+        <v>282</v>
       </c>
       <c r="H68" t="s">
-        <v>265</v>
+        <v>278</v>
       </c>
       <c r="I68" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="J68" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="K68" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="L68" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="M68" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="69" spans="1:19">
       <c r="A69" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="B69" t="s">
-        <v>253</v>
+        <v>266</v>
       </c>
       <c r="C69" t="s">
-        <v>270</v>
+        <v>283</v>
       </c>
       <c r="D69" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="E69" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="F69" t="s">
-        <v>271</v>
+        <v>284</v>
       </c>
       <c r="G69" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
       <c r="H69" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="I69" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="J69" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="K69" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="L69" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="M69" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="70" spans="1:19">
       <c r="A70" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="B70" t="s">
-        <v>273</v>
+        <v>286</v>
       </c>
       <c r="C70" t="s">
-        <v>274</v>
+        <v>287</v>
       </c>
       <c r="D70" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="E70" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="F70" t="s">
-        <v>275</v>
+        <v>288</v>
       </c>
       <c r="G70" t="s">
-        <v>276</v>
+        <v>289</v>
       </c>
       <c r="H70" t="s">
-        <v>265</v>
+        <v>278</v>
       </c>
       <c r="I70" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="J70" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="K70" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="L70" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="M70" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="71" spans="1:19">
       <c r="A71" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="B71" t="s">
-        <v>246</v>
+        <v>259</v>
       </c>
       <c r="C71" t="s">
-        <v>277</v>
+        <v>290</v>
       </c>
       <c r="D71" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="E71" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="F71" t="s">
-        <v>278</v>
+        <v>291</v>
       </c>
       <c r="G71" t="s">
-        <v>279</v>
+        <v>292</v>
       </c>
       <c r="H71" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="I71" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="J71" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="K71" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="L71" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="M71" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="72" spans="1:19">
       <c r="A72" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="B72" t="s">
-        <v>273</v>
+        <v>286</v>
       </c>
       <c r="C72" t="s">
-        <v>280</v>
+        <v>293</v>
       </c>
       <c r="D72" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="E72" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="F72" t="s">
-        <v>281</v>
+        <v>294</v>
       </c>
       <c r="G72" t="s">
-        <v>282</v>
+        <v>295</v>
       </c>
       <c r="H72" t="s">
-        <v>265</v>
+        <v>278</v>
       </c>
       <c r="I72" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="J72" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="K72" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="L72" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="M72" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="73" spans="1:19">
-      <c r="A73" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="B73" s="4"/>
-      <c r="C73" s="4"/>
-      <c r="D73" s="4"/>
-      <c r="E73" s="4"/>
-      <c r="F73" s="4"/>
-      <c r="G73" s="4"/>
-      <c r="H73" s="4"/>
-      <c r="I73" s="4"/>
-      <c r="J73" s="4"/>
-      <c r="K73" s="4"/>
-      <c r="L73" s="4"/>
-      <c r="M73" s="4"/>
-      <c r="N73" s="4"/>
-      <c r="O73" s="4"/>
-      <c r="P73" s="4"/>
-      <c r="Q73" s="4"/>
-      <c r="R73" s="4"/>
-      <c r="S73" s="4"/>
+      <c r="A73" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1"/>
+      <c r="H73" s="1"/>
+      <c r="I73" s="1"/>
+      <c r="J73" s="1"/>
+      <c r="K73" s="1"/>
+      <c r="L73" s="1"/>
+      <c r="M73" s="1"/>
+      <c r="N73" s="1"/>
+      <c r="O73" s="1"/>
+      <c r="P73" s="1"/>
+      <c r="Q73" s="1"/>
+      <c r="R73" s="1"/>
+      <c r="S73" s="1"/>
     </row>
     <row r="74" spans="1:19">
       <c r="C74" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="D74" t="s">
-        <v>284</v>
+        <v>297</v>
       </c>
       <c r="E74" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="F74" t="s">
-        <v>285</v>
+        <v>298</v>
       </c>
       <c r="G74" t="s">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="H74" t="s">
-        <v>226</v>
+        <v>239</v>
       </c>
       <c r="I74" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="J74" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="K74" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="L74" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="M74" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="75" spans="1:19">
       <c r="D75" t="s">
-        <v>284</v>
+        <v>297</v>
       </c>
       <c r="E75" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="F75" t="s">
-        <v>287</v>
+        <v>300</v>
       </c>
       <c r="G75" t="s">
-        <v>288</v>
+        <v>301</v>
       </c>
       <c r="H75" t="s">
-        <v>226</v>
+        <v>239</v>
       </c>
       <c r="I75" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="J75" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="K75" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="L75" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="M75" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="76" spans="1:19">
       <c r="C76" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="D76" t="s">
-        <v>284</v>
+        <v>297</v>
       </c>
       <c r="E76" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="F76" t="s">
-        <v>289</v>
+        <v>302</v>
       </c>
       <c r="G76" t="s">
-        <v>290</v>
+        <v>303</v>
       </c>
       <c r="H76" t="s">
-        <v>226</v>
+        <v>239</v>
       </c>
       <c r="I76" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="J76" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="K76" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="L76" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="M76" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="77" spans="1:19">
       <c r="A77" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="B77" t="s">
-        <v>292</v>
+        <v>305</v>
       </c>
       <c r="C77" t="s">
-        <v>293</v>
+        <v>306</v>
       </c>
       <c r="D77" t="s">
-        <v>242</v>
+        <v>255</v>
       </c>
       <c r="E77" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="F77" t="s">
-        <v>294</v>
+        <v>307</v>
       </c>
       <c r="G77" t="s">
-        <v>295</v>
+        <v>308</v>
       </c>
       <c r="H77" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="I77" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="J77" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="K77" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="L77" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="M77" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -4241,5 +4261,8 @@
     <mergeCell ref="A3:S3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/Rich Products Corporation - HQ @ Buffalo, NY.xlsx
+++ b/Rich Products Corporation - HQ @ Buffalo, NY.xlsx
@@ -14,11 +14,899 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="887" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="893" uniqueCount="316">
   <si>
     <t>Rich Products Corporation - HQ @ Buffalo, NY</t>
   </si>
   <si>
+    <t>Make</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>Serial Number</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Site Address</t>
+  </si>
+  <si>
+    <t>Hostname</t>
+  </si>
+  <si>
+    <t>IP Address</t>
+  </si>
+  <si>
+    <t>Operating System</t>
+  </si>
+  <si>
+    <t>Current Software</t>
+  </si>
+  <si>
+    <t>Carousel Recommended Software</t>
+  </si>
+  <si>
+    <t>Manufacture Recommended Latest Version</t>
+  </si>
+  <si>
+    <t>End of Life of End of Support</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Cisco Systems</t>
+  </si>
+  <si>
+    <t>FPR-2110</t>
+  </si>
+  <si>
+    <t>Firewall</t>
+  </si>
+  <si>
+    <t>USDC2 (Los Angeles California)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> USDC2A1R02FLW02</t>
+  </si>
+  <si>
+    <t>172.16.200.211</t>
+  </si>
+  <si>
+    <t>FSOX</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>USDC1 (Newark, NJ)</t>
+  </si>
+  <si>
+    <t>DC1-A2R10-FWL02</t>
+  </si>
+  <si>
+    <t>172.16.10.211</t>
+  </si>
+  <si>
+    <t>FXOS</t>
+  </si>
+  <si>
+    <t>DC1-A2R11-FWL01</t>
+  </si>
+  <si>
+    <t>172.16.10.210</t>
+  </si>
+  <si>
+    <t>DC1-A2R11-FWL03.na.rpchome.com</t>
+  </si>
+  <si>
+    <t>172.16.10.214</t>
+  </si>
+  <si>
+    <t>172.16.10.215</t>
+  </si>
+  <si>
+    <t>DMZ 2120 Primary FTD</t>
+  </si>
+  <si>
+    <t>172.16.200.210</t>
+  </si>
+  <si>
+    <t>Cisco</t>
+  </si>
+  <si>
+    <t>ASA 5516</t>
+  </si>
+  <si>
+    <t>JMX2239G11E</t>
+  </si>
+  <si>
+    <t>GBAND (Andover, UK)</t>
+  </si>
+  <si>
+    <t>GBANDM01FWL03.na.rpchome.com</t>
+  </si>
+  <si>
+    <t>10.216.40.7</t>
+  </si>
+  <si>
+    <t>ASA</t>
+  </si>
+  <si>
+    <t>9.8(4)35</t>
+  </si>
+  <si>
+    <t>ASAv</t>
+  </si>
+  <si>
+    <t>9AGD45E37KA</t>
+  </si>
+  <si>
+    <t>Mumbai</t>
+  </si>
+  <si>
+    <t>inzcifwl03.na.rpchome.com</t>
+  </si>
+  <si>
+    <t>10.81.0.200</t>
+  </si>
+  <si>
+    <t>9.12(3)12</t>
+  </si>
+  <si>
+    <t>USDC2A1R02FWL04.na.rpchome.com</t>
+  </si>
+  <si>
+    <t>172.16.200.215</t>
+  </si>
+  <si>
+    <t>172.16.200.214</t>
+  </si>
+  <si>
+    <t>Firewall(10)</t>
+  </si>
+  <si>
+    <t>ISR4331-3x1GE</t>
+  </si>
+  <si>
+    <t>FLM244110FJ</t>
+  </si>
+  <si>
+    <t>Router</t>
+  </si>
+  <si>
+    <t>CAFTE (Ft. Erie, ON)</t>
+  </si>
+  <si>
+    <t>CAFTEM01VGW01.na.rpchome.com</t>
+  </si>
+  <si>
+    <t>10.166.16.10</t>
+  </si>
+  <si>
+    <t>IOS</t>
+  </si>
+  <si>
+    <t>16.09.03</t>
+  </si>
+  <si>
+    <t>ISR4321</t>
+  </si>
+  <si>
+    <t>FLM2530109G</t>
+  </si>
+  <si>
+    <t>CAWBR(Woodbridge, ON)</t>
+  </si>
+  <si>
+    <t>CAWBRM01VGW01.na.rpchome.com</t>
+  </si>
+  <si>
+    <t>10.183.16.10</t>
+  </si>
+  <si>
+    <t>Cisco ISR4431</t>
+  </si>
+  <si>
+    <t>FJC2237A03U</t>
+  </si>
+  <si>
+    <t>GBANDM01VGW01.rich.com</t>
+  </si>
+  <si>
+    <t>10.216.40.10</t>
+  </si>
+  <si>
+    <t>16.09.08</t>
+  </si>
+  <si>
+    <t>FLM2250V0C1</t>
+  </si>
+  <si>
+    <t>USARL (Arlington, TN)</t>
+  </si>
+  <si>
+    <t>USARLM01VGW01.na.rpchome.com</t>
+  </si>
+  <si>
+    <t>10.161.40.40</t>
+  </si>
+  <si>
+    <t>V05</t>
+  </si>
+  <si>
+    <t>FLM2250V0C0</t>
+  </si>
+  <si>
+    <t>USBVL (Brownsville, TX)</t>
+  </si>
+  <si>
+    <t>USBVLM01VGW01.na.rpchome.com</t>
+  </si>
+  <si>
+    <t>10.162.40.40</t>
+  </si>
+  <si>
+    <t>FLM2250V0C9</t>
+  </si>
+  <si>
+    <t>USBWK (Brunswick, GA)</t>
+  </si>
+  <si>
+    <t>USBWKM01VGW01.na.rpchome.com</t>
+  </si>
+  <si>
+    <t>10.163.40.40</t>
+  </si>
+  <si>
+    <t>FLM2530109U</t>
+  </si>
+  <si>
+    <t>USCHK (Cheektowaga, NY)</t>
+  </si>
+  <si>
+    <t>USCHKM01VGW01.na.rpchome.com</t>
+  </si>
+  <si>
+    <t>10.191.136.132</t>
+  </si>
+  <si>
+    <t>15.1(1)T3, RELEASE SOFTWARE (fc1)</t>
+  </si>
+  <si>
+    <t>C880VOICE-UNIVERSALK9-M</t>
+  </si>
+  <si>
+    <t>FJC2036L2G0</t>
+  </si>
+  <si>
+    <t>USCRH (Crest Hill, IL)</t>
+  </si>
+  <si>
+    <t>USCRHI05VGW01.na.rpchome.com</t>
+  </si>
+  <si>
+    <t>10.164.16.11</t>
+  </si>
+  <si>
+    <t>15.4(3)M3, RELEASE SOFTWARE (fc2)</t>
+  </si>
+  <si>
+    <t>CISCO2911/K9</t>
+  </si>
+  <si>
+    <t>FTX1735A1H8</t>
+  </si>
+  <si>
+    <t>USCRHM01VGW01.na.rpchome.com</t>
+  </si>
+  <si>
+    <t>10.164.16.10</t>
+  </si>
+  <si>
+    <t>15.2(1)T4, RELEASE SOFTWARE (fc1)</t>
+  </si>
+  <si>
+    <t>FLM2243W1FL</t>
+  </si>
+  <si>
+    <t>USDC1A2R10VGW02.na.rpchome.com</t>
+  </si>
+  <si>
+    <t>172.16.10.41</t>
+  </si>
+  <si>
+    <t>03.16.04b.S.155-3.S4b-ext</t>
+  </si>
+  <si>
+    <t>FLM2243W1FN</t>
+  </si>
+  <si>
+    <t>USDC1A2R11VGW01.na.rpchome.com</t>
+  </si>
+  <si>
+    <t>172.16.10.40</t>
+  </si>
+  <si>
+    <t>FLM1946W0P2</t>
+  </si>
+  <si>
+    <t>USDC2A1R02VGW01.na.rpchome.com</t>
+  </si>
+  <si>
+    <t>172.16.200.40</t>
+  </si>
+  <si>
+    <t>FLM2250V0BZ</t>
+  </si>
+  <si>
+    <t>USEAG (Eagan, MN)</t>
+  </si>
+  <si>
+    <t>USEAGM01VGW01.na.rpchome.com</t>
+  </si>
+  <si>
+    <t>10.165.40.40</t>
+  </si>
+  <si>
+    <t>FLM243110DT</t>
+  </si>
+  <si>
+    <t>USFRI (Fridley, MN)</t>
+  </si>
+  <si>
+    <t>USFRIM01VGW01.na.rpchome.com</t>
+  </si>
+  <si>
+    <t>10.186.16.10</t>
+  </si>
+  <si>
+    <t>V06</t>
+  </si>
+  <si>
+    <t>VG3X0-UNIVERSALK9-M</t>
+  </si>
+  <si>
+    <t>FGL2431LFJJ</t>
+  </si>
+  <si>
+    <t>USFRIM01VGW02.na.rpchome.com</t>
+  </si>
+  <si>
+    <t>10.186.16.11</t>
+  </si>
+  <si>
+    <t>15.7(3)M6, RELEASE SOFTWARE (fc1)</t>
+  </si>
+  <si>
+    <t>FLM252311V3</t>
+  </si>
+  <si>
+    <t>USFTN (Fountain Inn, SC)</t>
+  </si>
+  <si>
+    <t>USFTNM01VGW01.na.rpchome.com</t>
+  </si>
+  <si>
+    <t>10.167.16.10</t>
+  </si>
+  <si>
+    <t>FLM253010A4</t>
+  </si>
+  <si>
+    <t>USGAL (Gallatin, TN)</t>
+  </si>
+  <si>
+    <t>USGALM01VGW01.na.rpchome.com</t>
+  </si>
+  <si>
+    <t>10.169.16.10</t>
+  </si>
+  <si>
+    <t>FLM251711DU</t>
+  </si>
+  <si>
+    <t>USHIL (Hilliard, OH)</t>
+  </si>
+  <si>
+    <t>USHILM01VGW01.na.rpchome.com</t>
+  </si>
+  <si>
+    <t>10.170.16.10</t>
+  </si>
+  <si>
+    <t>16.09.07</t>
+  </si>
+  <si>
+    <t>FLM243110DU</t>
+  </si>
+  <si>
+    <t>USLOD (Lodi, CA)</t>
+  </si>
+  <si>
+    <t>USLODI06VGW01.na.rpchome.com</t>
+  </si>
+  <si>
+    <t>10.185.16.10</t>
+  </si>
+  <si>
+    <t>FLM253010A5</t>
+  </si>
+  <si>
+    <t>USMC1 (Missouri City, TN)</t>
+  </si>
+  <si>
+    <t>USMC1M01VGW01.na.rpchome.com</t>
+  </si>
+  <si>
+    <t>10.171.16.10</t>
+  </si>
+  <si>
+    <t>15.1(2)T5, RELEASE SOFTWARE (fc1)</t>
+  </si>
+  <si>
+    <t>FLM2530109V</t>
+  </si>
+  <si>
+    <t>USMC2 (Missouri City, TX)</t>
+  </si>
+  <si>
+    <t>USMC2M01VGW01.na.rpchome.com</t>
+  </si>
+  <si>
+    <t>10.180.16.10</t>
+  </si>
+  <si>
+    <t>15.7(3)M3, RELEASE SOFTWARE (fc2)</t>
+  </si>
+  <si>
+    <t>FLM251711DY</t>
+  </si>
+  <si>
+    <t>USMT1 (Morristown, TN)</t>
+  </si>
+  <si>
+    <t>USMT1M01VGW01.na.rpchome.com</t>
+  </si>
+  <si>
+    <t>10.172.16.10</t>
+  </si>
+  <si>
+    <t>FLM2530109J</t>
+  </si>
+  <si>
+    <t>USMT2 (Morristown, TN)</t>
+  </si>
+  <si>
+    <t>USMT2M01VGW01.na.rpchome.com</t>
+  </si>
+  <si>
+    <t>10.173.16.10</t>
+  </si>
+  <si>
+    <t>15.2(4)M3, RELEASE SOFTWARE (fc2)</t>
+  </si>
+  <si>
+    <t>FLM2530109Q</t>
+  </si>
+  <si>
+    <t>Lakeway Freezer</t>
+  </si>
+  <si>
+    <t>USMT3M01VGW01.na.rpchome.com</t>
+  </si>
+  <si>
+    <t>10.160.16.132</t>
+  </si>
+  <si>
+    <t>15.0(1)M6, RELEASE SOFTWARE (fc1)</t>
+  </si>
+  <si>
+    <t>FLM251711E3</t>
+  </si>
+  <si>
+    <t>USMUR (Murfreesboro, TN)</t>
+  </si>
+  <si>
+    <t>USMURM01VGW01.na.rpchome.com</t>
+  </si>
+  <si>
+    <t>10.174.16.10</t>
+  </si>
+  <si>
+    <t>VG310</t>
+  </si>
+  <si>
+    <t>FJC25051854</t>
+  </si>
+  <si>
+    <t>USMURM01VGW02.na.rpchome.com</t>
+  </si>
+  <si>
+    <t>10.174.16.11</t>
+  </si>
+  <si>
+    <t>15.7(3)M8, RELEASE SOFTWARE (fc1)</t>
+  </si>
+  <si>
+    <t>VG202XM</t>
+  </si>
+  <si>
+    <t>FCH2030T0LW</t>
+  </si>
+  <si>
+    <t>USNBR (New Britain, CT)</t>
+  </si>
+  <si>
+    <t>USNBRI01VGW01.na.rpchome.com</t>
+  </si>
+  <si>
+    <t>10.175.16.11</t>
+  </si>
+  <si>
+    <t>15.3(3)M7, RELEASE SOFTWARE (fc2)</t>
+  </si>
+  <si>
+    <t>C2951-UNIVERSALK9-M</t>
+  </si>
+  <si>
+    <t>FTX1532AL3T</t>
+  </si>
+  <si>
+    <t>USNBRM01VGW01.na.rpchome.com</t>
+  </si>
+  <si>
+    <t>10.175.16.10</t>
+  </si>
+  <si>
+    <t>15.1(4)M1, RELEASE SOFTWARE (fc1)</t>
+  </si>
+  <si>
+    <t>FLM253010A3</t>
+  </si>
+  <si>
+    <t>USNIL (Niles, IL)</t>
+  </si>
+  <si>
+    <t>USNILM01VGW01.na.rpchome.com</t>
+  </si>
+  <si>
+    <t>10.176.16.10</t>
+  </si>
+  <si>
+    <t>15.0(1)M3, RELEASE SOFTWARE (fc2)</t>
+  </si>
+  <si>
+    <t>FLM253010A2</t>
+  </si>
+  <si>
+    <t>USQUE (Queens, NY)</t>
+  </si>
+  <si>
+    <t>USQUEM01VGW01.na.rpchome.com</t>
+  </si>
+  <si>
+    <t>10.160.32.132</t>
+  </si>
+  <si>
+    <t>15.1(4)M4, RELEASE SOFTWARE (fc1)</t>
+  </si>
+  <si>
+    <t>FLM2530109X</t>
+  </si>
+  <si>
+    <t>USSAA (Santa Ana, CA)</t>
+  </si>
+  <si>
+    <t>USSAAM01VGW01.na.rpchome.com</t>
+  </si>
+  <si>
+    <t>10.177.16.10</t>
+  </si>
+  <si>
+    <t>FLM2250V0BX</t>
+  </si>
+  <si>
+    <t>USSFS (Santa Fe Springs, CA)</t>
+  </si>
+  <si>
+    <t>USSFSM01VGW01.na.rpchome.com</t>
+  </si>
+  <si>
+    <t>10.178.40.40</t>
+  </si>
+  <si>
+    <t>FLM243510DY</t>
+  </si>
+  <si>
+    <t>USSPK (Spokane, WA)</t>
+  </si>
+  <si>
+    <t>USSPKM01VGW01.na.rpchome.com</t>
+  </si>
+  <si>
+    <t>10.161.144.10</t>
+  </si>
+  <si>
+    <t>FLM2250V0C7</t>
+  </si>
+  <si>
+    <t>USSSI (St. Simons, GA)</t>
+  </si>
+  <si>
+    <t>USSSIM01VGW01.na.rpchome.com</t>
+  </si>
+  <si>
+    <t>10.179.40.40</t>
+  </si>
+  <si>
+    <t>FLM2530109N</t>
+  </si>
+  <si>
+    <t>USUNC (Union City, CA)</t>
+  </si>
+  <si>
+    <t>USUNCM01VGW01.na.rpchome.com</t>
+  </si>
+  <si>
+    <t>10.181.16.10</t>
+  </si>
+  <si>
+    <t>FLM2530109L</t>
+  </si>
+  <si>
+    <t>USVNL (Vineland, NJ)</t>
+  </si>
+  <si>
+    <t>USVNLM01VGW01.na.rpchome.com</t>
+  </si>
+  <si>
+    <t>10.182.16.10</t>
+  </si>
+  <si>
+    <t>FLM252210LG</t>
+  </si>
+  <si>
+    <t>USWHL (Wheeling, IL)</t>
+  </si>
+  <si>
+    <t>USWHLM01VGW01.na.rpchome.com</t>
+  </si>
+  <si>
+    <t>10.160.40.132</t>
+  </si>
+  <si>
+    <t>15.6(2)T1, RELEASE SOFTWARE (fc1)</t>
+  </si>
+  <si>
+    <t>Router(37)</t>
+  </si>
+  <si>
+    <t>Cisco UCM</t>
+  </si>
+  <si>
+    <t>CCM01</t>
+  </si>
+  <si>
+    <t>10.14.1.30</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>ccm02</t>
+  </si>
+  <si>
+    <t>10.14.1.31</t>
+  </si>
+  <si>
+    <t>ccm03</t>
+  </si>
+  <si>
+    <t>10.75.6.100</t>
+  </si>
+  <si>
+    <t>RPIGBCUCM01</t>
+  </si>
+  <si>
+    <t>10.216.42.50</t>
+  </si>
+  <si>
+    <t>RPIGBCUCM02</t>
+  </si>
+  <si>
+    <t>10.216.42.51</t>
+  </si>
+  <si>
+    <t>Cisco UCM(5)</t>
+  </si>
+  <si>
+    <t>Cisco Unity</t>
+  </si>
+  <si>
+    <t>cuc01</t>
+  </si>
+  <si>
+    <t>10.14.1.55</t>
+  </si>
+  <si>
+    <t>cuc02</t>
+  </si>
+  <si>
+    <t>10.75.6.101</t>
+  </si>
+  <si>
+    <t>Cisco Unity(2)</t>
+  </si>
+  <si>
+    <t>Network Device</t>
+  </si>
+  <si>
+    <t>DC1 – FMC</t>
+  </si>
+  <si>
+    <t>10.70.6.15</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Catalyst 3650-48PS</t>
+  </si>
+  <si>
+    <t>FDO2036E0WG</t>
+  </si>
+  <si>
+    <t>Switch</t>
+  </si>
+  <si>
+    <t>DC1-A2R10-ASW04.rich.com</t>
+  </si>
+  <si>
+    <t>172.16.10.29</t>
+  </si>
+  <si>
+    <t>XE-IOS</t>
+  </si>
+  <si>
+    <t>Fuji 16.09.06</t>
+  </si>
+  <si>
+    <t>WS-C3850-24U-E</t>
+  </si>
+  <si>
+    <t>FOC2116U1CL</t>
+  </si>
+  <si>
+    <t>DC1-A2R11-ASW01.na.rpchome.com</t>
+  </si>
+  <si>
+    <t>172.16.10.22</t>
+  </si>
+  <si>
+    <t>FDO2119Q1N3</t>
+  </si>
+  <si>
+    <t>DC1-A2R11-PSW.rich.com</t>
+  </si>
+  <si>
+    <t>172.16.10.26</t>
+  </si>
+  <si>
+    <t>03.06.07b.E</t>
+  </si>
+  <si>
+    <t>Nexus 93240YC-FX2</t>
+  </si>
+  <si>
+    <t>FDO250319M2</t>
+  </si>
+  <si>
+    <t>USDC1A2R10CSW02.na.rpchome.com</t>
+  </si>
+  <si>
+    <t>172.16.10.7</t>
+  </si>
+  <si>
+    <t>NXOS</t>
+  </si>
+  <si>
+    <t>9.3(10)</t>
+  </si>
+  <si>
+    <t>FDO250319JV</t>
+  </si>
+  <si>
+    <t>USDC1A2R11CSW01.na.rpchome.com</t>
+  </si>
+  <si>
+    <t>172.16.10.6</t>
+  </si>
+  <si>
+    <t>FOC2107X1DK</t>
+  </si>
+  <si>
+    <t>USDC2A1R01ASW01.rich.com</t>
+  </si>
+  <si>
+    <t>172.16.200.22</t>
+  </si>
+  <si>
+    <t>Nexus 93180YC-EX</t>
+  </si>
+  <si>
+    <t>FDO2035118W</t>
+  </si>
+  <si>
+    <t>USDC2A1R01CSW01</t>
+  </si>
+  <si>
+    <t>172.16.200.7</t>
+  </si>
+  <si>
+    <t>FDO2119Q1PE</t>
+  </si>
+  <si>
+    <t>USDC2A1R01PSW01.rich.com</t>
+  </si>
+  <si>
+    <t>172.16.200.26</t>
+  </si>
+  <si>
+    <t>FDO20352BDD</t>
+  </si>
+  <si>
+    <t>USDC2A1R02CSW02</t>
+  </si>
+  <si>
+    <t>172.16.200.8</t>
+  </si>
+  <si>
+    <t>Switch(9)</t>
+  </si>
+  <si>
+    <t>Cisco Contact Center Express</t>
+  </si>
+  <si>
+    <t>rpdc2uccx02</t>
+  </si>
+  <si>
+    <t>10.75.6.102</t>
+  </si>
+  <si>
+    <t>rpigbcuc01</t>
+  </si>
+  <si>
+    <t>10.216.42.52</t>
+  </si>
+  <si>
+    <t>rpwhquccc01</t>
+  </si>
+  <si>
+    <t>10.14.1.50</t>
+  </si>
+  <si>
+    <t>Cisco Contact Center Express(3)</t>
+  </si>
+  <si>
+    <t>Cisco VG450</t>
+  </si>
+  <si>
+    <t>FLM2611107F</t>
+  </si>
+  <si>
+    <t>USHQ1M01VGW01.na.rpchome.com</t>
+  </si>
+  <si>
+    <t>10.3.16.11</t>
+  </si>
+  <si>
+    <t>Network Device(68)</t>
+  </si>
+  <si>
     <t>Column1</t>
   </si>
   <si>
@@ -58,892 +946,22 @@
     <t>Column13</t>
   </si>
   <si>
-    <t>Make</t>
-  </si>
-  <si>
-    <t>Model</t>
-  </si>
-  <si>
-    <t>Serial Number</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Site Address</t>
-  </si>
-  <si>
-    <t>Hostname</t>
-  </si>
-  <si>
-    <t>IP Address</t>
-  </si>
-  <si>
-    <t>Operating System</t>
-  </si>
-  <si>
-    <t>Current Software</t>
-  </si>
-  <si>
-    <t>Carousel Recommended Software</t>
-  </si>
-  <si>
-    <t>Manufacture Recommended Latest Version</t>
-  </si>
-  <si>
-    <t>End of Life of End of Support</t>
-  </si>
-  <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t>Cisco Systems</t>
-  </si>
-  <si>
-    <t>FPR-2110</t>
-  </si>
-  <si>
-    <t>Firewall</t>
-  </si>
-  <si>
-    <t>USDC2 (Los Angeles California)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> USDC2A1R02FLW02</t>
-  </si>
-  <si>
-    <t>172.16.200.211</t>
-  </si>
-  <si>
-    <t>FSOX</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>USDC1 (Newark, NJ)</t>
-  </si>
-  <si>
-    <t>DC1-A2R10-FWL02</t>
-  </si>
-  <si>
-    <t>172.16.10.211</t>
-  </si>
-  <si>
-    <t>FXOS</t>
-  </si>
-  <si>
-    <t>DC1-A2R11-FWL01</t>
-  </si>
-  <si>
-    <t>172.16.10.210</t>
-  </si>
-  <si>
-    <t>DC1-A2R11-FWL03.na.rpchome.com</t>
-  </si>
-  <si>
-    <t>172.16.10.214</t>
-  </si>
-  <si>
-    <t>172.16.10.215</t>
-  </si>
-  <si>
-    <t>DMZ 2120 Primary FTD</t>
-  </si>
-  <si>
-    <t>172.16.200.210</t>
-  </si>
-  <si>
-    <t>Cisco</t>
-  </si>
-  <si>
-    <t>ASA 5516</t>
-  </si>
-  <si>
-    <t>JMX2239G11E</t>
-  </si>
-  <si>
-    <t>GBAND (Andover, UK)</t>
-  </si>
-  <si>
-    <t>GBANDM01FWL03.na.rpchome.com</t>
-  </si>
-  <si>
-    <t>10.216.40.7</t>
-  </si>
-  <si>
-    <t>ASA</t>
-  </si>
-  <si>
-    <t>9.8(4)35</t>
-  </si>
-  <si>
-    <t>ASAv</t>
-  </si>
-  <si>
-    <t>9AGD45E37KA</t>
-  </si>
-  <si>
-    <t>Mumbai</t>
-  </si>
-  <si>
-    <t>inzcifwl03.na.rpchome.com</t>
-  </si>
-  <si>
-    <t>10.81.0.200</t>
-  </si>
-  <si>
-    <t>9.12(3)12</t>
-  </si>
-  <si>
-    <t>USDC2A1R02FWL04.na.rpchome.com</t>
-  </si>
-  <si>
-    <t>172.16.200.215</t>
-  </si>
-  <si>
-    <t>172.16.200.214</t>
-  </si>
-  <si>
-    <t>Firewall(10)</t>
-  </si>
-  <si>
-    <t>ISR4331-3x1GE</t>
-  </si>
-  <si>
-    <t>FLM244110FJ</t>
-  </si>
-  <si>
-    <t>Router</t>
-  </si>
-  <si>
-    <t>CAFTE (Ft. Erie, ON)</t>
-  </si>
-  <si>
-    <t>CAFTEM01VGW01.na.rpchome.com</t>
-  </si>
-  <si>
-    <t>10.166.16.10</t>
-  </si>
-  <si>
-    <t>IOS</t>
-  </si>
-  <si>
-    <t>16.09.03</t>
-  </si>
-  <si>
-    <t>ISR4321</t>
-  </si>
-  <si>
-    <t>FLM2530109G</t>
-  </si>
-  <si>
-    <t>CAWBR(Woodbridge, ON)</t>
-  </si>
-  <si>
-    <t>CAWBRM01VGW01.na.rpchome.com</t>
-  </si>
-  <si>
-    <t>10.183.16.10</t>
-  </si>
-  <si>
-    <t>Cisco ISR4431</t>
-  </si>
-  <si>
-    <t>FJC2237A03U</t>
-  </si>
-  <si>
-    <t>GBANDM01VGW01.rich.com</t>
-  </si>
-  <si>
-    <t>10.216.40.10</t>
-  </si>
-  <si>
-    <t>16.09.08</t>
-  </si>
-  <si>
-    <t>FLM2250V0C1</t>
-  </si>
-  <si>
-    <t>USARL (Arlington, TN)</t>
-  </si>
-  <si>
-    <t>USARLM01VGW01.na.rpchome.com</t>
-  </si>
-  <si>
-    <t>10.161.40.40</t>
-  </si>
-  <si>
-    <t>V05</t>
-  </si>
-  <si>
-    <t>FLM2250V0C0</t>
-  </si>
-  <si>
-    <t>USBVL (Brownsville, TX)</t>
-  </si>
-  <si>
-    <t>USBVLM01VGW01.na.rpchome.com</t>
-  </si>
-  <si>
-    <t>10.162.40.40</t>
-  </si>
-  <si>
-    <t>FLM2250V0C9</t>
-  </si>
-  <si>
-    <t>USBWK (Brunswick, GA)</t>
-  </si>
-  <si>
-    <t>USBWKM01VGW01.na.rpchome.com</t>
-  </si>
-  <si>
-    <t>10.163.40.40</t>
-  </si>
-  <si>
-    <t>FLM2530109U</t>
-  </si>
-  <si>
-    <t>USCHK (Cheektowaga, NY)</t>
-  </si>
-  <si>
-    <t>USCHKM01VGW01.na.rpchome.com</t>
-  </si>
-  <si>
-    <t>10.191.136.132</t>
-  </si>
-  <si>
-    <t>15.1(1)T3, RELEASE SOFTWARE (fc1)</t>
-  </si>
-  <si>
-    <t>C880VOICE-UNIVERSALK9-M</t>
-  </si>
-  <si>
-    <t>FJC2036L2G0</t>
-  </si>
-  <si>
-    <t>USCRH (Crest Hill, IL)</t>
-  </si>
-  <si>
-    <t>USCRHI05VGW01.na.rpchome.com</t>
-  </si>
-  <si>
-    <t>10.164.16.11</t>
-  </si>
-  <si>
-    <t>15.4(3)M3, RELEASE SOFTWARE (fc2)</t>
-  </si>
-  <si>
-    <t>CISCO2911/K9</t>
-  </si>
-  <si>
-    <t>FTX1735A1H8</t>
-  </si>
-  <si>
-    <t>USCRHM01VGW01.na.rpchome.com</t>
-  </si>
-  <si>
-    <t>10.164.16.10</t>
-  </si>
-  <si>
-    <t>15.2(1)T4, RELEASE SOFTWARE (fc1)</t>
-  </si>
-  <si>
-    <t>FLM2243W1FL</t>
-  </si>
-  <si>
-    <t>USDC1A2R10VGW02.na.rpchome.com</t>
-  </si>
-  <si>
-    <t>172.16.10.41</t>
-  </si>
-  <si>
-    <t>03.16.04b.S.155-3.S4b-ext</t>
-  </si>
-  <si>
-    <t>FLM2243W1FN</t>
-  </si>
-  <si>
-    <t>USDC1A2R11VGW01.na.rpchome.com</t>
-  </si>
-  <si>
-    <t>172.16.10.40</t>
-  </si>
-  <si>
-    <t>FLM1946W0P2</t>
-  </si>
-  <si>
-    <t>USDC2A1R02VGW01.na.rpchome.com</t>
-  </si>
-  <si>
-    <t>172.16.200.40</t>
-  </si>
-  <si>
-    <t>FLM2250V0BZ</t>
-  </si>
-  <si>
-    <t>USEAG (Eagan, MN)</t>
-  </si>
-  <si>
-    <t>USEAGM01VGW01.na.rpchome.com</t>
-  </si>
-  <si>
-    <t>10.165.40.40</t>
-  </si>
-  <si>
-    <t>FLM243110DT</t>
-  </si>
-  <si>
-    <t>USFRI (Fridley, MN)</t>
-  </si>
-  <si>
-    <t>USFRIM01VGW01.na.rpchome.com</t>
-  </si>
-  <si>
-    <t>10.186.16.10</t>
-  </si>
-  <si>
-    <t>V06</t>
-  </si>
-  <si>
-    <t>VG3X0-UNIVERSALK9-M</t>
-  </si>
-  <si>
-    <t>FGL2431LFJJ</t>
-  </si>
-  <si>
-    <t>USFRIM01VGW02.na.rpchome.com</t>
-  </si>
-  <si>
-    <t>10.186.16.11</t>
-  </si>
-  <si>
-    <t>15.7(3)M6, RELEASE SOFTWARE (fc1)</t>
-  </si>
-  <si>
-    <t>FLM252311V3</t>
-  </si>
-  <si>
-    <t>USFTN (Fountain Inn, SC)</t>
-  </si>
-  <si>
-    <t>USFTNM01VGW01.na.rpchome.com</t>
-  </si>
-  <si>
-    <t>10.167.16.10</t>
-  </si>
-  <si>
-    <t>FLM253010A4</t>
-  </si>
-  <si>
-    <t>USGAL (Gallatin, TN)</t>
-  </si>
-  <si>
-    <t>USGALM01VGW01.na.rpchome.com</t>
-  </si>
-  <si>
-    <t>10.169.16.10</t>
-  </si>
-  <si>
-    <t>FLM251711DU</t>
-  </si>
-  <si>
-    <t>USHIL (Hilliard, OH)</t>
-  </si>
-  <si>
-    <t>USHILM01VGW01.na.rpchome.com</t>
-  </si>
-  <si>
-    <t>10.170.16.10</t>
-  </si>
-  <si>
-    <t>16.09.07</t>
-  </si>
-  <si>
-    <t>FLM243110DU</t>
-  </si>
-  <si>
-    <t>USLOD (Lodi, CA)</t>
-  </si>
-  <si>
-    <t>USLODI06VGW01.na.rpchome.com</t>
-  </si>
-  <si>
-    <t>10.185.16.10</t>
-  </si>
-  <si>
-    <t>FLM253010A5</t>
-  </si>
-  <si>
-    <t>USMC1 (Missouri City, TN)</t>
-  </si>
-  <si>
-    <t>USMC1M01VGW01.na.rpchome.com</t>
-  </si>
-  <si>
-    <t>10.171.16.10</t>
-  </si>
-  <si>
-    <t>15.1(2)T5, RELEASE SOFTWARE (fc1)</t>
-  </si>
-  <si>
-    <t>FLM2530109V</t>
-  </si>
-  <si>
-    <t>USMC2 (Missouri City, TX)</t>
-  </si>
-  <si>
-    <t>USMC2M01VGW01.na.rpchome.com</t>
-  </si>
-  <si>
-    <t>10.180.16.10</t>
-  </si>
-  <si>
-    <t>15.7(3)M3, RELEASE SOFTWARE (fc2)</t>
-  </si>
-  <si>
-    <t>FLM251711DY</t>
-  </si>
-  <si>
-    <t>USMT1 (Morristown, TN)</t>
-  </si>
-  <si>
-    <t>USMT1M01VGW01.na.rpchome.com</t>
-  </si>
-  <si>
-    <t>10.172.16.10</t>
-  </si>
-  <si>
-    <t>FLM2530109J</t>
-  </si>
-  <si>
-    <t>USMT2 (Morristown, TN)</t>
-  </si>
-  <si>
-    <t>USMT2M01VGW01.na.rpchome.com</t>
-  </si>
-  <si>
-    <t>10.173.16.10</t>
-  </si>
-  <si>
-    <t>15.2(4)M3, RELEASE SOFTWARE (fc2)</t>
-  </si>
-  <si>
-    <t>FLM2530109Q</t>
-  </si>
-  <si>
-    <t>Lakeway Freezer</t>
-  </si>
-  <si>
-    <t>USMT3M01VGW01.na.rpchome.com</t>
-  </si>
-  <si>
-    <t>10.160.16.132</t>
-  </si>
-  <si>
-    <t>15.0(1)M6, RELEASE SOFTWARE (fc1)</t>
-  </si>
-  <si>
-    <t>FLM251711E3</t>
-  </si>
-  <si>
-    <t>USMUR (Murfreesboro, TN)</t>
-  </si>
-  <si>
-    <t>USMURM01VGW01.na.rpchome.com</t>
-  </si>
-  <si>
-    <t>10.174.16.10</t>
-  </si>
-  <si>
-    <t>VG310</t>
-  </si>
-  <si>
-    <t>FJC25051854</t>
-  </si>
-  <si>
-    <t>USMURM01VGW02.na.rpchome.com</t>
-  </si>
-  <si>
-    <t>10.174.16.11</t>
-  </si>
-  <si>
-    <t>15.7(3)M8, RELEASE SOFTWARE (fc1)</t>
-  </si>
-  <si>
-    <t>VG202XM</t>
-  </si>
-  <si>
-    <t>FCH2030T0LW</t>
-  </si>
-  <si>
-    <t>USNBR (New Britain, CT)</t>
-  </si>
-  <si>
-    <t>USNBRI01VGW01.na.rpchome.com</t>
-  </si>
-  <si>
-    <t>10.175.16.11</t>
-  </si>
-  <si>
-    <t>15.3(3)M7, RELEASE SOFTWARE (fc2)</t>
-  </si>
-  <si>
-    <t>C2951-UNIVERSALK9-M</t>
-  </si>
-  <si>
-    <t>FTX1532AL3T</t>
-  </si>
-  <si>
-    <t>USNBRM01VGW01.na.rpchome.com</t>
-  </si>
-  <si>
-    <t>10.175.16.10</t>
-  </si>
-  <si>
-    <t>15.1(4)M1, RELEASE SOFTWARE (fc1)</t>
-  </si>
-  <si>
-    <t>FLM253010A3</t>
-  </si>
-  <si>
-    <t>USNIL (Niles, IL)</t>
-  </si>
-  <si>
-    <t>USNILM01VGW01.na.rpchome.com</t>
-  </si>
-  <si>
-    <t>10.176.16.10</t>
-  </si>
-  <si>
-    <t>15.0(1)M3, RELEASE SOFTWARE (fc2)</t>
-  </si>
-  <si>
-    <t>FLM253010A2</t>
-  </si>
-  <si>
-    <t>USQUE (Queens, NY)</t>
-  </si>
-  <si>
-    <t>USQUEM01VGW01.na.rpchome.com</t>
-  </si>
-  <si>
-    <t>10.160.32.132</t>
-  </si>
-  <si>
-    <t>15.1(4)M4, RELEASE SOFTWARE (fc1)</t>
-  </si>
-  <si>
-    <t>FLM2530109X</t>
-  </si>
-  <si>
-    <t>USSAA (Santa Ana, CA)</t>
-  </si>
-  <si>
-    <t>USSAAM01VGW01.na.rpchome.com</t>
-  </si>
-  <si>
-    <t>10.177.16.10</t>
-  </si>
-  <si>
-    <t>FLM2250V0BX</t>
-  </si>
-  <si>
-    <t>USSFS (Santa Fe Springs, CA)</t>
-  </si>
-  <si>
-    <t>USSFSM01VGW01.na.rpchome.com</t>
-  </si>
-  <si>
-    <t>10.178.40.40</t>
-  </si>
-  <si>
-    <t>FLM243510DY</t>
-  </si>
-  <si>
-    <t>USSPK (Spokane, WA)</t>
-  </si>
-  <si>
-    <t>USSPKM01VGW01.na.rpchome.com</t>
-  </si>
-  <si>
-    <t>10.161.144.10</t>
-  </si>
-  <si>
-    <t>FLM2250V0C7</t>
-  </si>
-  <si>
-    <t>USSSI (St. Simons, GA)</t>
-  </si>
-  <si>
-    <t>USSSIM01VGW01.na.rpchome.com</t>
-  </si>
-  <si>
-    <t>10.179.40.40</t>
-  </si>
-  <si>
-    <t>FLM2530109N</t>
-  </si>
-  <si>
-    <t>USUNC (Union City, CA)</t>
-  </si>
-  <si>
-    <t>USUNCM01VGW01.na.rpchome.com</t>
-  </si>
-  <si>
-    <t>10.181.16.10</t>
-  </si>
-  <si>
-    <t>FLM2530109L</t>
-  </si>
-  <si>
-    <t>USVNL (Vineland, NJ)</t>
-  </si>
-  <si>
-    <t>USVNLM01VGW01.na.rpchome.com</t>
-  </si>
-  <si>
-    <t>10.182.16.10</t>
-  </si>
-  <si>
-    <t>FLM252210LG</t>
-  </si>
-  <si>
-    <t>USWHL (Wheeling, IL)</t>
-  </si>
-  <si>
-    <t>USWHLM01VGW01.na.rpchome.com</t>
-  </si>
-  <si>
-    <t>10.160.40.132</t>
-  </si>
-  <si>
-    <t>15.6(2)T1, RELEASE SOFTWARE (fc1)</t>
-  </si>
-  <si>
-    <t>Router(37)</t>
-  </si>
-  <si>
-    <t>Cisco UCM</t>
-  </si>
-  <si>
-    <t>CCM01</t>
-  </si>
-  <si>
-    <t>10.14.1.30</t>
-  </si>
-  <si>
-    <t>other</t>
-  </si>
-  <si>
-    <t>ccm02</t>
-  </si>
-  <si>
-    <t>10.14.1.31</t>
-  </si>
-  <si>
-    <t>ccm03</t>
-  </si>
-  <si>
-    <t>10.75.6.100</t>
-  </si>
-  <si>
-    <t>RPIGBCUCM01</t>
-  </si>
-  <si>
-    <t>10.216.42.50</t>
-  </si>
-  <si>
-    <t>RPIGBCUCM02</t>
-  </si>
-  <si>
-    <t>10.216.42.51</t>
-  </si>
-  <si>
-    <t>Cisco UCM(5)</t>
-  </si>
-  <si>
-    <t>Cisco Unity</t>
-  </si>
-  <si>
-    <t>cuc01</t>
-  </si>
-  <si>
-    <t>10.14.1.55</t>
-  </si>
-  <si>
-    <t>cuc02</t>
-  </si>
-  <si>
-    <t>10.75.6.101</t>
-  </si>
-  <si>
-    <t>Cisco Unity(2)</t>
-  </si>
-  <si>
-    <t>Network Device</t>
-  </si>
-  <si>
-    <t>DC1 – FMC</t>
-  </si>
-  <si>
-    <t>10.70.6.15</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Catalyst 3650-48PS</t>
-  </si>
-  <si>
-    <t>FDO2036E0WG</t>
-  </si>
-  <si>
-    <t>Switch</t>
-  </si>
-  <si>
-    <t>DC1-A2R10-ASW04.rich.com</t>
-  </si>
-  <si>
-    <t>172.16.10.29</t>
-  </si>
-  <si>
-    <t>XE-IOS</t>
-  </si>
-  <si>
-    <t>Fuji 16.09.06</t>
-  </si>
-  <si>
-    <t>WS-C3850-24U-E</t>
-  </si>
-  <si>
-    <t>FOC2116U1CL</t>
-  </si>
-  <si>
-    <t>DC1-A2R11-ASW01.na.rpchome.com</t>
-  </si>
-  <si>
-    <t>172.16.10.22</t>
-  </si>
-  <si>
-    <t>FDO2119Q1N3</t>
-  </si>
-  <si>
-    <t>DC1-A2R11-PSW.rich.com</t>
-  </si>
-  <si>
-    <t>172.16.10.26</t>
-  </si>
-  <si>
-    <t>03.06.07b.E</t>
-  </si>
-  <si>
-    <t>Nexus 93240YC-FX2</t>
-  </si>
-  <si>
-    <t>FDO250319M2</t>
-  </si>
-  <si>
-    <t>USDC1A2R10CSW02.na.rpchome.com</t>
-  </si>
-  <si>
-    <t>172.16.10.7</t>
-  </si>
-  <si>
-    <t>NXOS</t>
-  </si>
-  <si>
-    <t>9.3(10)</t>
-  </si>
-  <si>
-    <t>FDO250319JV</t>
-  </si>
-  <si>
-    <t>USDC1A2R11CSW01.na.rpchome.com</t>
-  </si>
-  <si>
-    <t>172.16.10.6</t>
-  </si>
-  <si>
-    <t>FOC2107X1DK</t>
-  </si>
-  <si>
-    <t>USDC2A1R01ASW01.rich.com</t>
-  </si>
-  <si>
-    <t>172.16.200.22</t>
-  </si>
-  <si>
-    <t>Nexus 93180YC-EX</t>
-  </si>
-  <si>
-    <t>FDO2035118W</t>
-  </si>
-  <si>
-    <t>USDC2A1R01CSW01</t>
-  </si>
-  <si>
-    <t>172.16.200.7</t>
-  </si>
-  <si>
-    <t>FDO2119Q1PE</t>
-  </si>
-  <si>
-    <t>USDC2A1R01PSW01.rich.com</t>
-  </si>
-  <si>
-    <t>172.16.200.26</t>
-  </si>
-  <si>
-    <t>FDO20352BDD</t>
-  </si>
-  <si>
-    <t>USDC2A1R02CSW02</t>
-  </si>
-  <si>
-    <t>172.16.200.8</t>
-  </si>
-  <si>
-    <t>Switch(9)</t>
-  </si>
-  <si>
-    <t>Cisco Contact Center Express</t>
-  </si>
-  <si>
-    <t>rpdc2uccx02</t>
-  </si>
-  <si>
-    <t>10.75.6.102</t>
-  </si>
-  <si>
-    <t>rpigbcuc01</t>
-  </si>
-  <si>
-    <t>10.216.42.52</t>
-  </si>
-  <si>
-    <t>rpwhquccc01</t>
-  </si>
-  <si>
-    <t>10.14.1.50</t>
-  </si>
-  <si>
-    <t>Cisco Contact Center Express(3)</t>
-  </si>
-  <si>
-    <t>Cisco VG450</t>
-  </si>
-  <si>
-    <t>FLM2611107F</t>
-  </si>
-  <si>
-    <t>USHQ1M01VGW01.na.rpchome.com</t>
-  </si>
-  <si>
-    <t>10.3.16.11</t>
-  </si>
-  <si>
-    <t>Network Device(68)</t>
+    <t>Column14</t>
+  </si>
+  <si>
+    <t>Column15</t>
+  </si>
+  <si>
+    <t>Column16</t>
+  </si>
+  <si>
+    <t>Column17</t>
+  </si>
+  <si>
+    <t>Column18</t>
+  </si>
+  <si>
+    <t>Column19</t>
   </si>
 </sst>
 </file>
@@ -1017,9 +1035,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:M100" totalsRowShown="0">
-  <autoFilter ref="A2:M100"/>
-  <tableColumns count="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:S68" totalsRowCount="1">
+  <autoFilter ref="A1:S67"/>
+  <tableColumns count="19">
     <tableColumn id="1" name="Column1"/>
     <tableColumn id="2" name="Column2"/>
     <tableColumn id="3" name="Column3"/>
@@ -1033,6 +1051,12 @@
     <tableColumn id="11" name="Column11"/>
     <tableColumn id="12" name="Column12"/>
     <tableColumn id="13" name="Column13"/>
+    <tableColumn id="14" name="Column14"/>
+    <tableColumn id="15" name="Column15"/>
+    <tableColumn id="16" name="Column16"/>
+    <tableColumn id="17" name="Column17"/>
+    <tableColumn id="18" name="Column18"/>
+    <tableColumn id="19" name="Column19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1330,72 +1354,108 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:19">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
+      <c r="A1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C1" t="s">
+        <v>299</v>
+      </c>
+      <c r="D1" t="s">
+        <v>300</v>
+      </c>
+      <c r="E1" t="s">
+        <v>301</v>
+      </c>
+      <c r="F1" t="s">
+        <v>302</v>
+      </c>
+      <c r="G1" t="s">
+        <v>303</v>
+      </c>
+      <c r="H1" t="s">
+        <v>304</v>
+      </c>
+      <c r="I1" t="s">
+        <v>305</v>
+      </c>
+      <c r="J1" t="s">
+        <v>306</v>
+      </c>
+      <c r="K1" t="s">
+        <v>307</v>
+      </c>
+      <c r="L1" t="s">
+        <v>308</v>
+      </c>
+      <c r="M1" t="s">
+        <v>309</v>
+      </c>
+      <c r="N1" t="s">
+        <v>310</v>
+      </c>
+      <c r="O1" t="s">
+        <v>311</v>
+      </c>
+      <c r="P1" t="s">
+        <v>312</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>313</v>
+      </c>
+      <c r="R1" t="s">
+        <v>314</v>
+      </c>
+      <c r="S1" t="s">
+        <v>315</v>
+      </c>
     </row>
     <row r="2" spans="1:19">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:19">
       <c r="A3" s="1" t="s">
-        <v>309</v>
+        <v>296</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1418,7 +1478,7 @@
     </row>
     <row r="4" spans="1:19">
       <c r="A4" s="1" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -1441,405 +1501,405 @@
     </row>
     <row r="5" spans="1:19">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="G5" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="H5" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="I5" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="J5" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="K5" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="L5" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="M5" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:19">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="F6" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="G6" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="H6" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="I6" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="J6" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="K6" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="L6" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="M6" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:19">
       <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" t="s">
         <v>27</v>
       </c>
-      <c r="B7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" t="s">
-        <v>39</v>
-      </c>
-      <c r="G7" t="s">
-        <v>40</v>
-      </c>
       <c r="H7" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="I7" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="J7" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="K7" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="L7" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="M7" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:19">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" t="s">
         <v>29</v>
       </c>
-      <c r="E8" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" t="s">
-        <v>41</v>
-      </c>
-      <c r="G8" t="s">
-        <v>42</v>
-      </c>
       <c r="H8" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="I8" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="J8" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="K8" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="L8" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="M8" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:19">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E9" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="F9" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="G9" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H9" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="I9" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="J9" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="K9" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="L9" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="M9" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:19">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E10" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="F10" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="H10" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="I10" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="J10" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="K10" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="L10" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="M10" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:19">
       <c r="A11" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="D11" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E11" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="F11" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="G11" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="H11" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="I11" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="J11" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="K11" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="L11" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="M11" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:19">
       <c r="A12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>44</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>39</v>
+      </c>
+      <c r="I12" t="s">
         <v>46</v>
       </c>
-      <c r="B12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C12" t="s">
-        <v>55</v>
-      </c>
-      <c r="D12" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" t="s">
-        <v>56</v>
-      </c>
-      <c r="F12" t="s">
-        <v>57</v>
-      </c>
-      <c r="G12" t="s">
-        <v>58</v>
-      </c>
-      <c r="H12" t="s">
-        <v>52</v>
-      </c>
-      <c r="I12" t="s">
-        <v>59</v>
-      </c>
       <c r="J12" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="K12" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="L12" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="M12" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:19">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E13" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="F13" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="G13" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="H13" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="I13" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="J13" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="K13" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="L13" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="M13" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:19">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="D14" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E14" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="F14" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="G14" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="H14" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="I14" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="J14" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="K14" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="L14" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="M14" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:19">
       <c r="A15" s="1" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1862,1524 +1922,1524 @@
     </row>
     <row r="16" spans="1:19">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="C16" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="D16" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="E16" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="F16" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="G16" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="H16" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="I16" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="J16" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="K16" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="L16" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="M16" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="C17" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="D17" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="E17" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="F17" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="G17" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="H17" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="I17" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="J17" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="K17" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="L17" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="M17" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="C18" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="D18" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" t="s">
+        <v>36</v>
+      </c>
+      <c r="F18" t="s">
         <v>66</v>
       </c>
-      <c r="E18" t="s">
-        <v>49</v>
-      </c>
-      <c r="F18" t="s">
-        <v>79</v>
-      </c>
       <c r="G18" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="H18" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="I18" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="J18" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="K18" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="L18" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="M18" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="B19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" t="s">
+        <v>69</v>
+      </c>
+      <c r="D19" t="s">
+        <v>53</v>
+      </c>
+      <c r="E19" t="s">
+        <v>70</v>
+      </c>
+      <c r="F19" t="s">
+        <v>71</v>
+      </c>
+      <c r="G19" t="s">
         <v>72</v>
       </c>
-      <c r="C19" t="s">
-        <v>82</v>
-      </c>
-      <c r="D19" t="s">
-        <v>66</v>
-      </c>
-      <c r="E19" t="s">
-        <v>83</v>
-      </c>
-      <c r="F19" t="s">
-        <v>84</v>
-      </c>
-      <c r="G19" t="s">
-        <v>85</v>
-      </c>
       <c r="H19" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="I19" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="J19" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="K19" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="L19" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="M19" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="B20" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="C20" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="D20" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="E20" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="F20" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="G20" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="H20" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="I20" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="J20" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="K20" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="L20" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="M20" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="B21" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="C21" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D21" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="E21" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="F21" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="G21" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="H21" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="I21" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="J21" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="K21" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="L21" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="M21" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="B22" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="C22" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="D22" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="E22" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="F22" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="G22" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="H22" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="I22" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="J22" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="K22" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="L22" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="M22" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="B23" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="C23" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="D23" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="E23" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="F23" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="G23" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="H23" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="I23" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="J23" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="K23" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="L23" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="M23" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="B24" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="C24" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="D24" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="E24" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="F24" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="G24" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="H24" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="I24" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="J24" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="K24" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="L24" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="M24" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="B25" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="C25" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="D25" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="E25" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="F25" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="G25" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="H25" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="I25" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="J25" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="K25" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="L25" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="M25" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="B26" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="C26" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="D26" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="E26" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="F26" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="G26" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="H26" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="I26" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="J26" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="K26" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="L26" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="M26" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="B27" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="C27" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="D27" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="E27" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="F27" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="G27" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="H27" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="I27" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="J27" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="K27" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="L27" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="M27" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="B28" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="C28" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="D28" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="E28" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="F28" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="G28" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="H28" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="I28" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="J28" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="K28" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="L28" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="M28" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="B29" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="C29" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="D29" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="E29" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="F29" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="G29" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="H29" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="I29" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="J29" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="K29" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="L29" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="M29" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="B30" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="C30" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="D30" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="E30" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="F30" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="G30" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="H30" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="I30" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="J30" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="K30" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="L30" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="M30" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="B31" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="C31" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="D31" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="E31" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="F31" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="G31" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="H31" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="I31" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="J31" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="K31" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="L31" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="M31" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" spans="1:13">
       <c r="A32" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="B32" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="C32" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="D32" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="E32" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="F32" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="G32" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="H32" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="I32" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="J32" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="K32" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="L32" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="M32" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" spans="1:13">
       <c r="A33" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="B33" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="C33" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="D33" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="E33" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="F33" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="G33" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="H33" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="I33" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="J33" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="K33" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="L33" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="M33" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="B34" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="C34" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="D34" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="E34" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="F34" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="G34" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="H34" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="I34" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="J34" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="K34" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="L34" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="M34" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="B35" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="C35" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="D35" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="E35" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="F35" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="G35" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="H35" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="I35" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="J35" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="K35" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="L35" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="M35" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="B36" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="C36" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="D36" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="E36" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="F36" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="G36" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="H36" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="I36" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="J36" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="K36" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="L36" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="M36" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="B37" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="C37" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="D37" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="E37" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="F37" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="G37" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="H37" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="I37" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="J37" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="K37" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="L37" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="M37" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" spans="1:13">
       <c r="A38" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="B38" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="C38" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="D38" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="E38" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="F38" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="G38" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="H38" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="I38" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="J38" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="K38" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="L38" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="M38" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" spans="1:13">
       <c r="A39" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="B39" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="C39" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="D39" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="E39" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="F39" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="G39" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="H39" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="I39" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="J39" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="K39" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="L39" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="M39" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" spans="1:13">
       <c r="A40" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="B40" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="C40" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="D40" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="E40" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="F40" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="G40" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="H40" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="I40" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="J40" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="K40" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="L40" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="M40" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" spans="1:13">
       <c r="A41" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="B41" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="C41" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="D41" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="E41" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="F41" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="G41" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="H41" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="I41" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="J41" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="K41" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="L41" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="M41" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" spans="1:13">
       <c r="A42" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="B42" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="C42" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="D42" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="E42" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="F42" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="G42" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="H42" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="I42" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="J42" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="K42" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="L42" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="M42" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" spans="1:13">
       <c r="A43" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="B43" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="C43" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="D43" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="E43" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="F43" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="G43" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="H43" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="I43" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="J43" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="K43" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="L43" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="M43" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" spans="1:13">
       <c r="A44" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="B44" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="C44" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="D44" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="E44" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="F44" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="G44" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="H44" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="I44" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="J44" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="K44" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="L44" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="M44" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" spans="1:13">
       <c r="A45" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="B45" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="C45" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="D45" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="E45" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="F45" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="G45" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="H45" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="I45" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="J45" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="K45" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="L45" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="M45" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" spans="1:13">
       <c r="A46" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="B46" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="C46" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="D46" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="E46" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="F46" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="G46" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="H46" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="I46" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="J46" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="K46" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="L46" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="M46" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" spans="1:13">
       <c r="A47" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="B47" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="C47" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="D47" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="E47" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="F47" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="G47" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="H47" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="I47" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="J47" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="K47" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="L47" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="M47" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" spans="1:13">
       <c r="A48" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="B48" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="C48" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="D48" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="E48" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="F48" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="G48" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="H48" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="I48" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="J48" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="K48" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="L48" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="M48" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" spans="1:19">
       <c r="A49" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="B49" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="C49" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="D49" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="E49" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="F49" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="G49" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="H49" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="I49" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="J49" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="K49" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="L49" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="M49" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" spans="1:19">
       <c r="A50" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="B50" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="C50" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="D50" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="E50" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="F50" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="G50" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="H50" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="I50" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="J50" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="K50" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="L50" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="M50" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" spans="1:19">
       <c r="A51" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="B51" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="C51" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="D51" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="E51" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="F51" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="G51" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="H51" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="I51" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="J51" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="K51" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="L51" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="M51" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" spans="1:19">
       <c r="A52" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="B52" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="C52" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="D52" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="E52" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="F52" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
       <c r="G52" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="H52" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="I52" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="J52" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="K52" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="L52" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="M52" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" spans="1:19">
       <c r="A53" s="1" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -3402,173 +3462,173 @@
     </row>
     <row r="54" spans="1:19">
       <c r="D54" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="E54" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="F54" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="G54" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="H54" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="I54" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="J54" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="K54" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="L54" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="M54" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" spans="1:19">
       <c r="C55" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="D55" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="E55" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="F55" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="G55" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="H55" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="I55" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="J55" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="K55" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="L55" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="M55" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" spans="1:19">
       <c r="C56" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="D56" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="E56" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="F56" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="G56" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="H56" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="I56" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="J56" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="K56" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="L56" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="M56" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" spans="1:19">
       <c r="D57" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="E57" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="F57" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="G57" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="H57" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="I57" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="J57" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="K57" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="L57" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="M57" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" spans="1:19">
       <c r="D58" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="E58" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="F58" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="G58" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="H58" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="I58" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="J58" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="K58" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="L58" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="M58" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" spans="1:19">
       <c r="A59" s="1" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -3591,109 +3651,109 @@
     </row>
     <row r="60" spans="1:19">
       <c r="C60" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="D60" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="E60" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="F60" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="G60" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="H60" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="I60" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="J60" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="K60" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="L60" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="M60" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" spans="1:19">
       <c r="C61" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="D61" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="E61" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="F61" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="G61" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="H61" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="I61" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="J61" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="K61" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="L61" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="M61" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62" spans="1:19">
       <c r="D62" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="E62" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="F62" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
       <c r="G62" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="H62" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="I62" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="J62" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="K62" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="L62" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="M62" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" spans="1:19">
       <c r="A63" s="1" t="s">
-        <v>296</v>
+        <v>283</v>
       </c>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -3716,376 +3776,376 @@
     </row>
     <row r="64" spans="1:19">
       <c r="A64" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="B64" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="C64" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="D64" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="E64" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="F64" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="G64" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="H64" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="I64" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="J64" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="K64" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="L64" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="M64" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65" spans="1:19">
       <c r="A65" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="B65" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="C65" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
       <c r="D65" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="E65" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="F65" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="G65" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="H65" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="I65" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="J65" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="K65" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="L65" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="M65" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66" spans="1:19">
       <c r="A66" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="B66" t="s">
+        <v>246</v>
+      </c>
+      <c r="C66" t="s">
+        <v>257</v>
+      </c>
+      <c r="D66" t="s">
+        <v>248</v>
+      </c>
+      <c r="E66" t="s">
+        <v>22</v>
+      </c>
+      <c r="F66" t="s">
+        <v>258</v>
+      </c>
+      <c r="G66" t="s">
         <v>259</v>
       </c>
-      <c r="C66" t="s">
-        <v>270</v>
-      </c>
-      <c r="D66" t="s">
-        <v>261</v>
-      </c>
-      <c r="E66" t="s">
-        <v>35</v>
-      </c>
-      <c r="F66" t="s">
-        <v>271</v>
-      </c>
-      <c r="G66" t="s">
-        <v>272</v>
-      </c>
       <c r="H66" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="I66" t="s">
-        <v>273</v>
+        <v>260</v>
       </c>
       <c r="J66" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="K66" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="L66" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="M66" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67" spans="1:19">
       <c r="A67" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="B67" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="C67" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
       <c r="D67" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="E67" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="F67" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="G67" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="H67" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="I67" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="J67" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="K67" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="L67" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="M67" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68" spans="1:19">
       <c r="A68" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="B68" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="C68" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="D68" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="E68" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="F68" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
       <c r="G68" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="H68" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="I68" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="J68" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="K68" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="L68" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="M68" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69" spans="1:19">
       <c r="A69" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="B69" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="C69" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="D69" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="E69" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="F69" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="G69" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
       <c r="H69" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="I69" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="J69" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="K69" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="L69" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="M69" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70" spans="1:19">
       <c r="A70" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="B70" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="C70" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
       <c r="D70" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="E70" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="F70" t="s">
-        <v>288</v>
+        <v>275</v>
       </c>
       <c r="G70" t="s">
-        <v>289</v>
+        <v>276</v>
       </c>
       <c r="H70" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="I70" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="J70" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="K70" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="L70" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="M70" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="71" spans="1:19">
       <c r="A71" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="B71" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="C71" t="s">
-        <v>290</v>
+        <v>277</v>
       </c>
       <c r="D71" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="E71" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="F71" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="G71" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="H71" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="I71" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="J71" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="K71" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="L71" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="M71" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72" spans="1:19">
       <c r="A72" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="B72" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="C72" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
       <c r="D72" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="E72" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="F72" t="s">
-        <v>294</v>
+        <v>281</v>
       </c>
       <c r="G72" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
       <c r="H72" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="I72" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="J72" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="K72" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="L72" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="M72" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73" spans="1:19">
       <c r="A73" s="1" t="s">
-        <v>304</v>
+        <v>291</v>
       </c>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -4108,145 +4168,145 @@
     </row>
     <row r="74" spans="1:19">
       <c r="C74" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="D74" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
       <c r="E74" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="F74" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="G74" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="H74" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="I74" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="J74" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="K74" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="L74" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="M74" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75" spans="1:19">
       <c r="D75" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
       <c r="E75" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="F75" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
       <c r="G75" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="H75" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="I75" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="J75" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="K75" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="L75" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="M75" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="76" spans="1:19">
       <c r="C76" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="D76" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
       <c r="E76" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="F76" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="G76" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="H76" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="I76" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="J76" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="K76" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="L76" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="M76" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="77" spans="1:19">
       <c r="A77" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="B77" t="s">
-        <v>305</v>
+        <v>292</v>
       </c>
       <c r="C77" t="s">
-        <v>306</v>
+        <v>293</v>
       </c>
       <c r="D77" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="E77" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="F77" t="s">
-        <v>307</v>
+        <v>294</v>
       </c>
       <c r="G77" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
       <c r="H77" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="I77" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="J77" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="K77" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="L77" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="M77" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/Rich Products Corporation - HQ @ Buffalo, NY.xlsx
+++ b/Rich Products Corporation - HQ @ Buffalo, NY.xlsx
@@ -16,6 +16,63 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="893" uniqueCount="316">
   <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>Column2</t>
+  </si>
+  <si>
+    <t>Column3</t>
+  </si>
+  <si>
+    <t>Column4</t>
+  </si>
+  <si>
+    <t>Column5</t>
+  </si>
+  <si>
+    <t>Column6</t>
+  </si>
+  <si>
+    <t>Column7</t>
+  </si>
+  <si>
+    <t>Column8</t>
+  </si>
+  <si>
+    <t>Column9</t>
+  </si>
+  <si>
+    <t>Column10</t>
+  </si>
+  <si>
+    <t>Column11</t>
+  </si>
+  <si>
+    <t>Column12</t>
+  </si>
+  <si>
+    <t>Column13</t>
+  </si>
+  <si>
+    <t>Column14</t>
+  </si>
+  <si>
+    <t>Column15</t>
+  </si>
+  <si>
+    <t>Column16</t>
+  </si>
+  <si>
+    <t>Column17</t>
+  </si>
+  <si>
+    <t>Column18</t>
+  </si>
+  <si>
+    <t>Column19</t>
+  </si>
+  <si>
     <t>Rich Products Corporation - HQ @ Buffalo, NY</t>
   </si>
   <si>
@@ -905,63 +962,6 @@
   </si>
   <si>
     <t>Network Device(68)</t>
-  </si>
-  <si>
-    <t>Column1</t>
-  </si>
-  <si>
-    <t>Column2</t>
-  </si>
-  <si>
-    <t>Column3</t>
-  </si>
-  <si>
-    <t>Column4</t>
-  </si>
-  <si>
-    <t>Column5</t>
-  </si>
-  <si>
-    <t>Column6</t>
-  </si>
-  <si>
-    <t>Column7</t>
-  </si>
-  <si>
-    <t>Column8</t>
-  </si>
-  <si>
-    <t>Column9</t>
-  </si>
-  <si>
-    <t>Column10</t>
-  </si>
-  <si>
-    <t>Column11</t>
-  </si>
-  <si>
-    <t>Column12</t>
-  </si>
-  <si>
-    <t>Column13</t>
-  </si>
-  <si>
-    <t>Column14</t>
-  </si>
-  <si>
-    <t>Column15</t>
-  </si>
-  <si>
-    <t>Column16</t>
-  </si>
-  <si>
-    <t>Column17</t>
-  </si>
-  <si>
-    <t>Column18</t>
-  </si>
-  <si>
-    <t>Column19</t>
   </si>
 </sst>
 </file>
@@ -1035,8 +1035,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:S68" totalsRowCount="1">
-  <autoFilter ref="A1:S67"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:S78" totalsRowCount="1">
+  <autoFilter ref="A1:S77"/>
   <tableColumns count="19">
     <tableColumn id="1" name="Column1"/>
     <tableColumn id="2" name="Column2"/>
@@ -1354,108 +1354,72 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:19">
-      <c r="A1" t="s">
-        <v>297</v>
-      </c>
-      <c r="B1" t="s">
-        <v>298</v>
-      </c>
-      <c r="C1" t="s">
-        <v>299</v>
-      </c>
-      <c r="D1" t="s">
-        <v>300</v>
-      </c>
-      <c r="E1" t="s">
-        <v>301</v>
-      </c>
-      <c r="F1" t="s">
-        <v>302</v>
-      </c>
-      <c r="G1" t="s">
-        <v>303</v>
-      </c>
-      <c r="H1" t="s">
-        <v>304</v>
-      </c>
-      <c r="I1" t="s">
-        <v>305</v>
-      </c>
-      <c r="J1" t="s">
-        <v>306</v>
-      </c>
-      <c r="K1" t="s">
-        <v>307</v>
-      </c>
-      <c r="L1" t="s">
-        <v>308</v>
-      </c>
-      <c r="M1" t="s">
-        <v>309</v>
-      </c>
-      <c r="N1" t="s">
-        <v>310</v>
-      </c>
-      <c r="O1" t="s">
-        <v>311</v>
-      </c>
-      <c r="P1" t="s">
-        <v>312</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>313</v>
-      </c>
-      <c r="R1" t="s">
-        <v>314</v>
-      </c>
-      <c r="S1" t="s">
-        <v>315</v>
-      </c>
+      <c r="A1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
     </row>
     <row r="2" spans="1:19">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:19">
       <c r="A3" s="1" t="s">
-        <v>296</v>
+        <v>315</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1478,7 +1442,7 @@
     </row>
     <row r="4" spans="1:19">
       <c r="A4" s="1" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -1501,405 +1465,405 @@
     </row>
     <row r="5" spans="1:19">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="G5" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="I5" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="J5" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="K5" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="L5" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="M5" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:19">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="F6" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="G6" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="H6" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="I6" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="J6" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="K6" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="L6" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="M6" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:19">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="E7" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="F7" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="G7" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="I7" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="J7" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="K7" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="L7" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="M7" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:19">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="E8" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="F8" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="G8" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="H8" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="I8" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="J8" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="K8" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="L8" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="M8" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:19">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="E9" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="F9" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="G9" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="H9" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="I9" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="J9" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="K9" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="L9" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="M9" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:19">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="E10" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="F10" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="G10" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="H10" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="I10" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="J10" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="K10" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="L10" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="M10" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:19">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="C11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" t="s">
         <v>35</v>
       </c>
-      <c r="D11" t="s">
-        <v>16</v>
-      </c>
       <c r="E11" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="F11" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="G11" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="H11" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="I11" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="J11" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="K11" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="L11" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="M11" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:19">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="C12" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="D12" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="F12" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="H12" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="I12" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="J12" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="K12" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="L12" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="M12" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:19">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="D13" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="E13" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="F13" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="G13" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="H13" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="I13" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="J13" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="K13" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="L13" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="M13" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:19">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="C14" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="D14" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="E14" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="F14" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="G14" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="H14" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="I14" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="J14" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="K14" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="L14" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="M14" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:19">
       <c r="A15" s="1" t="s">
-        <v>222</v>
+        <v>241</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1922,1524 +1886,1524 @@
     </row>
     <row r="16" spans="1:19">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="B16" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="C16" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="D16" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="E16" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="F16" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="G16" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="H16" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="I16" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="J16" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="K16" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="L16" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="M16" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="B17" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="C17" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="D17" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="E17" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="F17" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="G17" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="H17" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="I17" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="J17" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="K17" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="L17" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="M17" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="B18" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="C18" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="D18" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="E18" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="F18" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="G18" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="H18" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="I18" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="J18" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="K18" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="L18" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="M18" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="B19" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="C19" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="D19" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="E19" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="F19" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="G19" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="H19" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="I19" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="J19" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="K19" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="L19" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="M19" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="B20" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="C20" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="D20" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="E20" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="F20" t="s">
+        <v>95</v>
+      </c>
+      <c r="G20" t="s">
+        <v>96</v>
+      </c>
+      <c r="H20" t="s">
         <v>76</v>
       </c>
-      <c r="G20" t="s">
-        <v>77</v>
-      </c>
-      <c r="H20" t="s">
-        <v>57</v>
-      </c>
       <c r="I20" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="J20" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="K20" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="L20" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="M20" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="B21" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="C21" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="D21" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="E21" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="F21" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="G21" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="H21" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="I21" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="J21" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="K21" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="L21" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="M21" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="B22" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="C22" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="D22" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="E22" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="F22" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="G22" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="H22" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="I22" t="s">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="J22" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="K22" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="L22" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="M22" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="B23" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="C23" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="D23" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="E23" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="F23" t="s">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="G23" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="H23" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="I23" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="J23" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="K23" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="L23" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="M23" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="B24" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="C24" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="D24" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="E24" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="F24" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="G24" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="H24" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="I24" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="J24" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="K24" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="L24" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="M24" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="B25" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="C25" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="D25" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="E25" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="F25" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="G25" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="H25" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="I25" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="J25" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="K25" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="L25" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="M25" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="B26" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="C26" t="s">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="D26" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="E26" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="F26" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
       <c r="G26" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="H26" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="I26" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="J26" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="K26" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="L26" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="M26" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="B27" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="C27" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="D27" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="E27" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="F27" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="G27" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="H27" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="I27" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="J27" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="K27" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="L27" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="M27" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="B28" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="C28" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="D28" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="E28" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="F28" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="G28" t="s">
-        <v>111</v>
+        <v>130</v>
       </c>
       <c r="H28" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="I28" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="J28" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="K28" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="L28" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="M28" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="B29" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="C29" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="D29" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="E29" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="F29" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="G29" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="H29" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="I29" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="J29" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="K29" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="L29" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="M29" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="C30" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="D30" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="E30" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="F30" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="G30" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="H30" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="I30" t="s">
-        <v>121</v>
+        <v>140</v>
       </c>
       <c r="J30" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="K30" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="L30" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="M30" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="B31" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="C31" t="s">
-        <v>122</v>
+        <v>141</v>
       </c>
       <c r="D31" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="E31" t="s">
-        <v>123</v>
+        <v>142</v>
       </c>
       <c r="F31" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="G31" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
       <c r="H31" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="I31" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="J31" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="K31" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="L31" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="M31" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:13">
       <c r="A32" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="C32" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
       <c r="D32" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="E32" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
       <c r="F32" t="s">
-        <v>128</v>
+        <v>147</v>
       </c>
       <c r="G32" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
       <c r="H32" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="I32" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="J32" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="K32" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="L32" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="M32" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:13">
       <c r="A33" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="C33" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
       <c r="D33" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="E33" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
       <c r="F33" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
       <c r="G33" t="s">
-        <v>133</v>
+        <v>152</v>
       </c>
       <c r="H33" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="I33" t="s">
-        <v>134</v>
+        <v>153</v>
       </c>
       <c r="J33" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="K33" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="L33" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="M33" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="C34" t="s">
+        <v>154</v>
+      </c>
+      <c r="D34" t="s">
+        <v>72</v>
+      </c>
+      <c r="E34" t="s">
+        <v>155</v>
+      </c>
+      <c r="F34" t="s">
+        <v>156</v>
+      </c>
+      <c r="G34" t="s">
+        <v>157</v>
+      </c>
+      <c r="H34" t="s">
+        <v>76</v>
+      </c>
+      <c r="I34" t="s">
         <v>135</v>
       </c>
-      <c r="D34" t="s">
-        <v>53</v>
-      </c>
-      <c r="E34" t="s">
-        <v>136</v>
-      </c>
-      <c r="F34" t="s">
-        <v>137</v>
-      </c>
-      <c r="G34" t="s">
-        <v>138</v>
-      </c>
-      <c r="H34" t="s">
-        <v>57</v>
-      </c>
-      <c r="I34" t="s">
-        <v>116</v>
-      </c>
       <c r="J34" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="K34" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="L34" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="M34" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="C35" t="s">
-        <v>139</v>
+        <v>158</v>
       </c>
       <c r="D35" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="E35" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
       <c r="F35" t="s">
-        <v>141</v>
+        <v>160</v>
       </c>
       <c r="G35" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
       <c r="H35" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="I35" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c r="J35" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="K35" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="L35" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="M35" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="B36" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="C36" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="D36" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="E36" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="F36" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="G36" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="H36" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="I36" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="J36" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="K36" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="L36" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="M36" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="B37" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="C37" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="D37" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="E37" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="F37" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="G37" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="H37" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="I37" t="s">
-        <v>134</v>
+        <v>153</v>
       </c>
       <c r="J37" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="K37" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="L37" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="M37" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
     <row r="38" spans="1:13">
       <c r="A38" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="B38" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="C38" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="D38" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="E38" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="F38" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="G38" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="H38" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="I38" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="J38" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="K38" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="L38" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="M38" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39" spans="1:13">
       <c r="A39" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="B39" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="C39" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="D39" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="E39" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="F39" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="G39" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="H39" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="I39" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="J39" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="K39" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="L39" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="M39" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
     <row r="40" spans="1:13">
       <c r="A40" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="B40" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="C40" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="D40" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="E40" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="F40" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="G40" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="H40" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="I40" t="s">
-        <v>134</v>
+        <v>153</v>
       </c>
       <c r="J40" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="K40" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="L40" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="M40" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
     <row r="41" spans="1:13">
       <c r="A41" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="B41" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="C41" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="D41" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="E41" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="F41" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="G41" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="H41" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="I41" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="J41" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="K41" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="L41" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="M41" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:13">
       <c r="A42" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="B42" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="C42" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="D42" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="E42" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="F42" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="G42" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="H42" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="I42" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="J42" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="K42" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="L42" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="M42" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
     <row r="43" spans="1:13">
       <c r="A43" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="B43" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="C43" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="D43" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="E43" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="F43" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="G43" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="H43" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="I43" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="J43" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="K43" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="L43" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="M43" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
     <row r="44" spans="1:13">
       <c r="A44" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="B44" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="C44" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="D44" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="E44" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="F44" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="G44" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="H44" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="I44" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="J44" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="K44" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="L44" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="M44" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
     <row r="45" spans="1:13">
       <c r="A45" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="B45" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="C45" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="D45" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="E45" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="F45" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="G45" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="H45" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="I45" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="J45" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="K45" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="L45" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="M45" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
     <row r="46" spans="1:13">
       <c r="A46" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="B46" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="C46" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
       <c r="D46" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="E46" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="F46" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="G46" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="H46" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="I46" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="J46" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="K46" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="L46" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="M46" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
     <row r="47" spans="1:13">
       <c r="A47" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="B47" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="C47" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="D47" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="E47" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="F47" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="G47" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="H47" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="I47" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="J47" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="K47" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="L47" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="M47" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
     <row r="48" spans="1:13">
       <c r="A48" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="B48" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="C48" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="D48" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="E48" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="F48" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="G48" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="H48" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="I48" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="J48" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="K48" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="L48" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="M48" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
     <row r="49" spans="1:19">
       <c r="A49" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="B49" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="C49" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="D49" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="E49" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="F49" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="G49" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="H49" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="I49" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="J49" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="K49" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="L49" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="M49" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
     <row r="50" spans="1:19">
       <c r="A50" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="B50" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="C50" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
       <c r="D50" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="E50" t="s">
-        <v>210</v>
+        <v>229</v>
       </c>
       <c r="F50" t="s">
+        <v>230</v>
+      </c>
+      <c r="G50" t="s">
+        <v>231</v>
+      </c>
+      <c r="H50" t="s">
+        <v>76</v>
+      </c>
+      <c r="I50" t="s">
         <v>211</v>
       </c>
-      <c r="G50" t="s">
-        <v>212</v>
-      </c>
-      <c r="H50" t="s">
-        <v>57</v>
-      </c>
-      <c r="I50" t="s">
-        <v>192</v>
-      </c>
       <c r="J50" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="K50" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="L50" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="M50" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
     <row r="51" spans="1:19">
       <c r="A51" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="B51" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="C51" t="s">
-        <v>213</v>
+        <v>232</v>
       </c>
       <c r="D51" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="E51" t="s">
-        <v>214</v>
+        <v>233</v>
       </c>
       <c r="F51" t="s">
-        <v>215</v>
+        <v>234</v>
       </c>
       <c r="G51" t="s">
-        <v>216</v>
+        <v>235</v>
       </c>
       <c r="H51" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="I51" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="J51" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="K51" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="L51" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="M51" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
     <row r="52" spans="1:19">
       <c r="A52" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="B52" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="C52" t="s">
-        <v>217</v>
+        <v>236</v>
       </c>
       <c r="D52" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="E52" t="s">
-        <v>218</v>
+        <v>237</v>
       </c>
       <c r="F52" t="s">
-        <v>219</v>
+        <v>238</v>
       </c>
       <c r="G52" t="s">
-        <v>220</v>
+        <v>239</v>
       </c>
       <c r="H52" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="I52" t="s">
-        <v>221</v>
+        <v>240</v>
       </c>
       <c r="J52" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="K52" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="L52" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="M52" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
     <row r="53" spans="1:19">
       <c r="A53" s="1" t="s">
-        <v>235</v>
+        <v>254</v>
       </c>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -3462,173 +3426,173 @@
     </row>
     <row r="54" spans="1:19">
       <c r="D54" t="s">
-        <v>223</v>
+        <v>242</v>
       </c>
       <c r="E54" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="F54" t="s">
-        <v>224</v>
+        <v>243</v>
       </c>
       <c r="G54" t="s">
-        <v>225</v>
+        <v>244</v>
       </c>
       <c r="H54" t="s">
-        <v>226</v>
+        <v>245</v>
       </c>
       <c r="I54" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="J54" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="K54" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="L54" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="M54" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
     <row r="55" spans="1:19">
       <c r="C55" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="D55" t="s">
-        <v>223</v>
+        <v>242</v>
       </c>
       <c r="E55" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="F55" t="s">
-        <v>227</v>
+        <v>246</v>
       </c>
       <c r="G55" t="s">
-        <v>228</v>
+        <v>247</v>
       </c>
       <c r="H55" t="s">
-        <v>226</v>
+        <v>245</v>
       </c>
       <c r="I55" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="J55" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="K55" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="L55" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="M55" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
     <row r="56" spans="1:19">
       <c r="C56" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="D56" t="s">
-        <v>223</v>
+        <v>242</v>
       </c>
       <c r="E56" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="F56" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="G56" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="H56" t="s">
-        <v>226</v>
+        <v>245</v>
       </c>
       <c r="I56" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="J56" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="K56" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="L56" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="M56" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
     <row r="57" spans="1:19">
       <c r="D57" t="s">
-        <v>223</v>
+        <v>242</v>
       </c>
       <c r="E57" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="F57" t="s">
-        <v>231</v>
+        <v>250</v>
       </c>
       <c r="G57" t="s">
-        <v>232</v>
+        <v>251</v>
       </c>
       <c r="H57" t="s">
-        <v>226</v>
+        <v>245</v>
       </c>
       <c r="I57" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="J57" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="K57" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="L57" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="M57" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
     <row r="58" spans="1:19">
       <c r="D58" t="s">
-        <v>223</v>
+        <v>242</v>
       </c>
       <c r="E58" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="F58" t="s">
-        <v>233</v>
+        <v>252</v>
       </c>
       <c r="G58" t="s">
-        <v>234</v>
+        <v>253</v>
       </c>
       <c r="H58" t="s">
-        <v>226</v>
+        <v>245</v>
       </c>
       <c r="I58" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="J58" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="K58" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="L58" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="M58" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
     <row r="59" spans="1:19">
       <c r="A59" s="1" t="s">
-        <v>241</v>
+        <v>260</v>
       </c>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -3651,109 +3615,109 @@
     </row>
     <row r="60" spans="1:19">
       <c r="C60" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="D60" t="s">
-        <v>236</v>
+        <v>255</v>
       </c>
       <c r="E60" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="F60" t="s">
-        <v>237</v>
+        <v>256</v>
       </c>
       <c r="G60" t="s">
-        <v>238</v>
+        <v>257</v>
       </c>
       <c r="H60" t="s">
-        <v>226</v>
+        <v>245</v>
       </c>
       <c r="I60" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="J60" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="K60" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="L60" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="M60" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
     <row r="61" spans="1:19">
       <c r="C61" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="D61" t="s">
-        <v>236</v>
+        <v>255</v>
       </c>
       <c r="E61" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="F61" t="s">
-        <v>239</v>
+        <v>258</v>
       </c>
       <c r="G61" t="s">
-        <v>240</v>
+        <v>259</v>
       </c>
       <c r="H61" t="s">
-        <v>226</v>
+        <v>245</v>
       </c>
       <c r="I61" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="J61" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="K61" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="L61" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="M61" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
     <row r="62" spans="1:19">
       <c r="D62" t="s">
-        <v>242</v>
+        <v>261</v>
       </c>
       <c r="E62" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="F62" t="s">
-        <v>243</v>
+        <v>262</v>
       </c>
       <c r="G62" t="s">
-        <v>244</v>
+        <v>263</v>
       </c>
       <c r="H62" t="s">
-        <v>245</v>
+        <v>264</v>
       </c>
       <c r="I62" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="J62" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="K62" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="L62" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="M62" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
     <row r="63" spans="1:19">
       <c r="A63" s="1" t="s">
-        <v>283</v>
+        <v>302</v>
       </c>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -3776,376 +3740,376 @@
     </row>
     <row r="64" spans="1:19">
       <c r="A64" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="B64" t="s">
-        <v>246</v>
+        <v>265</v>
       </c>
       <c r="C64" t="s">
-        <v>247</v>
+        <v>266</v>
       </c>
       <c r="D64" t="s">
-        <v>248</v>
+        <v>267</v>
       </c>
       <c r="E64" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="F64" t="s">
-        <v>249</v>
+        <v>268</v>
       </c>
       <c r="G64" t="s">
-        <v>250</v>
+        <v>269</v>
       </c>
       <c r="H64" t="s">
-        <v>251</v>
+        <v>270</v>
       </c>
       <c r="I64" t="s">
-        <v>252</v>
+        <v>271</v>
       </c>
       <c r="J64" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="K64" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="L64" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="M64" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
     <row r="65" spans="1:19">
       <c r="A65" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="B65" t="s">
-        <v>253</v>
+        <v>272</v>
       </c>
       <c r="C65" t="s">
-        <v>254</v>
+        <v>273</v>
       </c>
       <c r="D65" t="s">
-        <v>248</v>
+        <v>267</v>
       </c>
       <c r="E65" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="F65" t="s">
-        <v>255</v>
+        <v>274</v>
       </c>
       <c r="G65" t="s">
-        <v>256</v>
+        <v>275</v>
       </c>
       <c r="H65" t="s">
-        <v>251</v>
+        <v>270</v>
       </c>
       <c r="I65" t="s">
-        <v>252</v>
+        <v>271</v>
       </c>
       <c r="J65" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="K65" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="L65" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="M65" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
     <row r="66" spans="1:19">
       <c r="A66" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="B66" t="s">
-        <v>246</v>
+        <v>265</v>
       </c>
       <c r="C66" t="s">
-        <v>257</v>
+        <v>276</v>
       </c>
       <c r="D66" t="s">
-        <v>248</v>
+        <v>267</v>
       </c>
       <c r="E66" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="F66" t="s">
-        <v>258</v>
+        <v>277</v>
       </c>
       <c r="G66" t="s">
-        <v>259</v>
+        <v>278</v>
       </c>
       <c r="H66" t="s">
-        <v>251</v>
+        <v>270</v>
       </c>
       <c r="I66" t="s">
-        <v>260</v>
+        <v>279</v>
       </c>
       <c r="J66" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="K66" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="L66" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="M66" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
     <row r="67" spans="1:19">
       <c r="A67" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="B67" t="s">
-        <v>261</v>
+        <v>280</v>
       </c>
       <c r="C67" t="s">
-        <v>262</v>
+        <v>281</v>
       </c>
       <c r="D67" t="s">
-        <v>248</v>
+        <v>267</v>
       </c>
       <c r="E67" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="F67" t="s">
-        <v>263</v>
+        <v>282</v>
       </c>
       <c r="G67" t="s">
-        <v>264</v>
+        <v>283</v>
       </c>
       <c r="H67" t="s">
-        <v>265</v>
+        <v>284</v>
       </c>
       <c r="I67" t="s">
-        <v>266</v>
+        <v>285</v>
       </c>
       <c r="J67" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="K67" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="L67" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="M67" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
     <row r="68" spans="1:19">
       <c r="A68" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="B68" t="s">
-        <v>261</v>
+        <v>280</v>
       </c>
       <c r="C68" t="s">
+        <v>286</v>
+      </c>
+      <c r="D68" t="s">
         <v>267</v>
       </c>
-      <c r="D68" t="s">
-        <v>248</v>
-      </c>
       <c r="E68" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="F68" t="s">
-        <v>268</v>
+        <v>287</v>
       </c>
       <c r="G68" t="s">
-        <v>269</v>
+        <v>288</v>
       </c>
       <c r="H68" t="s">
-        <v>265</v>
+        <v>284</v>
       </c>
       <c r="I68" t="s">
-        <v>266</v>
+        <v>285</v>
       </c>
       <c r="J68" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="K68" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="L68" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="M68" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
     <row r="69" spans="1:19">
       <c r="A69" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="B69" t="s">
-        <v>253</v>
+        <v>272</v>
       </c>
       <c r="C69" t="s">
+        <v>289</v>
+      </c>
+      <c r="D69" t="s">
+        <v>267</v>
+      </c>
+      <c r="E69" t="s">
+        <v>36</v>
+      </c>
+      <c r="F69" t="s">
+        <v>290</v>
+      </c>
+      <c r="G69" t="s">
+        <v>291</v>
+      </c>
+      <c r="H69" t="s">
         <v>270</v>
       </c>
-      <c r="D69" t="s">
-        <v>248</v>
-      </c>
-      <c r="E69" t="s">
-        <v>17</v>
-      </c>
-      <c r="F69" t="s">
+      <c r="I69" t="s">
         <v>271</v>
       </c>
-      <c r="G69" t="s">
-        <v>272</v>
-      </c>
-      <c r="H69" t="s">
-        <v>251</v>
-      </c>
-      <c r="I69" t="s">
-        <v>252</v>
-      </c>
       <c r="J69" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="K69" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="L69" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="M69" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
     <row r="70" spans="1:19">
       <c r="A70" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="B70" t="s">
-        <v>273</v>
+        <v>292</v>
       </c>
       <c r="C70" t="s">
-        <v>274</v>
+        <v>293</v>
       </c>
       <c r="D70" t="s">
-        <v>248</v>
+        <v>267</v>
       </c>
       <c r="E70" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="F70" t="s">
-        <v>275</v>
+        <v>294</v>
       </c>
       <c r="G70" t="s">
-        <v>276</v>
+        <v>295</v>
       </c>
       <c r="H70" t="s">
-        <v>265</v>
+        <v>284</v>
       </c>
       <c r="I70" t="s">
-        <v>266</v>
+        <v>285</v>
       </c>
       <c r="J70" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="K70" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="L70" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="M70" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
     <row r="71" spans="1:19">
       <c r="A71" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="B71" t="s">
-        <v>246</v>
+        <v>265</v>
       </c>
       <c r="C71" t="s">
-        <v>277</v>
+        <v>296</v>
       </c>
       <c r="D71" t="s">
-        <v>248</v>
+        <v>267</v>
       </c>
       <c r="E71" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="F71" t="s">
-        <v>278</v>
+        <v>297</v>
       </c>
       <c r="G71" t="s">
-        <v>279</v>
+        <v>298</v>
       </c>
       <c r="H71" t="s">
-        <v>251</v>
+        <v>270</v>
       </c>
       <c r="I71" t="s">
-        <v>252</v>
+        <v>271</v>
       </c>
       <c r="J71" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="K71" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="L71" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="M71" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
     <row r="72" spans="1:19">
       <c r="A72" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="B72" t="s">
-        <v>273</v>
+        <v>292</v>
       </c>
       <c r="C72" t="s">
-        <v>280</v>
+        <v>299</v>
       </c>
       <c r="D72" t="s">
-        <v>248</v>
+        <v>267</v>
       </c>
       <c r="E72" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="F72" t="s">
-        <v>281</v>
+        <v>300</v>
       </c>
       <c r="G72" t="s">
-        <v>282</v>
+        <v>301</v>
       </c>
       <c r="H72" t="s">
-        <v>265</v>
+        <v>284</v>
       </c>
       <c r="I72" t="s">
-        <v>266</v>
+        <v>285</v>
       </c>
       <c r="J72" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="K72" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="L72" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="M72" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
     <row r="73" spans="1:19">
       <c r="A73" s="1" t="s">
-        <v>291</v>
+        <v>310</v>
       </c>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -4168,145 +4132,145 @@
     </row>
     <row r="74" spans="1:19">
       <c r="C74" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="D74" t="s">
-        <v>284</v>
+        <v>303</v>
       </c>
       <c r="E74" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="F74" t="s">
-        <v>285</v>
+        <v>304</v>
       </c>
       <c r="G74" t="s">
-        <v>286</v>
+        <v>305</v>
       </c>
       <c r="H74" t="s">
-        <v>226</v>
+        <v>245</v>
       </c>
       <c r="I74" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="J74" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="K74" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="L74" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="M74" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
     <row r="75" spans="1:19">
       <c r="D75" t="s">
-        <v>284</v>
+        <v>303</v>
       </c>
       <c r="E75" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="F75" t="s">
-        <v>287</v>
+        <v>306</v>
       </c>
       <c r="G75" t="s">
-        <v>288</v>
+        <v>307</v>
       </c>
       <c r="H75" t="s">
-        <v>226</v>
+        <v>245</v>
       </c>
       <c r="I75" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="J75" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="K75" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="L75" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="M75" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
     <row r="76" spans="1:19">
       <c r="C76" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="D76" t="s">
-        <v>284</v>
+        <v>303</v>
       </c>
       <c r="E76" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="F76" t="s">
-        <v>289</v>
+        <v>308</v>
       </c>
       <c r="G76" t="s">
-        <v>290</v>
+        <v>309</v>
       </c>
       <c r="H76" t="s">
-        <v>226</v>
+        <v>245</v>
       </c>
       <c r="I76" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="J76" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="K76" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="L76" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="M76" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
     <row r="77" spans="1:19">
       <c r="A77" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="B77" t="s">
-        <v>292</v>
+        <v>311</v>
       </c>
       <c r="C77" t="s">
-        <v>293</v>
+        <v>312</v>
       </c>
       <c r="D77" t="s">
-        <v>242</v>
+        <v>261</v>
       </c>
       <c r="E77" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="F77" t="s">
-        <v>294</v>
+        <v>313</v>
       </c>
       <c r="G77" t="s">
-        <v>295</v>
+        <v>314</v>
       </c>
       <c r="H77" t="s">
-        <v>251</v>
+        <v>270</v>
       </c>
       <c r="I77" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="J77" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="K77" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="L77" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="M77" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/Rich Products Corporation - HQ @ Buffalo, NY.xlsx
+++ b/Rich Products Corporation - HQ @ Buffalo, NY.xlsx
@@ -968,16 +968,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -993,7 +985,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1001,30 +993,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1354,114 +1328,114 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:19">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="2" spans="1:19">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" t="s">
         <v>30</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" t="s">
         <v>31</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:19">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>315</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
     </row>
     <row r="4" spans="1:19">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>69</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
     </row>
     <row r="5" spans="1:19">
       <c r="A5" t="s">
@@ -1862,27 +1836,9 @@
       </c>
     </row>
     <row r="15" spans="1:19">
-      <c r="A15" s="1" t="s">
+      <c r="A15" t="s">
         <v>241</v>
       </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="1"/>
-      <c r="S15" s="1"/>
     </row>
     <row r="16" spans="1:19">
       <c r="A16" t="s">
@@ -3237,7 +3193,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="49" spans="1:19">
+    <row r="49" spans="1:13">
       <c r="A49" t="s">
         <v>33</v>
       </c>
@@ -3278,7 +3234,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="50" spans="1:19">
+    <row r="50" spans="1:13">
       <c r="A50" t="s">
         <v>33</v>
       </c>
@@ -3319,7 +3275,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="51" spans="1:19">
+    <row r="51" spans="1:13">
       <c r="A51" t="s">
         <v>33</v>
       </c>
@@ -3360,7 +3316,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="52" spans="1:19">
+    <row r="52" spans="1:13">
       <c r="A52" t="s">
         <v>33</v>
       </c>
@@ -3401,30 +3357,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="53" spans="1:19">
-      <c r="A53" s="1" t="s">
+    <row r="53" spans="1:13">
+      <c r="A53" t="s">
         <v>254</v>
       </c>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
-      <c r="G53" s="1"/>
-      <c r="H53" s="1"/>
-      <c r="I53" s="1"/>
-      <c r="J53" s="1"/>
-      <c r="K53" s="1"/>
-      <c r="L53" s="1"/>
-      <c r="M53" s="1"/>
-      <c r="N53" s="1"/>
-      <c r="O53" s="1"/>
-      <c r="P53" s="1"/>
-      <c r="Q53" s="1"/>
-      <c r="R53" s="1"/>
-      <c r="S53" s="1"/>
-    </row>
-    <row r="54" spans="1:19">
+    </row>
+    <row r="54" spans="1:13">
       <c r="D54" t="s">
         <v>242</v>
       </c>
@@ -3456,7 +3394,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="55" spans="1:19">
+    <row r="55" spans="1:13">
       <c r="C55" t="s">
         <v>40</v>
       </c>
@@ -3491,7 +3429,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="56" spans="1:19">
+    <row r="56" spans="1:13">
       <c r="C56" t="s">
         <v>40</v>
       </c>
@@ -3526,7 +3464,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="57" spans="1:19">
+    <row r="57" spans="1:13">
       <c r="D57" t="s">
         <v>242</v>
       </c>
@@ -3558,7 +3496,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="58" spans="1:19">
+    <row r="58" spans="1:13">
       <c r="D58" t="s">
         <v>242</v>
       </c>
@@ -3590,30 +3528,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="59" spans="1:19">
-      <c r="A59" s="1" t="s">
+    <row r="59" spans="1:13">
+      <c r="A59" t="s">
         <v>260</v>
       </c>
-      <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
-      <c r="F59" s="1"/>
-      <c r="G59" s="1"/>
-      <c r="H59" s="1"/>
-      <c r="I59" s="1"/>
-      <c r="J59" s="1"/>
-      <c r="K59" s="1"/>
-      <c r="L59" s="1"/>
-      <c r="M59" s="1"/>
-      <c r="N59" s="1"/>
-      <c r="O59" s="1"/>
-      <c r="P59" s="1"/>
-      <c r="Q59" s="1"/>
-      <c r="R59" s="1"/>
-      <c r="S59" s="1"/>
-    </row>
-    <row r="60" spans="1:19">
+    </row>
+    <row r="60" spans="1:13">
       <c r="C60" t="s">
         <v>40</v>
       </c>
@@ -3648,7 +3568,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="61" spans="1:19">
+    <row r="61" spans="1:13">
       <c r="C61" t="s">
         <v>40</v>
       </c>
@@ -3683,7 +3603,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="62" spans="1:19">
+    <row r="62" spans="1:13">
       <c r="D62" t="s">
         <v>261</v>
       </c>
@@ -3715,30 +3635,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="63" spans="1:19">
-      <c r="A63" s="1" t="s">
+    <row r="63" spans="1:13">
+      <c r="A63" t="s">
         <v>302</v>
       </c>
-      <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
-      <c r="F63" s="1"/>
-      <c r="G63" s="1"/>
-      <c r="H63" s="1"/>
-      <c r="I63" s="1"/>
-      <c r="J63" s="1"/>
-      <c r="K63" s="1"/>
-      <c r="L63" s="1"/>
-      <c r="M63" s="1"/>
-      <c r="N63" s="1"/>
-      <c r="O63" s="1"/>
-      <c r="P63" s="1"/>
-      <c r="Q63" s="1"/>
-      <c r="R63" s="1"/>
-      <c r="S63" s="1"/>
-    </row>
-    <row r="64" spans="1:19">
+    </row>
+    <row r="64" spans="1:13">
       <c r="A64" t="s">
         <v>52</v>
       </c>
@@ -3779,7 +3681,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="65" spans="1:19">
+    <row r="65" spans="1:13">
       <c r="A65" t="s">
         <v>52</v>
       </c>
@@ -3820,7 +3722,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="66" spans="1:19">
+    <row r="66" spans="1:13">
       <c r="A66" t="s">
         <v>52</v>
       </c>
@@ -3861,7 +3763,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="67" spans="1:19">
+    <row r="67" spans="1:13">
       <c r="A67" t="s">
         <v>52</v>
       </c>
@@ -3902,7 +3804,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="68" spans="1:19">
+    <row r="68" spans="1:13">
       <c r="A68" t="s">
         <v>52</v>
       </c>
@@ -3943,7 +3845,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="69" spans="1:19">
+    <row r="69" spans="1:13">
       <c r="A69" t="s">
         <v>52</v>
       </c>
@@ -3984,7 +3886,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="70" spans="1:19">
+    <row r="70" spans="1:13">
       <c r="A70" t="s">
         <v>52</v>
       </c>
@@ -4025,7 +3927,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="71" spans="1:19">
+    <row r="71" spans="1:13">
       <c r="A71" t="s">
         <v>52</v>
       </c>
@@ -4066,7 +3968,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="72" spans="1:19">
+    <row r="72" spans="1:13">
       <c r="A72" t="s">
         <v>52</v>
       </c>
@@ -4107,30 +4009,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="73" spans="1:19">
-      <c r="A73" s="1" t="s">
+    <row r="73" spans="1:13">
+      <c r="A73" t="s">
         <v>310</v>
       </c>
-      <c r="B73" s="1"/>
-      <c r="C73" s="1"/>
-      <c r="D73" s="1"/>
-      <c r="E73" s="1"/>
-      <c r="F73" s="1"/>
-      <c r="G73" s="1"/>
-      <c r="H73" s="1"/>
-      <c r="I73" s="1"/>
-      <c r="J73" s="1"/>
-      <c r="K73" s="1"/>
-      <c r="L73" s="1"/>
-      <c r="M73" s="1"/>
-      <c r="N73" s="1"/>
-      <c r="O73" s="1"/>
-      <c r="P73" s="1"/>
-      <c r="Q73" s="1"/>
-      <c r="R73" s="1"/>
-      <c r="S73" s="1"/>
-    </row>
-    <row r="74" spans="1:19">
+    </row>
+    <row r="74" spans="1:13">
       <c r="C74" t="s">
         <v>40</v>
       </c>
@@ -4165,7 +4049,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="75" spans="1:19">
+    <row r="75" spans="1:13">
       <c r="D75" t="s">
         <v>303</v>
       </c>
@@ -4197,7 +4081,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="76" spans="1:19">
+    <row r="76" spans="1:13">
       <c r="C76" t="s">
         <v>40</v>
       </c>
@@ -4232,7 +4116,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="77" spans="1:19">
+    <row r="77" spans="1:13">
       <c r="A77" t="s">
         <v>52</v>
       </c>

--- a/Rich Products Corporation - HQ @ Buffalo, NY.xlsx
+++ b/Rich Products Corporation - HQ @ Buffalo, NY.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="893" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="887" uniqueCount="310">
   <si>
     <t>Column1</t>
   </si>
@@ -53,24 +53,6 @@
   </si>
   <si>
     <t>Column13</t>
-  </si>
-  <si>
-    <t>Column14</t>
-  </si>
-  <si>
-    <t>Column15</t>
-  </si>
-  <si>
-    <t>Column16</t>
-  </si>
-  <si>
-    <t>Column17</t>
-  </si>
-  <si>
-    <t>Column18</t>
-  </si>
-  <si>
-    <t>Column19</t>
   </si>
   <si>
     <t>Rich Products Corporation - HQ @ Buffalo, NY</t>
@@ -1009,9 +991,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:S78" totalsRowCount="1">
-  <autoFilter ref="A1:S77"/>
-  <tableColumns count="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:M78" totalsRowCount="1">
+  <autoFilter ref="A2:M77"/>
+  <tableColumns count="13">
     <tableColumn id="1" name="Column1"/>
     <tableColumn id="2" name="Column2"/>
     <tableColumn id="3" name="Column3"/>
@@ -1025,12 +1007,6 @@
     <tableColumn id="11" name="Column11"/>
     <tableColumn id="12" name="Column12"/>
     <tableColumn id="13" name="Column13"/>
-    <tableColumn id="14" name="Column14"/>
-    <tableColumn id="15" name="Column15"/>
-    <tableColumn id="16" name="Column16"/>
-    <tableColumn id="17" name="Column17"/>
-    <tableColumn id="18" name="Column18"/>
-    <tableColumn id="19" name="Column19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1321,2852 +1297,2798 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S77"/>
+  <dimension ref="A1:M77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
         <v>19</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19">
-      <c r="A2" t="s">
+      <c r="G2" t="s">
         <v>20</v>
       </c>
-      <c r="B2" t="s">
+      <c r="H2" t="s">
         <v>21</v>
       </c>
-      <c r="C2" t="s">
+      <c r="I2" t="s">
         <v>22</v>
       </c>
-      <c r="D2" t="s">
+      <c r="J2" t="s">
         <v>23</v>
       </c>
-      <c r="E2" t="s">
+      <c r="K2" t="s">
         <v>24</v>
       </c>
-      <c r="F2" t="s">
+      <c r="L2" t="s">
         <v>25</v>
       </c>
-      <c r="G2" t="s">
+      <c r="M2" t="s">
         <v>26</v>
       </c>
-      <c r="H2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I2" t="s">
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
         <v>28</v>
       </c>
-      <c r="J2" t="s">
+      <c r="D5" t="s">
         <v>29</v>
       </c>
-      <c r="K2" t="s">
+      <c r="E5" t="s">
         <v>30</v>
       </c>
-      <c r="L2" t="s">
+      <c r="F5" t="s">
         <v>31</v>
       </c>
-      <c r="M2" t="s">
+      <c r="G5" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="3" spans="1:19">
-      <c r="A3" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19">
-      <c r="A4" t="s">
+      <c r="H5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6" t="s">
+        <v>34</v>
+      </c>
+      <c r="K6" t="s">
+        <v>34</v>
+      </c>
+      <c r="L6" t="s">
+        <v>34</v>
+      </c>
+      <c r="M6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" t="s">
+        <v>34</v>
+      </c>
+      <c r="J7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L7" t="s">
+        <v>34</v>
+      </c>
+      <c r="M7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J8" t="s">
+        <v>34</v>
+      </c>
+      <c r="K8" t="s">
+        <v>34</v>
+      </c>
+      <c r="L8" t="s">
+        <v>34</v>
+      </c>
+      <c r="M8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" t="s">
+        <v>43</v>
+      </c>
+      <c r="H9" t="s">
+        <v>38</v>
+      </c>
+      <c r="I9" t="s">
+        <v>34</v>
+      </c>
+      <c r="J9" t="s">
+        <v>34</v>
+      </c>
+      <c r="K9" t="s">
+        <v>34</v>
+      </c>
+      <c r="L9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" t="s">
+        <v>34</v>
+      </c>
+      <c r="J10" t="s">
+        <v>34</v>
+      </c>
+      <c r="K10" t="s">
+        <v>34</v>
+      </c>
+      <c r="L10" t="s">
+        <v>34</v>
+      </c>
+      <c r="M10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" t="s">
+        <v>50</v>
+      </c>
+      <c r="G11" t="s">
+        <v>51</v>
+      </c>
+      <c r="H11" t="s">
+        <v>52</v>
+      </c>
+      <c r="I11" t="s">
+        <v>53</v>
+      </c>
+      <c r="J11" t="s">
+        <v>34</v>
+      </c>
+      <c r="K11" t="s">
+        <v>34</v>
+      </c>
+      <c r="L11" t="s">
+        <v>34</v>
+      </c>
+      <c r="M11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" t="s">
+        <v>57</v>
+      </c>
+      <c r="G12" t="s">
+        <v>58</v>
+      </c>
+      <c r="H12" t="s">
+        <v>52</v>
+      </c>
+      <c r="I12" t="s">
+        <v>59</v>
+      </c>
+      <c r="J12" t="s">
+        <v>34</v>
+      </c>
+      <c r="K12" t="s">
+        <v>34</v>
+      </c>
+      <c r="L12" t="s">
+        <v>34</v>
+      </c>
+      <c r="M12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" t="s">
+        <v>60</v>
+      </c>
+      <c r="G13" t="s">
+        <v>61</v>
+      </c>
+      <c r="H13" t="s">
+        <v>38</v>
+      </c>
+      <c r="I13" t="s">
+        <v>34</v>
+      </c>
+      <c r="J13" t="s">
+        <v>34</v>
+      </c>
+      <c r="K13" t="s">
+        <v>34</v>
+      </c>
+      <c r="L13" t="s">
+        <v>34</v>
+      </c>
+      <c r="M13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" t="s">
+        <v>60</v>
+      </c>
+      <c r="G14" t="s">
+        <v>62</v>
+      </c>
+      <c r="H14" t="s">
+        <v>38</v>
+      </c>
+      <c r="I14" t="s">
+        <v>34</v>
+      </c>
+      <c r="J14" t="s">
+        <v>34</v>
+      </c>
+      <c r="K14" t="s">
+        <v>34</v>
+      </c>
+      <c r="L14" t="s">
+        <v>34</v>
+      </c>
+      <c r="M14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16" t="s">
+        <v>66</v>
+      </c>
+      <c r="E16" t="s">
+        <v>67</v>
+      </c>
+      <c r="F16" t="s">
+        <v>68</v>
+      </c>
+      <c r="G16" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="5" spans="1:19">
-      <c r="A5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5" t="s">
-        <v>37</v>
-      </c>
-      <c r="G5" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" t="s">
-        <v>39</v>
-      </c>
-      <c r="I5" t="s">
-        <v>40</v>
-      </c>
-      <c r="J5" t="s">
-        <v>40</v>
-      </c>
-      <c r="K5" t="s">
-        <v>40</v>
-      </c>
-      <c r="L5" t="s">
-        <v>40</v>
-      </c>
-      <c r="M5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19">
-      <c r="A6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" t="s">
-        <v>41</v>
-      </c>
-      <c r="F6" t="s">
-        <v>42</v>
-      </c>
-      <c r="G6" t="s">
-        <v>43</v>
-      </c>
-      <c r="H6" t="s">
-        <v>44</v>
-      </c>
-      <c r="I6" t="s">
-        <v>40</v>
-      </c>
-      <c r="J6" t="s">
-        <v>40</v>
-      </c>
-      <c r="K6" t="s">
-        <v>40</v>
-      </c>
-      <c r="L6" t="s">
-        <v>40</v>
-      </c>
-      <c r="M6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19">
-      <c r="A7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" t="s">
-        <v>44</v>
-      </c>
-      <c r="I7" t="s">
-        <v>40</v>
-      </c>
-      <c r="J7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19">
-      <c r="A8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" t="s">
-        <v>41</v>
-      </c>
-      <c r="F8" t="s">
-        <v>47</v>
-      </c>
-      <c r="G8" t="s">
-        <v>48</v>
-      </c>
-      <c r="H8" t="s">
-        <v>44</v>
-      </c>
-      <c r="I8" t="s">
-        <v>40</v>
-      </c>
-      <c r="J8" t="s">
-        <v>40</v>
-      </c>
-      <c r="K8" t="s">
-        <v>40</v>
-      </c>
-      <c r="L8" t="s">
-        <v>40</v>
-      </c>
-      <c r="M8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19">
-      <c r="A9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" t="s">
-        <v>41</v>
-      </c>
-      <c r="F9" t="s">
-        <v>47</v>
-      </c>
-      <c r="G9" t="s">
-        <v>49</v>
-      </c>
-      <c r="H9" t="s">
-        <v>44</v>
-      </c>
-      <c r="I9" t="s">
-        <v>40</v>
-      </c>
-      <c r="J9" t="s">
-        <v>40</v>
-      </c>
-      <c r="K9" t="s">
-        <v>40</v>
-      </c>
-      <c r="L9" t="s">
-        <v>40</v>
-      </c>
-      <c r="M9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19">
-      <c r="A10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" t="s">
-        <v>36</v>
-      </c>
-      <c r="F10" t="s">
-        <v>50</v>
-      </c>
-      <c r="G10" t="s">
-        <v>51</v>
-      </c>
-      <c r="H10" t="s">
-        <v>44</v>
-      </c>
-      <c r="I10" t="s">
-        <v>40</v>
-      </c>
-      <c r="J10" t="s">
-        <v>40</v>
-      </c>
-      <c r="K10" t="s">
-        <v>40</v>
-      </c>
-      <c r="L10" t="s">
-        <v>40</v>
-      </c>
-      <c r="M10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19">
-      <c r="A11" t="s">
-        <v>52</v>
-      </c>
-      <c r="B11" t="s">
-        <v>53</v>
-      </c>
-      <c r="C11" t="s">
-        <v>54</v>
-      </c>
-      <c r="D11" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" t="s">
-        <v>55</v>
-      </c>
-      <c r="F11" t="s">
-        <v>56</v>
-      </c>
-      <c r="G11" t="s">
-        <v>57</v>
-      </c>
-      <c r="H11" t="s">
-        <v>58</v>
-      </c>
-      <c r="I11" t="s">
-        <v>59</v>
-      </c>
-      <c r="J11" t="s">
-        <v>40</v>
-      </c>
-      <c r="K11" t="s">
-        <v>40</v>
-      </c>
-      <c r="L11" t="s">
-        <v>40</v>
-      </c>
-      <c r="M11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19">
-      <c r="A12" t="s">
-        <v>52</v>
-      </c>
-      <c r="B12" t="s">
-        <v>60</v>
-      </c>
-      <c r="C12" t="s">
-        <v>61</v>
-      </c>
-      <c r="D12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12" t="s">
-        <v>62</v>
-      </c>
-      <c r="F12" t="s">
-        <v>63</v>
-      </c>
-      <c r="G12" t="s">
-        <v>64</v>
-      </c>
-      <c r="H12" t="s">
-        <v>58</v>
-      </c>
-      <c r="I12" t="s">
-        <v>65</v>
-      </c>
-      <c r="J12" t="s">
-        <v>40</v>
-      </c>
-      <c r="K12" t="s">
-        <v>40</v>
-      </c>
-      <c r="L12" t="s">
-        <v>40</v>
-      </c>
-      <c r="M12" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19">
-      <c r="A13" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E13" t="s">
-        <v>36</v>
-      </c>
-      <c r="F13" t="s">
-        <v>66</v>
-      </c>
-      <c r="G13" t="s">
-        <v>67</v>
-      </c>
-      <c r="H13" t="s">
-        <v>44</v>
-      </c>
-      <c r="I13" t="s">
-        <v>40</v>
-      </c>
-      <c r="J13" t="s">
-        <v>40</v>
-      </c>
-      <c r="K13" t="s">
-        <v>40</v>
-      </c>
-      <c r="L13" t="s">
-        <v>40</v>
-      </c>
-      <c r="M13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19">
-      <c r="A14" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" t="s">
-        <v>36</v>
-      </c>
-      <c r="F14" t="s">
-        <v>66</v>
-      </c>
-      <c r="G14" t="s">
-        <v>68</v>
-      </c>
-      <c r="H14" t="s">
-        <v>44</v>
-      </c>
-      <c r="I14" t="s">
-        <v>40</v>
-      </c>
-      <c r="J14" t="s">
-        <v>40</v>
-      </c>
-      <c r="K14" t="s">
-        <v>40</v>
-      </c>
-      <c r="L14" t="s">
-        <v>40</v>
-      </c>
-      <c r="M14" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19">
-      <c r="A15" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19">
-      <c r="A16" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="H16" t="s">
         <v>70</v>
       </c>
-      <c r="C16" t="s">
+      <c r="I16" t="s">
         <v>71</v>
       </c>
-      <c r="D16" t="s">
-        <v>72</v>
-      </c>
-      <c r="E16" t="s">
-        <v>73</v>
-      </c>
-      <c r="F16" t="s">
-        <v>74</v>
-      </c>
-      <c r="G16" t="s">
-        <v>75</v>
-      </c>
-      <c r="H16" t="s">
-        <v>76</v>
-      </c>
-      <c r="I16" t="s">
-        <v>77</v>
-      </c>
       <c r="J16" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="K16" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="L16" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="M16" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B17" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C17" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D17" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E17" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F17" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G17" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="H17" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="I17" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="J17" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="K17" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="L17" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="M17" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B18" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C18" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D18" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E18" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F18" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="G18" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="H18" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="I18" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="J18" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="K18" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="L18" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="M18" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C19" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D19" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E19" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F19" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="G19" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="H19" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="I19" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="J19" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="K19" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="L19" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="M19" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B20" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C20" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D20" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E20" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F20" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="G20" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="H20" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="I20" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="J20" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="K20" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="L20" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="M20" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B21" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C21" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D21" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E21" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="F21" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G21" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="H21" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="I21" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="J21" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="K21" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="L21" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="M21" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B22" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C22" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D22" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E22" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="F22" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="G22" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="H22" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="I22" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="J22" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="K22" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="L22" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="M22" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B23" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C23" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="D23" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E23" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="F23" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="G23" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="H23" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="I23" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="J23" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="K23" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="L23" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="M23" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B24" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C24" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D24" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E24" t="s">
+        <v>102</v>
+      </c>
+      <c r="F24" t="s">
         <v>108</v>
       </c>
-      <c r="F24" t="s">
-        <v>114</v>
-      </c>
       <c r="G24" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="H24" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="I24" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="J24" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="K24" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="L24" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="M24" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B25" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" t="s">
+        <v>111</v>
+      </c>
+      <c r="D25" t="s">
+        <v>66</v>
+      </c>
+      <c r="E25" t="s">
+        <v>35</v>
+      </c>
+      <c r="F25" t="s">
+        <v>112</v>
+      </c>
+      <c r="G25" t="s">
+        <v>113</v>
+      </c>
+      <c r="H25" t="s">
         <v>70</v>
       </c>
-      <c r="C25" t="s">
-        <v>117</v>
-      </c>
-      <c r="D25" t="s">
-        <v>72</v>
-      </c>
-      <c r="E25" t="s">
-        <v>41</v>
-      </c>
-      <c r="F25" t="s">
-        <v>118</v>
-      </c>
-      <c r="G25" t="s">
-        <v>119</v>
-      </c>
-      <c r="H25" t="s">
-        <v>76</v>
-      </c>
       <c r="I25" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="J25" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="K25" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="L25" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="M25" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B26" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" t="s">
+        <v>115</v>
+      </c>
+      <c r="D26" t="s">
+        <v>66</v>
+      </c>
+      <c r="E26" t="s">
+        <v>35</v>
+      </c>
+      <c r="F26" t="s">
+        <v>116</v>
+      </c>
+      <c r="G26" t="s">
+        <v>117</v>
+      </c>
+      <c r="H26" t="s">
         <v>70</v>
       </c>
-      <c r="C26" t="s">
-        <v>121</v>
-      </c>
-      <c r="D26" t="s">
-        <v>72</v>
-      </c>
-      <c r="E26" t="s">
-        <v>41</v>
-      </c>
-      <c r="F26" t="s">
-        <v>122</v>
-      </c>
-      <c r="G26" t="s">
-        <v>123</v>
-      </c>
-      <c r="H26" t="s">
-        <v>76</v>
-      </c>
       <c r="I26" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="J26" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="K26" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="L26" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="M26" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B27" t="s">
+        <v>64</v>
+      </c>
+      <c r="C27" t="s">
+        <v>118</v>
+      </c>
+      <c r="D27" t="s">
+        <v>66</v>
+      </c>
+      <c r="E27" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" t="s">
+        <v>119</v>
+      </c>
+      <c r="G27" t="s">
+        <v>120</v>
+      </c>
+      <c r="H27" t="s">
         <v>70</v>
       </c>
-      <c r="C27" t="s">
-        <v>124</v>
-      </c>
-      <c r="D27" t="s">
-        <v>72</v>
-      </c>
-      <c r="E27" t="s">
-        <v>36</v>
-      </c>
-      <c r="F27" t="s">
-        <v>125</v>
-      </c>
-      <c r="G27" t="s">
-        <v>126</v>
-      </c>
-      <c r="H27" t="s">
-        <v>76</v>
-      </c>
       <c r="I27" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="J27" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="K27" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="L27" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="M27" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C28" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D28" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E28" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="F28" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="G28" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="H28" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="I28" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="J28" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="K28" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="L28" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="M28" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C29" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="D29" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E29" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="F29" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="G29" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="H29" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="I29" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="J29" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="K29" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="L29" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="M29" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C30" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="D30" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E30" t="s">
+        <v>126</v>
+      </c>
+      <c r="F30" t="s">
         <v>132</v>
       </c>
-      <c r="F30" t="s">
-        <v>138</v>
-      </c>
       <c r="G30" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="H30" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="I30" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="J30" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="K30" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="L30" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="M30" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B31" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C31" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="D31" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E31" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="F31" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="G31" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="H31" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="I31" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="J31" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="K31" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="L31" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="M31" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:13">
       <c r="A32" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B32" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C32" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="D32" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E32" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="F32" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="G32" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="H32" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="I32" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="J32" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="K32" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="L32" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="M32" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33" spans="1:13">
       <c r="A33" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B33" t="s">
+        <v>64</v>
+      </c>
+      <c r="C33" t="s">
+        <v>143</v>
+      </c>
+      <c r="D33" t="s">
+        <v>66</v>
+      </c>
+      <c r="E33" t="s">
+        <v>144</v>
+      </c>
+      <c r="F33" t="s">
+        <v>145</v>
+      </c>
+      <c r="G33" t="s">
+        <v>146</v>
+      </c>
+      <c r="H33" t="s">
         <v>70</v>
       </c>
-      <c r="C33" t="s">
-        <v>149</v>
-      </c>
-      <c r="D33" t="s">
-        <v>72</v>
-      </c>
-      <c r="E33" t="s">
-        <v>150</v>
-      </c>
-      <c r="F33" t="s">
-        <v>151</v>
-      </c>
-      <c r="G33" t="s">
-        <v>152</v>
-      </c>
-      <c r="H33" t="s">
-        <v>76</v>
-      </c>
       <c r="I33" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="J33" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="K33" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="L33" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="M33" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B34" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C34" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D34" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E34" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="F34" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="G34" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="H34" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="I34" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="J34" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="K34" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="L34" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="M34" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B35" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C35" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="D35" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E35" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="F35" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="G35" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="H35" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="I35" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="J35" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="K35" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="L35" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="M35" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B36" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C36" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D36" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E36" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="F36" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="G36" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="H36" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="I36" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="J36" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="K36" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="L36" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="M36" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B37" t="s">
+        <v>64</v>
+      </c>
+      <c r="C37" t="s">
+        <v>162</v>
+      </c>
+      <c r="D37" t="s">
+        <v>66</v>
+      </c>
+      <c r="E37" t="s">
+        <v>163</v>
+      </c>
+      <c r="F37" t="s">
+        <v>164</v>
+      </c>
+      <c r="G37" t="s">
+        <v>165</v>
+      </c>
+      <c r="H37" t="s">
         <v>70</v>
       </c>
-      <c r="C37" t="s">
-        <v>168</v>
-      </c>
-      <c r="D37" t="s">
-        <v>72</v>
-      </c>
-      <c r="E37" t="s">
-        <v>169</v>
-      </c>
-      <c r="F37" t="s">
-        <v>170</v>
-      </c>
-      <c r="G37" t="s">
-        <v>171</v>
-      </c>
-      <c r="H37" t="s">
-        <v>76</v>
-      </c>
       <c r="I37" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="J37" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="K37" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="L37" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="M37" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="38" spans="1:13">
       <c r="A38" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B38" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C38" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="D38" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E38" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="F38" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="G38" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="H38" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="I38" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="J38" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="K38" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="L38" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="M38" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="39" spans="1:13">
       <c r="A39" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B39" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C39" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="D39" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E39" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="F39" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="G39" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="H39" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="I39" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="J39" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="K39" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="L39" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="M39" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="40" spans="1:13">
       <c r="A40" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B40" t="s">
+        <v>64</v>
+      </c>
+      <c r="C40" t="s">
+        <v>176</v>
+      </c>
+      <c r="D40" t="s">
+        <v>66</v>
+      </c>
+      <c r="E40" t="s">
+        <v>177</v>
+      </c>
+      <c r="F40" t="s">
+        <v>178</v>
+      </c>
+      <c r="G40" t="s">
+        <v>179</v>
+      </c>
+      <c r="H40" t="s">
         <v>70</v>
       </c>
-      <c r="C40" t="s">
-        <v>182</v>
-      </c>
-      <c r="D40" t="s">
-        <v>72</v>
-      </c>
-      <c r="E40" t="s">
-        <v>183</v>
-      </c>
-      <c r="F40" t="s">
-        <v>184</v>
-      </c>
-      <c r="G40" t="s">
-        <v>185</v>
-      </c>
-      <c r="H40" t="s">
-        <v>76</v>
-      </c>
       <c r="I40" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="J40" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="K40" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="L40" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="M40" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="41" spans="1:13">
       <c r="A41" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B41" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="C41" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D41" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E41" t="s">
+        <v>177</v>
+      </c>
+      <c r="F41" t="s">
+        <v>182</v>
+      </c>
+      <c r="G41" t="s">
         <v>183</v>
       </c>
-      <c r="F41" t="s">
-        <v>188</v>
-      </c>
-      <c r="G41" t="s">
-        <v>189</v>
-      </c>
       <c r="H41" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="I41" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="J41" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="K41" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="L41" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="M41" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="42" spans="1:13">
       <c r="A42" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B42" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="C42" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D42" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E42" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="F42" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="G42" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="H42" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="I42" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="J42" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="K42" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="L42" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="M42" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="43" spans="1:13">
       <c r="A43" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B43" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="C43" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="D43" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E43" t="s">
+        <v>187</v>
+      </c>
+      <c r="F43" t="s">
         <v>193</v>
       </c>
-      <c r="F43" t="s">
-        <v>199</v>
-      </c>
       <c r="G43" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="H43" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="I43" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="J43" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="K43" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="L43" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="M43" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="44" spans="1:13">
       <c r="A44" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B44" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C44" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="D44" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E44" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="F44" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="G44" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="H44" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="I44" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="J44" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="K44" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="L44" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="M44" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="45" spans="1:13">
       <c r="A45" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B45" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C45" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="D45" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E45" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="F45" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="G45" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="H45" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="I45" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="J45" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="K45" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="L45" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="M45" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="46" spans="1:13">
       <c r="A46" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B46" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C46" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="D46" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E46" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="F46" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="G46" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="H46" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="I46" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="J46" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="K46" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="L46" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="M46" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="47" spans="1:13">
       <c r="A47" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B47" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C47" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="D47" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E47" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="F47" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="G47" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="H47" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="I47" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="J47" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="K47" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="L47" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="M47" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="48" spans="1:13">
       <c r="A48" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B48" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C48" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="D48" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E48" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="F48" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="G48" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="H48" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="I48" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="J48" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="K48" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="L48" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="M48" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="49" spans="1:13">
       <c r="A49" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B49" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C49" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="D49" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E49" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="F49" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="G49" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="H49" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="I49" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="J49" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="K49" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="L49" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="M49" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="50" spans="1:13">
       <c r="A50" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B50" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C50" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="D50" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E50" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="F50" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="G50" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="H50" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="I50" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="J50" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="K50" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="L50" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="M50" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="51" spans="1:13">
       <c r="A51" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B51" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C51" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="D51" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E51" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="F51" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="G51" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="H51" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="I51" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="J51" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="K51" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="L51" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="M51" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="52" spans="1:13">
       <c r="A52" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B52" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C52" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="D52" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E52" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="F52" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="G52" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="H52" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="I52" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="J52" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="K52" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="L52" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="M52" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="53" spans="1:13">
       <c r="A53" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="54" spans="1:13">
       <c r="D54" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="E54" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F54" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="G54" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="H54" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="I54" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="J54" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="K54" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="L54" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="M54" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="55" spans="1:13">
       <c r="C55" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D55" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="E55" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F55" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="G55" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="H55" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="I55" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="J55" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="K55" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="L55" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="M55" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="56" spans="1:13">
       <c r="C56" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D56" t="s">
+        <v>236</v>
+      </c>
+      <c r="E56" t="s">
+        <v>30</v>
+      </c>
+      <c r="F56" t="s">
         <v>242</v>
       </c>
-      <c r="E56" t="s">
-        <v>36</v>
-      </c>
-      <c r="F56" t="s">
-        <v>248</v>
-      </c>
       <c r="G56" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="H56" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="I56" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="J56" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="K56" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="L56" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="M56" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="57" spans="1:13">
       <c r="D57" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="E57" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F57" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="G57" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H57" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="I57" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="J57" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="K57" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="L57" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="M57" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="58" spans="1:13">
       <c r="D58" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="E58" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F58" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="G58" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="H58" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="I58" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="J58" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="K58" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="L58" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="M58" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="59" spans="1:13">
       <c r="A59" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="60" spans="1:13">
       <c r="C60" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D60" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="E60" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F60" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="G60" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="H60" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="I60" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="J60" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="K60" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="L60" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="M60" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="61" spans="1:13">
       <c r="C61" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D61" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="E61" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F61" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="G61" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="H61" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="I61" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="J61" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="K61" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="L61" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="M61" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="62" spans="1:13">
       <c r="D62" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="E62" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F62" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="G62" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="H62" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="I62" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="J62" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="K62" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="L62" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="M62" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="63" spans="1:13">
       <c r="A63" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
     </row>
     <row r="64" spans="1:13">
       <c r="A64" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B64" t="s">
+        <v>259</v>
+      </c>
+      <c r="C64" t="s">
+        <v>260</v>
+      </c>
+      <c r="D64" t="s">
+        <v>261</v>
+      </c>
+      <c r="E64" t="s">
+        <v>35</v>
+      </c>
+      <c r="F64" t="s">
+        <v>262</v>
+      </c>
+      <c r="G64" t="s">
+        <v>263</v>
+      </c>
+      <c r="H64" t="s">
+        <v>264</v>
+      </c>
+      <c r="I64" t="s">
         <v>265</v>
       </c>
-      <c r="C64" t="s">
-        <v>266</v>
-      </c>
-      <c r="D64" t="s">
-        <v>267</v>
-      </c>
-      <c r="E64" t="s">
-        <v>41</v>
-      </c>
-      <c r="F64" t="s">
-        <v>268</v>
-      </c>
-      <c r="G64" t="s">
-        <v>269</v>
-      </c>
-      <c r="H64" t="s">
-        <v>270</v>
-      </c>
-      <c r="I64" t="s">
-        <v>271</v>
-      </c>
       <c r="J64" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="K64" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="L64" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="M64" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="65" spans="1:13">
       <c r="A65" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B65" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="C65" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="D65" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="E65" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F65" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="G65" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="H65" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="I65" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="J65" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="K65" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="L65" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="M65" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="66" spans="1:13">
       <c r="A66" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B66" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="C66" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="D66" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="E66" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F66" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="G66" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="H66" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="I66" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="J66" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="K66" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="L66" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="M66" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="67" spans="1:13">
       <c r="A67" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B67" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="C67" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="D67" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="E67" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F67" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="G67" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="H67" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="I67" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="J67" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="K67" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="L67" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="M67" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="68" spans="1:13">
       <c r="A68" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B68" t="s">
+        <v>274</v>
+      </c>
+      <c r="C68" t="s">
         <v>280</v>
       </c>
-      <c r="C68" t="s">
-        <v>286</v>
-      </c>
       <c r="D68" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="E68" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F68" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="G68" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="H68" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="I68" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="J68" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="K68" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="L68" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="M68" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="69" spans="1:13">
       <c r="A69" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B69" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="C69" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="D69" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="E69" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F69" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="G69" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="H69" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="I69" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="J69" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="K69" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="L69" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="M69" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="70" spans="1:13">
       <c r="A70" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B70" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="C70" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="D70" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="E70" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F70" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="G70" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="H70" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="I70" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="J70" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="K70" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="L70" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="M70" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="71" spans="1:13">
       <c r="A71" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B71" t="s">
+        <v>259</v>
+      </c>
+      <c r="C71" t="s">
+        <v>290</v>
+      </c>
+      <c r="D71" t="s">
+        <v>261</v>
+      </c>
+      <c r="E71" t="s">
+        <v>30</v>
+      </c>
+      <c r="F71" t="s">
+        <v>291</v>
+      </c>
+      <c r="G71" t="s">
+        <v>292</v>
+      </c>
+      <c r="H71" t="s">
+        <v>264</v>
+      </c>
+      <c r="I71" t="s">
         <v>265</v>
       </c>
-      <c r="C71" t="s">
-        <v>296</v>
-      </c>
-      <c r="D71" t="s">
-        <v>267</v>
-      </c>
-      <c r="E71" t="s">
-        <v>36</v>
-      </c>
-      <c r="F71" t="s">
-        <v>297</v>
-      </c>
-      <c r="G71" t="s">
-        <v>298</v>
-      </c>
-      <c r="H71" t="s">
-        <v>270</v>
-      </c>
-      <c r="I71" t="s">
-        <v>271</v>
-      </c>
       <c r="J71" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="K71" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="L71" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="M71" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="72" spans="1:13">
       <c r="A72" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B72" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="C72" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="D72" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="E72" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F72" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="G72" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="H72" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="I72" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="J72" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="K72" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="L72" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="M72" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="73" spans="1:13">
       <c r="A73" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
     </row>
     <row r="74" spans="1:13">
       <c r="C74" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D74" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="E74" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F74" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="G74" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="H74" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="I74" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="J74" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="K74" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="L74" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="M74" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="75" spans="1:13">
       <c r="D75" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="E75" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F75" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="G75" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="H75" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="I75" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="J75" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="K75" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="L75" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="M75" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="76" spans="1:13">
       <c r="C76" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D76" t="s">
+        <v>297</v>
+      </c>
+      <c r="E76" t="s">
+        <v>35</v>
+      </c>
+      <c r="F76" t="s">
+        <v>302</v>
+      </c>
+      <c r="G76" t="s">
         <v>303</v>
       </c>
-      <c r="E76" t="s">
-        <v>41</v>
-      </c>
-      <c r="F76" t="s">
-        <v>308</v>
-      </c>
-      <c r="G76" t="s">
-        <v>309</v>
-      </c>
       <c r="H76" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="I76" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="J76" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="K76" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="L76" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="M76" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="77" spans="1:13">
       <c r="A77" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B77" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="C77" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="D77" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="E77" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F77" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="G77" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="H77" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="I77" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="J77" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="K77" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="L77" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="M77" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A1:S1"/>
-    <mergeCell ref="A4:S4"/>
-    <mergeCell ref="A15:S15"/>
-    <mergeCell ref="A53:S53"/>
-    <mergeCell ref="A59:S59"/>
-    <mergeCell ref="A63:S63"/>
-    <mergeCell ref="A73:S73"/>
-    <mergeCell ref="A3:S3"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A4:M4"/>
+    <mergeCell ref="A15:M15"/>
+    <mergeCell ref="A53:M53"/>
+    <mergeCell ref="A59:M59"/>
+    <mergeCell ref="A63:M63"/>
+    <mergeCell ref="A73:M73"/>
+    <mergeCell ref="A3:M3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/Rich Products Corporation - HQ @ Buffalo, NY.xlsx
+++ b/Rich Products Corporation - HQ @ Buffalo, NY.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Network Device" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="887" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="309">
   <si>
     <t>Column1</t>
   </si>
@@ -53,9 +53,6 @@
   </si>
   <si>
     <t>Column13</t>
-  </si>
-  <si>
-    <t>Rich Products Corporation - HQ @ Buffalo, NY</t>
   </si>
   <si>
     <t>Make</t>
@@ -991,8 +988,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:M78" totalsRowCount="1">
-  <autoFilter ref="A2:M77"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:M78" totalsRowCount="1">
+  <autoFilter ref="A1:M77"/>
   <tableColumns count="13">
     <tableColumn id="1" name="Column1"/>
     <tableColumn id="2" name="Column2"/>
@@ -1305,2783 +1302,2818 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
         <v>14</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>15</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>16</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>17</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>18</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>19</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>20</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>21</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>22</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>23</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>24</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>25</v>
-      </c>
-      <c r="M2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s">
         <v>27</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D5" t="s">
         <v>28</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>29</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>30</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>31</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>32</v>
       </c>
-      <c r="H5" t="s">
-        <v>33</v>
-      </c>
       <c r="I5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" t="s">
         <v>27</v>
       </c>
-      <c r="B6" t="s">
+      <c r="D6" t="s">
         <v>28</v>
       </c>
-      <c r="D6" t="s">
-        <v>29</v>
-      </c>
       <c r="E6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" t="s">
         <v>35</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>36</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>37</v>
       </c>
-      <c r="H6" t="s">
-        <v>38</v>
-      </c>
       <c r="I6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s">
         <v>27</v>
       </c>
-      <c r="B7" t="s">
+      <c r="D7" t="s">
         <v>28</v>
       </c>
-      <c r="D7" t="s">
-        <v>29</v>
-      </c>
       <c r="E7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" t="s">
         <v>39</v>
       </c>
-      <c r="G7" t="s">
-        <v>40</v>
-      </c>
       <c r="H7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" t="s">
         <v>34</v>
       </c>
-      <c r="C8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" t="s">
-        <v>35</v>
-      </c>
       <c r="F8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" t="s">
         <v>41</v>
       </c>
-      <c r="G8" t="s">
-        <v>42</v>
-      </c>
       <c r="H8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" t="s">
         <v>34</v>
       </c>
-      <c r="C9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" t="s">
-        <v>35</v>
-      </c>
       <c r="F9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" t="s">
         <v>27</v>
       </c>
-      <c r="B10" t="s">
+      <c r="D10" t="s">
         <v>28</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>29</v>
       </c>
-      <c r="E10" t="s">
-        <v>30</v>
-      </c>
       <c r="F10" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10" t="s">
         <v>44</v>
       </c>
-      <c r="G10" t="s">
-        <v>45</v>
-      </c>
       <c r="H10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" t="s">
         <v>46</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>47</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" t="s">
         <v>48</v>
       </c>
-      <c r="D11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>49</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>50</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>51</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>52</v>
       </c>
-      <c r="I11" t="s">
-        <v>53</v>
-      </c>
       <c r="J11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" t="s">
         <v>54</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" t="s">
         <v>55</v>
       </c>
-      <c r="D12" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>56</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>57</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
+        <v>51</v>
+      </c>
+      <c r="I12" t="s">
         <v>58</v>
       </c>
-      <c r="H12" t="s">
-        <v>52</v>
-      </c>
-      <c r="I12" t="s">
-        <v>59</v>
-      </c>
       <c r="J12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" t="s">
         <v>29</v>
       </c>
-      <c r="E13" t="s">
-        <v>30</v>
-      </c>
       <c r="F13" t="s">
+        <v>59</v>
+      </c>
+      <c r="G13" t="s">
         <v>60</v>
       </c>
-      <c r="G13" t="s">
-        <v>61</v>
-      </c>
       <c r="H13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" t="s">
         <v>29</v>
       </c>
-      <c r="E14" t="s">
-        <v>30</v>
-      </c>
       <c r="F14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" t="s">
         <v>64</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>65</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>66</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>67</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>68</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>69</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>70</v>
       </c>
-      <c r="I16" t="s">
-        <v>71</v>
-      </c>
       <c r="J16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B17" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" t="s">
         <v>72</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
+        <v>65</v>
+      </c>
+      <c r="E17" t="s">
         <v>73</v>
       </c>
-      <c r="D17" t="s">
-        <v>66</v>
-      </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>74</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>75</v>
       </c>
-      <c r="G17" t="s">
-        <v>76</v>
-      </c>
       <c r="H17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B18" t="s">
+        <v>76</v>
+      </c>
+      <c r="C18" t="s">
         <v>77</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
+        <v>65</v>
+      </c>
+      <c r="E18" t="s">
+        <v>48</v>
+      </c>
+      <c r="F18" t="s">
         <v>78</v>
       </c>
-      <c r="D18" t="s">
-        <v>66</v>
-      </c>
-      <c r="E18" t="s">
-        <v>49</v>
-      </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>79</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
+        <v>69</v>
+      </c>
+      <c r="I18" t="s">
         <v>80</v>
       </c>
-      <c r="H18" t="s">
-        <v>70</v>
-      </c>
-      <c r="I18" t="s">
-        <v>81</v>
-      </c>
       <c r="J18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C19" t="s">
+        <v>81</v>
+      </c>
+      <c r="D19" t="s">
+        <v>65</v>
+      </c>
+      <c r="E19" t="s">
         <v>82</v>
       </c>
-      <c r="D19" t="s">
-        <v>66</v>
-      </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>83</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>84</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
+        <v>69</v>
+      </c>
+      <c r="I19" t="s">
         <v>85</v>
       </c>
-      <c r="H19" t="s">
-        <v>70</v>
-      </c>
-      <c r="I19" t="s">
-        <v>86</v>
-      </c>
       <c r="J19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C20" t="s">
+        <v>86</v>
+      </c>
+      <c r="D20" t="s">
+        <v>65</v>
+      </c>
+      <c r="E20" t="s">
         <v>87</v>
       </c>
-      <c r="D20" t="s">
-        <v>66</v>
-      </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>88</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>89</v>
       </c>
-      <c r="G20" t="s">
-        <v>90</v>
-      </c>
       <c r="H20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C21" t="s">
+        <v>90</v>
+      </c>
+      <c r="D21" t="s">
+        <v>65</v>
+      </c>
+      <c r="E21" t="s">
         <v>91</v>
       </c>
-      <c r="D21" t="s">
-        <v>66</v>
-      </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>92</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>93</v>
       </c>
-      <c r="G21" t="s">
-        <v>94</v>
-      </c>
       <c r="H21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C22" t="s">
+        <v>94</v>
+      </c>
+      <c r="D22" t="s">
+        <v>65</v>
+      </c>
+      <c r="E22" t="s">
         <v>95</v>
       </c>
-      <c r="D22" t="s">
-        <v>66</v>
-      </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>96</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>97</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
+        <v>69</v>
+      </c>
+      <c r="I22" t="s">
         <v>98</v>
       </c>
-      <c r="H22" t="s">
-        <v>70</v>
-      </c>
-      <c r="I22" t="s">
-        <v>99</v>
-      </c>
       <c r="J22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B23" t="s">
+        <v>99</v>
+      </c>
+      <c r="C23" t="s">
         <v>100</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
+        <v>65</v>
+      </c>
+      <c r="E23" t="s">
         <v>101</v>
       </c>
-      <c r="D23" t="s">
-        <v>66</v>
-      </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>102</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>103</v>
       </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
+        <v>69</v>
+      </c>
+      <c r="I23" t="s">
         <v>104</v>
       </c>
-      <c r="H23" t="s">
-        <v>70</v>
-      </c>
-      <c r="I23" t="s">
-        <v>105</v>
-      </c>
       <c r="J23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B24" t="s">
+        <v>105</v>
+      </c>
+      <c r="C24" t="s">
         <v>106</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
+        <v>65</v>
+      </c>
+      <c r="E24" t="s">
+        <v>101</v>
+      </c>
+      <c r="F24" t="s">
         <v>107</v>
       </c>
-      <c r="D24" t="s">
-        <v>66</v>
-      </c>
-      <c r="E24" t="s">
-        <v>102</v>
-      </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>108</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
+        <v>69</v>
+      </c>
+      <c r="I24" t="s">
         <v>109</v>
       </c>
-      <c r="H24" t="s">
-        <v>70</v>
-      </c>
-      <c r="I24" t="s">
-        <v>110</v>
-      </c>
       <c r="J24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C25" t="s">
+        <v>110</v>
+      </c>
+      <c r="D25" t="s">
+        <v>65</v>
+      </c>
+      <c r="E25" t="s">
+        <v>34</v>
+      </c>
+      <c r="F25" t="s">
         <v>111</v>
       </c>
-      <c r="D25" t="s">
-        <v>66</v>
-      </c>
-      <c r="E25" t="s">
-        <v>35</v>
-      </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>112</v>
       </c>
-      <c r="G25" t="s">
+      <c r="H25" t="s">
+        <v>69</v>
+      </c>
+      <c r="I25" t="s">
         <v>113</v>
       </c>
-      <c r="H25" t="s">
-        <v>70</v>
-      </c>
-      <c r="I25" t="s">
-        <v>114</v>
-      </c>
       <c r="J25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C26" t="s">
+        <v>114</v>
+      </c>
+      <c r="D26" t="s">
+        <v>65</v>
+      </c>
+      <c r="E26" t="s">
+        <v>34</v>
+      </c>
+      <c r="F26" t="s">
         <v>115</v>
       </c>
-      <c r="D26" t="s">
-        <v>66</v>
-      </c>
-      <c r="E26" t="s">
-        <v>35</v>
-      </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>116</v>
       </c>
-      <c r="G26" t="s">
-        <v>117</v>
-      </c>
       <c r="H26" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I26" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C27" t="s">
+        <v>117</v>
+      </c>
+      <c r="D27" t="s">
+        <v>65</v>
+      </c>
+      <c r="E27" t="s">
+        <v>29</v>
+      </c>
+      <c r="F27" t="s">
         <v>118</v>
       </c>
-      <c r="D27" t="s">
-        <v>66</v>
-      </c>
-      <c r="E27" t="s">
-        <v>30</v>
-      </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>119</v>
       </c>
-      <c r="G27" t="s">
-        <v>120</v>
-      </c>
       <c r="H27" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I27" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C28" t="s">
+        <v>120</v>
+      </c>
+      <c r="D28" t="s">
+        <v>65</v>
+      </c>
+      <c r="E28" t="s">
         <v>121</v>
       </c>
-      <c r="D28" t="s">
-        <v>66</v>
-      </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>122</v>
       </c>
-      <c r="F28" t="s">
+      <c r="G28" t="s">
         <v>123</v>
       </c>
-      <c r="G28" t="s">
-        <v>124</v>
-      </c>
       <c r="H28" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I28" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C29" t="s">
+        <v>124</v>
+      </c>
+      <c r="D29" t="s">
+        <v>65</v>
+      </c>
+      <c r="E29" t="s">
         <v>125</v>
       </c>
-      <c r="D29" t="s">
-        <v>66</v>
-      </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>126</v>
       </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
         <v>127</v>
       </c>
-      <c r="G29" t="s">
+      <c r="H29" t="s">
+        <v>69</v>
+      </c>
+      <c r="I29" t="s">
         <v>128</v>
       </c>
-      <c r="H29" t="s">
-        <v>70</v>
-      </c>
-      <c r="I29" t="s">
-        <v>129</v>
-      </c>
       <c r="J29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B30" t="s">
+        <v>129</v>
+      </c>
+      <c r="C30" t="s">
         <v>130</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
+        <v>65</v>
+      </c>
+      <c r="E30" t="s">
+        <v>125</v>
+      </c>
+      <c r="F30" t="s">
         <v>131</v>
       </c>
-      <c r="D30" t="s">
-        <v>66</v>
-      </c>
-      <c r="E30" t="s">
-        <v>126</v>
-      </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
         <v>132</v>
       </c>
-      <c r="G30" t="s">
+      <c r="H30" t="s">
+        <v>69</v>
+      </c>
+      <c r="I30" t="s">
         <v>133</v>
       </c>
-      <c r="H30" t="s">
-        <v>70</v>
-      </c>
-      <c r="I30" t="s">
-        <v>134</v>
-      </c>
       <c r="J30" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K30" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L30" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M30" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B31" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C31" t="s">
+        <v>134</v>
+      </c>
+      <c r="D31" t="s">
+        <v>65</v>
+      </c>
+      <c r="E31" t="s">
         <v>135</v>
       </c>
-      <c r="D31" t="s">
-        <v>66</v>
-      </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>136</v>
       </c>
-      <c r="F31" t="s">
+      <c r="G31" t="s">
         <v>137</v>
       </c>
-      <c r="G31" t="s">
-        <v>138</v>
-      </c>
       <c r="H31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I31" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32" spans="1:13">
       <c r="A32" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B32" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C32" t="s">
+        <v>138</v>
+      </c>
+      <c r="D32" t="s">
+        <v>65</v>
+      </c>
+      <c r="E32" t="s">
         <v>139</v>
       </c>
-      <c r="D32" t="s">
-        <v>66</v>
-      </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>140</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
         <v>141</v>
       </c>
-      <c r="G32" t="s">
-        <v>142</v>
-      </c>
       <c r="H32" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33" spans="1:13">
       <c r="A33" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B33" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C33" t="s">
+        <v>142</v>
+      </c>
+      <c r="D33" t="s">
+        <v>65</v>
+      </c>
+      <c r="E33" t="s">
         <v>143</v>
       </c>
-      <c r="D33" t="s">
-        <v>66</v>
-      </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>144</v>
       </c>
-      <c r="F33" t="s">
+      <c r="G33" t="s">
         <v>145</v>
       </c>
-      <c r="G33" t="s">
+      <c r="H33" t="s">
+        <v>69</v>
+      </c>
+      <c r="I33" t="s">
         <v>146</v>
       </c>
-      <c r="H33" t="s">
-        <v>70</v>
-      </c>
-      <c r="I33" t="s">
-        <v>147</v>
-      </c>
       <c r="J33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B34" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C34" t="s">
+        <v>147</v>
+      </c>
+      <c r="D34" t="s">
+        <v>65</v>
+      </c>
+      <c r="E34" t="s">
         <v>148</v>
       </c>
-      <c r="D34" t="s">
-        <v>66</v>
-      </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>149</v>
       </c>
-      <c r="F34" t="s">
+      <c r="G34" t="s">
         <v>150</v>
       </c>
-      <c r="G34" t="s">
-        <v>151</v>
-      </c>
       <c r="H34" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I34" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B35" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C35" t="s">
+        <v>151</v>
+      </c>
+      <c r="D35" t="s">
+        <v>65</v>
+      </c>
+      <c r="E35" t="s">
         <v>152</v>
       </c>
-      <c r="D35" t="s">
-        <v>66</v>
-      </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>153</v>
       </c>
-      <c r="F35" t="s">
+      <c r="G35" t="s">
         <v>154</v>
       </c>
-      <c r="G35" t="s">
+      <c r="H35" t="s">
+        <v>69</v>
+      </c>
+      <c r="I35" t="s">
         <v>155</v>
       </c>
-      <c r="H35" t="s">
-        <v>70</v>
-      </c>
-      <c r="I35" t="s">
-        <v>156</v>
-      </c>
       <c r="J35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B36" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C36" t="s">
+        <v>156</v>
+      </c>
+      <c r="D36" t="s">
+        <v>65</v>
+      </c>
+      <c r="E36" t="s">
         <v>157</v>
       </c>
-      <c r="D36" t="s">
-        <v>66</v>
-      </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>158</v>
       </c>
-      <c r="F36" t="s">
+      <c r="G36" t="s">
         <v>159</v>
       </c>
-      <c r="G36" t="s">
+      <c r="H36" t="s">
+        <v>69</v>
+      </c>
+      <c r="I36" t="s">
         <v>160</v>
       </c>
-      <c r="H36" t="s">
-        <v>70</v>
-      </c>
-      <c r="I36" t="s">
-        <v>161</v>
-      </c>
       <c r="J36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B37" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C37" t="s">
+        <v>161</v>
+      </c>
+      <c r="D37" t="s">
+        <v>65</v>
+      </c>
+      <c r="E37" t="s">
         <v>162</v>
       </c>
-      <c r="D37" t="s">
-        <v>66</v>
-      </c>
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>163</v>
       </c>
-      <c r="F37" t="s">
+      <c r="G37" t="s">
         <v>164</v>
       </c>
-      <c r="G37" t="s">
-        <v>165</v>
-      </c>
       <c r="H37" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I37" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J37" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K37" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L37" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M37" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="38" spans="1:13">
       <c r="A38" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B38" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C38" t="s">
+        <v>165</v>
+      </c>
+      <c r="D38" t="s">
+        <v>65</v>
+      </c>
+      <c r="E38" t="s">
         <v>166</v>
       </c>
-      <c r="D38" t="s">
-        <v>66</v>
-      </c>
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>167</v>
       </c>
-      <c r="F38" t="s">
+      <c r="G38" t="s">
         <v>168</v>
       </c>
-      <c r="G38" t="s">
+      <c r="H38" t="s">
+        <v>69</v>
+      </c>
+      <c r="I38" t="s">
         <v>169</v>
       </c>
-      <c r="H38" t="s">
-        <v>70</v>
-      </c>
-      <c r="I38" t="s">
-        <v>170</v>
-      </c>
       <c r="J38" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K38" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L38" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M38" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="39" spans="1:13">
       <c r="A39" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B39" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C39" t="s">
+        <v>170</v>
+      </c>
+      <c r="D39" t="s">
+        <v>65</v>
+      </c>
+      <c r="E39" t="s">
         <v>171</v>
       </c>
-      <c r="D39" t="s">
-        <v>66</v>
-      </c>
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>172</v>
       </c>
-      <c r="F39" t="s">
+      <c r="G39" t="s">
         <v>173</v>
       </c>
-      <c r="G39" t="s">
+      <c r="H39" t="s">
+        <v>69</v>
+      </c>
+      <c r="I39" t="s">
         <v>174</v>
       </c>
-      <c r="H39" t="s">
-        <v>70</v>
-      </c>
-      <c r="I39" t="s">
-        <v>175</v>
-      </c>
       <c r="J39" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K39" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L39" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M39" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="40" spans="1:13">
       <c r="A40" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B40" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C40" t="s">
+        <v>175</v>
+      </c>
+      <c r="D40" t="s">
+        <v>65</v>
+      </c>
+      <c r="E40" t="s">
         <v>176</v>
       </c>
-      <c r="D40" t="s">
-        <v>66</v>
-      </c>
-      <c r="E40" t="s">
+      <c r="F40" t="s">
         <v>177</v>
       </c>
-      <c r="F40" t="s">
+      <c r="G40" t="s">
         <v>178</v>
       </c>
-      <c r="G40" t="s">
-        <v>179</v>
-      </c>
       <c r="H40" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I40" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J40" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K40" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L40" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M40" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="41" spans="1:13">
       <c r="A41" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B41" t="s">
+        <v>179</v>
+      </c>
+      <c r="C41" t="s">
         <v>180</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
+        <v>65</v>
+      </c>
+      <c r="E41" t="s">
+        <v>176</v>
+      </c>
+      <c r="F41" t="s">
         <v>181</v>
       </c>
-      <c r="D41" t="s">
-        <v>66</v>
-      </c>
-      <c r="E41" t="s">
-        <v>177</v>
-      </c>
-      <c r="F41" t="s">
+      <c r="G41" t="s">
         <v>182</v>
       </c>
-      <c r="G41" t="s">
+      <c r="H41" t="s">
+        <v>69</v>
+      </c>
+      <c r="I41" t="s">
         <v>183</v>
       </c>
-      <c r="H41" t="s">
-        <v>70</v>
-      </c>
-      <c r="I41" t="s">
-        <v>184</v>
-      </c>
       <c r="J41" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K41" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L41" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M41" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="42" spans="1:13">
       <c r="A42" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B42" t="s">
+        <v>184</v>
+      </c>
+      <c r="C42" t="s">
         <v>185</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
+        <v>65</v>
+      </c>
+      <c r="E42" t="s">
         <v>186</v>
       </c>
-      <c r="D42" t="s">
-        <v>66</v>
-      </c>
-      <c r="E42" t="s">
+      <c r="F42" t="s">
         <v>187</v>
       </c>
-      <c r="F42" t="s">
+      <c r="G42" t="s">
         <v>188</v>
       </c>
-      <c r="G42" t="s">
+      <c r="H42" t="s">
+        <v>69</v>
+      </c>
+      <c r="I42" t="s">
         <v>189</v>
       </c>
-      <c r="H42" t="s">
-        <v>70</v>
-      </c>
-      <c r="I42" t="s">
-        <v>190</v>
-      </c>
       <c r="J42" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K42" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L42" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M42" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="43" spans="1:13">
       <c r="A43" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B43" t="s">
+        <v>190</v>
+      </c>
+      <c r="C43" t="s">
         <v>191</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
+        <v>65</v>
+      </c>
+      <c r="E43" t="s">
+        <v>186</v>
+      </c>
+      <c r="F43" t="s">
         <v>192</v>
       </c>
-      <c r="D43" t="s">
-        <v>66</v>
-      </c>
-      <c r="E43" t="s">
-        <v>187</v>
-      </c>
-      <c r="F43" t="s">
+      <c r="G43" t="s">
         <v>193</v>
       </c>
-      <c r="G43" t="s">
+      <c r="H43" t="s">
+        <v>69</v>
+      </c>
+      <c r="I43" t="s">
         <v>194</v>
       </c>
-      <c r="H43" t="s">
-        <v>70</v>
-      </c>
-      <c r="I43" t="s">
-        <v>195</v>
-      </c>
       <c r="J43" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K43" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L43" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M43" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="44" spans="1:13">
       <c r="A44" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B44" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C44" t="s">
+        <v>195</v>
+      </c>
+      <c r="D44" t="s">
+        <v>65</v>
+      </c>
+      <c r="E44" t="s">
         <v>196</v>
       </c>
-      <c r="D44" t="s">
-        <v>66</v>
-      </c>
-      <c r="E44" t="s">
+      <c r="F44" t="s">
         <v>197</v>
       </c>
-      <c r="F44" t="s">
+      <c r="G44" t="s">
         <v>198</v>
       </c>
-      <c r="G44" t="s">
+      <c r="H44" t="s">
+        <v>69</v>
+      </c>
+      <c r="I44" t="s">
         <v>199</v>
       </c>
-      <c r="H44" t="s">
-        <v>70</v>
-      </c>
-      <c r="I44" t="s">
-        <v>200</v>
-      </c>
       <c r="J44" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K44" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L44" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M44" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="45" spans="1:13">
       <c r="A45" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B45" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C45" t="s">
+        <v>200</v>
+      </c>
+      <c r="D45" t="s">
+        <v>65</v>
+      </c>
+      <c r="E45" t="s">
         <v>201</v>
       </c>
-      <c r="D45" t="s">
-        <v>66</v>
-      </c>
-      <c r="E45" t="s">
+      <c r="F45" t="s">
         <v>202</v>
       </c>
-      <c r="F45" t="s">
+      <c r="G45" t="s">
         <v>203</v>
       </c>
-      <c r="G45" t="s">
+      <c r="H45" t="s">
+        <v>69</v>
+      </c>
+      <c r="I45" t="s">
         <v>204</v>
       </c>
-      <c r="H45" t="s">
-        <v>70</v>
-      </c>
-      <c r="I45" t="s">
-        <v>205</v>
-      </c>
       <c r="J45" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K45" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L45" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M45" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="46" spans="1:13">
       <c r="A46" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B46" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C46" t="s">
+        <v>205</v>
+      </c>
+      <c r="D46" t="s">
+        <v>65</v>
+      </c>
+      <c r="E46" t="s">
         <v>206</v>
       </c>
-      <c r="D46" t="s">
-        <v>66</v>
-      </c>
-      <c r="E46" t="s">
+      <c r="F46" t="s">
         <v>207</v>
       </c>
-      <c r="F46" t="s">
+      <c r="G46" t="s">
         <v>208</v>
       </c>
-      <c r="G46" t="s">
-        <v>209</v>
-      </c>
       <c r="H46" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I46" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J46" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K46" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L46" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M46" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="47" spans="1:13">
       <c r="A47" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B47" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C47" t="s">
+        <v>209</v>
+      </c>
+      <c r="D47" t="s">
+        <v>65</v>
+      </c>
+      <c r="E47" t="s">
         <v>210</v>
       </c>
-      <c r="D47" t="s">
-        <v>66</v>
-      </c>
-      <c r="E47" t="s">
+      <c r="F47" t="s">
         <v>211</v>
       </c>
-      <c r="F47" t="s">
+      <c r="G47" t="s">
         <v>212</v>
       </c>
-      <c r="G47" t="s">
-        <v>213</v>
-      </c>
       <c r="H47" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I47" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J47" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K47" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L47" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M47" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="48" spans="1:13">
       <c r="A48" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B48" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C48" t="s">
+        <v>213</v>
+      </c>
+      <c r="D48" t="s">
+        <v>65</v>
+      </c>
+      <c r="E48" t="s">
         <v>214</v>
       </c>
-      <c r="D48" t="s">
-        <v>66</v>
-      </c>
-      <c r="E48" t="s">
+      <c r="F48" t="s">
         <v>215</v>
       </c>
-      <c r="F48" t="s">
+      <c r="G48" t="s">
         <v>216</v>
       </c>
-      <c r="G48" t="s">
-        <v>217</v>
-      </c>
       <c r="H48" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I48" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J48" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K48" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L48" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M48" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="49" spans="1:13">
       <c r="A49" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B49" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C49" t="s">
+        <v>217</v>
+      </c>
+      <c r="D49" t="s">
+        <v>65</v>
+      </c>
+      <c r="E49" t="s">
         <v>218</v>
       </c>
-      <c r="D49" t="s">
-        <v>66</v>
-      </c>
-      <c r="E49" t="s">
+      <c r="F49" t="s">
         <v>219</v>
       </c>
-      <c r="F49" t="s">
+      <c r="G49" t="s">
         <v>220</v>
       </c>
-      <c r="G49" t="s">
-        <v>221</v>
-      </c>
       <c r="H49" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I49" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J49" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K49" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L49" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M49" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="50" spans="1:13">
       <c r="A50" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B50" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C50" t="s">
+        <v>221</v>
+      </c>
+      <c r="D50" t="s">
+        <v>65</v>
+      </c>
+      <c r="E50" t="s">
         <v>222</v>
       </c>
-      <c r="D50" t="s">
-        <v>66</v>
-      </c>
-      <c r="E50" t="s">
+      <c r="F50" t="s">
         <v>223</v>
       </c>
-      <c r="F50" t="s">
+      <c r="G50" t="s">
         <v>224</v>
       </c>
-      <c r="G50" t="s">
-        <v>225</v>
-      </c>
       <c r="H50" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I50" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J50" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K50" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L50" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M50" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="51" spans="1:13">
       <c r="A51" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B51" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C51" t="s">
+        <v>225</v>
+      </c>
+      <c r="D51" t="s">
+        <v>65</v>
+      </c>
+      <c r="E51" t="s">
         <v>226</v>
       </c>
-      <c r="D51" t="s">
-        <v>66</v>
-      </c>
-      <c r="E51" t="s">
+      <c r="F51" t="s">
         <v>227</v>
       </c>
-      <c r="F51" t="s">
+      <c r="G51" t="s">
         <v>228</v>
       </c>
-      <c r="G51" t="s">
-        <v>229</v>
-      </c>
       <c r="H51" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I51" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J51" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K51" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L51" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M51" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="52" spans="1:13">
       <c r="A52" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B52" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C52" t="s">
+        <v>229</v>
+      </c>
+      <c r="D52" t="s">
+        <v>65</v>
+      </c>
+      <c r="E52" t="s">
         <v>230</v>
       </c>
-      <c r="D52" t="s">
-        <v>66</v>
-      </c>
-      <c r="E52" t="s">
+      <c r="F52" t="s">
         <v>231</v>
       </c>
-      <c r="F52" t="s">
+      <c r="G52" t="s">
         <v>232</v>
       </c>
-      <c r="G52" t="s">
+      <c r="H52" t="s">
+        <v>69</v>
+      </c>
+      <c r="I52" t="s">
         <v>233</v>
       </c>
-      <c r="H52" t="s">
-        <v>70</v>
-      </c>
-      <c r="I52" t="s">
-        <v>234</v>
-      </c>
       <c r="J52" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K52" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L52" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M52" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="53" spans="1:13">
       <c r="A53" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="54" spans="1:13">
       <c r="D54" t="s">
+        <v>235</v>
+      </c>
+      <c r="E54" t="s">
+        <v>34</v>
+      </c>
+      <c r="F54" t="s">
         <v>236</v>
       </c>
-      <c r="E54" t="s">
-        <v>35</v>
-      </c>
-      <c r="F54" t="s">
+      <c r="G54" t="s">
         <v>237</v>
       </c>
-      <c r="G54" t="s">
+      <c r="H54" t="s">
         <v>238</v>
       </c>
-      <c r="H54" t="s">
-        <v>239</v>
-      </c>
       <c r="I54" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J54" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K54" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L54" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M54" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="55" spans="1:13">
       <c r="C55" t="s">
+        <v>33</v>
+      </c>
+      <c r="D55" t="s">
+        <v>235</v>
+      </c>
+      <c r="E55" t="s">
         <v>34</v>
       </c>
-      <c r="D55" t="s">
-        <v>236</v>
-      </c>
-      <c r="E55" t="s">
-        <v>35</v>
-      </c>
       <c r="F55" t="s">
+        <v>239</v>
+      </c>
+      <c r="G55" t="s">
         <v>240</v>
       </c>
-      <c r="G55" t="s">
-        <v>241</v>
-      </c>
       <c r="H55" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I55" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J55" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K55" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L55" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M55" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="56" spans="1:13">
       <c r="C56" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D56" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E56" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F56" t="s">
+        <v>241</v>
+      </c>
+      <c r="G56" t="s">
         <v>242</v>
       </c>
-      <c r="G56" t="s">
-        <v>243</v>
-      </c>
       <c r="H56" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I56" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J56" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K56" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L56" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M56" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="57" spans="1:13">
       <c r="D57" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E57" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F57" t="s">
+        <v>243</v>
+      </c>
+      <c r="G57" t="s">
         <v>244</v>
       </c>
-      <c r="G57" t="s">
-        <v>245</v>
-      </c>
       <c r="H57" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I57" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J57" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K57" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L57" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M57" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="58" spans="1:13">
       <c r="D58" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E58" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F58" t="s">
+        <v>245</v>
+      </c>
+      <c r="G58" t="s">
         <v>246</v>
       </c>
-      <c r="G58" t="s">
-        <v>247</v>
-      </c>
       <c r="H58" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I58" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J58" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K58" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L58" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M58" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="59" spans="1:13">
       <c r="A59" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="60" spans="1:13">
       <c r="C60" t="s">
+        <v>33</v>
+      </c>
+      <c r="D60" t="s">
+        <v>248</v>
+      </c>
+      <c r="E60" t="s">
         <v>34</v>
       </c>
-      <c r="D60" t="s">
+      <c r="F60" t="s">
         <v>249</v>
       </c>
-      <c r="E60" t="s">
-        <v>35</v>
-      </c>
-      <c r="F60" t="s">
+      <c r="G60" t="s">
         <v>250</v>
       </c>
-      <c r="G60" t="s">
-        <v>251</v>
-      </c>
       <c r="H60" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I60" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J60" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K60" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L60" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M60" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="61" spans="1:13">
       <c r="C61" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D61" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E61" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F61" t="s">
+        <v>251</v>
+      </c>
+      <c r="G61" t="s">
         <v>252</v>
       </c>
-      <c r="G61" t="s">
-        <v>253</v>
-      </c>
       <c r="H61" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I61" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J61" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K61" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L61" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M61" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="62" spans="1:13">
       <c r="D62" t="s">
+        <v>254</v>
+      </c>
+      <c r="E62" t="s">
+        <v>34</v>
+      </c>
+      <c r="F62" t="s">
         <v>255</v>
       </c>
-      <c r="E62" t="s">
-        <v>35</v>
-      </c>
-      <c r="F62" t="s">
+      <c r="G62" t="s">
         <v>256</v>
       </c>
-      <c r="G62" t="s">
+      <c r="H62" t="s">
         <v>257</v>
       </c>
-      <c r="H62" t="s">
-        <v>258</v>
-      </c>
       <c r="I62" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J62" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K62" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L62" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M62" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="63" spans="1:13">
       <c r="A63" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="64" spans="1:13">
       <c r="A64" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B64" t="s">
+        <v>258</v>
+      </c>
+      <c r="C64" t="s">
         <v>259</v>
       </c>
-      <c r="C64" t="s">
+      <c r="D64" t="s">
         <v>260</v>
       </c>
-      <c r="D64" t="s">
+      <c r="E64" t="s">
+        <v>34</v>
+      </c>
+      <c r="F64" t="s">
         <v>261</v>
       </c>
-      <c r="E64" t="s">
-        <v>35</v>
-      </c>
-      <c r="F64" t="s">
+      <c r="G64" t="s">
         <v>262</v>
       </c>
-      <c r="G64" t="s">
+      <c r="H64" t="s">
         <v>263</v>
       </c>
-      <c r="H64" t="s">
+      <c r="I64" t="s">
         <v>264</v>
       </c>
-      <c r="I64" t="s">
-        <v>265</v>
-      </c>
       <c r="J64" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K64" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L64" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M64" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="65" spans="1:13">
       <c r="A65" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B65" t="s">
+        <v>265</v>
+      </c>
+      <c r="C65" t="s">
         <v>266</v>
       </c>
-      <c r="C65" t="s">
+      <c r="D65" t="s">
+        <v>260</v>
+      </c>
+      <c r="E65" t="s">
+        <v>34</v>
+      </c>
+      <c r="F65" t="s">
         <v>267</v>
       </c>
-      <c r="D65" t="s">
-        <v>261</v>
-      </c>
-      <c r="E65" t="s">
-        <v>35</v>
-      </c>
-      <c r="F65" t="s">
+      <c r="G65" t="s">
         <v>268</v>
       </c>
-      <c r="G65" t="s">
-        <v>269</v>
-      </c>
       <c r="H65" t="s">
+        <v>263</v>
+      </c>
+      <c r="I65" t="s">
         <v>264</v>
       </c>
-      <c r="I65" t="s">
-        <v>265</v>
-      </c>
       <c r="J65" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K65" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L65" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M65" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="66" spans="1:13">
       <c r="A66" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B66" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C66" t="s">
+        <v>269</v>
+      </c>
+      <c r="D66" t="s">
+        <v>260</v>
+      </c>
+      <c r="E66" t="s">
+        <v>34</v>
+      </c>
+      <c r="F66" t="s">
         <v>270</v>
       </c>
-      <c r="D66" t="s">
-        <v>261</v>
-      </c>
-      <c r="E66" t="s">
-        <v>35</v>
-      </c>
-      <c r="F66" t="s">
+      <c r="G66" t="s">
         <v>271</v>
       </c>
-      <c r="G66" t="s">
+      <c r="H66" t="s">
+        <v>263</v>
+      </c>
+      <c r="I66" t="s">
         <v>272</v>
       </c>
-      <c r="H66" t="s">
-        <v>264</v>
-      </c>
-      <c r="I66" t="s">
-        <v>273</v>
-      </c>
       <c r="J66" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K66" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L66" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M66" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="67" spans="1:13">
       <c r="A67" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B67" t="s">
+        <v>273</v>
+      </c>
+      <c r="C67" t="s">
         <v>274</v>
       </c>
-      <c r="C67" t="s">
+      <c r="D67" t="s">
+        <v>260</v>
+      </c>
+      <c r="E67" t="s">
+        <v>34</v>
+      </c>
+      <c r="F67" t="s">
         <v>275</v>
       </c>
-      <c r="D67" t="s">
-        <v>261</v>
-      </c>
-      <c r="E67" t="s">
-        <v>35</v>
-      </c>
-      <c r="F67" t="s">
+      <c r="G67" t="s">
         <v>276</v>
       </c>
-      <c r="G67" t="s">
+      <c r="H67" t="s">
         <v>277</v>
       </c>
-      <c r="H67" t="s">
+      <c r="I67" t="s">
         <v>278</v>
       </c>
-      <c r="I67" t="s">
-        <v>279</v>
-      </c>
       <c r="J67" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K67" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L67" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M67" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="68" spans="1:13">
       <c r="A68" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B68" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C68" t="s">
+        <v>279</v>
+      </c>
+      <c r="D68" t="s">
+        <v>260</v>
+      </c>
+      <c r="E68" t="s">
+        <v>34</v>
+      </c>
+      <c r="F68" t="s">
         <v>280</v>
       </c>
-      <c r="D68" t="s">
-        <v>261</v>
-      </c>
-      <c r="E68" t="s">
-        <v>35</v>
-      </c>
-      <c r="F68" t="s">
+      <c r="G68" t="s">
         <v>281</v>
       </c>
-      <c r="G68" t="s">
-        <v>282</v>
-      </c>
       <c r="H68" t="s">
+        <v>277</v>
+      </c>
+      <c r="I68" t="s">
         <v>278</v>
       </c>
-      <c r="I68" t="s">
-        <v>279</v>
-      </c>
       <c r="J68" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K68" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L68" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M68" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="69" spans="1:13">
       <c r="A69" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B69" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C69" t="s">
+        <v>282</v>
+      </c>
+      <c r="D69" t="s">
+        <v>260</v>
+      </c>
+      <c r="E69" t="s">
+        <v>29</v>
+      </c>
+      <c r="F69" t="s">
         <v>283</v>
       </c>
-      <c r="D69" t="s">
-        <v>261</v>
-      </c>
-      <c r="E69" t="s">
-        <v>30</v>
-      </c>
-      <c r="F69" t="s">
+      <c r="G69" t="s">
         <v>284</v>
       </c>
-      <c r="G69" t="s">
-        <v>285</v>
-      </c>
       <c r="H69" t="s">
+        <v>263</v>
+      </c>
+      <c r="I69" t="s">
         <v>264</v>
       </c>
-      <c r="I69" t="s">
-        <v>265</v>
-      </c>
       <c r="J69" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K69" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L69" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M69" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="70" spans="1:13">
       <c r="A70" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B70" t="s">
+        <v>285</v>
+      </c>
+      <c r="C70" t="s">
         <v>286</v>
       </c>
-      <c r="C70" t="s">
+      <c r="D70" t="s">
+        <v>260</v>
+      </c>
+      <c r="E70" t="s">
+        <v>29</v>
+      </c>
+      <c r="F70" t="s">
         <v>287</v>
       </c>
-      <c r="D70" t="s">
-        <v>261</v>
-      </c>
-      <c r="E70" t="s">
-        <v>30</v>
-      </c>
-      <c r="F70" t="s">
+      <c r="G70" t="s">
         <v>288</v>
       </c>
-      <c r="G70" t="s">
-        <v>289</v>
-      </c>
       <c r="H70" t="s">
+        <v>277</v>
+      </c>
+      <c r="I70" t="s">
         <v>278</v>
       </c>
-      <c r="I70" t="s">
-        <v>279</v>
-      </c>
       <c r="J70" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K70" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L70" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M70" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="71" spans="1:13">
       <c r="A71" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B71" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C71" t="s">
+        <v>289</v>
+      </c>
+      <c r="D71" t="s">
+        <v>260</v>
+      </c>
+      <c r="E71" t="s">
+        <v>29</v>
+      </c>
+      <c r="F71" t="s">
         <v>290</v>
       </c>
-      <c r="D71" t="s">
-        <v>261</v>
-      </c>
-      <c r="E71" t="s">
-        <v>30</v>
-      </c>
-      <c r="F71" t="s">
+      <c r="G71" t="s">
         <v>291</v>
       </c>
-      <c r="G71" t="s">
-        <v>292</v>
-      </c>
       <c r="H71" t="s">
+        <v>263</v>
+      </c>
+      <c r="I71" t="s">
         <v>264</v>
       </c>
-      <c r="I71" t="s">
-        <v>265</v>
-      </c>
       <c r="J71" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K71" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L71" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M71" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="72" spans="1:13">
       <c r="A72" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B72" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C72" t="s">
+        <v>292</v>
+      </c>
+      <c r="D72" t="s">
+        <v>260</v>
+      </c>
+      <c r="E72" t="s">
+        <v>29</v>
+      </c>
+      <c r="F72" t="s">
         <v>293</v>
       </c>
-      <c r="D72" t="s">
-        <v>261</v>
-      </c>
-      <c r="E72" t="s">
-        <v>30</v>
-      </c>
-      <c r="F72" t="s">
+      <c r="G72" t="s">
         <v>294</v>
       </c>
-      <c r="G72" t="s">
-        <v>295</v>
-      </c>
       <c r="H72" t="s">
+        <v>277</v>
+      </c>
+      <c r="I72" t="s">
         <v>278</v>
       </c>
-      <c r="I72" t="s">
-        <v>279</v>
-      </c>
       <c r="J72" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K72" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L72" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M72" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="73" spans="1:13">
       <c r="A73" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="74" spans="1:13">
       <c r="C74" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D74" t="s">
+        <v>296</v>
+      </c>
+      <c r="E74" t="s">
+        <v>29</v>
+      </c>
+      <c r="F74" t="s">
         <v>297</v>
       </c>
-      <c r="E74" t="s">
-        <v>30</v>
-      </c>
-      <c r="F74" t="s">
+      <c r="G74" t="s">
         <v>298</v>
       </c>
-      <c r="G74" t="s">
-        <v>299</v>
-      </c>
       <c r="H74" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I74" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J74" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K74" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L74" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M74" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="75" spans="1:13">
       <c r="D75" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E75" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F75" t="s">
+        <v>299</v>
+      </c>
+      <c r="G75" t="s">
         <v>300</v>
       </c>
-      <c r="G75" t="s">
-        <v>301</v>
-      </c>
       <c r="H75" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I75" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J75" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K75" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L75" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M75" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="76" spans="1:13">
       <c r="C76" t="s">
+        <v>33</v>
+      </c>
+      <c r="D76" t="s">
+        <v>296</v>
+      </c>
+      <c r="E76" t="s">
         <v>34</v>
       </c>
-      <c r="D76" t="s">
-        <v>297</v>
-      </c>
-      <c r="E76" t="s">
-        <v>35</v>
-      </c>
       <c r="F76" t="s">
+        <v>301</v>
+      </c>
+      <c r="G76" t="s">
         <v>302</v>
       </c>
-      <c r="G76" t="s">
-        <v>303</v>
-      </c>
       <c r="H76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I76" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J76" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K76" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L76" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M76" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="77" spans="1:13">
       <c r="A77" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B77" t="s">
+        <v>304</v>
+      </c>
+      <c r="C77" t="s">
         <v>305</v>
       </c>
-      <c r="C77" t="s">
+      <c r="D77" t="s">
+        <v>254</v>
+      </c>
+      <c r="E77" t="s">
+        <v>34</v>
+      </c>
+      <c r="F77" t="s">
         <v>306</v>
       </c>
-      <c r="D77" t="s">
-        <v>255</v>
-      </c>
-      <c r="E77" t="s">
-        <v>35</v>
-      </c>
-      <c r="F77" t="s">
+      <c r="G77" t="s">
         <v>307</v>
       </c>
-      <c r="G77" t="s">
-        <v>308</v>
-      </c>
       <c r="H77" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I77" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J77" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K77" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L77" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M77" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A1:M1"/>
+  <mergeCells count="7">
     <mergeCell ref="A4:M4"/>
     <mergeCell ref="A15:M15"/>
     <mergeCell ref="A53:M53"/>

--- a/Rich Products Corporation - HQ @ Buffalo, NY.xlsx
+++ b/Rich Products Corporation - HQ @ Buffalo, NY.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="282">
   <si>
     <t>Column1</t>
   </si>
@@ -721,63 +721,6 @@
     <t>Router(37)</t>
   </si>
   <si>
-    <t>Cisco UCM</t>
-  </si>
-  <si>
-    <t>CCM01</t>
-  </si>
-  <si>
-    <t>10.14.1.30</t>
-  </si>
-  <si>
-    <t>other</t>
-  </si>
-  <si>
-    <t>ccm02</t>
-  </si>
-  <si>
-    <t>10.14.1.31</t>
-  </si>
-  <si>
-    <t>ccm03</t>
-  </si>
-  <si>
-    <t>10.75.6.100</t>
-  </si>
-  <si>
-    <t>RPIGBCUCM01</t>
-  </si>
-  <si>
-    <t>10.216.42.50</t>
-  </si>
-  <si>
-    <t>RPIGBCUCM02</t>
-  </si>
-  <si>
-    <t>10.216.42.51</t>
-  </si>
-  <si>
-    <t>Cisco UCM(5)</t>
-  </si>
-  <si>
-    <t>Cisco Unity</t>
-  </si>
-  <si>
-    <t>cuc01</t>
-  </si>
-  <si>
-    <t>10.14.1.55</t>
-  </si>
-  <si>
-    <t>cuc02</t>
-  </si>
-  <si>
-    <t>10.75.6.101</t>
-  </si>
-  <si>
-    <t>Cisco Unity(2)</t>
-  </si>
-  <si>
     <t>Network Device</t>
   </si>
   <si>
@@ -904,30 +847,6 @@
     <t>Switch(9)</t>
   </si>
   <si>
-    <t>Cisco Contact Center Express</t>
-  </si>
-  <si>
-    <t>rpdc2uccx02</t>
-  </si>
-  <si>
-    <t>10.75.6.102</t>
-  </si>
-  <si>
-    <t>rpigbcuc01</t>
-  </si>
-  <si>
-    <t>10.216.42.52</t>
-  </si>
-  <si>
-    <t>rpwhquccc01</t>
-  </si>
-  <si>
-    <t>10.14.1.50</t>
-  </si>
-  <si>
-    <t>Cisco Contact Center Express(3)</t>
-  </si>
-  <si>
     <t>Cisco VG450</t>
   </si>
   <si>
@@ -940,7 +859,7 @@
     <t>10.3.16.11</t>
   </si>
   <si>
-    <t>Network Device(68)</t>
+    <t>Network Device(58)</t>
   </si>
 </sst>
 </file>
@@ -988,8 +907,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:M78" totalsRowCount="1">
-  <autoFilter ref="A1:M77"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:M78" totalsRowCount="1">
+  <autoFilter ref="A2:M77"/>
   <tableColumns count="13">
     <tableColumn id="1" name="Column1"/>
     <tableColumn id="2" name="Column2"/>
@@ -1294,53 +1213,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M77"/>
+  <dimension ref="A2:M64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-    </row>
     <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>13</v>
@@ -1384,7 +1262,7 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3" t="s">
-        <v>308</v>
+        <v>281</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -3313,130 +3191,151 @@
       </c>
     </row>
     <row r="53" spans="1:13">
-      <c r="A53" t="s">
-        <v>247</v>
+      <c r="D53" t="s">
+        <v>235</v>
+      </c>
+      <c r="E53" t="s">
+        <v>34</v>
+      </c>
+      <c r="F53" t="s">
+        <v>236</v>
+      </c>
+      <c r="G53" t="s">
+        <v>237</v>
+      </c>
+      <c r="H53" t="s">
+        <v>238</v>
+      </c>
+      <c r="I53" t="s">
+        <v>33</v>
+      </c>
+      <c r="J53" t="s">
+        <v>33</v>
+      </c>
+      <c r="K53" t="s">
+        <v>33</v>
+      </c>
+      <c r="L53" t="s">
+        <v>33</v>
+      </c>
+      <c r="M53" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="54" spans="1:13">
-      <c r="D54" t="s">
-        <v>235</v>
-      </c>
-      <c r="E54" t="s">
-        <v>34</v>
-      </c>
-      <c r="F54" t="s">
-        <v>236</v>
-      </c>
-      <c r="G54" t="s">
-        <v>237</v>
-      </c>
-      <c r="H54" t="s">
-        <v>238</v>
-      </c>
-      <c r="I54" t="s">
-        <v>33</v>
-      </c>
-      <c r="J54" t="s">
-        <v>33</v>
-      </c>
-      <c r="K54" t="s">
-        <v>33</v>
-      </c>
-      <c r="L54" t="s">
-        <v>33</v>
-      </c>
-      <c r="M54" t="s">
-        <v>33</v>
+      <c r="A54" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="55" spans="1:13">
+      <c r="A55" t="s">
+        <v>45</v>
+      </c>
+      <c r="B55" t="s">
+        <v>239</v>
+      </c>
       <c r="C55" t="s">
-        <v>33</v>
+        <v>240</v>
       </c>
       <c r="D55" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="E55" t="s">
         <v>34</v>
       </c>
       <c r="F55" t="s">
+        <v>242</v>
+      </c>
+      <c r="G55" t="s">
+        <v>243</v>
+      </c>
+      <c r="H55" t="s">
+        <v>244</v>
+      </c>
+      <c r="I55" t="s">
+        <v>245</v>
+      </c>
+      <c r="J55" t="s">
+        <v>33</v>
+      </c>
+      <c r="K55" t="s">
+        <v>33</v>
+      </c>
+      <c r="L55" t="s">
+        <v>33</v>
+      </c>
+      <c r="M55" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
+      <c r="A56" t="s">
+        <v>45</v>
+      </c>
+      <c r="B56" t="s">
+        <v>246</v>
+      </c>
+      <c r="C56" t="s">
+        <v>247</v>
+      </c>
+      <c r="D56" t="s">
+        <v>241</v>
+      </c>
+      <c r="E56" t="s">
+        <v>34</v>
+      </c>
+      <c r="F56" t="s">
+        <v>248</v>
+      </c>
+      <c r="G56" t="s">
+        <v>249</v>
+      </c>
+      <c r="H56" t="s">
+        <v>244</v>
+      </c>
+      <c r="I56" t="s">
+        <v>245</v>
+      </c>
+      <c r="J56" t="s">
+        <v>33</v>
+      </c>
+      <c r="K56" t="s">
+        <v>33</v>
+      </c>
+      <c r="L56" t="s">
+        <v>33</v>
+      </c>
+      <c r="M56" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
+      <c r="A57" t="s">
+        <v>45</v>
+      </c>
+      <c r="B57" t="s">
         <v>239</v>
       </c>
-      <c r="G55" t="s">
-        <v>240</v>
-      </c>
-      <c r="H55" t="s">
-        <v>238</v>
-      </c>
-      <c r="I55" t="s">
-        <v>33</v>
-      </c>
-      <c r="J55" t="s">
-        <v>33</v>
-      </c>
-      <c r="K55" t="s">
-        <v>33</v>
-      </c>
-      <c r="L55" t="s">
-        <v>33</v>
-      </c>
-      <c r="M55" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
-      <c r="C56" t="s">
-        <v>33</v>
-      </c>
-      <c r="D56" t="s">
-        <v>235</v>
-      </c>
-      <c r="E56" t="s">
-        <v>29</v>
-      </c>
-      <c r="F56" t="s">
+      <c r="C57" t="s">
+        <v>250</v>
+      </c>
+      <c r="D57" t="s">
         <v>241</v>
       </c>
-      <c r="G56" t="s">
-        <v>242</v>
-      </c>
-      <c r="H56" t="s">
-        <v>238</v>
-      </c>
-      <c r="I56" t="s">
-        <v>33</v>
-      </c>
-      <c r="J56" t="s">
-        <v>33</v>
-      </c>
-      <c r="K56" t="s">
-        <v>33</v>
-      </c>
-      <c r="L56" t="s">
-        <v>33</v>
-      </c>
-      <c r="M56" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
-      <c r="D57" t="s">
-        <v>235</v>
-      </c>
       <c r="E57" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="F57" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="G57" t="s">
+        <v>252</v>
+      </c>
+      <c r="H57" t="s">
         <v>244</v>
       </c>
-      <c r="H57" t="s">
-        <v>238</v>
-      </c>
       <c r="I57" t="s">
-        <v>33</v>
+        <v>253</v>
       </c>
       <c r="J57" t="s">
         <v>33</v>
@@ -3452,23 +3351,32 @@
       </c>
     </row>
     <row r="58" spans="1:13">
+      <c r="A58" t="s">
+        <v>45</v>
+      </c>
+      <c r="B58" t="s">
+        <v>254</v>
+      </c>
+      <c r="C58" t="s">
+        <v>255</v>
+      </c>
       <c r="D58" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="E58" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="F58" t="s">
-        <v>245</v>
+        <v>256</v>
       </c>
       <c r="G58" t="s">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c r="H58" t="s">
-        <v>238</v>
+        <v>258</v>
       </c>
       <c r="I58" t="s">
-        <v>33</v>
+        <v>259</v>
       </c>
       <c r="J58" t="s">
         <v>33</v>
@@ -3485,30 +3393,72 @@
     </row>
     <row r="59" spans="1:13">
       <c r="A59" t="s">
-        <v>253</v>
+        <v>45</v>
+      </c>
+      <c r="B59" t="s">
+        <v>254</v>
+      </c>
+      <c r="C59" t="s">
+        <v>260</v>
+      </c>
+      <c r="D59" t="s">
+        <v>241</v>
+      </c>
+      <c r="E59" t="s">
+        <v>34</v>
+      </c>
+      <c r="F59" t="s">
+        <v>261</v>
+      </c>
+      <c r="G59" t="s">
+        <v>262</v>
+      </c>
+      <c r="H59" t="s">
+        <v>258</v>
+      </c>
+      <c r="I59" t="s">
+        <v>259</v>
+      </c>
+      <c r="J59" t="s">
+        <v>33</v>
+      </c>
+      <c r="K59" t="s">
+        <v>33</v>
+      </c>
+      <c r="L59" t="s">
+        <v>33</v>
+      </c>
+      <c r="M59" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="60" spans="1:13">
+      <c r="A60" t="s">
+        <v>45</v>
+      </c>
+      <c r="B60" t="s">
+        <v>246</v>
+      </c>
       <c r="C60" t="s">
-        <v>33</v>
+        <v>263</v>
       </c>
       <c r="D60" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="E60" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F60" t="s">
-        <v>249</v>
+        <v>264</v>
       </c>
       <c r="G60" t="s">
-        <v>250</v>
+        <v>265</v>
       </c>
       <c r="H60" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="I60" t="s">
-        <v>33</v>
+        <v>245</v>
       </c>
       <c r="J60" t="s">
         <v>33</v>
@@ -3524,26 +3474,32 @@
       </c>
     </row>
     <row r="61" spans="1:13">
+      <c r="A61" t="s">
+        <v>45</v>
+      </c>
+      <c r="B61" t="s">
+        <v>266</v>
+      </c>
       <c r="C61" t="s">
-        <v>33</v>
+        <v>267</v>
       </c>
       <c r="D61" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="E61" t="s">
         <v>29</v>
       </c>
       <c r="F61" t="s">
-        <v>251</v>
+        <v>268</v>
       </c>
       <c r="G61" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="H61" t="s">
-        <v>238</v>
+        <v>258</v>
       </c>
       <c r="I61" t="s">
-        <v>33</v>
+        <v>259</v>
       </c>
       <c r="J61" t="s">
         <v>33</v>
@@ -3559,23 +3515,32 @@
       </c>
     </row>
     <row r="62" spans="1:13">
+      <c r="A62" t="s">
+        <v>45</v>
+      </c>
+      <c r="B62" t="s">
+        <v>239</v>
+      </c>
+      <c r="C62" t="s">
+        <v>270</v>
+      </c>
       <c r="D62" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="E62" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F62" t="s">
-        <v>255</v>
+        <v>271</v>
       </c>
       <c r="G62" t="s">
-        <v>256</v>
+        <v>272</v>
       </c>
       <c r="H62" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="I62" t="s">
-        <v>33</v>
+        <v>245</v>
       </c>
       <c r="J62" t="s">
         <v>33</v>
@@ -3592,7 +3557,43 @@
     </row>
     <row r="63" spans="1:13">
       <c r="A63" t="s">
-        <v>295</v>
+        <v>45</v>
+      </c>
+      <c r="B63" t="s">
+        <v>266</v>
+      </c>
+      <c r="C63" t="s">
+        <v>273</v>
+      </c>
+      <c r="D63" t="s">
+        <v>241</v>
+      </c>
+      <c r="E63" t="s">
+        <v>29</v>
+      </c>
+      <c r="F63" t="s">
+        <v>274</v>
+      </c>
+      <c r="G63" t="s">
+        <v>275</v>
+      </c>
+      <c r="H63" t="s">
+        <v>258</v>
+      </c>
+      <c r="I63" t="s">
+        <v>259</v>
+      </c>
+      <c r="J63" t="s">
+        <v>33</v>
+      </c>
+      <c r="K63" t="s">
+        <v>33</v>
+      </c>
+      <c r="L63" t="s">
+        <v>33</v>
+      </c>
+      <c r="M63" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="64" spans="1:13">
@@ -3600,28 +3601,28 @@
         <v>45</v>
       </c>
       <c r="B64" t="s">
-        <v>258</v>
+        <v>277</v>
       </c>
       <c r="C64" t="s">
-        <v>259</v>
+        <v>278</v>
       </c>
       <c r="D64" t="s">
-        <v>260</v>
+        <v>235</v>
       </c>
       <c r="E64" t="s">
         <v>34</v>
       </c>
       <c r="F64" t="s">
-        <v>261</v>
+        <v>279</v>
       </c>
       <c r="G64" t="s">
-        <v>262</v>
+        <v>280</v>
       </c>
       <c r="H64" t="s">
-        <v>263</v>
+        <v>244</v>
       </c>
       <c r="I64" t="s">
-        <v>264</v>
+        <v>33</v>
       </c>
       <c r="J64" t="s">
         <v>33</v>
@@ -3636,490 +3637,11 @@
         <v>33</v>
       </c>
     </row>
-    <row r="65" spans="1:13">
-      <c r="A65" t="s">
-        <v>45</v>
-      </c>
-      <c r="B65" t="s">
-        <v>265</v>
-      </c>
-      <c r="C65" t="s">
-        <v>266</v>
-      </c>
-      <c r="D65" t="s">
-        <v>260</v>
-      </c>
-      <c r="E65" t="s">
-        <v>34</v>
-      </c>
-      <c r="F65" t="s">
-        <v>267</v>
-      </c>
-      <c r="G65" t="s">
-        <v>268</v>
-      </c>
-      <c r="H65" t="s">
-        <v>263</v>
-      </c>
-      <c r="I65" t="s">
-        <v>264</v>
-      </c>
-      <c r="J65" t="s">
-        <v>33</v>
-      </c>
-      <c r="K65" t="s">
-        <v>33</v>
-      </c>
-      <c r="L65" t="s">
-        <v>33</v>
-      </c>
-      <c r="M65" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13">
-      <c r="A66" t="s">
-        <v>45</v>
-      </c>
-      <c r="B66" t="s">
-        <v>258</v>
-      </c>
-      <c r="C66" t="s">
-        <v>269</v>
-      </c>
-      <c r="D66" t="s">
-        <v>260</v>
-      </c>
-      <c r="E66" t="s">
-        <v>34</v>
-      </c>
-      <c r="F66" t="s">
-        <v>270</v>
-      </c>
-      <c r="G66" t="s">
-        <v>271</v>
-      </c>
-      <c r="H66" t="s">
-        <v>263</v>
-      </c>
-      <c r="I66" t="s">
-        <v>272</v>
-      </c>
-      <c r="J66" t="s">
-        <v>33</v>
-      </c>
-      <c r="K66" t="s">
-        <v>33</v>
-      </c>
-      <c r="L66" t="s">
-        <v>33</v>
-      </c>
-      <c r="M66" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13">
-      <c r="A67" t="s">
-        <v>45</v>
-      </c>
-      <c r="B67" t="s">
-        <v>273</v>
-      </c>
-      <c r="C67" t="s">
-        <v>274</v>
-      </c>
-      <c r="D67" t="s">
-        <v>260</v>
-      </c>
-      <c r="E67" t="s">
-        <v>34</v>
-      </c>
-      <c r="F67" t="s">
-        <v>275</v>
-      </c>
-      <c r="G67" t="s">
-        <v>276</v>
-      </c>
-      <c r="H67" t="s">
-        <v>277</v>
-      </c>
-      <c r="I67" t="s">
-        <v>278</v>
-      </c>
-      <c r="J67" t="s">
-        <v>33</v>
-      </c>
-      <c r="K67" t="s">
-        <v>33</v>
-      </c>
-      <c r="L67" t="s">
-        <v>33</v>
-      </c>
-      <c r="M67" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13">
-      <c r="A68" t="s">
-        <v>45</v>
-      </c>
-      <c r="B68" t="s">
-        <v>273</v>
-      </c>
-      <c r="C68" t="s">
-        <v>279</v>
-      </c>
-      <c r="D68" t="s">
-        <v>260</v>
-      </c>
-      <c r="E68" t="s">
-        <v>34</v>
-      </c>
-      <c r="F68" t="s">
-        <v>280</v>
-      </c>
-      <c r="G68" t="s">
-        <v>281</v>
-      </c>
-      <c r="H68" t="s">
-        <v>277</v>
-      </c>
-      <c r="I68" t="s">
-        <v>278</v>
-      </c>
-      <c r="J68" t="s">
-        <v>33</v>
-      </c>
-      <c r="K68" t="s">
-        <v>33</v>
-      </c>
-      <c r="L68" t="s">
-        <v>33</v>
-      </c>
-      <c r="M68" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13">
-      <c r="A69" t="s">
-        <v>45</v>
-      </c>
-      <c r="B69" t="s">
-        <v>265</v>
-      </c>
-      <c r="C69" t="s">
-        <v>282</v>
-      </c>
-      <c r="D69" t="s">
-        <v>260</v>
-      </c>
-      <c r="E69" t="s">
-        <v>29</v>
-      </c>
-      <c r="F69" t="s">
-        <v>283</v>
-      </c>
-      <c r="G69" t="s">
-        <v>284</v>
-      </c>
-      <c r="H69" t="s">
-        <v>263</v>
-      </c>
-      <c r="I69" t="s">
-        <v>264</v>
-      </c>
-      <c r="J69" t="s">
-        <v>33</v>
-      </c>
-      <c r="K69" t="s">
-        <v>33</v>
-      </c>
-      <c r="L69" t="s">
-        <v>33</v>
-      </c>
-      <c r="M69" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13">
-      <c r="A70" t="s">
-        <v>45</v>
-      </c>
-      <c r="B70" t="s">
-        <v>285</v>
-      </c>
-      <c r="C70" t="s">
-        <v>286</v>
-      </c>
-      <c r="D70" t="s">
-        <v>260</v>
-      </c>
-      <c r="E70" t="s">
-        <v>29</v>
-      </c>
-      <c r="F70" t="s">
-        <v>287</v>
-      </c>
-      <c r="G70" t="s">
-        <v>288</v>
-      </c>
-      <c r="H70" t="s">
-        <v>277</v>
-      </c>
-      <c r="I70" t="s">
-        <v>278</v>
-      </c>
-      <c r="J70" t="s">
-        <v>33</v>
-      </c>
-      <c r="K70" t="s">
-        <v>33</v>
-      </c>
-      <c r="L70" t="s">
-        <v>33</v>
-      </c>
-      <c r="M70" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13">
-      <c r="A71" t="s">
-        <v>45</v>
-      </c>
-      <c r="B71" t="s">
-        <v>258</v>
-      </c>
-      <c r="C71" t="s">
-        <v>289</v>
-      </c>
-      <c r="D71" t="s">
-        <v>260</v>
-      </c>
-      <c r="E71" t="s">
-        <v>29</v>
-      </c>
-      <c r="F71" t="s">
-        <v>290</v>
-      </c>
-      <c r="G71" t="s">
-        <v>291</v>
-      </c>
-      <c r="H71" t="s">
-        <v>263</v>
-      </c>
-      <c r="I71" t="s">
-        <v>264</v>
-      </c>
-      <c r="J71" t="s">
-        <v>33</v>
-      </c>
-      <c r="K71" t="s">
-        <v>33</v>
-      </c>
-      <c r="L71" t="s">
-        <v>33</v>
-      </c>
-      <c r="M71" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13">
-      <c r="A72" t="s">
-        <v>45</v>
-      </c>
-      <c r="B72" t="s">
-        <v>285</v>
-      </c>
-      <c r="C72" t="s">
-        <v>292</v>
-      </c>
-      <c r="D72" t="s">
-        <v>260</v>
-      </c>
-      <c r="E72" t="s">
-        <v>29</v>
-      </c>
-      <c r="F72" t="s">
-        <v>293</v>
-      </c>
-      <c r="G72" t="s">
-        <v>294</v>
-      </c>
-      <c r="H72" t="s">
-        <v>277</v>
-      </c>
-      <c r="I72" t="s">
-        <v>278</v>
-      </c>
-      <c r="J72" t="s">
-        <v>33</v>
-      </c>
-      <c r="K72" t="s">
-        <v>33</v>
-      </c>
-      <c r="L72" t="s">
-        <v>33</v>
-      </c>
-      <c r="M72" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13">
-      <c r="A73" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13">
-      <c r="C74" t="s">
-        <v>33</v>
-      </c>
-      <c r="D74" t="s">
-        <v>296</v>
-      </c>
-      <c r="E74" t="s">
-        <v>29</v>
-      </c>
-      <c r="F74" t="s">
-        <v>297</v>
-      </c>
-      <c r="G74" t="s">
-        <v>298</v>
-      </c>
-      <c r="H74" t="s">
-        <v>238</v>
-      </c>
-      <c r="I74" t="s">
-        <v>33</v>
-      </c>
-      <c r="J74" t="s">
-        <v>33</v>
-      </c>
-      <c r="K74" t="s">
-        <v>33</v>
-      </c>
-      <c r="L74" t="s">
-        <v>33</v>
-      </c>
-      <c r="M74" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13">
-      <c r="D75" t="s">
-        <v>296</v>
-      </c>
-      <c r="E75" t="s">
-        <v>48</v>
-      </c>
-      <c r="F75" t="s">
-        <v>299</v>
-      </c>
-      <c r="G75" t="s">
-        <v>300</v>
-      </c>
-      <c r="H75" t="s">
-        <v>238</v>
-      </c>
-      <c r="I75" t="s">
-        <v>33</v>
-      </c>
-      <c r="J75" t="s">
-        <v>33</v>
-      </c>
-      <c r="K75" t="s">
-        <v>33</v>
-      </c>
-      <c r="L75" t="s">
-        <v>33</v>
-      </c>
-      <c r="M75" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13">
-      <c r="C76" t="s">
-        <v>33</v>
-      </c>
-      <c r="D76" t="s">
-        <v>296</v>
-      </c>
-      <c r="E76" t="s">
-        <v>34</v>
-      </c>
-      <c r="F76" t="s">
-        <v>301</v>
-      </c>
-      <c r="G76" t="s">
-        <v>302</v>
-      </c>
-      <c r="H76" t="s">
-        <v>238</v>
-      </c>
-      <c r="I76" t="s">
-        <v>33</v>
-      </c>
-      <c r="J76" t="s">
-        <v>33</v>
-      </c>
-      <c r="K76" t="s">
-        <v>33</v>
-      </c>
-      <c r="L76" t="s">
-        <v>33</v>
-      </c>
-      <c r="M76" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13">
-      <c r="A77" t="s">
-        <v>45</v>
-      </c>
-      <c r="B77" t="s">
-        <v>304</v>
-      </c>
-      <c r="C77" t="s">
-        <v>305</v>
-      </c>
-      <c r="D77" t="s">
-        <v>254</v>
-      </c>
-      <c r="E77" t="s">
-        <v>34</v>
-      </c>
-      <c r="F77" t="s">
-        <v>306</v>
-      </c>
-      <c r="G77" t="s">
-        <v>307</v>
-      </c>
-      <c r="H77" t="s">
-        <v>263</v>
-      </c>
-      <c r="I77" t="s">
-        <v>33</v>
-      </c>
-      <c r="J77" t="s">
-        <v>33</v>
-      </c>
-      <c r="K77" t="s">
-        <v>33</v>
-      </c>
-      <c r="L77" t="s">
-        <v>33</v>
-      </c>
-      <c r="M77" t="s">
-        <v>33</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="4">
     <mergeCell ref="A4:M4"/>
     <mergeCell ref="A15:M15"/>
-    <mergeCell ref="A53:M53"/>
-    <mergeCell ref="A59:M59"/>
-    <mergeCell ref="A63:M63"/>
-    <mergeCell ref="A73:M73"/>
+    <mergeCell ref="A54:M54"/>
     <mergeCell ref="A3:M3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Rich Products Corporation - HQ @ Buffalo, NY.xlsx
+++ b/Rich Products Corporation - HQ @ Buffalo, NY.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="278">
   <si>
     <t>Column1</t>
   </si>
@@ -202,9 +202,6 @@
     <t>172.16.200.214</t>
   </si>
   <si>
-    <t>Firewall(10)</t>
-  </si>
-  <si>
     <t>ISR4331-3x1GE</t>
   </si>
   <si>
@@ -718,9 +715,6 @@
     <t>15.6(2)T1, RELEASE SOFTWARE (fc1)</t>
   </si>
   <si>
-    <t>Router(37)</t>
-  </si>
-  <si>
     <t>Network Device</t>
   </si>
   <si>
@@ -844,9 +838,6 @@
     <t>172.16.200.8</t>
   </si>
   <si>
-    <t>Switch(9)</t>
-  </si>
-  <si>
     <t>Cisco VG450</t>
   </si>
   <si>
@@ -857,9 +848,6 @@
   </si>
   <si>
     <t>10.3.16.11</t>
-  </si>
-  <si>
-    <t>Network Device(58)</t>
   </si>
 </sst>
 </file>
@@ -907,8 +895,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:M78" totalsRowCount="1">
-  <autoFilter ref="A2:M77"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:M78" totalsRowCount="1">
+  <autoFilter ref="A1:M77"/>
   <tableColumns count="13">
     <tableColumn id="1" name="Column1"/>
     <tableColumn id="2" name="Column2"/>
@@ -1213,12 +1201,53 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:M64"/>
+  <dimension ref="A1:M64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+    </row>
     <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>13</v>
@@ -1260,16 +1289,6 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
-      <c r="A3" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" t="s">
-        <v>62</v>
-      </c>
-    </row>
     <row r="5" spans="1:13">
       <c r="A5" t="s">
         <v>26</v>
@@ -1668,38 +1687,33 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
-      <c r="A15" t="s">
-        <v>234</v>
-      </c>
-    </row>
     <row r="16" spans="1:13">
       <c r="A16" t="s">
         <v>26</v>
       </c>
       <c r="B16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" t="s">
         <v>63</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>64</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>65</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>66</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>67</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>68</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>69</v>
-      </c>
-      <c r="I16" t="s">
-        <v>70</v>
       </c>
       <c r="J16" t="s">
         <v>33</v>
@@ -1719,25 +1733,25 @@
         <v>26</v>
       </c>
       <c r="B17" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" t="s">
         <v>71</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" t="s">
         <v>72</v>
       </c>
-      <c r="D17" t="s">
-        <v>65</v>
-      </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>73</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>74</v>
       </c>
-      <c r="G17" t="s">
-        <v>75</v>
-      </c>
       <c r="H17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I17" t="s">
         <v>33</v>
@@ -1760,28 +1774,28 @@
         <v>26</v>
       </c>
       <c r="B18" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" t="s">
         <v>76</v>
       </c>
-      <c r="C18" t="s">
-        <v>77</v>
-      </c>
       <c r="D18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E18" t="s">
         <v>48</v>
       </c>
       <c r="F18" t="s">
+        <v>77</v>
+      </c>
+      <c r="G18" t="s">
         <v>78</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
+        <v>68</v>
+      </c>
+      <c r="I18" t="s">
         <v>79</v>
-      </c>
-      <c r="H18" t="s">
-        <v>69</v>
-      </c>
-      <c r="I18" t="s">
-        <v>80</v>
       </c>
       <c r="J18" t="s">
         <v>33</v>
@@ -1801,28 +1815,28 @@
         <v>26</v>
       </c>
       <c r="B19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C19" t="s">
+        <v>80</v>
+      </c>
+      <c r="D19" t="s">
+        <v>64</v>
+      </c>
+      <c r="E19" t="s">
         <v>81</v>
       </c>
-      <c r="D19" t="s">
-        <v>65</v>
-      </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>82</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>83</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
+        <v>68</v>
+      </c>
+      <c r="I19" t="s">
         <v>84</v>
-      </c>
-      <c r="H19" t="s">
-        <v>69</v>
-      </c>
-      <c r="I19" t="s">
-        <v>85</v>
       </c>
       <c r="J19" t="s">
         <v>33</v>
@@ -1842,28 +1856,28 @@
         <v>26</v>
       </c>
       <c r="B20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C20" t="s">
+        <v>85</v>
+      </c>
+      <c r="D20" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" t="s">
         <v>86</v>
       </c>
-      <c r="D20" t="s">
-        <v>65</v>
-      </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>87</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>88</v>
       </c>
-      <c r="G20" t="s">
-        <v>89</v>
-      </c>
       <c r="H20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J20" t="s">
         <v>33</v>
@@ -1883,28 +1897,28 @@
         <v>26</v>
       </c>
       <c r="B21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C21" t="s">
+        <v>89</v>
+      </c>
+      <c r="D21" t="s">
+        <v>64</v>
+      </c>
+      <c r="E21" t="s">
         <v>90</v>
       </c>
-      <c r="D21" t="s">
-        <v>65</v>
-      </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>91</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>92</v>
       </c>
-      <c r="G21" t="s">
-        <v>93</v>
-      </c>
       <c r="H21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J21" t="s">
         <v>33</v>
@@ -1924,28 +1938,28 @@
         <v>26</v>
       </c>
       <c r="B22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C22" t="s">
+        <v>93</v>
+      </c>
+      <c r="D22" t="s">
+        <v>64</v>
+      </c>
+      <c r="E22" t="s">
         <v>94</v>
       </c>
-      <c r="D22" t="s">
-        <v>65</v>
-      </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>95</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>96</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
+        <v>68</v>
+      </c>
+      <c r="I22" t="s">
         <v>97</v>
-      </c>
-      <c r="H22" t="s">
-        <v>69</v>
-      </c>
-      <c r="I22" t="s">
-        <v>98</v>
       </c>
       <c r="J22" t="s">
         <v>33</v>
@@ -1965,28 +1979,28 @@
         <v>26</v>
       </c>
       <c r="B23" t="s">
+        <v>98</v>
+      </c>
+      <c r="C23" t="s">
         <v>99</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
+        <v>64</v>
+      </c>
+      <c r="E23" t="s">
         <v>100</v>
       </c>
-      <c r="D23" t="s">
-        <v>65</v>
-      </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>101</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>102</v>
       </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
+        <v>68</v>
+      </c>
+      <c r="I23" t="s">
         <v>103</v>
-      </c>
-      <c r="H23" t="s">
-        <v>69</v>
-      </c>
-      <c r="I23" t="s">
-        <v>104</v>
       </c>
       <c r="J23" t="s">
         <v>33</v>
@@ -2006,28 +2020,28 @@
         <v>45</v>
       </c>
       <c r="B24" t="s">
+        <v>104</v>
+      </c>
+      <c r="C24" t="s">
         <v>105</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
+        <v>64</v>
+      </c>
+      <c r="E24" t="s">
+        <v>100</v>
+      </c>
+      <c r="F24" t="s">
         <v>106</v>
       </c>
-      <c r="D24" t="s">
-        <v>65</v>
-      </c>
-      <c r="E24" t="s">
-        <v>101</v>
-      </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>107</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
+        <v>68</v>
+      </c>
+      <c r="I24" t="s">
         <v>108</v>
-      </c>
-      <c r="H24" t="s">
-        <v>69</v>
-      </c>
-      <c r="I24" t="s">
-        <v>109</v>
       </c>
       <c r="J24" t="s">
         <v>33</v>
@@ -2047,28 +2061,28 @@
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C25" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E25" t="s">
         <v>34</v>
       </c>
       <c r="F25" t="s">
+        <v>110</v>
+      </c>
+      <c r="G25" t="s">
         <v>111</v>
       </c>
-      <c r="G25" t="s">
+      <c r="H25" t="s">
+        <v>68</v>
+      </c>
+      <c r="I25" t="s">
         <v>112</v>
-      </c>
-      <c r="H25" t="s">
-        <v>69</v>
-      </c>
-      <c r="I25" t="s">
-        <v>113</v>
       </c>
       <c r="J25" t="s">
         <v>33</v>
@@ -2088,28 +2102,28 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C26" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D26" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E26" t="s">
         <v>34</v>
       </c>
       <c r="F26" t="s">
+        <v>114</v>
+      </c>
+      <c r="G26" t="s">
         <v>115</v>
       </c>
-      <c r="G26" t="s">
-        <v>116</v>
-      </c>
       <c r="H26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I26" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J26" t="s">
         <v>33</v>
@@ -2129,28 +2143,28 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C27" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D27" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E27" t="s">
         <v>29</v>
       </c>
       <c r="F27" t="s">
+        <v>117</v>
+      </c>
+      <c r="G27" t="s">
         <v>118</v>
       </c>
-      <c r="G27" t="s">
-        <v>119</v>
-      </c>
       <c r="H27" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I27" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J27" t="s">
         <v>33</v>
@@ -2170,28 +2184,28 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C28" t="s">
+        <v>119</v>
+      </c>
+      <c r="D28" t="s">
+        <v>64</v>
+      </c>
+      <c r="E28" t="s">
         <v>120</v>
       </c>
-      <c r="D28" t="s">
-        <v>65</v>
-      </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>121</v>
       </c>
-      <c r="F28" t="s">
+      <c r="G28" t="s">
         <v>122</v>
       </c>
-      <c r="G28" t="s">
-        <v>123</v>
-      </c>
       <c r="H28" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I28" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J28" t="s">
         <v>33</v>
@@ -2211,28 +2225,28 @@
         <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C29" t="s">
+        <v>123</v>
+      </c>
+      <c r="D29" t="s">
+        <v>64</v>
+      </c>
+      <c r="E29" t="s">
         <v>124</v>
       </c>
-      <c r="D29" t="s">
-        <v>65</v>
-      </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>125</v>
       </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
         <v>126</v>
       </c>
-      <c r="G29" t="s">
+      <c r="H29" t="s">
+        <v>68</v>
+      </c>
+      <c r="I29" t="s">
         <v>127</v>
-      </c>
-      <c r="H29" t="s">
-        <v>69</v>
-      </c>
-      <c r="I29" t="s">
-        <v>128</v>
       </c>
       <c r="J29" t="s">
         <v>33</v>
@@ -2252,28 +2266,28 @@
         <v>26</v>
       </c>
       <c r="B30" t="s">
+        <v>128</v>
+      </c>
+      <c r="C30" t="s">
         <v>129</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
+        <v>64</v>
+      </c>
+      <c r="E30" t="s">
+        <v>124</v>
+      </c>
+      <c r="F30" t="s">
         <v>130</v>
       </c>
-      <c r="D30" t="s">
-        <v>65</v>
-      </c>
-      <c r="E30" t="s">
-        <v>125</v>
-      </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
         <v>131</v>
       </c>
-      <c r="G30" t="s">
+      <c r="H30" t="s">
+        <v>68</v>
+      </c>
+      <c r="I30" t="s">
         <v>132</v>
-      </c>
-      <c r="H30" t="s">
-        <v>69</v>
-      </c>
-      <c r="I30" t="s">
-        <v>133</v>
       </c>
       <c r="J30" t="s">
         <v>33</v>
@@ -2293,28 +2307,28 @@
         <v>26</v>
       </c>
       <c r="B31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C31" t="s">
+        <v>133</v>
+      </c>
+      <c r="D31" t="s">
+        <v>64</v>
+      </c>
+      <c r="E31" t="s">
         <v>134</v>
       </c>
-      <c r="D31" t="s">
-        <v>65</v>
-      </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>135</v>
       </c>
-      <c r="F31" t="s">
+      <c r="G31" t="s">
         <v>136</v>
       </c>
-      <c r="G31" t="s">
-        <v>137</v>
-      </c>
       <c r="H31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I31" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J31" t="s">
         <v>33</v>
@@ -2334,25 +2348,25 @@
         <v>26</v>
       </c>
       <c r="B32" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C32" t="s">
+        <v>137</v>
+      </c>
+      <c r="D32" t="s">
+        <v>64</v>
+      </c>
+      <c r="E32" t="s">
         <v>138</v>
       </c>
-      <c r="D32" t="s">
-        <v>65</v>
-      </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>139</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
         <v>140</v>
       </c>
-      <c r="G32" t="s">
-        <v>141</v>
-      </c>
       <c r="H32" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I32" t="s">
         <v>33</v>
@@ -2375,28 +2389,28 @@
         <v>26</v>
       </c>
       <c r="B33" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C33" t="s">
+        <v>141</v>
+      </c>
+      <c r="D33" t="s">
+        <v>64</v>
+      </c>
+      <c r="E33" t="s">
         <v>142</v>
       </c>
-      <c r="D33" t="s">
-        <v>65</v>
-      </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>143</v>
       </c>
-      <c r="F33" t="s">
+      <c r="G33" t="s">
         <v>144</v>
       </c>
-      <c r="G33" t="s">
+      <c r="H33" t="s">
+        <v>68</v>
+      </c>
+      <c r="I33" t="s">
         <v>145</v>
-      </c>
-      <c r="H33" t="s">
-        <v>69</v>
-      </c>
-      <c r="I33" t="s">
-        <v>146</v>
       </c>
       <c r="J33" t="s">
         <v>33</v>
@@ -2416,28 +2430,28 @@
         <v>26</v>
       </c>
       <c r="B34" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C34" t="s">
+        <v>146</v>
+      </c>
+      <c r="D34" t="s">
+        <v>64</v>
+      </c>
+      <c r="E34" t="s">
         <v>147</v>
       </c>
-      <c r="D34" t="s">
-        <v>65</v>
-      </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>148</v>
       </c>
-      <c r="F34" t="s">
+      <c r="G34" t="s">
         <v>149</v>
       </c>
-      <c r="G34" t="s">
-        <v>150</v>
-      </c>
       <c r="H34" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I34" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J34" t="s">
         <v>33</v>
@@ -2457,28 +2471,28 @@
         <v>26</v>
       </c>
       <c r="B35" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C35" t="s">
+        <v>150</v>
+      </c>
+      <c r="D35" t="s">
+        <v>64</v>
+      </c>
+      <c r="E35" t="s">
         <v>151</v>
       </c>
-      <c r="D35" t="s">
-        <v>65</v>
-      </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>152</v>
       </c>
-      <c r="F35" t="s">
+      <c r="G35" t="s">
         <v>153</v>
       </c>
-      <c r="G35" t="s">
+      <c r="H35" t="s">
+        <v>68</v>
+      </c>
+      <c r="I35" t="s">
         <v>154</v>
-      </c>
-      <c r="H35" t="s">
-        <v>69</v>
-      </c>
-      <c r="I35" t="s">
-        <v>155</v>
       </c>
       <c r="J35" t="s">
         <v>33</v>
@@ -2498,28 +2512,28 @@
         <v>26</v>
       </c>
       <c r="B36" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C36" t="s">
+        <v>155</v>
+      </c>
+      <c r="D36" t="s">
+        <v>64</v>
+      </c>
+      <c r="E36" t="s">
         <v>156</v>
       </c>
-      <c r="D36" t="s">
-        <v>65</v>
-      </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>157</v>
       </c>
-      <c r="F36" t="s">
+      <c r="G36" t="s">
         <v>158</v>
       </c>
-      <c r="G36" t="s">
+      <c r="H36" t="s">
+        <v>68</v>
+      </c>
+      <c r="I36" t="s">
         <v>159</v>
-      </c>
-      <c r="H36" t="s">
-        <v>69</v>
-      </c>
-      <c r="I36" t="s">
-        <v>160</v>
       </c>
       <c r="J36" t="s">
         <v>33</v>
@@ -2539,28 +2553,28 @@
         <v>26</v>
       </c>
       <c r="B37" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C37" t="s">
+        <v>160</v>
+      </c>
+      <c r="D37" t="s">
+        <v>64</v>
+      </c>
+      <c r="E37" t="s">
         <v>161</v>
       </c>
-      <c r="D37" t="s">
-        <v>65</v>
-      </c>
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>162</v>
       </c>
-      <c r="F37" t="s">
+      <c r="G37" t="s">
         <v>163</v>
       </c>
-      <c r="G37" t="s">
-        <v>164</v>
-      </c>
       <c r="H37" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I37" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J37" t="s">
         <v>33</v>
@@ -2580,28 +2594,28 @@
         <v>26</v>
       </c>
       <c r="B38" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C38" t="s">
+        <v>164</v>
+      </c>
+      <c r="D38" t="s">
+        <v>64</v>
+      </c>
+      <c r="E38" t="s">
         <v>165</v>
       </c>
-      <c r="D38" t="s">
-        <v>65</v>
-      </c>
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>166</v>
       </c>
-      <c r="F38" t="s">
+      <c r="G38" t="s">
         <v>167</v>
       </c>
-      <c r="G38" t="s">
+      <c r="H38" t="s">
+        <v>68</v>
+      </c>
+      <c r="I38" t="s">
         <v>168</v>
-      </c>
-      <c r="H38" t="s">
-        <v>69</v>
-      </c>
-      <c r="I38" t="s">
-        <v>169</v>
       </c>
       <c r="J38" t="s">
         <v>33</v>
@@ -2621,28 +2635,28 @@
         <v>26</v>
       </c>
       <c r="B39" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C39" t="s">
+        <v>169</v>
+      </c>
+      <c r="D39" t="s">
+        <v>64</v>
+      </c>
+      <c r="E39" t="s">
         <v>170</v>
       </c>
-      <c r="D39" t="s">
-        <v>65</v>
-      </c>
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>171</v>
       </c>
-      <c r="F39" t="s">
+      <c r="G39" t="s">
         <v>172</v>
       </c>
-      <c r="G39" t="s">
+      <c r="H39" t="s">
+        <v>68</v>
+      </c>
+      <c r="I39" t="s">
         <v>173</v>
-      </c>
-      <c r="H39" t="s">
-        <v>69</v>
-      </c>
-      <c r="I39" t="s">
-        <v>174</v>
       </c>
       <c r="J39" t="s">
         <v>33</v>
@@ -2662,28 +2676,28 @@
         <v>26</v>
       </c>
       <c r="B40" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C40" t="s">
+        <v>174</v>
+      </c>
+      <c r="D40" t="s">
+        <v>64</v>
+      </c>
+      <c r="E40" t="s">
         <v>175</v>
       </c>
-      <c r="D40" t="s">
-        <v>65</v>
-      </c>
-      <c r="E40" t="s">
+      <c r="F40" t="s">
         <v>176</v>
       </c>
-      <c r="F40" t="s">
+      <c r="G40" t="s">
         <v>177</v>
       </c>
-      <c r="G40" t="s">
-        <v>178</v>
-      </c>
       <c r="H40" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I40" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J40" t="s">
         <v>33</v>
@@ -2703,28 +2717,28 @@
         <v>45</v>
       </c>
       <c r="B41" t="s">
+        <v>178</v>
+      </c>
+      <c r="C41" t="s">
         <v>179</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
+        <v>64</v>
+      </c>
+      <c r="E41" t="s">
+        <v>175</v>
+      </c>
+      <c r="F41" t="s">
         <v>180</v>
       </c>
-      <c r="D41" t="s">
-        <v>65</v>
-      </c>
-      <c r="E41" t="s">
-        <v>176</v>
-      </c>
-      <c r="F41" t="s">
+      <c r="G41" t="s">
         <v>181</v>
       </c>
-      <c r="G41" t="s">
+      <c r="H41" t="s">
+        <v>68</v>
+      </c>
+      <c r="I41" t="s">
         <v>182</v>
-      </c>
-      <c r="H41" t="s">
-        <v>69</v>
-      </c>
-      <c r="I41" t="s">
-        <v>183</v>
       </c>
       <c r="J41" t="s">
         <v>33</v>
@@ -2744,28 +2758,28 @@
         <v>45</v>
       </c>
       <c r="B42" t="s">
+        <v>183</v>
+      </c>
+      <c r="C42" t="s">
         <v>184</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
+        <v>64</v>
+      </c>
+      <c r="E42" t="s">
         <v>185</v>
       </c>
-      <c r="D42" t="s">
-        <v>65</v>
-      </c>
-      <c r="E42" t="s">
+      <c r="F42" t="s">
         <v>186</v>
       </c>
-      <c r="F42" t="s">
+      <c r="G42" t="s">
         <v>187</v>
       </c>
-      <c r="G42" t="s">
+      <c r="H42" t="s">
+        <v>68</v>
+      </c>
+      <c r="I42" t="s">
         <v>188</v>
-      </c>
-      <c r="H42" t="s">
-        <v>69</v>
-      </c>
-      <c r="I42" t="s">
-        <v>189</v>
       </c>
       <c r="J42" t="s">
         <v>33</v>
@@ -2785,28 +2799,28 @@
         <v>26</v>
       </c>
       <c r="B43" t="s">
+        <v>189</v>
+      </c>
+      <c r="C43" t="s">
         <v>190</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
+        <v>64</v>
+      </c>
+      <c r="E43" t="s">
+        <v>185</v>
+      </c>
+      <c r="F43" t="s">
         <v>191</v>
       </c>
-      <c r="D43" t="s">
-        <v>65</v>
-      </c>
-      <c r="E43" t="s">
-        <v>186</v>
-      </c>
-      <c r="F43" t="s">
+      <c r="G43" t="s">
         <v>192</v>
       </c>
-      <c r="G43" t="s">
+      <c r="H43" t="s">
+        <v>68</v>
+      </c>
+      <c r="I43" t="s">
         <v>193</v>
-      </c>
-      <c r="H43" t="s">
-        <v>69</v>
-      </c>
-      <c r="I43" t="s">
-        <v>194</v>
       </c>
       <c r="J43" t="s">
         <v>33</v>
@@ -2826,28 +2840,28 @@
         <v>26</v>
       </c>
       <c r="B44" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C44" t="s">
+        <v>194</v>
+      </c>
+      <c r="D44" t="s">
+        <v>64</v>
+      </c>
+      <c r="E44" t="s">
         <v>195</v>
       </c>
-      <c r="D44" t="s">
-        <v>65</v>
-      </c>
-      <c r="E44" t="s">
+      <c r="F44" t="s">
         <v>196</v>
       </c>
-      <c r="F44" t="s">
+      <c r="G44" t="s">
         <v>197</v>
       </c>
-      <c r="G44" t="s">
+      <c r="H44" t="s">
+        <v>68</v>
+      </c>
+      <c r="I44" t="s">
         <v>198</v>
-      </c>
-      <c r="H44" t="s">
-        <v>69</v>
-      </c>
-      <c r="I44" t="s">
-        <v>199</v>
       </c>
       <c r="J44" t="s">
         <v>33</v>
@@ -2867,28 +2881,28 @@
         <v>26</v>
       </c>
       <c r="B45" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C45" t="s">
+        <v>199</v>
+      </c>
+      <c r="D45" t="s">
+        <v>64</v>
+      </c>
+      <c r="E45" t="s">
         <v>200</v>
       </c>
-      <c r="D45" t="s">
-        <v>65</v>
-      </c>
-      <c r="E45" t="s">
+      <c r="F45" t="s">
         <v>201</v>
       </c>
-      <c r="F45" t="s">
+      <c r="G45" t="s">
         <v>202</v>
       </c>
-      <c r="G45" t="s">
+      <c r="H45" t="s">
+        <v>68</v>
+      </c>
+      <c r="I45" t="s">
         <v>203</v>
-      </c>
-      <c r="H45" t="s">
-        <v>69</v>
-      </c>
-      <c r="I45" t="s">
-        <v>204</v>
       </c>
       <c r="J45" t="s">
         <v>33</v>
@@ -2908,28 +2922,28 @@
         <v>26</v>
       </c>
       <c r="B46" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C46" t="s">
+        <v>204</v>
+      </c>
+      <c r="D46" t="s">
+        <v>64</v>
+      </c>
+      <c r="E46" t="s">
         <v>205</v>
       </c>
-      <c r="D46" t="s">
-        <v>65</v>
-      </c>
-      <c r="E46" t="s">
+      <c r="F46" t="s">
         <v>206</v>
       </c>
-      <c r="F46" t="s">
+      <c r="G46" t="s">
         <v>207</v>
       </c>
-      <c r="G46" t="s">
-        <v>208</v>
-      </c>
       <c r="H46" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I46" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J46" t="s">
         <v>33</v>
@@ -2949,28 +2963,28 @@
         <v>26</v>
       </c>
       <c r="B47" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C47" t="s">
+        <v>208</v>
+      </c>
+      <c r="D47" t="s">
+        <v>64</v>
+      </c>
+      <c r="E47" t="s">
         <v>209</v>
       </c>
-      <c r="D47" t="s">
-        <v>65</v>
-      </c>
-      <c r="E47" t="s">
+      <c r="F47" t="s">
         <v>210</v>
       </c>
-      <c r="F47" t="s">
+      <c r="G47" t="s">
         <v>211</v>
       </c>
-      <c r="G47" t="s">
-        <v>212</v>
-      </c>
       <c r="H47" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I47" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J47" t="s">
         <v>33</v>
@@ -2990,28 +3004,28 @@
         <v>26</v>
       </c>
       <c r="B48" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C48" t="s">
+        <v>212</v>
+      </c>
+      <c r="D48" t="s">
+        <v>64</v>
+      </c>
+      <c r="E48" t="s">
         <v>213</v>
       </c>
-      <c r="D48" t="s">
-        <v>65</v>
-      </c>
-      <c r="E48" t="s">
+      <c r="F48" t="s">
         <v>214</v>
       </c>
-      <c r="F48" t="s">
+      <c r="G48" t="s">
         <v>215</v>
       </c>
-      <c r="G48" t="s">
-        <v>216</v>
-      </c>
       <c r="H48" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I48" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J48" t="s">
         <v>33</v>
@@ -3031,28 +3045,28 @@
         <v>26</v>
       </c>
       <c r="B49" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C49" t="s">
+        <v>216</v>
+      </c>
+      <c r="D49" t="s">
+        <v>64</v>
+      </c>
+      <c r="E49" t="s">
         <v>217</v>
       </c>
-      <c r="D49" t="s">
-        <v>65</v>
-      </c>
-      <c r="E49" t="s">
+      <c r="F49" t="s">
         <v>218</v>
       </c>
-      <c r="F49" t="s">
+      <c r="G49" t="s">
         <v>219</v>
       </c>
-      <c r="G49" t="s">
-        <v>220</v>
-      </c>
       <c r="H49" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I49" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J49" t="s">
         <v>33</v>
@@ -3072,28 +3086,28 @@
         <v>26</v>
       </c>
       <c r="B50" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C50" t="s">
+        <v>220</v>
+      </c>
+      <c r="D50" t="s">
+        <v>64</v>
+      </c>
+      <c r="E50" t="s">
         <v>221</v>
       </c>
-      <c r="D50" t="s">
-        <v>65</v>
-      </c>
-      <c r="E50" t="s">
+      <c r="F50" t="s">
         <v>222</v>
       </c>
-      <c r="F50" t="s">
+      <c r="G50" t="s">
         <v>223</v>
       </c>
-      <c r="G50" t="s">
-        <v>224</v>
-      </c>
       <c r="H50" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I50" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J50" t="s">
         <v>33</v>
@@ -3113,28 +3127,28 @@
         <v>26</v>
       </c>
       <c r="B51" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C51" t="s">
+        <v>224</v>
+      </c>
+      <c r="D51" t="s">
+        <v>64</v>
+      </c>
+      <c r="E51" t="s">
         <v>225</v>
       </c>
-      <c r="D51" t="s">
-        <v>65</v>
-      </c>
-      <c r="E51" t="s">
+      <c r="F51" t="s">
         <v>226</v>
       </c>
-      <c r="F51" t="s">
+      <c r="G51" t="s">
         <v>227</v>
       </c>
-      <c r="G51" t="s">
-        <v>228</v>
-      </c>
       <c r="H51" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I51" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J51" t="s">
         <v>33</v>
@@ -3154,28 +3168,28 @@
         <v>26</v>
       </c>
       <c r="B52" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C52" t="s">
+        <v>228</v>
+      </c>
+      <c r="D52" t="s">
+        <v>64</v>
+      </c>
+      <c r="E52" t="s">
         <v>229</v>
       </c>
-      <c r="D52" t="s">
-        <v>65</v>
-      </c>
-      <c r="E52" t="s">
+      <c r="F52" t="s">
         <v>230</v>
       </c>
-      <c r="F52" t="s">
+      <c r="G52" t="s">
         <v>231</v>
       </c>
-      <c r="G52" t="s">
+      <c r="H52" t="s">
+        <v>68</v>
+      </c>
+      <c r="I52" t="s">
         <v>232</v>
-      </c>
-      <c r="H52" t="s">
-        <v>69</v>
-      </c>
-      <c r="I52" t="s">
-        <v>233</v>
       </c>
       <c r="J52" t="s">
         <v>33</v>
@@ -3192,20 +3206,20 @@
     </row>
     <row r="53" spans="1:13">
       <c r="D53" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E53" t="s">
         <v>34</v>
       </c>
       <c r="F53" t="s">
+        <v>234</v>
+      </c>
+      <c r="G53" t="s">
+        <v>235</v>
+      </c>
+      <c r="H53" t="s">
         <v>236</v>
       </c>
-      <c r="G53" t="s">
-        <v>237</v>
-      </c>
-      <c r="H53" t="s">
-        <v>238</v>
-      </c>
       <c r="I53" t="s">
         <v>33</v>
       </c>
@@ -3220,11 +3234,6 @@
       </c>
       <c r="M53" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
-      <c r="A54" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="55" spans="1:13">
@@ -3232,28 +3241,28 @@
         <v>45</v>
       </c>
       <c r="B55" t="s">
+        <v>237</v>
+      </c>
+      <c r="C55" t="s">
+        <v>238</v>
+      </c>
+      <c r="D55" t="s">
         <v>239</v>
-      </c>
-      <c r="C55" t="s">
-        <v>240</v>
-      </c>
-      <c r="D55" t="s">
-        <v>241</v>
       </c>
       <c r="E55" t="s">
         <v>34</v>
       </c>
       <c r="F55" t="s">
+        <v>240</v>
+      </c>
+      <c r="G55" t="s">
+        <v>241</v>
+      </c>
+      <c r="H55" t="s">
         <v>242</v>
       </c>
-      <c r="G55" t="s">
+      <c r="I55" t="s">
         <v>243</v>
-      </c>
-      <c r="H55" t="s">
-        <v>244</v>
-      </c>
-      <c r="I55" t="s">
-        <v>245</v>
       </c>
       <c r="J55" t="s">
         <v>33</v>
@@ -3273,28 +3282,28 @@
         <v>45</v>
       </c>
       <c r="B56" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C56" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D56" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E56" t="s">
         <v>34</v>
       </c>
       <c r="F56" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G56" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="H56" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="I56" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="J56" t="s">
         <v>33</v>
@@ -3314,28 +3323,28 @@
         <v>45</v>
       </c>
       <c r="B57" t="s">
+        <v>237</v>
+      </c>
+      <c r="C57" t="s">
+        <v>248</v>
+      </c>
+      <c r="D57" t="s">
         <v>239</v>
-      </c>
-      <c r="C57" t="s">
-        <v>250</v>
-      </c>
-      <c r="D57" t="s">
-        <v>241</v>
       </c>
       <c r="E57" t="s">
         <v>34</v>
       </c>
       <c r="F57" t="s">
+        <v>249</v>
+      </c>
+      <c r="G57" t="s">
+        <v>250</v>
+      </c>
+      <c r="H57" t="s">
+        <v>242</v>
+      </c>
+      <c r="I57" t="s">
         <v>251</v>
-      </c>
-      <c r="G57" t="s">
-        <v>252</v>
-      </c>
-      <c r="H57" t="s">
-        <v>244</v>
-      </c>
-      <c r="I57" t="s">
-        <v>253</v>
       </c>
       <c r="J57" t="s">
         <v>33</v>
@@ -3355,28 +3364,28 @@
         <v>45</v>
       </c>
       <c r="B58" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C58" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D58" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E58" t="s">
         <v>34</v>
       </c>
       <c r="F58" t="s">
+        <v>254</v>
+      </c>
+      <c r="G58" t="s">
+        <v>255</v>
+      </c>
+      <c r="H58" t="s">
         <v>256</v>
       </c>
-      <c r="G58" t="s">
+      <c r="I58" t="s">
         <v>257</v>
-      </c>
-      <c r="H58" t="s">
-        <v>258</v>
-      </c>
-      <c r="I58" t="s">
-        <v>259</v>
       </c>
       <c r="J58" t="s">
         <v>33</v>
@@ -3396,28 +3405,28 @@
         <v>45</v>
       </c>
       <c r="B59" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C59" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D59" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E59" t="s">
         <v>34</v>
       </c>
       <c r="F59" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G59" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="H59" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="I59" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="J59" t="s">
         <v>33</v>
@@ -3437,28 +3446,28 @@
         <v>45</v>
       </c>
       <c r="B60" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C60" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D60" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E60" t="s">
         <v>29</v>
       </c>
       <c r="F60" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G60" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="H60" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="I60" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="J60" t="s">
         <v>33</v>
@@ -3478,28 +3487,28 @@
         <v>45</v>
       </c>
       <c r="B61" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C61" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D61" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E61" t="s">
         <v>29</v>
       </c>
       <c r="F61" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G61" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H61" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="I61" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="J61" t="s">
         <v>33</v>
@@ -3519,28 +3528,28 @@
         <v>45</v>
       </c>
       <c r="B62" t="s">
+        <v>237</v>
+      </c>
+      <c r="C62" t="s">
+        <v>268</v>
+      </c>
+      <c r="D62" t="s">
         <v>239</v>
-      </c>
-      <c r="C62" t="s">
-        <v>270</v>
-      </c>
-      <c r="D62" t="s">
-        <v>241</v>
       </c>
       <c r="E62" t="s">
         <v>29</v>
       </c>
       <c r="F62" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G62" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="H62" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="I62" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="J62" t="s">
         <v>33</v>
@@ -3560,28 +3569,28 @@
         <v>45</v>
       </c>
       <c r="B63" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C63" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D63" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E63" t="s">
         <v>29</v>
       </c>
       <c r="F63" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G63" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H63" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="I63" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="J63" t="s">
         <v>33</v>
@@ -3601,25 +3610,25 @@
         <v>45</v>
       </c>
       <c r="B64" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C64" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D64" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E64" t="s">
         <v>34</v>
       </c>
       <c r="F64" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="G64" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="H64" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="I64" t="s">
         <v>33</v>
@@ -3638,12 +3647,6 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A4:M4"/>
-    <mergeCell ref="A15:M15"/>
-    <mergeCell ref="A54:M54"/>
-    <mergeCell ref="A3:M3"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>

--- a/Rich Products Corporation - HQ @ Buffalo, NY.xlsx
+++ b/Rich Products Corporation - HQ @ Buffalo, NY.xlsx
@@ -14,7 +14,805 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="279">
+  <si>
+    <t>Rich Products Corporation - HQ @ Buffalo, NY</t>
+  </si>
+  <si>
+    <t>Make</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>Serial Number</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Site Address</t>
+  </si>
+  <si>
+    <t>Hostname</t>
+  </si>
+  <si>
+    <t>IP Address</t>
+  </si>
+  <si>
+    <t>Operating System</t>
+  </si>
+  <si>
+    <t>Current Software</t>
+  </si>
+  <si>
+    <t>Carousel Recommended Software</t>
+  </si>
+  <si>
+    <t>Manufacture Recommended Latest Version</t>
+  </si>
+  <si>
+    <t>End of Life of End of Support</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Cisco Systems</t>
+  </si>
+  <si>
+    <t>FPR-2110</t>
+  </si>
+  <si>
+    <t>Firewall</t>
+  </si>
+  <si>
+    <t>USDC2 (Los Angeles California)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> USDC2A1R02FLW02</t>
+  </si>
+  <si>
+    <t>172.16.200.211</t>
+  </si>
+  <si>
+    <t>FSOX</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>USDC1 (Newark, NJ)</t>
+  </si>
+  <si>
+    <t>DC1-A2R10-FWL02</t>
+  </si>
+  <si>
+    <t>172.16.10.211</t>
+  </si>
+  <si>
+    <t>FXOS</t>
+  </si>
+  <si>
+    <t>DC1-A2R11-FWL01</t>
+  </si>
+  <si>
+    <t>172.16.10.210</t>
+  </si>
+  <si>
+    <t>DC1-A2R11-FWL03.na.rpchome.com</t>
+  </si>
+  <si>
+    <t>172.16.10.214</t>
+  </si>
+  <si>
+    <t>172.16.10.215</t>
+  </si>
+  <si>
+    <t>DMZ 2120 Primary FTD</t>
+  </si>
+  <si>
+    <t>172.16.200.210</t>
+  </si>
+  <si>
+    <t>Cisco</t>
+  </si>
+  <si>
+    <t>ASA 5516</t>
+  </si>
+  <si>
+    <t>JMX2239G11E</t>
+  </si>
+  <si>
+    <t>GBAND (Andover, UK)</t>
+  </si>
+  <si>
+    <t>GBANDM01FWL03.na.rpchome.com</t>
+  </si>
+  <si>
+    <t>10.216.40.7</t>
+  </si>
+  <si>
+    <t>ASA</t>
+  </si>
+  <si>
+    <t>9.8(4)35</t>
+  </si>
+  <si>
+    <t>ASAv</t>
+  </si>
+  <si>
+    <t>9AGD45E37KA</t>
+  </si>
+  <si>
+    <t>Mumbai</t>
+  </si>
+  <si>
+    <t>inzcifwl03.na.rpchome.com</t>
+  </si>
+  <si>
+    <t>10.81.0.200</t>
+  </si>
+  <si>
+    <t>9.12(3)12</t>
+  </si>
+  <si>
+    <t>USDC2A1R02FWL04.na.rpchome.com</t>
+  </si>
+  <si>
+    <t>172.16.200.215</t>
+  </si>
+  <si>
+    <t>172.16.200.214</t>
+  </si>
+  <si>
+    <t>ISR4331-3x1GE</t>
+  </si>
+  <si>
+    <t>FLM244110FJ</t>
+  </si>
+  <si>
+    <t>Router</t>
+  </si>
+  <si>
+    <t>CAFTE (Ft. Erie, ON)</t>
+  </si>
+  <si>
+    <t>CAFTEM01VGW01.na.rpchome.com</t>
+  </si>
+  <si>
+    <t>10.166.16.10</t>
+  </si>
+  <si>
+    <t>IOS</t>
+  </si>
+  <si>
+    <t>16.09.03</t>
+  </si>
+  <si>
+    <t>ISR4321</t>
+  </si>
+  <si>
+    <t>FLM2530109G</t>
+  </si>
+  <si>
+    <t>CAWBR(Woodbridge, ON)</t>
+  </si>
+  <si>
+    <t>CAWBRM01VGW01.na.rpchome.com</t>
+  </si>
+  <si>
+    <t>10.183.16.10</t>
+  </si>
+  <si>
+    <t>Cisco ISR4431</t>
+  </si>
+  <si>
+    <t>FJC2237A03U</t>
+  </si>
+  <si>
+    <t>GBANDM01VGW01.rich.com</t>
+  </si>
+  <si>
+    <t>10.216.40.10</t>
+  </si>
+  <si>
+    <t>16.09.08</t>
+  </si>
+  <si>
+    <t>FLM2250V0C1</t>
+  </si>
+  <si>
+    <t>USARL (Arlington, TN)</t>
+  </si>
+  <si>
+    <t>USARLM01VGW01.na.rpchome.com</t>
+  </si>
+  <si>
+    <t>10.161.40.40</t>
+  </si>
+  <si>
+    <t>V05</t>
+  </si>
+  <si>
+    <t>FLM2250V0C0</t>
+  </si>
+  <si>
+    <t>USBVL (Brownsville, TX)</t>
+  </si>
+  <si>
+    <t>USBVLM01VGW01.na.rpchome.com</t>
+  </si>
+  <si>
+    <t>10.162.40.40</t>
+  </si>
+  <si>
+    <t>FLM2250V0C9</t>
+  </si>
+  <si>
+    <t>USBWK (Brunswick, GA)</t>
+  </si>
+  <si>
+    <t>USBWKM01VGW01.na.rpchome.com</t>
+  </si>
+  <si>
+    <t>10.163.40.40</t>
+  </si>
+  <si>
+    <t>FLM2530109U</t>
+  </si>
+  <si>
+    <t>USCHK (Cheektowaga, NY)</t>
+  </si>
+  <si>
+    <t>USCHKM01VGW01.na.rpchome.com</t>
+  </si>
+  <si>
+    <t>10.191.136.132</t>
+  </si>
+  <si>
+    <t>15.1(1)T3, RELEASE SOFTWARE (fc1)</t>
+  </si>
+  <si>
+    <t>C880VOICE-UNIVERSALK9-M</t>
+  </si>
+  <si>
+    <t>FJC2036L2G0</t>
+  </si>
+  <si>
+    <t>USCRH (Crest Hill, IL)</t>
+  </si>
+  <si>
+    <t>USCRHI05VGW01.na.rpchome.com</t>
+  </si>
+  <si>
+    <t>10.164.16.11</t>
+  </si>
+  <si>
+    <t>15.4(3)M3, RELEASE SOFTWARE (fc2)</t>
+  </si>
+  <si>
+    <t>CISCO2911/K9</t>
+  </si>
+  <si>
+    <t>FTX1735A1H8</t>
+  </si>
+  <si>
+    <t>USCRHM01VGW01.na.rpchome.com</t>
+  </si>
+  <si>
+    <t>10.164.16.10</t>
+  </si>
+  <si>
+    <t>15.2(1)T4, RELEASE SOFTWARE (fc1)</t>
+  </si>
+  <si>
+    <t>FLM2243W1FL</t>
+  </si>
+  <si>
+    <t>USDC1A2R10VGW02.na.rpchome.com</t>
+  </si>
+  <si>
+    <t>172.16.10.41</t>
+  </si>
+  <si>
+    <t>03.16.04b.S.155-3.S4b-ext</t>
+  </si>
+  <si>
+    <t>FLM2243W1FN</t>
+  </si>
+  <si>
+    <t>USDC1A2R11VGW01.na.rpchome.com</t>
+  </si>
+  <si>
+    <t>172.16.10.40</t>
+  </si>
+  <si>
+    <t>FLM1946W0P2</t>
+  </si>
+  <si>
+    <t>USDC2A1R02VGW01.na.rpchome.com</t>
+  </si>
+  <si>
+    <t>172.16.200.40</t>
+  </si>
+  <si>
+    <t>FLM2250V0BZ</t>
+  </si>
+  <si>
+    <t>USEAG (Eagan, MN)</t>
+  </si>
+  <si>
+    <t>USEAGM01VGW01.na.rpchome.com</t>
+  </si>
+  <si>
+    <t>10.165.40.40</t>
+  </si>
+  <si>
+    <t>FLM243110DT</t>
+  </si>
+  <si>
+    <t>USFRI (Fridley, MN)</t>
+  </si>
+  <si>
+    <t>USFRIM01VGW01.na.rpchome.com</t>
+  </si>
+  <si>
+    <t>10.186.16.10</t>
+  </si>
+  <si>
+    <t>V06</t>
+  </si>
+  <si>
+    <t>VG3X0-UNIVERSALK9-M</t>
+  </si>
+  <si>
+    <t>FGL2431LFJJ</t>
+  </si>
+  <si>
+    <t>USFRIM01VGW02.na.rpchome.com</t>
+  </si>
+  <si>
+    <t>10.186.16.11</t>
+  </si>
+  <si>
+    <t>15.7(3)M6, RELEASE SOFTWARE (fc1)</t>
+  </si>
+  <si>
+    <t>FLM252311V3</t>
+  </si>
+  <si>
+    <t>USFTN (Fountain Inn, SC)</t>
+  </si>
+  <si>
+    <t>USFTNM01VGW01.na.rpchome.com</t>
+  </si>
+  <si>
+    <t>10.167.16.10</t>
+  </si>
+  <si>
+    <t>FLM253010A4</t>
+  </si>
+  <si>
+    <t>USGAL (Gallatin, TN)</t>
+  </si>
+  <si>
+    <t>USGALM01VGW01.na.rpchome.com</t>
+  </si>
+  <si>
+    <t>10.169.16.10</t>
+  </si>
+  <si>
+    <t>FLM251711DU</t>
+  </si>
+  <si>
+    <t>USHIL (Hilliard, OH)</t>
+  </si>
+  <si>
+    <t>USHILM01VGW01.na.rpchome.com</t>
+  </si>
+  <si>
+    <t>10.170.16.10</t>
+  </si>
+  <si>
+    <t>16.09.07</t>
+  </si>
+  <si>
+    <t>FLM243110DU</t>
+  </si>
+  <si>
+    <t>USLOD (Lodi, CA)</t>
+  </si>
+  <si>
+    <t>USLODI06VGW01.na.rpchome.com</t>
+  </si>
+  <si>
+    <t>10.185.16.10</t>
+  </si>
+  <si>
+    <t>FLM253010A5</t>
+  </si>
+  <si>
+    <t>USMC1 (Missouri City, TN)</t>
+  </si>
+  <si>
+    <t>USMC1M01VGW01.na.rpchome.com</t>
+  </si>
+  <si>
+    <t>10.171.16.10</t>
+  </si>
+  <si>
+    <t>15.1(2)T5, RELEASE SOFTWARE (fc1)</t>
+  </si>
+  <si>
+    <t>FLM2530109V</t>
+  </si>
+  <si>
+    <t>USMC2 (Missouri City, TX)</t>
+  </si>
+  <si>
+    <t>USMC2M01VGW01.na.rpchome.com</t>
+  </si>
+  <si>
+    <t>10.180.16.10</t>
+  </si>
+  <si>
+    <t>15.7(3)M3, RELEASE SOFTWARE (fc2)</t>
+  </si>
+  <si>
+    <t>FLM251711DY</t>
+  </si>
+  <si>
+    <t>USMT1 (Morristown, TN)</t>
+  </si>
+  <si>
+    <t>USMT1M01VGW01.na.rpchome.com</t>
+  </si>
+  <si>
+    <t>10.172.16.10</t>
+  </si>
+  <si>
+    <t>FLM2530109J</t>
+  </si>
+  <si>
+    <t>USMT2 (Morristown, TN)</t>
+  </si>
+  <si>
+    <t>USMT2M01VGW01.na.rpchome.com</t>
+  </si>
+  <si>
+    <t>10.173.16.10</t>
+  </si>
+  <si>
+    <t>15.2(4)M3, RELEASE SOFTWARE (fc2)</t>
+  </si>
+  <si>
+    <t>FLM2530109Q</t>
+  </si>
+  <si>
+    <t>Lakeway Freezer</t>
+  </si>
+  <si>
+    <t>USMT3M01VGW01.na.rpchome.com</t>
+  </si>
+  <si>
+    <t>10.160.16.132</t>
+  </si>
+  <si>
+    <t>15.0(1)M6, RELEASE SOFTWARE (fc1)</t>
+  </si>
+  <si>
+    <t>FLM251711E3</t>
+  </si>
+  <si>
+    <t>USMUR (Murfreesboro, TN)</t>
+  </si>
+  <si>
+    <t>USMURM01VGW01.na.rpchome.com</t>
+  </si>
+  <si>
+    <t>10.174.16.10</t>
+  </si>
+  <si>
+    <t>VG310</t>
+  </si>
+  <si>
+    <t>FJC25051854</t>
+  </si>
+  <si>
+    <t>USMURM01VGW02.na.rpchome.com</t>
+  </si>
+  <si>
+    <t>10.174.16.11</t>
+  </si>
+  <si>
+    <t>15.7(3)M8, RELEASE SOFTWARE (fc1)</t>
+  </si>
+  <si>
+    <t>VG202XM</t>
+  </si>
+  <si>
+    <t>FCH2030T0LW</t>
+  </si>
+  <si>
+    <t>USNBR (New Britain, CT)</t>
+  </si>
+  <si>
+    <t>USNBRI01VGW01.na.rpchome.com</t>
+  </si>
+  <si>
+    <t>10.175.16.11</t>
+  </si>
+  <si>
+    <t>15.3(3)M7, RELEASE SOFTWARE (fc2)</t>
+  </si>
+  <si>
+    <t>C2951-UNIVERSALK9-M</t>
+  </si>
+  <si>
+    <t>FTX1532AL3T</t>
+  </si>
+  <si>
+    <t>USNBRM01VGW01.na.rpchome.com</t>
+  </si>
+  <si>
+    <t>10.175.16.10</t>
+  </si>
+  <si>
+    <t>15.1(4)M1, RELEASE SOFTWARE (fc1)</t>
+  </si>
+  <si>
+    <t>FLM253010A3</t>
+  </si>
+  <si>
+    <t>USNIL (Niles, IL)</t>
+  </si>
+  <si>
+    <t>USNILM01VGW01.na.rpchome.com</t>
+  </si>
+  <si>
+    <t>10.176.16.10</t>
+  </si>
+  <si>
+    <t>15.0(1)M3, RELEASE SOFTWARE (fc2)</t>
+  </si>
+  <si>
+    <t>FLM253010A2</t>
+  </si>
+  <si>
+    <t>USQUE (Queens, NY)</t>
+  </si>
+  <si>
+    <t>USQUEM01VGW01.na.rpchome.com</t>
+  </si>
+  <si>
+    <t>10.160.32.132</t>
+  </si>
+  <si>
+    <t>15.1(4)M4, RELEASE SOFTWARE (fc1)</t>
+  </si>
+  <si>
+    <t>FLM2530109X</t>
+  </si>
+  <si>
+    <t>USSAA (Santa Ana, CA)</t>
+  </si>
+  <si>
+    <t>USSAAM01VGW01.na.rpchome.com</t>
+  </si>
+  <si>
+    <t>10.177.16.10</t>
+  </si>
+  <si>
+    <t>FLM2250V0BX</t>
+  </si>
+  <si>
+    <t>USSFS (Santa Fe Springs, CA)</t>
+  </si>
+  <si>
+    <t>USSFSM01VGW01.na.rpchome.com</t>
+  </si>
+  <si>
+    <t>10.178.40.40</t>
+  </si>
+  <si>
+    <t>FLM243510DY</t>
+  </si>
+  <si>
+    <t>USSPK (Spokane, WA)</t>
+  </si>
+  <si>
+    <t>USSPKM01VGW01.na.rpchome.com</t>
+  </si>
+  <si>
+    <t>10.161.144.10</t>
+  </si>
+  <si>
+    <t>FLM2250V0C7</t>
+  </si>
+  <si>
+    <t>USSSI (St. Simons, GA)</t>
+  </si>
+  <si>
+    <t>USSSIM01VGW01.na.rpchome.com</t>
+  </si>
+  <si>
+    <t>10.179.40.40</t>
+  </si>
+  <si>
+    <t>FLM2530109N</t>
+  </si>
+  <si>
+    <t>USUNC (Union City, CA)</t>
+  </si>
+  <si>
+    <t>USUNCM01VGW01.na.rpchome.com</t>
+  </si>
+  <si>
+    <t>10.181.16.10</t>
+  </si>
+  <si>
+    <t>FLM2530109L</t>
+  </si>
+  <si>
+    <t>USVNL (Vineland, NJ)</t>
+  </si>
+  <si>
+    <t>USVNLM01VGW01.na.rpchome.com</t>
+  </si>
+  <si>
+    <t>10.182.16.10</t>
+  </si>
+  <si>
+    <t>FLM252210LG</t>
+  </si>
+  <si>
+    <t>USWHL (Wheeling, IL)</t>
+  </si>
+  <si>
+    <t>USWHLM01VGW01.na.rpchome.com</t>
+  </si>
+  <si>
+    <t>10.160.40.132</t>
+  </si>
+  <si>
+    <t>15.6(2)T1, RELEASE SOFTWARE (fc1)</t>
+  </si>
+  <si>
+    <t>Network Device</t>
+  </si>
+  <si>
+    <t>DC1 – FMC</t>
+  </si>
+  <si>
+    <t>10.70.6.15</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Catalyst 3650-48PS</t>
+  </si>
+  <si>
+    <t>FDO2036E0WG</t>
+  </si>
+  <si>
+    <t>Switch</t>
+  </si>
+  <si>
+    <t>DC1-A2R10-ASW04.rich.com</t>
+  </si>
+  <si>
+    <t>172.16.10.29</t>
+  </si>
+  <si>
+    <t>XE-IOS</t>
+  </si>
+  <si>
+    <t>Fuji 16.09.06</t>
+  </si>
+  <si>
+    <t>WS-C3850-24U-E</t>
+  </si>
+  <si>
+    <t>FOC2116U1CL</t>
+  </si>
+  <si>
+    <t>DC1-A2R11-ASW01.na.rpchome.com</t>
+  </si>
+  <si>
+    <t>172.16.10.22</t>
+  </si>
+  <si>
+    <t>FDO2119Q1N3</t>
+  </si>
+  <si>
+    <t>DC1-A2R11-PSW.rich.com</t>
+  </si>
+  <si>
+    <t>172.16.10.26</t>
+  </si>
+  <si>
+    <t>03.06.07b.E</t>
+  </si>
+  <si>
+    <t>Nexus 93240YC-FX2</t>
+  </si>
+  <si>
+    <t>FDO250319M2</t>
+  </si>
+  <si>
+    <t>USDC1A2R10CSW02.na.rpchome.com</t>
+  </si>
+  <si>
+    <t>172.16.10.7</t>
+  </si>
+  <si>
+    <t>NXOS</t>
+  </si>
+  <si>
+    <t>9.3(10)</t>
+  </si>
+  <si>
+    <t>FDO250319JV</t>
+  </si>
+  <si>
+    <t>USDC1A2R11CSW01.na.rpchome.com</t>
+  </si>
+  <si>
+    <t>172.16.10.6</t>
+  </si>
+  <si>
+    <t>FOC2107X1DK</t>
+  </si>
+  <si>
+    <t>USDC2A1R01ASW01.rich.com</t>
+  </si>
+  <si>
+    <t>172.16.200.22</t>
+  </si>
+  <si>
+    <t>Nexus 93180YC-EX</t>
+  </si>
+  <si>
+    <t>FDO2035118W</t>
+  </si>
+  <si>
+    <t>USDC2A1R01CSW01</t>
+  </si>
+  <si>
+    <t>172.16.200.7</t>
+  </si>
+  <si>
+    <t>FDO2119Q1PE</t>
+  </si>
+  <si>
+    <t>USDC2A1R01PSW01.rich.com</t>
+  </si>
+  <si>
+    <t>172.16.200.26</t>
+  </si>
+  <si>
+    <t>FDO20352BDD</t>
+  </si>
+  <si>
+    <t>USDC2A1R02CSW02</t>
+  </si>
+  <si>
+    <t>172.16.200.8</t>
+  </si>
+  <si>
+    <t>Cisco VG450</t>
+  </si>
+  <si>
+    <t>FLM2611107F</t>
+  </si>
+  <si>
+    <t>USHQ1M01VGW01.na.rpchome.com</t>
+  </si>
+  <si>
+    <t>10.3.16.11</t>
+  </si>
   <si>
     <t>Column1</t>
   </si>
@@ -53,801 +851,6 @@
   </si>
   <si>
     <t>Column13</t>
-  </si>
-  <si>
-    <t>Make</t>
-  </si>
-  <si>
-    <t>Model</t>
-  </si>
-  <si>
-    <t>Serial Number</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Site Address</t>
-  </si>
-  <si>
-    <t>Hostname</t>
-  </si>
-  <si>
-    <t>IP Address</t>
-  </si>
-  <si>
-    <t>Operating System</t>
-  </si>
-  <si>
-    <t>Current Software</t>
-  </si>
-  <si>
-    <t>Carousel Recommended Software</t>
-  </si>
-  <si>
-    <t>Manufacture Recommended Latest Version</t>
-  </si>
-  <si>
-    <t>End of Life of End of Support</t>
-  </si>
-  <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t>Cisco Systems</t>
-  </si>
-  <si>
-    <t>FPR-2110</t>
-  </si>
-  <si>
-    <t>Firewall</t>
-  </si>
-  <si>
-    <t>USDC2 (Los Angeles California)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> USDC2A1R02FLW02</t>
-  </si>
-  <si>
-    <t>172.16.200.211</t>
-  </si>
-  <si>
-    <t>FSOX</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>USDC1 (Newark, NJ)</t>
-  </si>
-  <si>
-    <t>DC1-A2R10-FWL02</t>
-  </si>
-  <si>
-    <t>172.16.10.211</t>
-  </si>
-  <si>
-    <t>FXOS</t>
-  </si>
-  <si>
-    <t>DC1-A2R11-FWL01</t>
-  </si>
-  <si>
-    <t>172.16.10.210</t>
-  </si>
-  <si>
-    <t>DC1-A2R11-FWL03.na.rpchome.com</t>
-  </si>
-  <si>
-    <t>172.16.10.214</t>
-  </si>
-  <si>
-    <t>172.16.10.215</t>
-  </si>
-  <si>
-    <t>DMZ 2120 Primary FTD</t>
-  </si>
-  <si>
-    <t>172.16.200.210</t>
-  </si>
-  <si>
-    <t>Cisco</t>
-  </si>
-  <si>
-    <t>ASA 5516</t>
-  </si>
-  <si>
-    <t>JMX2239G11E</t>
-  </si>
-  <si>
-    <t>GBAND (Andover, UK)</t>
-  </si>
-  <si>
-    <t>GBANDM01FWL03.na.rpchome.com</t>
-  </si>
-  <si>
-    <t>10.216.40.7</t>
-  </si>
-  <si>
-    <t>ASA</t>
-  </si>
-  <si>
-    <t>9.8(4)35</t>
-  </si>
-  <si>
-    <t>ASAv</t>
-  </si>
-  <si>
-    <t>9AGD45E37KA</t>
-  </si>
-  <si>
-    <t>Mumbai</t>
-  </si>
-  <si>
-    <t>inzcifwl03.na.rpchome.com</t>
-  </si>
-  <si>
-    <t>10.81.0.200</t>
-  </si>
-  <si>
-    <t>9.12(3)12</t>
-  </si>
-  <si>
-    <t>USDC2A1R02FWL04.na.rpchome.com</t>
-  </si>
-  <si>
-    <t>172.16.200.215</t>
-  </si>
-  <si>
-    <t>172.16.200.214</t>
-  </si>
-  <si>
-    <t>ISR4331-3x1GE</t>
-  </si>
-  <si>
-    <t>FLM244110FJ</t>
-  </si>
-  <si>
-    <t>Router</t>
-  </si>
-  <si>
-    <t>CAFTE (Ft. Erie, ON)</t>
-  </si>
-  <si>
-    <t>CAFTEM01VGW01.na.rpchome.com</t>
-  </si>
-  <si>
-    <t>10.166.16.10</t>
-  </si>
-  <si>
-    <t>IOS</t>
-  </si>
-  <si>
-    <t>16.09.03</t>
-  </si>
-  <si>
-    <t>ISR4321</t>
-  </si>
-  <si>
-    <t>FLM2530109G</t>
-  </si>
-  <si>
-    <t>CAWBR(Woodbridge, ON)</t>
-  </si>
-  <si>
-    <t>CAWBRM01VGW01.na.rpchome.com</t>
-  </si>
-  <si>
-    <t>10.183.16.10</t>
-  </si>
-  <si>
-    <t>Cisco ISR4431</t>
-  </si>
-  <si>
-    <t>FJC2237A03U</t>
-  </si>
-  <si>
-    <t>GBANDM01VGW01.rich.com</t>
-  </si>
-  <si>
-    <t>10.216.40.10</t>
-  </si>
-  <si>
-    <t>16.09.08</t>
-  </si>
-  <si>
-    <t>FLM2250V0C1</t>
-  </si>
-  <si>
-    <t>USARL (Arlington, TN)</t>
-  </si>
-  <si>
-    <t>USARLM01VGW01.na.rpchome.com</t>
-  </si>
-  <si>
-    <t>10.161.40.40</t>
-  </si>
-  <si>
-    <t>V05</t>
-  </si>
-  <si>
-    <t>FLM2250V0C0</t>
-  </si>
-  <si>
-    <t>USBVL (Brownsville, TX)</t>
-  </si>
-  <si>
-    <t>USBVLM01VGW01.na.rpchome.com</t>
-  </si>
-  <si>
-    <t>10.162.40.40</t>
-  </si>
-  <si>
-    <t>FLM2250V0C9</t>
-  </si>
-  <si>
-    <t>USBWK (Brunswick, GA)</t>
-  </si>
-  <si>
-    <t>USBWKM01VGW01.na.rpchome.com</t>
-  </si>
-  <si>
-    <t>10.163.40.40</t>
-  </si>
-  <si>
-    <t>FLM2530109U</t>
-  </si>
-  <si>
-    <t>USCHK (Cheektowaga, NY)</t>
-  </si>
-  <si>
-    <t>USCHKM01VGW01.na.rpchome.com</t>
-  </si>
-  <si>
-    <t>10.191.136.132</t>
-  </si>
-  <si>
-    <t>15.1(1)T3, RELEASE SOFTWARE (fc1)</t>
-  </si>
-  <si>
-    <t>C880VOICE-UNIVERSALK9-M</t>
-  </si>
-  <si>
-    <t>FJC2036L2G0</t>
-  </si>
-  <si>
-    <t>USCRH (Crest Hill, IL)</t>
-  </si>
-  <si>
-    <t>USCRHI05VGW01.na.rpchome.com</t>
-  </si>
-  <si>
-    <t>10.164.16.11</t>
-  </si>
-  <si>
-    <t>15.4(3)M3, RELEASE SOFTWARE (fc2)</t>
-  </si>
-  <si>
-    <t>CISCO2911/K9</t>
-  </si>
-  <si>
-    <t>FTX1735A1H8</t>
-  </si>
-  <si>
-    <t>USCRHM01VGW01.na.rpchome.com</t>
-  </si>
-  <si>
-    <t>10.164.16.10</t>
-  </si>
-  <si>
-    <t>15.2(1)T4, RELEASE SOFTWARE (fc1)</t>
-  </si>
-  <si>
-    <t>FLM2243W1FL</t>
-  </si>
-  <si>
-    <t>USDC1A2R10VGW02.na.rpchome.com</t>
-  </si>
-  <si>
-    <t>172.16.10.41</t>
-  </si>
-  <si>
-    <t>03.16.04b.S.155-3.S4b-ext</t>
-  </si>
-  <si>
-    <t>FLM2243W1FN</t>
-  </si>
-  <si>
-    <t>USDC1A2R11VGW01.na.rpchome.com</t>
-  </si>
-  <si>
-    <t>172.16.10.40</t>
-  </si>
-  <si>
-    <t>FLM1946W0P2</t>
-  </si>
-  <si>
-    <t>USDC2A1R02VGW01.na.rpchome.com</t>
-  </si>
-  <si>
-    <t>172.16.200.40</t>
-  </si>
-  <si>
-    <t>FLM2250V0BZ</t>
-  </si>
-  <si>
-    <t>USEAG (Eagan, MN)</t>
-  </si>
-  <si>
-    <t>USEAGM01VGW01.na.rpchome.com</t>
-  </si>
-  <si>
-    <t>10.165.40.40</t>
-  </si>
-  <si>
-    <t>FLM243110DT</t>
-  </si>
-  <si>
-    <t>USFRI (Fridley, MN)</t>
-  </si>
-  <si>
-    <t>USFRIM01VGW01.na.rpchome.com</t>
-  </si>
-  <si>
-    <t>10.186.16.10</t>
-  </si>
-  <si>
-    <t>V06</t>
-  </si>
-  <si>
-    <t>VG3X0-UNIVERSALK9-M</t>
-  </si>
-  <si>
-    <t>FGL2431LFJJ</t>
-  </si>
-  <si>
-    <t>USFRIM01VGW02.na.rpchome.com</t>
-  </si>
-  <si>
-    <t>10.186.16.11</t>
-  </si>
-  <si>
-    <t>15.7(3)M6, RELEASE SOFTWARE (fc1)</t>
-  </si>
-  <si>
-    <t>FLM252311V3</t>
-  </si>
-  <si>
-    <t>USFTN (Fountain Inn, SC)</t>
-  </si>
-  <si>
-    <t>USFTNM01VGW01.na.rpchome.com</t>
-  </si>
-  <si>
-    <t>10.167.16.10</t>
-  </si>
-  <si>
-    <t>FLM253010A4</t>
-  </si>
-  <si>
-    <t>USGAL (Gallatin, TN)</t>
-  </si>
-  <si>
-    <t>USGALM01VGW01.na.rpchome.com</t>
-  </si>
-  <si>
-    <t>10.169.16.10</t>
-  </si>
-  <si>
-    <t>FLM251711DU</t>
-  </si>
-  <si>
-    <t>USHIL (Hilliard, OH)</t>
-  </si>
-  <si>
-    <t>USHILM01VGW01.na.rpchome.com</t>
-  </si>
-  <si>
-    <t>10.170.16.10</t>
-  </si>
-  <si>
-    <t>16.09.07</t>
-  </si>
-  <si>
-    <t>FLM243110DU</t>
-  </si>
-  <si>
-    <t>USLOD (Lodi, CA)</t>
-  </si>
-  <si>
-    <t>USLODI06VGW01.na.rpchome.com</t>
-  </si>
-  <si>
-    <t>10.185.16.10</t>
-  </si>
-  <si>
-    <t>FLM253010A5</t>
-  </si>
-  <si>
-    <t>USMC1 (Missouri City, TN)</t>
-  </si>
-  <si>
-    <t>USMC1M01VGW01.na.rpchome.com</t>
-  </si>
-  <si>
-    <t>10.171.16.10</t>
-  </si>
-  <si>
-    <t>15.1(2)T5, RELEASE SOFTWARE (fc1)</t>
-  </si>
-  <si>
-    <t>FLM2530109V</t>
-  </si>
-  <si>
-    <t>USMC2 (Missouri City, TX)</t>
-  </si>
-  <si>
-    <t>USMC2M01VGW01.na.rpchome.com</t>
-  </si>
-  <si>
-    <t>10.180.16.10</t>
-  </si>
-  <si>
-    <t>15.7(3)M3, RELEASE SOFTWARE (fc2)</t>
-  </si>
-  <si>
-    <t>FLM251711DY</t>
-  </si>
-  <si>
-    <t>USMT1 (Morristown, TN)</t>
-  </si>
-  <si>
-    <t>USMT1M01VGW01.na.rpchome.com</t>
-  </si>
-  <si>
-    <t>10.172.16.10</t>
-  </si>
-  <si>
-    <t>FLM2530109J</t>
-  </si>
-  <si>
-    <t>USMT2 (Morristown, TN)</t>
-  </si>
-  <si>
-    <t>USMT2M01VGW01.na.rpchome.com</t>
-  </si>
-  <si>
-    <t>10.173.16.10</t>
-  </si>
-  <si>
-    <t>15.2(4)M3, RELEASE SOFTWARE (fc2)</t>
-  </si>
-  <si>
-    <t>FLM2530109Q</t>
-  </si>
-  <si>
-    <t>Lakeway Freezer</t>
-  </si>
-  <si>
-    <t>USMT3M01VGW01.na.rpchome.com</t>
-  </si>
-  <si>
-    <t>10.160.16.132</t>
-  </si>
-  <si>
-    <t>15.0(1)M6, RELEASE SOFTWARE (fc1)</t>
-  </si>
-  <si>
-    <t>FLM251711E3</t>
-  </si>
-  <si>
-    <t>USMUR (Murfreesboro, TN)</t>
-  </si>
-  <si>
-    <t>USMURM01VGW01.na.rpchome.com</t>
-  </si>
-  <si>
-    <t>10.174.16.10</t>
-  </si>
-  <si>
-    <t>VG310</t>
-  </si>
-  <si>
-    <t>FJC25051854</t>
-  </si>
-  <si>
-    <t>USMURM01VGW02.na.rpchome.com</t>
-  </si>
-  <si>
-    <t>10.174.16.11</t>
-  </si>
-  <si>
-    <t>15.7(3)M8, RELEASE SOFTWARE (fc1)</t>
-  </si>
-  <si>
-    <t>VG202XM</t>
-  </si>
-  <si>
-    <t>FCH2030T0LW</t>
-  </si>
-  <si>
-    <t>USNBR (New Britain, CT)</t>
-  </si>
-  <si>
-    <t>USNBRI01VGW01.na.rpchome.com</t>
-  </si>
-  <si>
-    <t>10.175.16.11</t>
-  </si>
-  <si>
-    <t>15.3(3)M7, RELEASE SOFTWARE (fc2)</t>
-  </si>
-  <si>
-    <t>C2951-UNIVERSALK9-M</t>
-  </si>
-  <si>
-    <t>FTX1532AL3T</t>
-  </si>
-  <si>
-    <t>USNBRM01VGW01.na.rpchome.com</t>
-  </si>
-  <si>
-    <t>10.175.16.10</t>
-  </si>
-  <si>
-    <t>15.1(4)M1, RELEASE SOFTWARE (fc1)</t>
-  </si>
-  <si>
-    <t>FLM253010A3</t>
-  </si>
-  <si>
-    <t>USNIL (Niles, IL)</t>
-  </si>
-  <si>
-    <t>USNILM01VGW01.na.rpchome.com</t>
-  </si>
-  <si>
-    <t>10.176.16.10</t>
-  </si>
-  <si>
-    <t>15.0(1)M3, RELEASE SOFTWARE (fc2)</t>
-  </si>
-  <si>
-    <t>FLM253010A2</t>
-  </si>
-  <si>
-    <t>USQUE (Queens, NY)</t>
-  </si>
-  <si>
-    <t>USQUEM01VGW01.na.rpchome.com</t>
-  </si>
-  <si>
-    <t>10.160.32.132</t>
-  </si>
-  <si>
-    <t>15.1(4)M4, RELEASE SOFTWARE (fc1)</t>
-  </si>
-  <si>
-    <t>FLM2530109X</t>
-  </si>
-  <si>
-    <t>USSAA (Santa Ana, CA)</t>
-  </si>
-  <si>
-    <t>USSAAM01VGW01.na.rpchome.com</t>
-  </si>
-  <si>
-    <t>10.177.16.10</t>
-  </si>
-  <si>
-    <t>FLM2250V0BX</t>
-  </si>
-  <si>
-    <t>USSFS (Santa Fe Springs, CA)</t>
-  </si>
-  <si>
-    <t>USSFSM01VGW01.na.rpchome.com</t>
-  </si>
-  <si>
-    <t>10.178.40.40</t>
-  </si>
-  <si>
-    <t>FLM243510DY</t>
-  </si>
-  <si>
-    <t>USSPK (Spokane, WA)</t>
-  </si>
-  <si>
-    <t>USSPKM01VGW01.na.rpchome.com</t>
-  </si>
-  <si>
-    <t>10.161.144.10</t>
-  </si>
-  <si>
-    <t>FLM2250V0C7</t>
-  </si>
-  <si>
-    <t>USSSI (St. Simons, GA)</t>
-  </si>
-  <si>
-    <t>USSSIM01VGW01.na.rpchome.com</t>
-  </si>
-  <si>
-    <t>10.179.40.40</t>
-  </si>
-  <si>
-    <t>FLM2530109N</t>
-  </si>
-  <si>
-    <t>USUNC (Union City, CA)</t>
-  </si>
-  <si>
-    <t>USUNCM01VGW01.na.rpchome.com</t>
-  </si>
-  <si>
-    <t>10.181.16.10</t>
-  </si>
-  <si>
-    <t>FLM2530109L</t>
-  </si>
-  <si>
-    <t>USVNL (Vineland, NJ)</t>
-  </si>
-  <si>
-    <t>USVNLM01VGW01.na.rpchome.com</t>
-  </si>
-  <si>
-    <t>10.182.16.10</t>
-  </si>
-  <si>
-    <t>FLM252210LG</t>
-  </si>
-  <si>
-    <t>USWHL (Wheeling, IL)</t>
-  </si>
-  <si>
-    <t>USWHLM01VGW01.na.rpchome.com</t>
-  </si>
-  <si>
-    <t>10.160.40.132</t>
-  </si>
-  <si>
-    <t>15.6(2)T1, RELEASE SOFTWARE (fc1)</t>
-  </si>
-  <si>
-    <t>Network Device</t>
-  </si>
-  <si>
-    <t>DC1 – FMC</t>
-  </si>
-  <si>
-    <t>10.70.6.15</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Catalyst 3650-48PS</t>
-  </si>
-  <si>
-    <t>FDO2036E0WG</t>
-  </si>
-  <si>
-    <t>Switch</t>
-  </si>
-  <si>
-    <t>DC1-A2R10-ASW04.rich.com</t>
-  </si>
-  <si>
-    <t>172.16.10.29</t>
-  </si>
-  <si>
-    <t>XE-IOS</t>
-  </si>
-  <si>
-    <t>Fuji 16.09.06</t>
-  </si>
-  <si>
-    <t>WS-C3850-24U-E</t>
-  </si>
-  <si>
-    <t>FOC2116U1CL</t>
-  </si>
-  <si>
-    <t>DC1-A2R11-ASW01.na.rpchome.com</t>
-  </si>
-  <si>
-    <t>172.16.10.22</t>
-  </si>
-  <si>
-    <t>FDO2119Q1N3</t>
-  </si>
-  <si>
-    <t>DC1-A2R11-PSW.rich.com</t>
-  </si>
-  <si>
-    <t>172.16.10.26</t>
-  </si>
-  <si>
-    <t>03.06.07b.E</t>
-  </si>
-  <si>
-    <t>Nexus 93240YC-FX2</t>
-  </si>
-  <si>
-    <t>FDO250319M2</t>
-  </si>
-  <si>
-    <t>USDC1A2R10CSW02.na.rpchome.com</t>
-  </si>
-  <si>
-    <t>172.16.10.7</t>
-  </si>
-  <si>
-    <t>NXOS</t>
-  </si>
-  <si>
-    <t>9.3(10)</t>
-  </si>
-  <si>
-    <t>FDO250319JV</t>
-  </si>
-  <si>
-    <t>USDC1A2R11CSW01.na.rpchome.com</t>
-  </si>
-  <si>
-    <t>172.16.10.6</t>
-  </si>
-  <si>
-    <t>FOC2107X1DK</t>
-  </si>
-  <si>
-    <t>USDC2A1R01ASW01.rich.com</t>
-  </si>
-  <si>
-    <t>172.16.200.22</t>
-  </si>
-  <si>
-    <t>Nexus 93180YC-EX</t>
-  </si>
-  <si>
-    <t>FDO2035118W</t>
-  </si>
-  <si>
-    <t>USDC2A1R01CSW01</t>
-  </si>
-  <si>
-    <t>172.16.200.7</t>
-  </si>
-  <si>
-    <t>FDO2119Q1PE</t>
-  </si>
-  <si>
-    <t>USDC2A1R01PSW01.rich.com</t>
-  </si>
-  <si>
-    <t>172.16.200.26</t>
-  </si>
-  <si>
-    <t>FDO20352BDD</t>
-  </si>
-  <si>
-    <t>USDC2A1R02CSW02</t>
-  </si>
-  <si>
-    <t>172.16.200.8</t>
-  </si>
-  <si>
-    <t>Cisco VG450</t>
-  </si>
-  <si>
-    <t>FLM2611107F</t>
-  </si>
-  <si>
-    <t>USHQ1M01VGW01.na.rpchome.com</t>
-  </si>
-  <si>
-    <t>10.3.16.11</t>
   </si>
 </sst>
 </file>
@@ -895,8 +898,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:M78" totalsRowCount="1">
-  <autoFilter ref="A1:M77"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:M64" totalsRowCount="1">
+  <autoFilter ref="A2:M63"/>
   <tableColumns count="13">
     <tableColumn id="1" name="Column1"/>
     <tableColumn id="2" name="Column2"/>
@@ -1211,2442 +1214,2409 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>266</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>267</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>268</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>269</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>270</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>271</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>272</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>273</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>274</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>275</v>
       </c>
       <c r="K2" t="s">
-        <v>23</v>
+        <v>276</v>
       </c>
       <c r="L2" t="s">
-        <v>24</v>
+        <v>277</v>
       </c>
       <c r="M2" t="s">
-        <v>25</v>
+        <v>278</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="G5" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="H5" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="I5" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="J5" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="K5" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="L5" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="M5" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="F6" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="G6" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="H6" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="I6" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="J6" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="K6" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="L6" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="M6" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" t="s">
         <v>26</v>
       </c>
-      <c r="B7" t="s">
+      <c r="G7" t="s">
         <v>27</v>
       </c>
-      <c r="D7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" t="s">
-        <v>39</v>
-      </c>
       <c r="H7" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="I7" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="J7" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="K7" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="L7" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="M7" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" t="s">
         <v>28</v>
       </c>
-      <c r="E8" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" t="s">
-        <v>40</v>
-      </c>
       <c r="G8" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="H8" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="I8" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="J8" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="K8" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="L8" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="M8" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="D9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" t="s">
         <v>28</v>
       </c>
-      <c r="E9" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" t="s">
-        <v>40</v>
-      </c>
       <c r="G9" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="H9" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="I9" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="J9" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="K9" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="L9" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="M9" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="E10" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="F10" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="G10" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H10" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="I10" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="J10" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="K10" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="L10" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="M10" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="D11" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="E11" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="F11" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="G11" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="H11" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="I11" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="J11" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="K11" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="L11" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="M11" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>44</v>
+      </c>
+      <c r="G12" t="s">
         <v>45</v>
       </c>
-      <c r="B12" t="s">
-        <v>53</v>
-      </c>
-      <c r="C12" t="s">
-        <v>54</v>
-      </c>
-      <c r="D12" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" t="s">
-        <v>55</v>
-      </c>
-      <c r="F12" t="s">
-        <v>56</v>
-      </c>
-      <c r="G12" t="s">
-        <v>57</v>
-      </c>
       <c r="H12" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="I12" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="J12" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="K12" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="L12" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="M12" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="E13" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="F13" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="G13" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="H13" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="I13" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="J13" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="K13" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="L13" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="M13" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="D14" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="E14" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="F14" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="G14" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="H14" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="I14" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="J14" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="K14" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="L14" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="M14" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="C16" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="D16" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="E16" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="F16" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="G16" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="H16" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="I16" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="J16" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="K16" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="L16" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="M16" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="C17" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="D17" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="E17" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="F17" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="G17" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="H17" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="I17" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="J17" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="K17" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="L17" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="M17" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="C18" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="D18" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="E18" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="F18" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="G18" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="H18" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="I18" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="J18" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="K18" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="L18" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="M18" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" t="s">
+        <v>52</v>
+      </c>
+      <c r="E19" t="s">
+        <v>69</v>
+      </c>
+      <c r="F19" t="s">
         <v>70</v>
       </c>
-      <c r="C19" t="s">
-        <v>80</v>
-      </c>
-      <c r="D19" t="s">
-        <v>64</v>
-      </c>
-      <c r="E19" t="s">
-        <v>81</v>
-      </c>
-      <c r="F19" t="s">
-        <v>82</v>
-      </c>
       <c r="G19" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="H19" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="I19" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="J19" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="K19" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="L19" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="M19" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B20" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="C20" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="D20" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="E20" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="F20" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="G20" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="H20" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="I20" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="J20" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="K20" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="L20" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="M20" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B21" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="C21" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="D21" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="E21" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="F21" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="G21" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="H21" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="I21" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="J21" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="K21" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="L21" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="M21" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B22" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="C22" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="D22" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="E22" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="F22" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="G22" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="H22" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="I22" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="J22" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="K22" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="L22" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="M22" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B23" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="C23" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="D23" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="E23" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="F23" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="G23" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="H23" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="I23" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="J23" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="K23" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="L23" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="M23" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="B24" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="C24" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="D24" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="E24" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="F24" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="G24" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="H24" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="I24" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="J24" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="K24" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="L24" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="M24" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B25" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="C25" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="D25" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="E25" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="F25" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="G25" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="H25" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="I25" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="J25" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="K25" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="L25" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="M25" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B26" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="C26" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="D26" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="E26" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="F26" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="G26" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="H26" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="I26" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="J26" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="K26" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="L26" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="M26" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B27" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="C27" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="D27" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="E27" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="F27" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="G27" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="H27" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="I27" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="J27" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="K27" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="L27" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="M27" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B28" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="C28" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="D28" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="E28" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="F28" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="G28" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="H28" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="I28" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="J28" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="K28" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="L28" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="M28" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B29" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="C29" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="D29" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="E29" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="F29" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="G29" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="H29" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="I29" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="J29" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="K29" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="L29" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="M29" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B30" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="C30" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="D30" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="E30" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="F30" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="G30" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="H30" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="I30" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="J30" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="K30" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="L30" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="M30" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B31" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="C31" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="D31" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="E31" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="F31" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="G31" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="H31" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="I31" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="J31" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="K31" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="L31" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="M31" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" spans="1:13">
       <c r="A32" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B32" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="C32" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D32" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="E32" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="F32" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="G32" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="H32" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="I32" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="J32" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="K32" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="L32" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="M32" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" spans="1:13">
       <c r="A33" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B33" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="C33" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="D33" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="E33" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="F33" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="G33" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="H33" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="I33" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="J33" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="K33" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="L33" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="M33" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B34" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="C34" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="D34" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="E34" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="F34" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="G34" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="H34" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="I34" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="J34" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="K34" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="L34" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="M34" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B35" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="C35" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="D35" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="E35" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="F35" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="G35" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="H35" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="I35" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="J35" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="K35" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="L35" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="M35" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B36" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="C36" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="D36" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="E36" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="F36" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="G36" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="H36" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="I36" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="J36" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="K36" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="L36" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="M36" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B37" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="C37" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="D37" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="E37" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="F37" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="G37" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="H37" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="I37" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="J37" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="K37" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="L37" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="M37" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" spans="1:13">
       <c r="A38" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B38" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="C38" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="D38" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="E38" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="F38" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="G38" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="H38" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="I38" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="J38" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="K38" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="L38" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="M38" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" spans="1:13">
       <c r="A39" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B39" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="C39" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="D39" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="E39" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="F39" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="G39" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="H39" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="I39" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="J39" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="K39" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="L39" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="M39" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" spans="1:13">
       <c r="A40" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B40" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="C40" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="D40" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="E40" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="F40" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="G40" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="H40" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="I40" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="J40" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="K40" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="L40" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="M40" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" spans="1:13">
       <c r="A41" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="B41" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="C41" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="D41" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="E41" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="F41" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="G41" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="H41" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="I41" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="J41" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="K41" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="L41" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="M41" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" spans="1:13">
       <c r="A42" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="B42" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="C42" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="D42" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="E42" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="F42" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="G42" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="H42" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="I42" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="J42" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="K42" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="L42" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="M42" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" spans="1:13">
       <c r="A43" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B43" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="C43" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="D43" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="E43" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="F43" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="G43" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="H43" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="I43" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="J43" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="K43" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="L43" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="M43" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" spans="1:13">
       <c r="A44" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B44" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="C44" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="D44" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="E44" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="F44" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="G44" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="H44" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="I44" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="J44" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="K44" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="L44" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="M44" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" spans="1:13">
       <c r="A45" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B45" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="C45" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="D45" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="E45" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="F45" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="G45" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="H45" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="I45" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="J45" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="K45" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="L45" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="M45" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" spans="1:13">
       <c r="A46" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B46" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="C46" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="D46" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="E46" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="F46" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="G46" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="H46" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="I46" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="J46" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="K46" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="L46" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="M46" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" spans="1:13">
       <c r="A47" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B47" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="C47" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="D47" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="E47" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="F47" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="G47" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="H47" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="I47" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="J47" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="K47" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="L47" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="M47" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" spans="1:13">
       <c r="A48" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B48" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="C48" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="D48" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="E48" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="F48" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="G48" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="H48" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="I48" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="J48" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="K48" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="L48" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="M48" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" spans="1:13">
       <c r="A49" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B49" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="C49" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="D49" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="E49" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="F49" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="G49" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="H49" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="I49" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="J49" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="K49" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="L49" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="M49" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" spans="1:13">
       <c r="A50" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B50" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="C50" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="D50" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="E50" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="F50" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="G50" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="H50" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="I50" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="J50" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="K50" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="L50" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="M50" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" spans="1:13">
       <c r="A51" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B51" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="C51" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="D51" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="E51" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="F51" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="G51" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="H51" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="I51" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="J51" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="K51" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="L51" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="M51" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" spans="1:13">
       <c r="A52" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B52" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="C52" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="D52" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="E52" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="F52" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="G52" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="H52" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="I52" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="J52" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="K52" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="L52" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="M52" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" spans="1:13">
       <c r="D53" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="E53" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="F53" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="G53" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="H53" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="I53" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="J53" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="K53" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="L53" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="M53" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" spans="1:13">
       <c r="A55" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="B55" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="C55" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="D55" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="E55" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="F55" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="G55" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="H55" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="I55" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="J55" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="K55" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="L55" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="M55" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" spans="1:13">
       <c r="A56" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="B56" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="C56" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="D56" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="E56" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="F56" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="G56" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="H56" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="I56" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="J56" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="K56" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="L56" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="M56" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" spans="1:13">
       <c r="A57" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="B57" t="s">
+        <v>225</v>
+      </c>
+      <c r="C57" t="s">
+        <v>236</v>
+      </c>
+      <c r="D57" t="s">
+        <v>227</v>
+      </c>
+      <c r="E57" t="s">
+        <v>22</v>
+      </c>
+      <c r="F57" t="s">
         <v>237</v>
       </c>
-      <c r="C57" t="s">
-        <v>248</v>
-      </c>
-      <c r="D57" t="s">
+      <c r="G57" t="s">
+        <v>238</v>
+      </c>
+      <c r="H57" t="s">
+        <v>230</v>
+      </c>
+      <c r="I57" t="s">
         <v>239</v>
       </c>
-      <c r="E57" t="s">
-        <v>34</v>
-      </c>
-      <c r="F57" t="s">
-        <v>249</v>
-      </c>
-      <c r="G57" t="s">
-        <v>250</v>
-      </c>
-      <c r="H57" t="s">
-        <v>242</v>
-      </c>
-      <c r="I57" t="s">
-        <v>251</v>
-      </c>
       <c r="J57" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="K57" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="L57" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="M57" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" spans="1:13">
       <c r="A58" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="B58" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="C58" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="D58" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="E58" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="F58" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="G58" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="H58" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="I58" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="J58" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="K58" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="L58" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="M58" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" spans="1:13">
       <c r="A59" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="B59" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="C59" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="D59" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="E59" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="F59" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="G59" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="H59" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="I59" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="J59" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="K59" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="L59" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="M59" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" spans="1:13">
       <c r="A60" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="B60" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="C60" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="D60" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="E60" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="F60" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="G60" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="H60" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="I60" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="J60" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="K60" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="L60" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="M60" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" spans="1:13">
       <c r="A61" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="B61" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="C61" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="D61" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="E61" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="F61" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="G61" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="H61" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="I61" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="J61" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="K61" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="L61" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="M61" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62" spans="1:13">
       <c r="A62" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="B62" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="C62" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="D62" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="E62" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="F62" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="G62" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="H62" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="I62" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="J62" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="K62" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="L62" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="M62" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" spans="1:13">
       <c r="A63" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="B63" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="C63" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="D63" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="E63" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="F63" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="G63" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="H63" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="I63" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="J63" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="K63" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="L63" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="M63" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" spans="1:13">
       <c r="A64" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="B64" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="C64" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="D64" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="E64" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="F64" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="G64" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="H64" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="I64" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="J64" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="K64" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="L64" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="M64" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:M1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>

--- a/Rich Products Corporation - HQ @ Buffalo, NY.xlsx
+++ b/Rich Products Corporation - HQ @ Buffalo, NY.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Network Device" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -898,8 +898,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:M64" totalsRowCount="1">
-  <autoFilter ref="A2:M63"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:M65" totalsRowCount="1">
+  <autoFilter ref="A2:M64"/>
   <tableColumns count="13">
     <tableColumn id="1" name="Column1"/>
     <tableColumn id="2" name="Column2"/>

--- a/Rich Products Corporation - HQ @ Buffalo, NY.xlsx
+++ b/Rich Products Corporation - HQ @ Buffalo, NY.xlsx
@@ -1204,55 +1204,91 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M61"/>
+  <dimension ref="A2:M61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
     <row r="2" spans="1:13">
       <c r="A2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C2" t="s">
+        <v>255</v>
+      </c>
+      <c r="D2" t="s">
+        <v>256</v>
+      </c>
+      <c r="E2" t="s">
+        <v>257</v>
+      </c>
+      <c r="F2" t="s">
+        <v>258</v>
+      </c>
+      <c r="G2" t="s">
+        <v>259</v>
+      </c>
+      <c r="H2" t="s">
+        <v>260</v>
+      </c>
+      <c r="I2" t="s">
+        <v>261</v>
+      </c>
+      <c r="J2" t="s">
+        <v>262</v>
+      </c>
+      <c r="K2" t="s">
+        <v>263</v>
+      </c>
+      <c r="L2" t="s">
+        <v>264</v>
+      </c>
+      <c r="M2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" t="s">
         <v>266</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>267</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
         <v>268</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D3" t="s">
         <v>269</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E3" t="s">
         <v>270</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F3" t="s">
         <v>271</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G3" t="s">
         <v>272</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H3" t="s">
         <v>273</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I3" t="s">
         <v>274</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J3" t="s">
         <v>275</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K3" t="s">
         <v>276</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L3" t="s">
         <v>277</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M3" t="s">
         <v>278</v>
       </c>
     </row>
@@ -3615,7 +3651,7 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A2:M2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/Rich Products Corporation - HQ @ Buffalo, NY.xlsx
+++ b/Rich Products Corporation - HQ @ Buffalo, NY.xlsx
@@ -898,8 +898,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:M62" totalsRowCount="1">
-  <autoFilter ref="A2:M61"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:M61" totalsRowCount="1">
+  <autoFilter ref="A2:M60"/>
   <tableColumns count="13">
     <tableColumn id="1" name="Column1"/>
     <tableColumn id="2" name="Column2"/>
@@ -1204,92 +1204,94 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:M61"/>
+  <dimension ref="A1:M60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
     <row r="2" spans="1:13">
       <c r="A2" t="s">
-        <v>253</v>
+        <v>266</v>
       </c>
       <c r="B2" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="C2" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="D2" t="s">
-        <v>256</v>
+        <v>269</v>
       </c>
       <c r="E2" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="F2" t="s">
-        <v>258</v>
+        <v>271</v>
       </c>
       <c r="G2" t="s">
-        <v>259</v>
+        <v>272</v>
       </c>
       <c r="H2" t="s">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c r="I2" t="s">
-        <v>261</v>
+        <v>274</v>
       </c>
       <c r="J2" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="K2" t="s">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="L2" t="s">
-        <v>264</v>
+        <v>277</v>
       </c>
       <c r="M2" t="s">
-        <v>265</v>
+        <v>278</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" t="s">
-        <v>266</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>267</v>
-      </c>
-      <c r="C3" t="s">
-        <v>268</v>
+        <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>269</v>
+        <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>270</v>
+        <v>4</v>
       </c>
       <c r="F3" t="s">
-        <v>271</v>
+        <v>5</v>
       </c>
       <c r="G3" t="s">
-        <v>272</v>
+        <v>6</v>
       </c>
       <c r="H3" t="s">
-        <v>273</v>
+        <v>7</v>
       </c>
       <c r="I3" t="s">
-        <v>274</v>
+        <v>8</v>
       </c>
       <c r="J3" t="s">
-        <v>275</v>
+        <v>8</v>
       </c>
       <c r="K3" t="s">
-        <v>276</v>
+        <v>8</v>
       </c>
       <c r="L3" t="s">
-        <v>277</v>
+        <v>8</v>
       </c>
       <c r="M3" t="s">
-        <v>278</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -1303,16 +1305,16 @@
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F4" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G4" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="H4" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="I4" t="s">
         <v>8</v>
@@ -1344,10 +1346,10 @@
         <v>9</v>
       </c>
       <c r="F5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H5" t="s">
         <v>12</v>
@@ -1373,7 +1375,10 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>2</v>
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
       </c>
       <c r="D6" t="s">
         <v>3</v>
@@ -1382,10 +1387,10 @@
         <v>9</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H6" t="s">
         <v>12</v>
@@ -1426,7 +1431,7 @@
         <v>15</v>
       </c>
       <c r="G7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H7" t="s">
         <v>12</v>
@@ -1452,22 +1457,19 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D8" t="s">
         <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F8" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H8" t="s">
         <v>12</v>
@@ -1490,28 +1492,31 @@
     </row>
     <row r="9" spans="1:13">
       <c r="A9" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>2</v>
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
       </c>
       <c r="D9" t="s">
         <v>3</v>
       </c>
       <c r="E9" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="F9" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="G9" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="H9" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I9" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="J9" t="s">
         <v>8</v>
@@ -1531,28 +1536,28 @@
         <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D10" t="s">
         <v>3</v>
       </c>
       <c r="E10" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F10" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="G10" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H10" t="s">
         <v>26</v>
       </c>
       <c r="I10" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="J10" t="s">
         <v>8</v>
@@ -1569,31 +1574,31 @@
     </row>
     <row r="11" spans="1:13">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="D11" t="s">
         <v>3</v>
       </c>
       <c r="E11" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="F11" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G11" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H11" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I11" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="J11" t="s">
         <v>8</v>
@@ -1628,7 +1633,7 @@
         <v>34</v>
       </c>
       <c r="G12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H12" t="s">
         <v>12</v>
@@ -1654,28 +1659,28 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="D13" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="E13" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="F13" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G13" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H13" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I13" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="J13" t="s">
         <v>8</v>
@@ -1695,28 +1700,28 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="D14" t="s">
         <v>39</v>
       </c>
       <c r="E14" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="F14" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G14" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="H14" t="s">
         <v>43</v>
       </c>
       <c r="I14" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="J14" t="s">
         <v>8</v>
@@ -1736,28 +1741,28 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C15" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D15" t="s">
         <v>39</v>
       </c>
       <c r="E15" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="F15" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G15" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H15" t="s">
         <v>43</v>
       </c>
       <c r="I15" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="J15" t="s">
         <v>8</v>
@@ -1777,28 +1782,28 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C16" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D16" t="s">
         <v>39</v>
       </c>
       <c r="E16" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="F16" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="G16" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H16" t="s">
         <v>43</v>
       </c>
       <c r="I16" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="J16" t="s">
         <v>8</v>
@@ -1821,19 +1826,19 @@
         <v>45</v>
       </c>
       <c r="C17" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D17" t="s">
         <v>39</v>
       </c>
       <c r="E17" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="F17" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="G17" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="H17" t="s">
         <v>43</v>
@@ -1862,19 +1867,19 @@
         <v>45</v>
       </c>
       <c r="C18" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D18" t="s">
         <v>39</v>
       </c>
       <c r="E18" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="F18" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="G18" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="H18" t="s">
         <v>43</v>
@@ -1903,25 +1908,25 @@
         <v>45</v>
       </c>
       <c r="C19" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D19" t="s">
         <v>39</v>
       </c>
       <c r="E19" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="F19" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G19" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="H19" t="s">
         <v>43</v>
       </c>
       <c r="I19" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="J19" t="s">
         <v>8</v>
@@ -1941,28 +1946,28 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="C20" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D20" t="s">
         <v>39</v>
       </c>
       <c r="E20" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="F20" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="G20" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="H20" t="s">
         <v>43</v>
       </c>
       <c r="I20" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="J20" t="s">
         <v>8</v>
@@ -1979,13 +1984,13 @@
     </row>
     <row r="21" spans="1:13">
       <c r="A21" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C21" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D21" t="s">
         <v>39</v>
@@ -1994,16 +1999,16 @@
         <v>75</v>
       </c>
       <c r="F21" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G21" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="H21" t="s">
         <v>43</v>
       </c>
       <c r="I21" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="J21" t="s">
         <v>8</v>
@@ -2020,31 +2025,31 @@
     </row>
     <row r="22" spans="1:13">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="C22" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D22" t="s">
         <v>39</v>
       </c>
       <c r="E22" t="s">
-        <v>75</v>
+        <v>9</v>
       </c>
       <c r="F22" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="G22" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="H22" t="s">
         <v>43</v>
       </c>
       <c r="I22" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="J22" t="s">
         <v>8</v>
@@ -2067,7 +2072,7 @@
         <v>37</v>
       </c>
       <c r="C23" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D23" t="s">
         <v>39</v>
@@ -2076,10 +2081,10 @@
         <v>9</v>
       </c>
       <c r="F23" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="G23" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="H23" t="s">
         <v>43</v>
@@ -2108,19 +2113,19 @@
         <v>37</v>
       </c>
       <c r="C24" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D24" t="s">
         <v>39</v>
       </c>
       <c r="E24" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F24" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="G24" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="H24" t="s">
         <v>43</v>
@@ -2146,28 +2151,28 @@
         <v>1</v>
       </c>
       <c r="B25" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="C25" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D25" t="s">
         <v>39</v>
       </c>
       <c r="E25" t="s">
-        <v>4</v>
+        <v>95</v>
       </c>
       <c r="F25" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="G25" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="H25" t="s">
         <v>43</v>
       </c>
       <c r="I25" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="J25" t="s">
         <v>8</v>
@@ -2190,25 +2195,25 @@
         <v>45</v>
       </c>
       <c r="C26" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D26" t="s">
         <v>39</v>
       </c>
       <c r="E26" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F26" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="G26" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="H26" t="s">
         <v>43</v>
       </c>
       <c r="I26" t="s">
-        <v>59</v>
+        <v>102</v>
       </c>
       <c r="J26" t="s">
         <v>8</v>
@@ -2228,10 +2233,10 @@
         <v>1</v>
       </c>
       <c r="B27" t="s">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="C27" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="D27" t="s">
         <v>39</v>
@@ -2240,16 +2245,16 @@
         <v>99</v>
       </c>
       <c r="F27" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="G27" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="H27" t="s">
         <v>43</v>
       </c>
       <c r="I27" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="J27" t="s">
         <v>8</v>
@@ -2269,28 +2274,28 @@
         <v>1</v>
       </c>
       <c r="B28" t="s">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="C28" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D28" t="s">
         <v>39</v>
       </c>
       <c r="E28" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="F28" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="G28" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="H28" t="s">
         <v>43</v>
       </c>
       <c r="I28" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="J28" t="s">
         <v>8</v>
@@ -2313,25 +2318,25 @@
         <v>45</v>
       </c>
       <c r="C29" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D29" t="s">
         <v>39</v>
       </c>
       <c r="E29" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="F29" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="G29" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="H29" t="s">
         <v>43</v>
       </c>
       <c r="I29" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="J29" t="s">
         <v>8</v>
@@ -2351,28 +2356,28 @@
         <v>1</v>
       </c>
       <c r="B30" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C30" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D30" t="s">
         <v>39</v>
       </c>
       <c r="E30" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="F30" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="G30" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="H30" t="s">
         <v>43</v>
       </c>
       <c r="I30" t="s">
-        <v>8</v>
+        <v>120</v>
       </c>
       <c r="J30" t="s">
         <v>8</v>
@@ -2392,28 +2397,28 @@
         <v>1</v>
       </c>
       <c r="B31" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="C31" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="D31" t="s">
         <v>39</v>
       </c>
       <c r="E31" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="F31" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="G31" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="H31" t="s">
         <v>43</v>
       </c>
       <c r="I31" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="J31" t="s">
         <v>8</v>
@@ -2436,25 +2441,25 @@
         <v>45</v>
       </c>
       <c r="C32" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D32" t="s">
         <v>39</v>
       </c>
       <c r="E32" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="F32" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="G32" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="H32" t="s">
         <v>43</v>
       </c>
       <c r="I32" t="s">
-        <v>102</v>
+        <v>129</v>
       </c>
       <c r="J32" t="s">
         <v>8</v>
@@ -2477,25 +2482,25 @@
         <v>45</v>
       </c>
       <c r="C33" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="D33" t="s">
         <v>39</v>
       </c>
       <c r="E33" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="F33" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="G33" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="H33" t="s">
         <v>43</v>
       </c>
       <c r="I33" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="J33" t="s">
         <v>8</v>
@@ -2515,28 +2520,28 @@
         <v>1</v>
       </c>
       <c r="B34" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C34" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="D34" t="s">
         <v>39</v>
       </c>
       <c r="E34" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="F34" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="G34" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="H34" t="s">
         <v>43</v>
       </c>
       <c r="I34" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="J34" t="s">
         <v>8</v>
@@ -2556,28 +2561,28 @@
         <v>1</v>
       </c>
       <c r="B35" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="C35" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="D35" t="s">
         <v>39</v>
       </c>
       <c r="E35" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="F35" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="G35" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H35" t="s">
         <v>43</v>
       </c>
       <c r="I35" t="s">
-        <v>120</v>
+        <v>143</v>
       </c>
       <c r="J35" t="s">
         <v>8</v>
@@ -2600,25 +2605,25 @@
         <v>45</v>
       </c>
       <c r="C36" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="D36" t="s">
         <v>39</v>
       </c>
       <c r="E36" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="F36" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="G36" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="H36" t="s">
         <v>43</v>
       </c>
       <c r="I36" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="J36" t="s">
         <v>8</v>
@@ -2638,28 +2643,28 @@
         <v>1</v>
       </c>
       <c r="B37" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C37" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="D37" t="s">
         <v>39</v>
       </c>
       <c r="E37" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="F37" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="G37" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="H37" t="s">
         <v>43</v>
       </c>
       <c r="I37" t="s">
-        <v>148</v>
+        <v>120</v>
       </c>
       <c r="J37" t="s">
         <v>8</v>
@@ -2676,13 +2681,13 @@
     </row>
     <row r="38" spans="1:13">
       <c r="A38" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="B38" t="s">
-        <v>37</v>
+        <v>153</v>
       </c>
       <c r="C38" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="D38" t="s">
         <v>39</v>
@@ -2691,16 +2696,16 @@
         <v>150</v>
       </c>
       <c r="F38" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="G38" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="H38" t="s">
         <v>43</v>
       </c>
       <c r="I38" t="s">
-        <v>120</v>
+        <v>157</v>
       </c>
       <c r="J38" t="s">
         <v>8</v>
@@ -2720,28 +2725,28 @@
         <v>20</v>
       </c>
       <c r="B39" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="C39" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="D39" t="s">
         <v>39</v>
       </c>
       <c r="E39" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="F39" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="G39" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="H39" t="s">
         <v>43</v>
       </c>
       <c r="I39" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="J39" t="s">
         <v>8</v>
@@ -2758,13 +2763,13 @@
     </row>
     <row r="40" spans="1:13">
       <c r="A40" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="B40" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="C40" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="D40" t="s">
         <v>39</v>
@@ -2773,16 +2778,16 @@
         <v>160</v>
       </c>
       <c r="F40" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="G40" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="H40" t="s">
         <v>43</v>
       </c>
       <c r="I40" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="J40" t="s">
         <v>8</v>
@@ -2802,28 +2807,28 @@
         <v>1</v>
       </c>
       <c r="B41" t="s">
-        <v>164</v>
+        <v>45</v>
       </c>
       <c r="C41" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D41" t="s">
         <v>39</v>
       </c>
       <c r="E41" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="F41" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="G41" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="H41" t="s">
         <v>43</v>
       </c>
       <c r="I41" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="J41" t="s">
         <v>8</v>
@@ -2846,25 +2851,25 @@
         <v>45</v>
       </c>
       <c r="C42" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="D42" t="s">
         <v>39</v>
       </c>
       <c r="E42" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="F42" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="G42" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="H42" t="s">
         <v>43</v>
       </c>
       <c r="I42" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="J42" t="s">
         <v>8</v>
@@ -2887,25 +2892,25 @@
         <v>45</v>
       </c>
       <c r="C43" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="D43" t="s">
         <v>39</v>
       </c>
       <c r="E43" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="F43" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="G43" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="H43" t="s">
         <v>43</v>
       </c>
       <c r="I43" t="s">
-        <v>178</v>
+        <v>83</v>
       </c>
       <c r="J43" t="s">
         <v>8</v>
@@ -2928,25 +2933,25 @@
         <v>45</v>
       </c>
       <c r="C44" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="D44" t="s">
         <v>39</v>
       </c>
       <c r="E44" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="F44" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="G44" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="H44" t="s">
         <v>43</v>
       </c>
       <c r="I44" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="J44" t="s">
         <v>8</v>
@@ -2969,25 +2974,25 @@
         <v>45</v>
       </c>
       <c r="C45" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="D45" t="s">
         <v>39</v>
       </c>
       <c r="E45" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="F45" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="G45" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="H45" t="s">
         <v>43</v>
       </c>
       <c r="I45" t="s">
-        <v>59</v>
+        <v>102</v>
       </c>
       <c r="J45" t="s">
         <v>8</v>
@@ -3010,25 +3015,25 @@
         <v>45</v>
       </c>
       <c r="C46" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="D46" t="s">
         <v>39</v>
       </c>
       <c r="E46" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="F46" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="G46" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="H46" t="s">
         <v>43</v>
       </c>
       <c r="I46" t="s">
-        <v>102</v>
+        <v>59</v>
       </c>
       <c r="J46" t="s">
         <v>8</v>
@@ -3051,25 +3056,25 @@
         <v>45</v>
       </c>
       <c r="C47" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="D47" t="s">
         <v>39</v>
       </c>
       <c r="E47" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="F47" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="G47" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="H47" t="s">
         <v>43</v>
       </c>
       <c r="I47" t="s">
-        <v>59</v>
+        <v>178</v>
       </c>
       <c r="J47" t="s">
         <v>8</v>
@@ -3092,25 +3097,25 @@
         <v>45</v>
       </c>
       <c r="C48" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="D48" t="s">
         <v>39</v>
       </c>
       <c r="E48" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="F48" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="G48" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="H48" t="s">
         <v>43</v>
       </c>
       <c r="I48" t="s">
-        <v>178</v>
+        <v>148</v>
       </c>
       <c r="J48" t="s">
         <v>8</v>
@@ -3133,25 +3138,25 @@
         <v>45</v>
       </c>
       <c r="C49" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="D49" t="s">
         <v>39</v>
       </c>
       <c r="E49" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="F49" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="G49" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="H49" t="s">
         <v>43</v>
       </c>
       <c r="I49" t="s">
-        <v>148</v>
+        <v>207</v>
       </c>
       <c r="J49" t="s">
         <v>8</v>
@@ -3167,32 +3172,23 @@
       </c>
     </row>
     <row r="50" spans="1:13">
-      <c r="A50" t="s">
-        <v>1</v>
-      </c>
-      <c r="B50" t="s">
-        <v>45</v>
-      </c>
-      <c r="C50" t="s">
-        <v>203</v>
-      </c>
       <c r="D50" t="s">
-        <v>39</v>
+        <v>208</v>
       </c>
       <c r="E50" t="s">
-        <v>204</v>
+        <v>9</v>
       </c>
       <c r="F50" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="G50" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="H50" t="s">
-        <v>43</v>
+        <v>211</v>
       </c>
       <c r="I50" t="s">
-        <v>207</v>
+        <v>8</v>
       </c>
       <c r="J50" t="s">
         <v>8</v>
@@ -3208,23 +3204,32 @@
       </c>
     </row>
     <row r="51" spans="1:13">
+      <c r="A51" t="s">
+        <v>20</v>
+      </c>
+      <c r="B51" t="s">
+        <v>212</v>
+      </c>
+      <c r="C51" t="s">
+        <v>213</v>
+      </c>
       <c r="D51" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="E51" t="s">
         <v>9</v>
       </c>
       <c r="F51" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="G51" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="H51" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="I51" t="s">
-        <v>8</v>
+        <v>218</v>
       </c>
       <c r="J51" t="s">
         <v>8</v>
@@ -3244,10 +3249,10 @@
         <v>20</v>
       </c>
       <c r="B52" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="C52" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="D52" t="s">
         <v>214</v>
@@ -3256,10 +3261,10 @@
         <v>9</v>
       </c>
       <c r="F52" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="G52" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="H52" t="s">
         <v>217</v>
@@ -3285,10 +3290,10 @@
         <v>20</v>
       </c>
       <c r="B53" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="C53" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="D53" t="s">
         <v>214</v>
@@ -3297,16 +3302,16 @@
         <v>9</v>
       </c>
       <c r="F53" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="G53" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="H53" t="s">
         <v>217</v>
       </c>
       <c r="I53" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="J53" t="s">
         <v>8</v>
@@ -3326,10 +3331,10 @@
         <v>20</v>
       </c>
       <c r="B54" t="s">
-        <v>212</v>
+        <v>227</v>
       </c>
       <c r="C54" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="D54" t="s">
         <v>214</v>
@@ -3338,16 +3343,16 @@
         <v>9</v>
       </c>
       <c r="F54" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="G54" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="H54" t="s">
-        <v>217</v>
+        <v>231</v>
       </c>
       <c r="I54" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="J54" t="s">
         <v>8</v>
@@ -3370,7 +3375,7 @@
         <v>227</v>
       </c>
       <c r="C55" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="D55" t="s">
         <v>214</v>
@@ -3379,10 +3384,10 @@
         <v>9</v>
       </c>
       <c r="F55" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="G55" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="H55" t="s">
         <v>231</v>
@@ -3408,28 +3413,28 @@
         <v>20</v>
       </c>
       <c r="B56" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="C56" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="D56" t="s">
         <v>214</v>
       </c>
       <c r="E56" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F56" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="G56" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="H56" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="I56" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="J56" t="s">
         <v>8</v>
@@ -3449,10 +3454,10 @@
         <v>20</v>
       </c>
       <c r="B57" t="s">
-        <v>219</v>
+        <v>239</v>
       </c>
       <c r="C57" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="D57" t="s">
         <v>214</v>
@@ -3461,16 +3466,16 @@
         <v>4</v>
       </c>
       <c r="F57" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="G57" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="H57" t="s">
-        <v>217</v>
+        <v>231</v>
       </c>
       <c r="I57" t="s">
-        <v>218</v>
+        <v>232</v>
       </c>
       <c r="J57" t="s">
         <v>8</v>
@@ -3490,10 +3495,10 @@
         <v>20</v>
       </c>
       <c r="B58" t="s">
-        <v>239</v>
+        <v>212</v>
       </c>
       <c r="C58" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="D58" t="s">
         <v>214</v>
@@ -3502,16 +3507,16 @@
         <v>4</v>
       </c>
       <c r="F58" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="G58" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="H58" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="I58" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="J58" t="s">
         <v>8</v>
@@ -3531,10 +3536,10 @@
         <v>20</v>
       </c>
       <c r="B59" t="s">
-        <v>212</v>
+        <v>239</v>
       </c>
       <c r="C59" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="D59" t="s">
         <v>214</v>
@@ -3543,16 +3548,16 @@
         <v>4</v>
       </c>
       <c r="F59" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="G59" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="H59" t="s">
-        <v>217</v>
+        <v>231</v>
       </c>
       <c r="I59" t="s">
-        <v>218</v>
+        <v>232</v>
       </c>
       <c r="J59" t="s">
         <v>8</v>
@@ -3572,28 +3577,28 @@
         <v>20</v>
       </c>
       <c r="B60" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="C60" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="D60" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="E60" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F60" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="G60" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="H60" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="I60" t="s">
-        <v>232</v>
+        <v>8</v>
       </c>
       <c r="J60" t="s">
         <v>8</v>
@@ -3605,53 +3610,12 @@
         <v>8</v>
       </c>
       <c r="M60" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13">
-      <c r="A61" t="s">
-        <v>20</v>
-      </c>
-      <c r="B61" t="s">
-        <v>249</v>
-      </c>
-      <c r="C61" t="s">
-        <v>250</v>
-      </c>
-      <c r="D61" t="s">
-        <v>208</v>
-      </c>
-      <c r="E61" t="s">
-        <v>9</v>
-      </c>
-      <c r="F61" t="s">
-        <v>251</v>
-      </c>
-      <c r="G61" t="s">
-        <v>252</v>
-      </c>
-      <c r="H61" t="s">
-        <v>217</v>
-      </c>
-      <c r="I61" t="s">
-        <v>8</v>
-      </c>
-      <c r="J61" t="s">
-        <v>8</v>
-      </c>
-      <c r="K61" t="s">
-        <v>8</v>
-      </c>
-      <c r="L61" t="s">
-        <v>8</v>
-      </c>
-      <c r="M61" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A2:M2"/>
+    <mergeCell ref="A1:M1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/Rich Products Corporation - HQ @ Buffalo, NY.xlsx
+++ b/Rich Products Corporation - HQ @ Buffalo, NY.xlsx
@@ -898,8 +898,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:M61" totalsRowCount="1">
-  <autoFilter ref="A2:M60"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:M62" totalsRowCount="1">
+  <autoFilter ref="A3:M61"/>
   <tableColumns count="13">
     <tableColumn id="1" name="Column1"/>
     <tableColumn id="2" name="Column2"/>
@@ -1204,17 +1204,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M60"/>
+  <dimension ref="A2:M61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
     <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>266</v>
@@ -1258,40 +1253,43 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>253</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>254</v>
+      </c>
+      <c r="C3" t="s">
+        <v>255</v>
       </c>
       <c r="D3" t="s">
-        <v>3</v>
+        <v>256</v>
       </c>
       <c r="E3" t="s">
-        <v>4</v>
+        <v>257</v>
       </c>
       <c r="F3" t="s">
-        <v>5</v>
+        <v>258</v>
       </c>
       <c r="G3" t="s">
-        <v>6</v>
+        <v>259</v>
       </c>
       <c r="H3" t="s">
-        <v>7</v>
+        <v>260</v>
       </c>
       <c r="I3" t="s">
-        <v>8</v>
+        <v>261</v>
       </c>
       <c r="J3" t="s">
-        <v>8</v>
+        <v>262</v>
       </c>
       <c r="K3" t="s">
-        <v>8</v>
+        <v>263</v>
       </c>
       <c r="L3" t="s">
-        <v>8</v>
+        <v>264</v>
       </c>
       <c r="M3" t="s">
-        <v>8</v>
+        <v>265</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -1305,16 +1303,16 @@
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F4" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="H4" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="I4" t="s">
         <v>8</v>
@@ -1346,10 +1344,10 @@
         <v>9</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H5" t="s">
         <v>12</v>
@@ -1375,10 +1373,7 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D6" t="s">
         <v>3</v>
@@ -1387,10 +1382,10 @@
         <v>9</v>
       </c>
       <c r="F6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
         <v>12</v>
@@ -1431,7 +1426,7 @@
         <v>15</v>
       </c>
       <c r="G7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H7" t="s">
         <v>12</v>
@@ -1457,19 +1452,22 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>2</v>
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
       </c>
       <c r="D8" t="s">
         <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H8" t="s">
         <v>12</v>
@@ -1492,31 +1490,28 @@
     </row>
     <row r="9" spans="1:13">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="D9" t="s">
         <v>3</v>
       </c>
       <c r="E9" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="F9" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="G9" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H9" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I9" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="J9" t="s">
         <v>8</v>
@@ -1536,28 +1531,28 @@
         <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D10" t="s">
         <v>3</v>
       </c>
       <c r="E10" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F10" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="G10" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="H10" t="s">
         <v>26</v>
       </c>
       <c r="I10" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="J10" t="s">
         <v>8</v>
@@ -1574,31 +1569,31 @@
     </row>
     <row r="11" spans="1:13">
       <c r="A11" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="D11" t="s">
         <v>3</v>
       </c>
       <c r="E11" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="F11" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H11" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I11" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="J11" t="s">
         <v>8</v>
@@ -1633,7 +1628,7 @@
         <v>34</v>
       </c>
       <c r="G12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H12" t="s">
         <v>12</v>
@@ -1659,28 +1654,28 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="D13" t="s">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="E13" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="F13" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G13" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H13" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="I13" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="J13" t="s">
         <v>8</v>
@@ -1700,28 +1695,28 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C14" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D14" t="s">
         <v>39</v>
       </c>
       <c r="E14" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="F14" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G14" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="H14" t="s">
         <v>43</v>
       </c>
       <c r="I14" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="J14" t="s">
         <v>8</v>
@@ -1741,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C15" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D15" t="s">
         <v>39</v>
       </c>
       <c r="E15" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="F15" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G15" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="H15" t="s">
         <v>43</v>
       </c>
       <c r="I15" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="J15" t="s">
         <v>8</v>
@@ -1782,28 +1777,28 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C16" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D16" t="s">
         <v>39</v>
       </c>
       <c r="E16" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="F16" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="G16" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="H16" t="s">
         <v>43</v>
       </c>
       <c r="I16" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="J16" t="s">
         <v>8</v>
@@ -1826,19 +1821,19 @@
         <v>45</v>
       </c>
       <c r="C17" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D17" t="s">
         <v>39</v>
       </c>
       <c r="E17" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F17" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="G17" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="H17" t="s">
         <v>43</v>
@@ -1867,19 +1862,19 @@
         <v>45</v>
       </c>
       <c r="C18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D18" t="s">
         <v>39</v>
       </c>
       <c r="E18" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F18" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G18" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="H18" t="s">
         <v>43</v>
@@ -1908,25 +1903,25 @@
         <v>45</v>
       </c>
       <c r="C19" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D19" t="s">
         <v>39</v>
       </c>
       <c r="E19" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F19" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G19" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="H19" t="s">
         <v>43</v>
       </c>
       <c r="I19" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="J19" t="s">
         <v>8</v>
@@ -1946,28 +1941,28 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="C20" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D20" t="s">
         <v>39</v>
       </c>
       <c r="E20" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F20" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="G20" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="H20" t="s">
         <v>43</v>
       </c>
       <c r="I20" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="J20" t="s">
         <v>8</v>
@@ -1984,13 +1979,13 @@
     </row>
     <row r="21" spans="1:13">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C21" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D21" t="s">
         <v>39</v>
@@ -1999,16 +1994,16 @@
         <v>75</v>
       </c>
       <c r="F21" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="G21" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="H21" t="s">
         <v>43</v>
       </c>
       <c r="I21" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="J21" t="s">
         <v>8</v>
@@ -2025,31 +2020,31 @@
     </row>
     <row r="22" spans="1:13">
       <c r="A22" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="C22" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D22" t="s">
         <v>39</v>
       </c>
       <c r="E22" t="s">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="F22" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G22" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H22" t="s">
         <v>43</v>
       </c>
       <c r="I22" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="J22" t="s">
         <v>8</v>
@@ -2072,7 +2067,7 @@
         <v>37</v>
       </c>
       <c r="C23" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D23" t="s">
         <v>39</v>
@@ -2081,10 +2076,10 @@
         <v>9</v>
       </c>
       <c r="F23" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G23" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="H23" t="s">
         <v>43</v>
@@ -2113,19 +2108,19 @@
         <v>37</v>
       </c>
       <c r="C24" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D24" t="s">
         <v>39</v>
       </c>
       <c r="E24" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F24" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G24" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="H24" t="s">
         <v>43</v>
@@ -2151,28 +2146,28 @@
         <v>1</v>
       </c>
       <c r="B25" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C25" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D25" t="s">
         <v>39</v>
       </c>
       <c r="E25" t="s">
-        <v>95</v>
+        <v>4</v>
       </c>
       <c r="F25" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="G25" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H25" t="s">
         <v>43</v>
       </c>
       <c r="I25" t="s">
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="J25" t="s">
         <v>8</v>
@@ -2195,25 +2190,25 @@
         <v>45</v>
       </c>
       <c r="C26" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D26" t="s">
         <v>39</v>
       </c>
       <c r="E26" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F26" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="G26" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="H26" t="s">
         <v>43</v>
       </c>
       <c r="I26" t="s">
-        <v>102</v>
+        <v>59</v>
       </c>
       <c r="J26" t="s">
         <v>8</v>
@@ -2233,10 +2228,10 @@
         <v>1</v>
       </c>
       <c r="B27" t="s">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="C27" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D27" t="s">
         <v>39</v>
@@ -2245,16 +2240,16 @@
         <v>99</v>
       </c>
       <c r="F27" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="G27" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="H27" t="s">
         <v>43</v>
       </c>
       <c r="I27" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="J27" t="s">
         <v>8</v>
@@ -2274,28 +2269,28 @@
         <v>1</v>
       </c>
       <c r="B28" t="s">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="C28" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D28" t="s">
         <v>39</v>
       </c>
       <c r="E28" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="F28" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="G28" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="H28" t="s">
         <v>43</v>
       </c>
       <c r="I28" t="s">
-        <v>83</v>
+        <v>107</v>
       </c>
       <c r="J28" t="s">
         <v>8</v>
@@ -2318,25 +2313,25 @@
         <v>45</v>
       </c>
       <c r="C29" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D29" t="s">
         <v>39</v>
       </c>
       <c r="E29" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F29" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="G29" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="H29" t="s">
         <v>43</v>
       </c>
       <c r="I29" t="s">
-        <v>8</v>
+        <v>83</v>
       </c>
       <c r="J29" t="s">
         <v>8</v>
@@ -2356,28 +2351,28 @@
         <v>1</v>
       </c>
       <c r="B30" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="C30" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D30" t="s">
         <v>39</v>
       </c>
       <c r="E30" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F30" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G30" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="H30" t="s">
         <v>43</v>
       </c>
       <c r="I30" t="s">
-        <v>120</v>
+        <v>8</v>
       </c>
       <c r="J30" t="s">
         <v>8</v>
@@ -2397,28 +2392,28 @@
         <v>1</v>
       </c>
       <c r="B31" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C31" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D31" t="s">
         <v>39</v>
       </c>
       <c r="E31" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="F31" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="G31" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="H31" t="s">
         <v>43</v>
       </c>
       <c r="I31" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="J31" t="s">
         <v>8</v>
@@ -2441,25 +2436,25 @@
         <v>45</v>
       </c>
       <c r="C32" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D32" t="s">
         <v>39</v>
       </c>
       <c r="E32" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F32" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="G32" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="H32" t="s">
         <v>43</v>
       </c>
       <c r="I32" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="J32" t="s">
         <v>8</v>
@@ -2482,25 +2477,25 @@
         <v>45</v>
       </c>
       <c r="C33" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D33" t="s">
         <v>39</v>
       </c>
       <c r="E33" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="F33" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="G33" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="H33" t="s">
         <v>43</v>
       </c>
       <c r="I33" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="J33" t="s">
         <v>8</v>
@@ -2520,28 +2515,28 @@
         <v>1</v>
       </c>
       <c r="B34" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="C34" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D34" t="s">
         <v>39</v>
       </c>
       <c r="E34" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="F34" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="G34" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="H34" t="s">
         <v>43</v>
       </c>
       <c r="I34" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="J34" t="s">
         <v>8</v>
@@ -2561,28 +2556,28 @@
         <v>1</v>
       </c>
       <c r="B35" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C35" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D35" t="s">
         <v>39</v>
       </c>
       <c r="E35" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F35" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="G35" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="H35" t="s">
         <v>43</v>
       </c>
       <c r="I35" t="s">
-        <v>143</v>
+        <v>120</v>
       </c>
       <c r="J35" t="s">
         <v>8</v>
@@ -2605,25 +2600,25 @@
         <v>45</v>
       </c>
       <c r="C36" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D36" t="s">
         <v>39</v>
       </c>
       <c r="E36" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="F36" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="G36" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="H36" t="s">
         <v>43</v>
       </c>
       <c r="I36" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="J36" t="s">
         <v>8</v>
@@ -2643,28 +2638,28 @@
         <v>1</v>
       </c>
       <c r="B37" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="C37" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D37" t="s">
         <v>39</v>
       </c>
       <c r="E37" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="F37" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="G37" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="H37" t="s">
         <v>43</v>
       </c>
       <c r="I37" t="s">
-        <v>120</v>
+        <v>148</v>
       </c>
       <c r="J37" t="s">
         <v>8</v>
@@ -2681,13 +2676,13 @@
     </row>
     <row r="38" spans="1:13">
       <c r="A38" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="B38" t="s">
-        <v>153</v>
+        <v>37</v>
       </c>
       <c r="C38" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D38" t="s">
         <v>39</v>
@@ -2696,16 +2691,16 @@
         <v>150</v>
       </c>
       <c r="F38" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="G38" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="H38" t="s">
         <v>43</v>
       </c>
       <c r="I38" t="s">
-        <v>157</v>
+        <v>120</v>
       </c>
       <c r="J38" t="s">
         <v>8</v>
@@ -2725,28 +2720,28 @@
         <v>20</v>
       </c>
       <c r="B39" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C39" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D39" t="s">
         <v>39</v>
       </c>
       <c r="E39" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="F39" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="G39" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="H39" t="s">
         <v>43</v>
       </c>
       <c r="I39" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="J39" t="s">
         <v>8</v>
@@ -2763,13 +2758,13 @@
     </row>
     <row r="40" spans="1:13">
       <c r="A40" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="B40" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="C40" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="D40" t="s">
         <v>39</v>
@@ -2778,16 +2773,16 @@
         <v>160</v>
       </c>
       <c r="F40" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="G40" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="H40" t="s">
         <v>43</v>
       </c>
       <c r="I40" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="J40" t="s">
         <v>8</v>
@@ -2807,28 +2802,28 @@
         <v>1</v>
       </c>
       <c r="B41" t="s">
-        <v>45</v>
+        <v>164</v>
       </c>
       <c r="C41" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D41" t="s">
         <v>39</v>
       </c>
       <c r="E41" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="F41" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="G41" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="H41" t="s">
         <v>43</v>
       </c>
       <c r="I41" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="J41" t="s">
         <v>8</v>
@@ -2851,25 +2846,25 @@
         <v>45</v>
       </c>
       <c r="C42" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D42" t="s">
         <v>39</v>
       </c>
       <c r="E42" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F42" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="G42" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="H42" t="s">
         <v>43</v>
       </c>
       <c r="I42" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="J42" t="s">
         <v>8</v>
@@ -2892,25 +2887,25 @@
         <v>45</v>
       </c>
       <c r="C43" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="D43" t="s">
         <v>39</v>
       </c>
       <c r="E43" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="F43" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="G43" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="H43" t="s">
         <v>43</v>
       </c>
       <c r="I43" t="s">
-        <v>83</v>
+        <v>178</v>
       </c>
       <c r="J43" t="s">
         <v>8</v>
@@ -2933,25 +2928,25 @@
         <v>45</v>
       </c>
       <c r="C44" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D44" t="s">
         <v>39</v>
       </c>
       <c r="E44" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="F44" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G44" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="H44" t="s">
         <v>43</v>
       </c>
       <c r="I44" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="J44" t="s">
         <v>8</v>
@@ -2974,25 +2969,25 @@
         <v>45</v>
       </c>
       <c r="C45" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D45" t="s">
         <v>39</v>
       </c>
       <c r="E45" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="F45" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G45" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="H45" t="s">
         <v>43</v>
       </c>
       <c r="I45" t="s">
-        <v>102</v>
+        <v>59</v>
       </c>
       <c r="J45" t="s">
         <v>8</v>
@@ -3015,25 +3010,25 @@
         <v>45</v>
       </c>
       <c r="C46" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D46" t="s">
         <v>39</v>
       </c>
       <c r="E46" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="F46" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="G46" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="H46" t="s">
         <v>43</v>
       </c>
       <c r="I46" t="s">
-        <v>59</v>
+        <v>102</v>
       </c>
       <c r="J46" t="s">
         <v>8</v>
@@ -3056,25 +3051,25 @@
         <v>45</v>
       </c>
       <c r="C47" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D47" t="s">
         <v>39</v>
       </c>
       <c r="E47" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="F47" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="G47" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="H47" t="s">
         <v>43</v>
       </c>
       <c r="I47" t="s">
-        <v>178</v>
+        <v>59</v>
       </c>
       <c r="J47" t="s">
         <v>8</v>
@@ -3097,25 +3092,25 @@
         <v>45</v>
       </c>
       <c r="C48" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D48" t="s">
         <v>39</v>
       </c>
       <c r="E48" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="F48" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G48" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="H48" t="s">
         <v>43</v>
       </c>
       <c r="I48" t="s">
-        <v>148</v>
+        <v>178</v>
       </c>
       <c r="J48" t="s">
         <v>8</v>
@@ -3138,98 +3133,98 @@
         <v>45</v>
       </c>
       <c r="C49" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D49" t="s">
         <v>39</v>
       </c>
       <c r="E49" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F49" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="G49" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="H49" t="s">
         <v>43</v>
       </c>
       <c r="I49" t="s">
+        <v>148</v>
+      </c>
+      <c r="J49" t="s">
+        <v>8</v>
+      </c>
+      <c r="K49" t="s">
+        <v>8</v>
+      </c>
+      <c r="L49" t="s">
+        <v>8</v>
+      </c>
+      <c r="M49" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
+      <c r="A50" t="s">
+        <v>1</v>
+      </c>
+      <c r="B50" t="s">
+        <v>45</v>
+      </c>
+      <c r="C50" t="s">
+        <v>203</v>
+      </c>
+      <c r="D50" t="s">
+        <v>39</v>
+      </c>
+      <c r="E50" t="s">
+        <v>204</v>
+      </c>
+      <c r="F50" t="s">
+        <v>205</v>
+      </c>
+      <c r="G50" t="s">
+        <v>206</v>
+      </c>
+      <c r="H50" t="s">
+        <v>43</v>
+      </c>
+      <c r="I50" t="s">
         <v>207</v>
       </c>
-      <c r="J49" t="s">
-        <v>8</v>
-      </c>
-      <c r="K49" t="s">
-        <v>8</v>
-      </c>
-      <c r="L49" t="s">
-        <v>8</v>
-      </c>
-      <c r="M49" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
-      <c r="D50" t="s">
+      <c r="J50" t="s">
+        <v>8</v>
+      </c>
+      <c r="K50" t="s">
+        <v>8</v>
+      </c>
+      <c r="L50" t="s">
+        <v>8</v>
+      </c>
+      <c r="M50" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
+      <c r="D51" t="s">
         <v>208</v>
-      </c>
-      <c r="E50" t="s">
-        <v>9</v>
-      </c>
-      <c r="F50" t="s">
-        <v>209</v>
-      </c>
-      <c r="G50" t="s">
-        <v>210</v>
-      </c>
-      <c r="H50" t="s">
-        <v>211</v>
-      </c>
-      <c r="I50" t="s">
-        <v>8</v>
-      </c>
-      <c r="J50" t="s">
-        <v>8</v>
-      </c>
-      <c r="K50" t="s">
-        <v>8</v>
-      </c>
-      <c r="L50" t="s">
-        <v>8</v>
-      </c>
-      <c r="M50" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
-      <c r="A51" t="s">
-        <v>20</v>
-      </c>
-      <c r="B51" t="s">
-        <v>212</v>
-      </c>
-      <c r="C51" t="s">
-        <v>213</v>
-      </c>
-      <c r="D51" t="s">
-        <v>214</v>
       </c>
       <c r="E51" t="s">
         <v>9</v>
       </c>
       <c r="F51" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="G51" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="H51" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="I51" t="s">
-        <v>218</v>
+        <v>8</v>
       </c>
       <c r="J51" t="s">
         <v>8</v>
@@ -3249,10 +3244,10 @@
         <v>20</v>
       </c>
       <c r="B52" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="C52" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="D52" t="s">
         <v>214</v>
@@ -3261,10 +3256,10 @@
         <v>9</v>
       </c>
       <c r="F52" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="G52" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="H52" t="s">
         <v>217</v>
@@ -3290,10 +3285,10 @@
         <v>20</v>
       </c>
       <c r="B53" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="C53" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D53" t="s">
         <v>214</v>
@@ -3302,16 +3297,16 @@
         <v>9</v>
       </c>
       <c r="F53" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G53" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="H53" t="s">
         <v>217</v>
       </c>
       <c r="I53" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="J53" t="s">
         <v>8</v>
@@ -3331,10 +3326,10 @@
         <v>20</v>
       </c>
       <c r="B54" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="C54" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="D54" t="s">
         <v>214</v>
@@ -3343,16 +3338,16 @@
         <v>9</v>
       </c>
       <c r="F54" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="G54" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="H54" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="I54" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="J54" t="s">
         <v>8</v>
@@ -3375,7 +3370,7 @@
         <v>227</v>
       </c>
       <c r="C55" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="D55" t="s">
         <v>214</v>
@@ -3384,10 +3379,10 @@
         <v>9</v>
       </c>
       <c r="F55" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="G55" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="H55" t="s">
         <v>231</v>
@@ -3413,28 +3408,28 @@
         <v>20</v>
       </c>
       <c r="B56" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="C56" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D56" t="s">
         <v>214</v>
       </c>
       <c r="E56" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F56" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G56" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="H56" t="s">
-        <v>217</v>
+        <v>231</v>
       </c>
       <c r="I56" t="s">
-        <v>218</v>
+        <v>232</v>
       </c>
       <c r="J56" t="s">
         <v>8</v>
@@ -3454,10 +3449,10 @@
         <v>20</v>
       </c>
       <c r="B57" t="s">
-        <v>239</v>
+        <v>219</v>
       </c>
       <c r="C57" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D57" t="s">
         <v>214</v>
@@ -3466,16 +3461,16 @@
         <v>4</v>
       </c>
       <c r="F57" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="G57" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="H57" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="I57" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="J57" t="s">
         <v>8</v>
@@ -3495,10 +3490,10 @@
         <v>20</v>
       </c>
       <c r="B58" t="s">
-        <v>212</v>
+        <v>239</v>
       </c>
       <c r="C58" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D58" t="s">
         <v>214</v>
@@ -3507,16 +3502,16 @@
         <v>4</v>
       </c>
       <c r="F58" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G58" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="H58" t="s">
-        <v>217</v>
+        <v>231</v>
       </c>
       <c r="I58" t="s">
-        <v>218</v>
+        <v>232</v>
       </c>
       <c r="J58" t="s">
         <v>8</v>
@@ -3536,10 +3531,10 @@
         <v>20</v>
       </c>
       <c r="B59" t="s">
-        <v>239</v>
+        <v>212</v>
       </c>
       <c r="C59" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D59" t="s">
         <v>214</v>
@@ -3548,16 +3543,16 @@
         <v>4</v>
       </c>
       <c r="F59" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G59" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="H59" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="I59" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="J59" t="s">
         <v>8</v>
@@ -3577,45 +3572,86 @@
         <v>20</v>
       </c>
       <c r="B60" t="s">
+        <v>239</v>
+      </c>
+      <c r="C60" t="s">
+        <v>246</v>
+      </c>
+      <c r="D60" t="s">
+        <v>214</v>
+      </c>
+      <c r="E60" t="s">
+        <v>4</v>
+      </c>
+      <c r="F60" t="s">
+        <v>247</v>
+      </c>
+      <c r="G60" t="s">
+        <v>248</v>
+      </c>
+      <c r="H60" t="s">
+        <v>231</v>
+      </c>
+      <c r="I60" t="s">
+        <v>232</v>
+      </c>
+      <c r="J60" t="s">
+        <v>8</v>
+      </c>
+      <c r="K60" t="s">
+        <v>8</v>
+      </c>
+      <c r="L60" t="s">
+        <v>8</v>
+      </c>
+      <c r="M60" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
+      <c r="A61" t="s">
+        <v>20</v>
+      </c>
+      <c r="B61" t="s">
         <v>249</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C61" t="s">
         <v>250</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D61" t="s">
         <v>208</v>
       </c>
-      <c r="E60" t="s">
+      <c r="E61" t="s">
         <v>9</v>
       </c>
-      <c r="F60" t="s">
+      <c r="F61" t="s">
         <v>251</v>
       </c>
-      <c r="G60" t="s">
+      <c r="G61" t="s">
         <v>252</v>
       </c>
-      <c r="H60" t="s">
+      <c r="H61" t="s">
         <v>217</v>
       </c>
-      <c r="I60" t="s">
-        <v>8</v>
-      </c>
-      <c r="J60" t="s">
-        <v>8</v>
-      </c>
-      <c r="K60" t="s">
-        <v>8</v>
-      </c>
-      <c r="L60" t="s">
-        <v>8</v>
-      </c>
-      <c r="M60" t="s">
+      <c r="I61" t="s">
+        <v>8</v>
+      </c>
+      <c r="J61" t="s">
+        <v>8</v>
+      </c>
+      <c r="K61" t="s">
+        <v>8</v>
+      </c>
+      <c r="L61" t="s">
+        <v>8</v>
+      </c>
+      <c r="M61" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A2:M2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/Rich Products Corporation - HQ @ Buffalo, NY.xlsx
+++ b/Rich Products Corporation - HQ @ Buffalo, NY.xlsx
@@ -1212,84 +1212,48 @@
   <sheetData>
     <row r="2" spans="1:13">
       <c r="A2" t="s">
-        <v>266</v>
-      </c>
-      <c r="B2" t="s">
-        <v>267</v>
-      </c>
-      <c r="C2" t="s">
-        <v>268</v>
-      </c>
-      <c r="D2" t="s">
-        <v>269</v>
-      </c>
-      <c r="E2" t="s">
-        <v>270</v>
-      </c>
-      <c r="F2" t="s">
-        <v>271</v>
-      </c>
-      <c r="G2" t="s">
-        <v>272</v>
-      </c>
-      <c r="H2" t="s">
-        <v>273</v>
-      </c>
-      <c r="I2" t="s">
-        <v>274</v>
-      </c>
-      <c r="J2" t="s">
-        <v>275</v>
-      </c>
-      <c r="K2" t="s">
-        <v>276</v>
-      </c>
-      <c r="L2" t="s">
-        <v>277</v>
-      </c>
-      <c r="M2" t="s">
-        <v>278</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" t="s">
-        <v>253</v>
+        <v>266</v>
       </c>
       <c r="B3" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="C3" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="D3" t="s">
-        <v>256</v>
+        <v>269</v>
       </c>
       <c r="E3" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="F3" t="s">
-        <v>258</v>
+        <v>271</v>
       </c>
       <c r="G3" t="s">
-        <v>259</v>
+        <v>272</v>
       </c>
       <c r="H3" t="s">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c r="I3" t="s">
-        <v>261</v>
+        <v>274</v>
       </c>
       <c r="J3" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="K3" t="s">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="L3" t="s">
-        <v>264</v>
+        <v>277</v>
       </c>
       <c r="M3" t="s">
-        <v>265</v>
+        <v>278</v>
       </c>
     </row>
     <row r="4" spans="1:13">

--- a/Rich Products Corporation - HQ @ Buffalo, NY.xlsx
+++ b/Rich Products Corporation - HQ @ Buffalo, NY.xlsx
@@ -895,6 +895,49 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>505236</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9659</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="logo.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="2943636" cy="962159"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3618,8 +3661,9 @@
     <mergeCell ref="A2:M2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Rich Products Corporation - HQ @ Buffalo, NY.xlsx
+++ b/Rich Products Corporation - HQ @ Buffalo, NY.xlsx
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="280">
+  <si>
+    <t>image</t>
+  </si>
   <si>
     <t>Rich Products Corporation - HQ @ Buffalo, NY</t>
   </si>
@@ -1247,2417 +1250,2423 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:M61"/>
+  <dimension ref="A1:M61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
     <row r="2" spans="1:13">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D3" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E3" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F3" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G3" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H3" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="I3" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="J3" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="K3" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L3" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M3" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" t="s">
         <v>13</v>
       </c>
-      <c r="G6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" t="s">
-        <v>12</v>
-      </c>
       <c r="I6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D11" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E12" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E13" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D17" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F17" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G17" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I17" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C18" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" t="s">
+        <v>62</v>
+      </c>
+      <c r="F18" t="s">
+        <v>63</v>
+      </c>
+      <c r="G18" t="s">
+        <v>64</v>
+      </c>
+      <c r="H18" t="s">
+        <v>44</v>
+      </c>
+      <c r="I18" t="s">
         <v>60</v>
       </c>
-      <c r="D18" t="s">
-        <v>39</v>
-      </c>
-      <c r="E18" t="s">
-        <v>61</v>
-      </c>
-      <c r="F18" t="s">
-        <v>62</v>
-      </c>
-      <c r="G18" t="s">
-        <v>63</v>
-      </c>
-      <c r="H18" t="s">
-        <v>43</v>
-      </c>
-      <c r="I18" t="s">
-        <v>59</v>
-      </c>
       <c r="J18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C19" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D19" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E19" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F19" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G19" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I19" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C20" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D20" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E20" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F20" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G20" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I20" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C21" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D21" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E21" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F21" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G21" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I21" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C22" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D22" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E22" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F22" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G22" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I22" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B23" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C23" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D23" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G23" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I23" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B24" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C24" t="s">
+        <v>89</v>
+      </c>
+      <c r="D24" t="s">
+        <v>40</v>
+      </c>
+      <c r="E24" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" t="s">
+        <v>90</v>
+      </c>
+      <c r="G24" t="s">
+        <v>91</v>
+      </c>
+      <c r="H24" t="s">
+        <v>44</v>
+      </c>
+      <c r="I24" t="s">
         <v>88</v>
       </c>
-      <c r="D24" t="s">
-        <v>39</v>
-      </c>
-      <c r="E24" t="s">
-        <v>9</v>
-      </c>
-      <c r="F24" t="s">
-        <v>89</v>
-      </c>
-      <c r="G24" t="s">
-        <v>90</v>
-      </c>
-      <c r="H24" t="s">
-        <v>43</v>
-      </c>
-      <c r="I24" t="s">
-        <v>87</v>
-      </c>
       <c r="J24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B25" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C25" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D25" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E25" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F25" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G25" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I25" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B26" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C26" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D26" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E26" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F26" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G26" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B27" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C27" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D27" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E27" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F27" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G27" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I27" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B28" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C28" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D28" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E28" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F28" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G28" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H28" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I28" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="J28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B29" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C29" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D29" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E29" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F29" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G29" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I29" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C30" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D30" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E30" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F30" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G30" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H30" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B31" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C31" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D31" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E31" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F31" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G31" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I31" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:13">
       <c r="A32" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C32" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D32" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E32" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F32" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G32" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I32" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:13">
       <c r="A33" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B33" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C33" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D33" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E33" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F33" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G33" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H33" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I33" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="J33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B34" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C34" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D34" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E34" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F34" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G34" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H34" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I34" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="J34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B35" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C35" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D35" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E35" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F35" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G35" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H35" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I35" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B36" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C36" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D36" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E36" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F36" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G36" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I36" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="J36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B37" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C37" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D37" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E37" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F37" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G37" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H37" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I37" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="J37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38" spans="1:13">
       <c r="A38" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B38" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C38" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D38" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E38" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F38" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G38" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H38" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I38" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39" spans="1:13">
       <c r="A39" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B39" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C39" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D39" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E39" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F39" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G39" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I39" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="J39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:13">
       <c r="A40" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B40" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C40" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D40" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E40" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F40" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G40" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H40" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I40" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="J40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41" spans="1:13">
       <c r="A41" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B41" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C41" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D41" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F41" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G41" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H41" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I41" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="J41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42" spans="1:13">
       <c r="A42" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B42" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C42" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D42" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E42" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F42" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G42" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H42" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I42" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="J42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43" spans="1:13">
       <c r="A43" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B43" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C43" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D43" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E43" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F43" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G43" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H43" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I43" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44" spans="1:13">
       <c r="A44" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B44" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C44" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D44" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E44" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F44" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G44" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H44" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I44" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="45" spans="1:13">
       <c r="A45" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B45" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C45" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D45" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E45" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F45" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G45" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H45" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I45" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46" spans="1:13">
       <c r="A46" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B46" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C46" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D46" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E46" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F46" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G46" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H46" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I46" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="47" spans="1:13">
       <c r="A47" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B47" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C47" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D47" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E47" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F47" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G47" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H47" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I47" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="48" spans="1:13">
       <c r="A48" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B48" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C48" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D48" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E48" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F48" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G48" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H48" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I48" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49" spans="1:13">
       <c r="A49" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B49" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C49" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D49" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E49" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F49" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G49" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H49" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I49" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="J49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="50" spans="1:13">
       <c r="A50" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B50" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C50" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D50" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E50" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F50" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G50" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H50" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I50" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="51" spans="1:13">
       <c r="D51" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G51" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H51" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="I51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="52" spans="1:13">
       <c r="A52" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B52" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C52" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D52" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G52" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H52" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="I52" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="53" spans="1:13">
       <c r="A53" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B53" t="s">
+        <v>220</v>
+      </c>
+      <c r="C53" t="s">
+        <v>221</v>
+      </c>
+      <c r="D53" t="s">
+        <v>215</v>
+      </c>
+      <c r="E53" t="s">
+        <v>10</v>
+      </c>
+      <c r="F53" t="s">
+        <v>222</v>
+      </c>
+      <c r="G53" t="s">
+        <v>223</v>
+      </c>
+      <c r="H53" t="s">
+        <v>218</v>
+      </c>
+      <c r="I53" t="s">
         <v>219</v>
       </c>
-      <c r="C53" t="s">
-        <v>220</v>
-      </c>
-      <c r="D53" t="s">
-        <v>214</v>
-      </c>
-      <c r="E53" t="s">
-        <v>9</v>
-      </c>
-      <c r="F53" t="s">
-        <v>221</v>
-      </c>
-      <c r="G53" t="s">
-        <v>222</v>
-      </c>
-      <c r="H53" t="s">
-        <v>217</v>
-      </c>
-      <c r="I53" t="s">
-        <v>218</v>
-      </c>
       <c r="J53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="54" spans="1:13">
       <c r="A54" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B54" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C54" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D54" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G54" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H54" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="I54" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="J54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="55" spans="1:13">
       <c r="A55" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B55" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C55" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D55" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="G55" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H55" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="I55" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="56" spans="1:13">
       <c r="A56" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B56" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C56" t="s">
+        <v>234</v>
+      </c>
+      <c r="D56" t="s">
+        <v>215</v>
+      </c>
+      <c r="E56" t="s">
+        <v>10</v>
+      </c>
+      <c r="F56" t="s">
+        <v>235</v>
+      </c>
+      <c r="G56" t="s">
+        <v>236</v>
+      </c>
+      <c r="H56" t="s">
+        <v>232</v>
+      </c>
+      <c r="I56" t="s">
         <v>233</v>
       </c>
-      <c r="D56" t="s">
-        <v>214</v>
-      </c>
-      <c r="E56" t="s">
-        <v>9</v>
-      </c>
-      <c r="F56" t="s">
-        <v>234</v>
-      </c>
-      <c r="G56" t="s">
-        <v>235</v>
-      </c>
-      <c r="H56" t="s">
-        <v>231</v>
-      </c>
-      <c r="I56" t="s">
-        <v>232</v>
-      </c>
       <c r="J56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="57" spans="1:13">
       <c r="A57" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B57" t="s">
+        <v>220</v>
+      </c>
+      <c r="C57" t="s">
+        <v>237</v>
+      </c>
+      <c r="D57" t="s">
+        <v>215</v>
+      </c>
+      <c r="E57" t="s">
+        <v>5</v>
+      </c>
+      <c r="F57" t="s">
+        <v>238</v>
+      </c>
+      <c r="G57" t="s">
+        <v>239</v>
+      </c>
+      <c r="H57" t="s">
+        <v>218</v>
+      </c>
+      <c r="I57" t="s">
         <v>219</v>
       </c>
-      <c r="C57" t="s">
-        <v>236</v>
-      </c>
-      <c r="D57" t="s">
-        <v>214</v>
-      </c>
-      <c r="E57" t="s">
-        <v>4</v>
-      </c>
-      <c r="F57" t="s">
-        <v>237</v>
-      </c>
-      <c r="G57" t="s">
-        <v>238</v>
-      </c>
-      <c r="H57" t="s">
-        <v>217</v>
-      </c>
-      <c r="I57" t="s">
-        <v>218</v>
-      </c>
       <c r="J57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="58" spans="1:13">
       <c r="A58" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B58" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C58" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D58" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E58" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F58" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="G58" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H58" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="I58" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="59" spans="1:13">
       <c r="A59" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B59" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C59" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D59" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E59" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F59" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="G59" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H59" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="I59" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="60" spans="1:13">
       <c r="A60" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B60" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C60" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D60" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E60" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F60" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="G60" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H60" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="I60" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="61" spans="1:13">
       <c r="A61" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B61" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C61" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D61" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G61" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H61" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="I61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
+    <mergeCell ref="A1:M1"/>
     <mergeCell ref="A2:M2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Rich Products Corporation - HQ @ Buffalo, NY.xlsx
+++ b/Rich Products Corporation - HQ @ Buffalo, NY.xlsx
@@ -905,15 +905,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>142875</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>505236</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>38511</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>9659</xdr:rowOff>
+      <xdr:rowOff>104909</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -930,7 +930,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="0"/>
+          <a:off x="142875" y="95250"/>
           <a:ext cx="2943636" cy="962159"/>
         </a:xfrm>
         <a:prstGeom prst="rect">

--- a/Rich Products Corporation - HQ @ Buffalo, NY.xlsx
+++ b/Rich Products Corporation - HQ @ Buffalo, NY.xlsx
@@ -14,10 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="280">
-  <si>
-    <t>image</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="279">
   <si>
     <t>Rich Products Corporation - HQ @ Buffalo, NY</t>
   </si>
@@ -905,15 +902,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>38511</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>104909</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>126462</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>105732</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -930,8 +927,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="142875" y="95250"/>
-          <a:ext cx="2943636" cy="962159"/>
+          <a:off x="0" y="0"/>
+          <a:ext cx="1345662" cy="105732"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1256,2412 +1253,2407 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
     <row r="2" spans="1:13">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" t="s">
+        <v>266</v>
+      </c>
+      <c r="B3" t="s">
         <v>267</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>268</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>269</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>270</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>271</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>272</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>273</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>274</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>275</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>276</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>277</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>278</v>
-      </c>
-      <c r="M3" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
         <v>3</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>4</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>5</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>6</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>7</v>
       </c>
-      <c r="H4" t="s">
-        <v>8</v>
-      </c>
       <c r="I4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
         <v>2</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D5" t="s">
         <v>3</v>
       </c>
-      <c r="D5" t="s">
-        <v>4</v>
-      </c>
       <c r="E5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" t="s">
         <v>10</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>12</v>
       </c>
-      <c r="H5" t="s">
-        <v>13</v>
-      </c>
       <c r="I5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
         <v>2</v>
       </c>
-      <c r="B6" t="s">
+      <c r="D6" t="s">
         <v>3</v>
       </c>
-      <c r="D6" t="s">
-        <v>4</v>
-      </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s">
         <v>14</v>
       </c>
-      <c r="G6" t="s">
-        <v>15</v>
-      </c>
       <c r="H6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" t="s">
         <v>9</v>
       </c>
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" t="s">
-        <v>10</v>
-      </c>
       <c r="F7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" t="s">
         <v>16</v>
       </c>
-      <c r="G7" t="s">
-        <v>17</v>
-      </c>
       <c r="H7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" t="s">
         <v>9</v>
       </c>
-      <c r="C8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" t="s">
-        <v>10</v>
-      </c>
       <c r="F8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
         <v>2</v>
       </c>
-      <c r="B9" t="s">
+      <c r="D9" t="s">
         <v>3</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>4</v>
       </c>
-      <c r="E9" t="s">
-        <v>5</v>
-      </c>
       <c r="F9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" t="s">
         <v>19</v>
       </c>
-      <c r="G9" t="s">
-        <v>20</v>
-      </c>
       <c r="H9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
         <v>21</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>22</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" t="s">
         <v>23</v>
       </c>
-      <c r="D10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>24</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>25</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>26</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>27</v>
       </c>
-      <c r="I10" t="s">
-        <v>28</v>
-      </c>
       <c r="J10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" t="s">
         <v>29</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" t="s">
         <v>30</v>
       </c>
-      <c r="D11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>31</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>32</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
+        <v>26</v>
+      </c>
+      <c r="I11" t="s">
         <v>33</v>
       </c>
-      <c r="H11" t="s">
-        <v>27</v>
-      </c>
-      <c r="I11" t="s">
-        <v>34</v>
-      </c>
       <c r="J11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" t="s">
         <v>4</v>
       </c>
-      <c r="E12" t="s">
-        <v>5</v>
-      </c>
       <c r="F12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" t="s">
         <v>35</v>
       </c>
-      <c r="G12" t="s">
-        <v>36</v>
-      </c>
       <c r="H12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" t="s">
         <v>4</v>
       </c>
-      <c r="E13" t="s">
-        <v>5</v>
-      </c>
       <c r="F13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" t="s">
         <v>38</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>39</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>40</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>41</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>42</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>43</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>44</v>
       </c>
-      <c r="I14" t="s">
-        <v>45</v>
-      </c>
       <c r="J14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" t="s">
         <v>46</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" t="s">
         <v>47</v>
       </c>
-      <c r="D15" t="s">
-        <v>40</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>48</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>49</v>
       </c>
-      <c r="G15" t="s">
-        <v>50</v>
-      </c>
       <c r="H15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" t="s">
         <v>51</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" t="s">
         <v>52</v>
       </c>
-      <c r="D16" t="s">
-        <v>40</v>
-      </c>
-      <c r="E16" t="s">
-        <v>24</v>
-      </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>53</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
+        <v>43</v>
+      </c>
+      <c r="I16" t="s">
         <v>54</v>
       </c>
-      <c r="H16" t="s">
-        <v>44</v>
-      </c>
-      <c r="I16" t="s">
-        <v>55</v>
-      </c>
       <c r="J16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C17" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" t="s">
         <v>56</v>
       </c>
-      <c r="D17" t="s">
-        <v>40</v>
-      </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>57</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>58</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
+        <v>43</v>
+      </c>
+      <c r="I17" t="s">
         <v>59</v>
       </c>
-      <c r="H17" t="s">
-        <v>44</v>
-      </c>
-      <c r="I17" t="s">
-        <v>60</v>
-      </c>
       <c r="J17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" t="s">
         <v>61</v>
       </c>
-      <c r="D18" t="s">
-        <v>40</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>62</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>63</v>
       </c>
-      <c r="G18" t="s">
-        <v>64</v>
-      </c>
       <c r="H18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" t="s">
         <v>65</v>
       </c>
-      <c r="D19" t="s">
-        <v>40</v>
-      </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>66</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>67</v>
       </c>
-      <c r="G19" t="s">
-        <v>68</v>
-      </c>
       <c r="H19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C20" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" t="s">
         <v>69</v>
       </c>
-      <c r="D20" t="s">
-        <v>40</v>
-      </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>70</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>71</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
+        <v>43</v>
+      </c>
+      <c r="I20" t="s">
         <v>72</v>
       </c>
-      <c r="H20" t="s">
-        <v>44</v>
-      </c>
-      <c r="I20" t="s">
-        <v>73</v>
-      </c>
       <c r="J20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B21" t="s">
+        <v>73</v>
+      </c>
+      <c r="C21" t="s">
         <v>74</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" t="s">
         <v>75</v>
       </c>
-      <c r="D21" t="s">
-        <v>40</v>
-      </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>76</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>77</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
+        <v>43</v>
+      </c>
+      <c r="I21" t="s">
         <v>78</v>
       </c>
-      <c r="H21" t="s">
-        <v>44</v>
-      </c>
-      <c r="I21" t="s">
-        <v>79</v>
-      </c>
       <c r="J21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" t="s">
+        <v>79</v>
+      </c>
+      <c r="C22" t="s">
         <v>80</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" t="s">
+        <v>75</v>
+      </c>
+      <c r="F22" t="s">
         <v>81</v>
       </c>
-      <c r="D22" t="s">
-        <v>40</v>
-      </c>
-      <c r="E22" t="s">
-        <v>76</v>
-      </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>82</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
+        <v>43</v>
+      </c>
+      <c r="I22" t="s">
         <v>83</v>
       </c>
-      <c r="H22" t="s">
-        <v>44</v>
-      </c>
-      <c r="I22" t="s">
-        <v>84</v>
-      </c>
       <c r="J22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D23" t="s">
+        <v>39</v>
+      </c>
+      <c r="E23" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" t="s">
         <v>85</v>
       </c>
-      <c r="D23" t="s">
-        <v>40</v>
-      </c>
-      <c r="E23" t="s">
-        <v>10</v>
-      </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>86</v>
       </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
+        <v>43</v>
+      </c>
+      <c r="I23" t="s">
         <v>87</v>
       </c>
-      <c r="H23" t="s">
-        <v>44</v>
-      </c>
-      <c r="I23" t="s">
-        <v>88</v>
-      </c>
       <c r="J23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C24" t="s">
+        <v>88</v>
+      </c>
+      <c r="D24" t="s">
+        <v>39</v>
+      </c>
+      <c r="E24" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" t="s">
         <v>89</v>
       </c>
-      <c r="D24" t="s">
-        <v>40</v>
-      </c>
-      <c r="E24" t="s">
-        <v>10</v>
-      </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>90</v>
       </c>
-      <c r="G24" t="s">
-        <v>91</v>
-      </c>
       <c r="H24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C25" t="s">
+        <v>91</v>
+      </c>
+      <c r="D25" t="s">
+        <v>39</v>
+      </c>
+      <c r="E25" t="s">
+        <v>4</v>
+      </c>
+      <c r="F25" t="s">
         <v>92</v>
       </c>
-      <c r="D25" t="s">
-        <v>40</v>
-      </c>
-      <c r="E25" t="s">
-        <v>5</v>
-      </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>93</v>
       </c>
-      <c r="G25" t="s">
-        <v>94</v>
-      </c>
       <c r="H25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J25" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K25" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L25" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M25" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C26" t="s">
+        <v>94</v>
+      </c>
+      <c r="D26" t="s">
+        <v>39</v>
+      </c>
+      <c r="E26" t="s">
         <v>95</v>
       </c>
-      <c r="D26" t="s">
-        <v>40</v>
-      </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>96</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>97</v>
       </c>
-      <c r="G26" t="s">
-        <v>98</v>
-      </c>
       <c r="H26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J26" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K26" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L26" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M26" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C27" t="s">
+        <v>98</v>
+      </c>
+      <c r="D27" t="s">
+        <v>39</v>
+      </c>
+      <c r="E27" t="s">
         <v>99</v>
       </c>
-      <c r="D27" t="s">
-        <v>40</v>
-      </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>100</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>101</v>
       </c>
-      <c r="G27" t="s">
+      <c r="H27" t="s">
+        <v>43</v>
+      </c>
+      <c r="I27" t="s">
         <v>102</v>
       </c>
-      <c r="H27" t="s">
-        <v>44</v>
-      </c>
-      <c r="I27" t="s">
-        <v>103</v>
-      </c>
       <c r="J27" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K27" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L27" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M27" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B28" t="s">
+        <v>103</v>
+      </c>
+      <c r="C28" t="s">
         <v>104</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
+        <v>39</v>
+      </c>
+      <c r="E28" t="s">
+        <v>99</v>
+      </c>
+      <c r="F28" t="s">
         <v>105</v>
       </c>
-      <c r="D28" t="s">
-        <v>40</v>
-      </c>
-      <c r="E28" t="s">
-        <v>100</v>
-      </c>
-      <c r="F28" t="s">
+      <c r="G28" t="s">
         <v>106</v>
       </c>
-      <c r="G28" t="s">
+      <c r="H28" t="s">
+        <v>43</v>
+      </c>
+      <c r="I28" t="s">
         <v>107</v>
       </c>
-      <c r="H28" t="s">
-        <v>44</v>
-      </c>
-      <c r="I28" t="s">
-        <v>108</v>
-      </c>
       <c r="J28" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K28" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L28" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M28" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C29" t="s">
+        <v>108</v>
+      </c>
+      <c r="D29" t="s">
+        <v>39</v>
+      </c>
+      <c r="E29" t="s">
         <v>109</v>
       </c>
-      <c r="D29" t="s">
-        <v>40</v>
-      </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>110</v>
       </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
         <v>111</v>
       </c>
-      <c r="G29" t="s">
-        <v>112</v>
-      </c>
       <c r="H29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J29" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K29" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L29" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M29" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C30" t="s">
+        <v>112</v>
+      </c>
+      <c r="D30" t="s">
+        <v>39</v>
+      </c>
+      <c r="E30" t="s">
         <v>113</v>
       </c>
-      <c r="D30" t="s">
-        <v>40</v>
-      </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>114</v>
       </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
         <v>115</v>
       </c>
-      <c r="G30" t="s">
-        <v>116</v>
-      </c>
       <c r="H30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I30" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J30" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K30" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L30" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M30" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B31" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C31" t="s">
+        <v>116</v>
+      </c>
+      <c r="D31" t="s">
+        <v>39</v>
+      </c>
+      <c r="E31" t="s">
         <v>117</v>
       </c>
-      <c r="D31" t="s">
-        <v>40</v>
-      </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>118</v>
       </c>
-      <c r="F31" t="s">
+      <c r="G31" t="s">
         <v>119</v>
       </c>
-      <c r="G31" t="s">
+      <c r="H31" t="s">
+        <v>43</v>
+      </c>
+      <c r="I31" t="s">
         <v>120</v>
       </c>
-      <c r="H31" t="s">
-        <v>44</v>
-      </c>
-      <c r="I31" t="s">
-        <v>121</v>
-      </c>
       <c r="J31" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K31" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L31" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M31" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:13">
       <c r="A32" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C32" t="s">
+        <v>121</v>
+      </c>
+      <c r="D32" t="s">
+        <v>39</v>
+      </c>
+      <c r="E32" t="s">
         <v>122</v>
       </c>
-      <c r="D32" t="s">
-        <v>40</v>
-      </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>123</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
         <v>124</v>
       </c>
-      <c r="G32" t="s">
-        <v>125</v>
-      </c>
       <c r="H32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I32" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J32" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K32" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L32" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M32" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:13">
       <c r="A33" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C33" t="s">
+        <v>125</v>
+      </c>
+      <c r="D33" t="s">
+        <v>39</v>
+      </c>
+      <c r="E33" t="s">
         <v>126</v>
       </c>
-      <c r="D33" t="s">
-        <v>40</v>
-      </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>127</v>
       </c>
-      <c r="F33" t="s">
+      <c r="G33" t="s">
         <v>128</v>
       </c>
-      <c r="G33" t="s">
+      <c r="H33" t="s">
+        <v>43</v>
+      </c>
+      <c r="I33" t="s">
         <v>129</v>
       </c>
-      <c r="H33" t="s">
-        <v>44</v>
-      </c>
-      <c r="I33" t="s">
-        <v>130</v>
-      </c>
       <c r="J33" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K33" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L33" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M33" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C34" t="s">
+        <v>130</v>
+      </c>
+      <c r="D34" t="s">
+        <v>39</v>
+      </c>
+      <c r="E34" t="s">
         <v>131</v>
       </c>
-      <c r="D34" t="s">
-        <v>40</v>
-      </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>132</v>
       </c>
-      <c r="F34" t="s">
+      <c r="G34" t="s">
         <v>133</v>
       </c>
-      <c r="G34" t="s">
+      <c r="H34" t="s">
+        <v>43</v>
+      </c>
+      <c r="I34" t="s">
         <v>134</v>
       </c>
-      <c r="H34" t="s">
-        <v>44</v>
-      </c>
-      <c r="I34" t="s">
-        <v>135</v>
-      </c>
       <c r="J34" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K34" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L34" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M34" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C35" t="s">
+        <v>135</v>
+      </c>
+      <c r="D35" t="s">
+        <v>39</v>
+      </c>
+      <c r="E35" t="s">
         <v>136</v>
       </c>
-      <c r="D35" t="s">
-        <v>40</v>
-      </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>137</v>
       </c>
-      <c r="F35" t="s">
+      <c r="G35" t="s">
         <v>138</v>
       </c>
-      <c r="G35" t="s">
-        <v>139</v>
-      </c>
       <c r="H35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I35" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J35" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K35" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L35" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M35" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B36" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C36" t="s">
+        <v>139</v>
+      </c>
+      <c r="D36" t="s">
+        <v>39</v>
+      </c>
+      <c r="E36" t="s">
         <v>140</v>
       </c>
-      <c r="D36" t="s">
-        <v>40</v>
-      </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>141</v>
       </c>
-      <c r="F36" t="s">
+      <c r="G36" t="s">
         <v>142</v>
       </c>
-      <c r="G36" t="s">
+      <c r="H36" t="s">
+        <v>43</v>
+      </c>
+      <c r="I36" t="s">
         <v>143</v>
       </c>
-      <c r="H36" t="s">
-        <v>44</v>
-      </c>
-      <c r="I36" t="s">
-        <v>144</v>
-      </c>
       <c r="J36" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K36" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L36" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M36" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B37" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C37" t="s">
+        <v>144</v>
+      </c>
+      <c r="D37" t="s">
+        <v>39</v>
+      </c>
+      <c r="E37" t="s">
         <v>145</v>
       </c>
-      <c r="D37" t="s">
-        <v>40</v>
-      </c>
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>146</v>
       </c>
-      <c r="F37" t="s">
+      <c r="G37" t="s">
         <v>147</v>
       </c>
-      <c r="G37" t="s">
+      <c r="H37" t="s">
+        <v>43</v>
+      </c>
+      <c r="I37" t="s">
         <v>148</v>
       </c>
-      <c r="H37" t="s">
-        <v>44</v>
-      </c>
-      <c r="I37" t="s">
-        <v>149</v>
-      </c>
       <c r="J37" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K37" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L37" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M37" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38" spans="1:13">
       <c r="A38" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B38" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C38" t="s">
+        <v>149</v>
+      </c>
+      <c r="D38" t="s">
+        <v>39</v>
+      </c>
+      <c r="E38" t="s">
         <v>150</v>
       </c>
-      <c r="D38" t="s">
-        <v>40</v>
-      </c>
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>151</v>
       </c>
-      <c r="F38" t="s">
+      <c r="G38" t="s">
         <v>152</v>
       </c>
-      <c r="G38" t="s">
-        <v>153</v>
-      </c>
       <c r="H38" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I38" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J38" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K38" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L38" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M38" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39" spans="1:13">
       <c r="A39" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B39" t="s">
+        <v>153</v>
+      </c>
+      <c r="C39" t="s">
         <v>154</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
+        <v>39</v>
+      </c>
+      <c r="E39" t="s">
+        <v>150</v>
+      </c>
+      <c r="F39" t="s">
         <v>155</v>
       </c>
-      <c r="D39" t="s">
-        <v>40</v>
-      </c>
-      <c r="E39" t="s">
-        <v>151</v>
-      </c>
-      <c r="F39" t="s">
+      <c r="G39" t="s">
         <v>156</v>
       </c>
-      <c r="G39" t="s">
+      <c r="H39" t="s">
+        <v>43</v>
+      </c>
+      <c r="I39" t="s">
         <v>157</v>
       </c>
-      <c r="H39" t="s">
-        <v>44</v>
-      </c>
-      <c r="I39" t="s">
-        <v>158</v>
-      </c>
       <c r="J39" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K39" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L39" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M39" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40" spans="1:13">
       <c r="A40" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B40" t="s">
+        <v>158</v>
+      </c>
+      <c r="C40" t="s">
         <v>159</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
         <v>160</v>
       </c>
-      <c r="D40" t="s">
-        <v>40</v>
-      </c>
-      <c r="E40" t="s">
+      <c r="F40" t="s">
         <v>161</v>
       </c>
-      <c r="F40" t="s">
+      <c r="G40" t="s">
         <v>162</v>
       </c>
-      <c r="G40" t="s">
+      <c r="H40" t="s">
+        <v>43</v>
+      </c>
+      <c r="I40" t="s">
         <v>163</v>
       </c>
-      <c r="H40" t="s">
-        <v>44</v>
-      </c>
-      <c r="I40" t="s">
-        <v>164</v>
-      </c>
       <c r="J40" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K40" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L40" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M40" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41" spans="1:13">
       <c r="A41" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B41" t="s">
+        <v>164</v>
+      </c>
+      <c r="C41" t="s">
         <v>165</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
+        <v>39</v>
+      </c>
+      <c r="E41" t="s">
+        <v>160</v>
+      </c>
+      <c r="F41" t="s">
         <v>166</v>
       </c>
-      <c r="D41" t="s">
-        <v>40</v>
-      </c>
-      <c r="E41" t="s">
-        <v>161</v>
-      </c>
-      <c r="F41" t="s">
+      <c r="G41" t="s">
         <v>167</v>
       </c>
-      <c r="G41" t="s">
+      <c r="H41" t="s">
+        <v>43</v>
+      </c>
+      <c r="I41" t="s">
         <v>168</v>
       </c>
-      <c r="H41" t="s">
-        <v>44</v>
-      </c>
-      <c r="I41" t="s">
-        <v>169</v>
-      </c>
       <c r="J41" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K41" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L41" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M41" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42" spans="1:13">
       <c r="A42" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B42" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C42" t="s">
+        <v>169</v>
+      </c>
+      <c r="D42" t="s">
+        <v>39</v>
+      </c>
+      <c r="E42" t="s">
         <v>170</v>
       </c>
-      <c r="D42" t="s">
-        <v>40</v>
-      </c>
-      <c r="E42" t="s">
+      <c r="F42" t="s">
         <v>171</v>
       </c>
-      <c r="F42" t="s">
+      <c r="G42" t="s">
         <v>172</v>
       </c>
-      <c r="G42" t="s">
+      <c r="H42" t="s">
+        <v>43</v>
+      </c>
+      <c r="I42" t="s">
         <v>173</v>
       </c>
-      <c r="H42" t="s">
-        <v>44</v>
-      </c>
-      <c r="I42" t="s">
-        <v>174</v>
-      </c>
       <c r="J42" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K42" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L42" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M42" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="43" spans="1:13">
       <c r="A43" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B43" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C43" t="s">
+        <v>174</v>
+      </c>
+      <c r="D43" t="s">
+        <v>39</v>
+      </c>
+      <c r="E43" t="s">
         <v>175</v>
       </c>
-      <c r="D43" t="s">
-        <v>40</v>
-      </c>
-      <c r="E43" t="s">
+      <c r="F43" t="s">
         <v>176</v>
       </c>
-      <c r="F43" t="s">
+      <c r="G43" t="s">
         <v>177</v>
       </c>
-      <c r="G43" t="s">
+      <c r="H43" t="s">
+        <v>43</v>
+      </c>
+      <c r="I43" t="s">
         <v>178</v>
       </c>
-      <c r="H43" t="s">
-        <v>44</v>
-      </c>
-      <c r="I43" t="s">
-        <v>179</v>
-      </c>
       <c r="J43" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K43" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L43" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M43" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44" spans="1:13">
       <c r="A44" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B44" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C44" t="s">
+        <v>179</v>
+      </c>
+      <c r="D44" t="s">
+        <v>39</v>
+      </c>
+      <c r="E44" t="s">
         <v>180</v>
       </c>
-      <c r="D44" t="s">
-        <v>40</v>
-      </c>
-      <c r="E44" t="s">
+      <c r="F44" t="s">
         <v>181</v>
       </c>
-      <c r="F44" t="s">
+      <c r="G44" t="s">
         <v>182</v>
       </c>
-      <c r="G44" t="s">
-        <v>183</v>
-      </c>
       <c r="H44" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I44" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45" spans="1:13">
       <c r="A45" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B45" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C45" t="s">
+        <v>183</v>
+      </c>
+      <c r="D45" t="s">
+        <v>39</v>
+      </c>
+      <c r="E45" t="s">
         <v>184</v>
       </c>
-      <c r="D45" t="s">
-        <v>40</v>
-      </c>
-      <c r="E45" t="s">
+      <c r="F45" t="s">
         <v>185</v>
       </c>
-      <c r="F45" t="s">
+      <c r="G45" t="s">
         <v>186</v>
       </c>
-      <c r="G45" t="s">
-        <v>187</v>
-      </c>
       <c r="H45" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I45" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J45" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K45" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L45" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M45" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46" spans="1:13">
       <c r="A46" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B46" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C46" t="s">
+        <v>187</v>
+      </c>
+      <c r="D46" t="s">
+        <v>39</v>
+      </c>
+      <c r="E46" t="s">
         <v>188</v>
       </c>
-      <c r="D46" t="s">
-        <v>40</v>
-      </c>
-      <c r="E46" t="s">
+      <c r="F46" t="s">
         <v>189</v>
       </c>
-      <c r="F46" t="s">
+      <c r="G46" t="s">
         <v>190</v>
       </c>
-      <c r="G46" t="s">
-        <v>191</v>
-      </c>
       <c r="H46" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I46" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J46" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K46" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L46" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M46" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47" spans="1:13">
       <c r="A47" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B47" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C47" t="s">
+        <v>191</v>
+      </c>
+      <c r="D47" t="s">
+        <v>39</v>
+      </c>
+      <c r="E47" t="s">
         <v>192</v>
       </c>
-      <c r="D47" t="s">
-        <v>40</v>
-      </c>
-      <c r="E47" t="s">
+      <c r="F47" t="s">
         <v>193</v>
       </c>
-      <c r="F47" t="s">
+      <c r="G47" t="s">
         <v>194</v>
       </c>
-      <c r="G47" t="s">
-        <v>195</v>
-      </c>
       <c r="H47" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I47" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J47" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K47" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L47" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M47" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48" spans="1:13">
       <c r="A48" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B48" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C48" t="s">
+        <v>195</v>
+      </c>
+      <c r="D48" t="s">
+        <v>39</v>
+      </c>
+      <c r="E48" t="s">
         <v>196</v>
       </c>
-      <c r="D48" t="s">
-        <v>40</v>
-      </c>
-      <c r="E48" t="s">
+      <c r="F48" t="s">
         <v>197</v>
       </c>
-      <c r="F48" t="s">
+      <c r="G48" t="s">
         <v>198</v>
       </c>
-      <c r="G48" t="s">
-        <v>199</v>
-      </c>
       <c r="H48" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I48" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J48" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K48" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L48" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M48" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49" spans="1:13">
       <c r="A49" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B49" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C49" t="s">
+        <v>199</v>
+      </c>
+      <c r="D49" t="s">
+        <v>39</v>
+      </c>
+      <c r="E49" t="s">
         <v>200</v>
       </c>
-      <c r="D49" t="s">
-        <v>40</v>
-      </c>
-      <c r="E49" t="s">
+      <c r="F49" t="s">
         <v>201</v>
       </c>
-      <c r="F49" t="s">
+      <c r="G49" t="s">
         <v>202</v>
       </c>
-      <c r="G49" t="s">
-        <v>203</v>
-      </c>
       <c r="H49" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J49" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K49" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L49" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M49" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="50" spans="1:13">
       <c r="A50" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B50" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C50" t="s">
+        <v>203</v>
+      </c>
+      <c r="D50" t="s">
+        <v>39</v>
+      </c>
+      <c r="E50" t="s">
         <v>204</v>
       </c>
-      <c r="D50" t="s">
-        <v>40</v>
-      </c>
-      <c r="E50" t="s">
+      <c r="F50" t="s">
         <v>205</v>
       </c>
-      <c r="F50" t="s">
+      <c r="G50" t="s">
         <v>206</v>
       </c>
-      <c r="G50" t="s">
+      <c r="H50" t="s">
+        <v>43</v>
+      </c>
+      <c r="I50" t="s">
         <v>207</v>
       </c>
-      <c r="H50" t="s">
-        <v>44</v>
-      </c>
-      <c r="I50" t="s">
-        <v>208</v>
-      </c>
       <c r="J50" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K50" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L50" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M50" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51" spans="1:13">
       <c r="D51" t="s">
+        <v>208</v>
+      </c>
+      <c r="E51" t="s">
+        <v>9</v>
+      </c>
+      <c r="F51" t="s">
         <v>209</v>
       </c>
-      <c r="E51" t="s">
-        <v>10</v>
-      </c>
-      <c r="F51" t="s">
+      <c r="G51" t="s">
         <v>210</v>
       </c>
-      <c r="G51" t="s">
+      <c r="H51" t="s">
         <v>211</v>
       </c>
-      <c r="H51" t="s">
-        <v>212</v>
-      </c>
       <c r="I51" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J51" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K51" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L51" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M51" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="52" spans="1:13">
       <c r="A52" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B52" t="s">
+        <v>212</v>
+      </c>
+      <c r="C52" t="s">
         <v>213</v>
       </c>
-      <c r="C52" t="s">
+      <c r="D52" t="s">
         <v>214</v>
       </c>
-      <c r="D52" t="s">
+      <c r="E52" t="s">
+        <v>9</v>
+      </c>
+      <c r="F52" t="s">
         <v>215</v>
       </c>
-      <c r="E52" t="s">
-        <v>10</v>
-      </c>
-      <c r="F52" t="s">
+      <c r="G52" t="s">
         <v>216</v>
       </c>
-      <c r="G52" t="s">
+      <c r="H52" t="s">
         <v>217</v>
       </c>
-      <c r="H52" t="s">
+      <c r="I52" t="s">
         <v>218</v>
       </c>
-      <c r="I52" t="s">
-        <v>219</v>
-      </c>
       <c r="J52" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K52" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L52" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M52" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="53" spans="1:13">
       <c r="A53" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B53" t="s">
+        <v>219</v>
+      </c>
+      <c r="C53" t="s">
         <v>220</v>
       </c>
-      <c r="C53" t="s">
+      <c r="D53" t="s">
+        <v>214</v>
+      </c>
+      <c r="E53" t="s">
+        <v>9</v>
+      </c>
+      <c r="F53" t="s">
         <v>221</v>
       </c>
-      <c r="D53" t="s">
-        <v>215</v>
-      </c>
-      <c r="E53" t="s">
-        <v>10</v>
-      </c>
-      <c r="F53" t="s">
+      <c r="G53" t="s">
         <v>222</v>
       </c>
-      <c r="G53" t="s">
-        <v>223</v>
-      </c>
       <c r="H53" t="s">
+        <v>217</v>
+      </c>
+      <c r="I53" t="s">
         <v>218</v>
       </c>
-      <c r="I53" t="s">
-        <v>219</v>
-      </c>
       <c r="J53" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K53" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L53" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M53" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="54" spans="1:13">
       <c r="A54" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B54" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C54" t="s">
+        <v>223</v>
+      </c>
+      <c r="D54" t="s">
+        <v>214</v>
+      </c>
+      <c r="E54" t="s">
+        <v>9</v>
+      </c>
+      <c r="F54" t="s">
         <v>224</v>
       </c>
-      <c r="D54" t="s">
-        <v>215</v>
-      </c>
-      <c r="E54" t="s">
-        <v>10</v>
-      </c>
-      <c r="F54" t="s">
+      <c r="G54" t="s">
         <v>225</v>
       </c>
-      <c r="G54" t="s">
+      <c r="H54" t="s">
+        <v>217</v>
+      </c>
+      <c r="I54" t="s">
         <v>226</v>
       </c>
-      <c r="H54" t="s">
-        <v>218</v>
-      </c>
-      <c r="I54" t="s">
-        <v>227</v>
-      </c>
       <c r="J54" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K54" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L54" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M54" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="55" spans="1:13">
       <c r="A55" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B55" t="s">
+        <v>227</v>
+      </c>
+      <c r="C55" t="s">
         <v>228</v>
       </c>
-      <c r="C55" t="s">
+      <c r="D55" t="s">
+        <v>214</v>
+      </c>
+      <c r="E55" t="s">
+        <v>9</v>
+      </c>
+      <c r="F55" t="s">
         <v>229</v>
       </c>
-      <c r="D55" t="s">
-        <v>215</v>
-      </c>
-      <c r="E55" t="s">
-        <v>10</v>
-      </c>
-      <c r="F55" t="s">
+      <c r="G55" t="s">
         <v>230</v>
       </c>
-      <c r="G55" t="s">
+      <c r="H55" t="s">
         <v>231</v>
       </c>
-      <c r="H55" t="s">
+      <c r="I55" t="s">
         <v>232</v>
       </c>
-      <c r="I55" t="s">
-        <v>233</v>
-      </c>
       <c r="J55" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K55" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L55" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M55" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="56" spans="1:13">
       <c r="A56" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B56" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C56" t="s">
+        <v>233</v>
+      </c>
+      <c r="D56" t="s">
+        <v>214</v>
+      </c>
+      <c r="E56" t="s">
+        <v>9</v>
+      </c>
+      <c r="F56" t="s">
         <v>234</v>
       </c>
-      <c r="D56" t="s">
-        <v>215</v>
-      </c>
-      <c r="E56" t="s">
-        <v>10</v>
-      </c>
-      <c r="F56" t="s">
+      <c r="G56" t="s">
         <v>235</v>
       </c>
-      <c r="G56" t="s">
-        <v>236</v>
-      </c>
       <c r="H56" t="s">
+        <v>231</v>
+      </c>
+      <c r="I56" t="s">
         <v>232</v>
       </c>
-      <c r="I56" t="s">
-        <v>233</v>
-      </c>
       <c r="J56" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K56" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L56" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M56" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="57" spans="1:13">
       <c r="A57" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B57" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C57" t="s">
+        <v>236</v>
+      </c>
+      <c r="D57" t="s">
+        <v>214</v>
+      </c>
+      <c r="E57" t="s">
+        <v>4</v>
+      </c>
+      <c r="F57" t="s">
         <v>237</v>
       </c>
-      <c r="D57" t="s">
-        <v>215</v>
-      </c>
-      <c r="E57" t="s">
-        <v>5</v>
-      </c>
-      <c r="F57" t="s">
+      <c r="G57" t="s">
         <v>238</v>
       </c>
-      <c r="G57" t="s">
-        <v>239</v>
-      </c>
       <c r="H57" t="s">
+        <v>217</v>
+      </c>
+      <c r="I57" t="s">
         <v>218</v>
       </c>
-      <c r="I57" t="s">
-        <v>219</v>
-      </c>
       <c r="J57" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K57" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L57" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M57" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="58" spans="1:13">
       <c r="A58" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B58" t="s">
+        <v>239</v>
+      </c>
+      <c r="C58" t="s">
         <v>240</v>
       </c>
-      <c r="C58" t="s">
+      <c r="D58" t="s">
+        <v>214</v>
+      </c>
+      <c r="E58" t="s">
+        <v>4</v>
+      </c>
+      <c r="F58" t="s">
         <v>241</v>
       </c>
-      <c r="D58" t="s">
-        <v>215</v>
-      </c>
-      <c r="E58" t="s">
-        <v>5</v>
-      </c>
-      <c r="F58" t="s">
+      <c r="G58" t="s">
         <v>242</v>
       </c>
-      <c r="G58" t="s">
-        <v>243</v>
-      </c>
       <c r="H58" t="s">
+        <v>231</v>
+      </c>
+      <c r="I58" t="s">
         <v>232</v>
       </c>
-      <c r="I58" t="s">
-        <v>233</v>
-      </c>
       <c r="J58" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K58" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L58" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M58" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="59" spans="1:13">
       <c r="A59" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B59" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C59" t="s">
+        <v>243</v>
+      </c>
+      <c r="D59" t="s">
+        <v>214</v>
+      </c>
+      <c r="E59" t="s">
+        <v>4</v>
+      </c>
+      <c r="F59" t="s">
         <v>244</v>
       </c>
-      <c r="D59" t="s">
-        <v>215</v>
-      </c>
-      <c r="E59" t="s">
-        <v>5</v>
-      </c>
-      <c r="F59" t="s">
+      <c r="G59" t="s">
         <v>245</v>
       </c>
-      <c r="G59" t="s">
-        <v>246</v>
-      </c>
       <c r="H59" t="s">
+        <v>217</v>
+      </c>
+      <c r="I59" t="s">
         <v>218</v>
       </c>
-      <c r="I59" t="s">
-        <v>219</v>
-      </c>
       <c r="J59" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K59" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L59" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M59" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="60" spans="1:13">
       <c r="A60" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B60" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C60" t="s">
+        <v>246</v>
+      </c>
+      <c r="D60" t="s">
+        <v>214</v>
+      </c>
+      <c r="E60" t="s">
+        <v>4</v>
+      </c>
+      <c r="F60" t="s">
         <v>247</v>
       </c>
-      <c r="D60" t="s">
-        <v>215</v>
-      </c>
-      <c r="E60" t="s">
-        <v>5</v>
-      </c>
-      <c r="F60" t="s">
+      <c r="G60" t="s">
         <v>248</v>
       </c>
-      <c r="G60" t="s">
-        <v>249</v>
-      </c>
       <c r="H60" t="s">
+        <v>231</v>
+      </c>
+      <c r="I60" t="s">
         <v>232</v>
       </c>
-      <c r="I60" t="s">
-        <v>233</v>
-      </c>
       <c r="J60" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K60" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L60" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M60" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="61" spans="1:13">
       <c r="A61" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B61" t="s">
+        <v>249</v>
+      </c>
+      <c r="C61" t="s">
         <v>250</v>
       </c>
-      <c r="C61" t="s">
+      <c r="D61" t="s">
+        <v>208</v>
+      </c>
+      <c r="E61" t="s">
+        <v>9</v>
+      </c>
+      <c r="F61" t="s">
         <v>251</v>
       </c>
-      <c r="D61" t="s">
-        <v>209</v>
-      </c>
-      <c r="E61" t="s">
-        <v>10</v>
-      </c>
-      <c r="F61" t="s">
+      <c r="G61" t="s">
         <v>252</v>
       </c>
-      <c r="G61" t="s">
-        <v>253</v>
-      </c>
       <c r="H61" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I61" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J61" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K61" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L61" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M61" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Rich Products Corporation - HQ @ Buffalo, NY.xlsx
+++ b/Rich Products Corporation - HQ @ Buffalo, NY.xlsx
@@ -907,10 +907,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>126462</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>105732</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>273797</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>147659</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -928,7 +928,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="1345662" cy="105732"/>
+          <a:ext cx="2102597" cy="528659"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>

--- a/Rich Products Corporation - HQ @ Buffalo, NY.xlsx
+++ b/Rich Products Corporation - HQ @ Buffalo, NY.xlsx
@@ -907,10 +907,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>273797</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>147659</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>547594</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>104818</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -928,7 +928,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="2102597" cy="528659"/>
+          <a:ext cx="4205194" cy="1057318"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>

--- a/Rich Products Corporation - HQ @ Buffalo, NY.xlsx
+++ b/Rich Products Corporation - HQ @ Buffalo, NY.xlsx
@@ -907,10 +907,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>547594</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>104818</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>126309</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>50040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -928,7 +928,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="4205194" cy="1057318"/>
+          <a:ext cx="735909" cy="240540"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>

--- a/Rich Products Corporation - HQ @ Buffalo, NY.xlsx
+++ b/Rich Products Corporation - HQ @ Buffalo, NY.xlsx
@@ -907,10 +907,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>126309</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>50040</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>294364</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>96216</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -928,7 +928,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="735909" cy="240540"/>
+          <a:ext cx="294364" cy="96216"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>

--- a/Rich Products Corporation - HQ @ Buffalo, NY.xlsx
+++ b/Rich Products Corporation - HQ @ Buffalo, NY.xlsx
@@ -907,10 +907,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>294364</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>96216</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>567854</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>3864</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -928,7 +928,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="294364" cy="96216"/>
+          <a:ext cx="1177454" cy="384864"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>

--- a/Rich Products Corporation - HQ @ Buffalo, NY.xlsx
+++ b/Rich Products Corporation - HQ @ Buffalo, NY.xlsx
@@ -907,10 +907,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>567854</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>273797</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>3864</xdr:rowOff>
+      <xdr:rowOff>147659</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -928,7 +928,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="1177454" cy="384864"/>
+          <a:ext cx="2102597" cy="528659"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>

--- a/Rich Products Corporation - HQ @ Buffalo, NY.xlsx
+++ b/Rich Products Corporation - HQ @ Buffalo, NY.xlsx
@@ -941,8 +941,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:M62" totalsRowCount="1">
-  <autoFilter ref="A3:M61"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:M63" totalsRowCount="1">
+  <autoFilter ref="A3:M62"/>
   <tableColumns count="13">
     <tableColumn id="1" name="Column1"/>
     <tableColumn id="2" name="Column2"/>
@@ -1247,94 +1247,92 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M61"/>
+  <dimension ref="A1:M62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="1:13">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-    </row>
     <row r="3" spans="1:13">
       <c r="A3" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="B3" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
       <c r="C3" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="D3" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="E3" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="F3" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="G3" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="H3" t="s">
-        <v>273</v>
+        <v>260</v>
       </c>
       <c r="I3" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="J3" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
       <c r="K3" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="L3" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="M3" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>266</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>267</v>
+      </c>
+      <c r="C4" t="s">
+        <v>268</v>
       </c>
       <c r="D4" t="s">
-        <v>3</v>
+        <v>269</v>
       </c>
       <c r="E4" t="s">
-        <v>4</v>
+        <v>270</v>
       </c>
       <c r="F4" t="s">
-        <v>5</v>
+        <v>271</v>
       </c>
       <c r="G4" t="s">
-        <v>6</v>
+        <v>272</v>
       </c>
       <c r="H4" t="s">
-        <v>7</v>
+        <v>273</v>
       </c>
       <c r="I4" t="s">
-        <v>8</v>
+        <v>274</v>
       </c>
       <c r="J4" t="s">
-        <v>8</v>
+        <v>275</v>
       </c>
       <c r="K4" t="s">
-        <v>8</v>
+        <v>276</v>
       </c>
       <c r="L4" t="s">
-        <v>8</v>
+        <v>277</v>
       </c>
       <c r="M4" t="s">
-        <v>8</v>
+        <v>278</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -1348,16 +1346,16 @@
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="H5" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="I5" t="s">
         <v>8</v>
@@ -1389,10 +1387,10 @@
         <v>9</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H6" t="s">
         <v>12</v>
@@ -1418,10 +1416,7 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D7" t="s">
         <v>3</v>
@@ -1430,10 +1425,10 @@
         <v>9</v>
       </c>
       <c r="F7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H7" t="s">
         <v>12</v>
@@ -1474,7 +1469,7 @@
         <v>15</v>
       </c>
       <c r="G8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H8" t="s">
         <v>12</v>
@@ -1500,19 +1495,22 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>2</v>
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
       </c>
       <c r="D9" t="s">
         <v>3</v>
       </c>
       <c r="E9" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F9" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H9" t="s">
         <v>12</v>
@@ -1535,31 +1533,28 @@
     </row>
     <row r="10" spans="1:13">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="D10" t="s">
         <v>3</v>
       </c>
       <c r="E10" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="F10" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="G10" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H10" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I10" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="J10" t="s">
         <v>8</v>
@@ -1579,28 +1574,28 @@
         <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D11" t="s">
         <v>3</v>
       </c>
       <c r="E11" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F11" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="G11" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="H11" t="s">
         <v>26</v>
       </c>
       <c r="I11" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="J11" t="s">
         <v>8</v>
@@ -1617,31 +1612,31 @@
     </row>
     <row r="12" spans="1:13">
       <c r="A12" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="D12" t="s">
         <v>3</v>
       </c>
       <c r="E12" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="F12" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H12" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I12" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="J12" t="s">
         <v>8</v>
@@ -1676,7 +1671,7 @@
         <v>34</v>
       </c>
       <c r="G13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H13" t="s">
         <v>12</v>
@@ -1702,28 +1697,28 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="D14" t="s">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="E14" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="F14" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G14" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H14" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="I14" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="J14" t="s">
         <v>8</v>
@@ -1743,28 +1738,28 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C15" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D15" t="s">
         <v>39</v>
       </c>
       <c r="E15" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="F15" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G15" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="H15" t="s">
         <v>43</v>
       </c>
       <c r="I15" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="J15" t="s">
         <v>8</v>
@@ -1784,28 +1779,28 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C16" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D16" t="s">
         <v>39</v>
       </c>
       <c r="E16" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="F16" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G16" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="H16" t="s">
         <v>43</v>
       </c>
       <c r="I16" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="J16" t="s">
         <v>8</v>
@@ -1825,28 +1820,28 @@
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C17" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D17" t="s">
         <v>39</v>
       </c>
       <c r="E17" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="F17" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="G17" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="H17" t="s">
         <v>43</v>
       </c>
       <c r="I17" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="J17" t="s">
         <v>8</v>
@@ -1869,19 +1864,19 @@
         <v>45</v>
       </c>
       <c r="C18" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D18" t="s">
         <v>39</v>
       </c>
       <c r="E18" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F18" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="G18" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="H18" t="s">
         <v>43</v>
@@ -1910,19 +1905,19 @@
         <v>45</v>
       </c>
       <c r="C19" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D19" t="s">
         <v>39</v>
       </c>
       <c r="E19" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F19" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G19" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="H19" t="s">
         <v>43</v>
@@ -1951,25 +1946,25 @@
         <v>45</v>
       </c>
       <c r="C20" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D20" t="s">
         <v>39</v>
       </c>
       <c r="E20" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F20" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G20" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="H20" t="s">
         <v>43</v>
       </c>
       <c r="I20" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="J20" t="s">
         <v>8</v>
@@ -1989,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="C21" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D21" t="s">
         <v>39</v>
       </c>
       <c r="E21" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F21" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="G21" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="H21" t="s">
         <v>43</v>
       </c>
       <c r="I21" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="J21" t="s">
         <v>8</v>
@@ -2027,13 +2022,13 @@
     </row>
     <row r="22" spans="1:13">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C22" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D22" t="s">
         <v>39</v>
@@ -2042,16 +2037,16 @@
         <v>75</v>
       </c>
       <c r="F22" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="G22" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="H22" t="s">
         <v>43</v>
       </c>
       <c r="I22" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="J22" t="s">
         <v>8</v>
@@ -2068,31 +2063,31 @@
     </row>
     <row r="23" spans="1:13">
       <c r="A23" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="C23" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D23" t="s">
         <v>39</v>
       </c>
       <c r="E23" t="s">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="F23" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G23" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H23" t="s">
         <v>43</v>
       </c>
       <c r="I23" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="J23" t="s">
         <v>8</v>
@@ -2115,7 +2110,7 @@
         <v>37</v>
       </c>
       <c r="C24" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D24" t="s">
         <v>39</v>
@@ -2124,10 +2119,10 @@
         <v>9</v>
       </c>
       <c r="F24" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G24" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="H24" t="s">
         <v>43</v>
@@ -2156,19 +2151,19 @@
         <v>37</v>
       </c>
       <c r="C25" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D25" t="s">
         <v>39</v>
       </c>
       <c r="E25" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F25" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G25" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="H25" t="s">
         <v>43</v>
@@ -2194,28 +2189,28 @@
         <v>1</v>
       </c>
       <c r="B26" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C26" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D26" t="s">
         <v>39</v>
       </c>
       <c r="E26" t="s">
-        <v>95</v>
+        <v>4</v>
       </c>
       <c r="F26" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="G26" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H26" t="s">
         <v>43</v>
       </c>
       <c r="I26" t="s">
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="J26" t="s">
         <v>8</v>
@@ -2238,25 +2233,25 @@
         <v>45</v>
       </c>
       <c r="C27" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D27" t="s">
         <v>39</v>
       </c>
       <c r="E27" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F27" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="G27" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="H27" t="s">
         <v>43</v>
       </c>
       <c r="I27" t="s">
-        <v>102</v>
+        <v>59</v>
       </c>
       <c r="J27" t="s">
         <v>8</v>
@@ -2276,10 +2271,10 @@
         <v>1</v>
       </c>
       <c r="B28" t="s">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="C28" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D28" t="s">
         <v>39</v>
@@ -2288,16 +2283,16 @@
         <v>99</v>
       </c>
       <c r="F28" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="G28" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="H28" t="s">
         <v>43</v>
       </c>
       <c r="I28" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="J28" t="s">
         <v>8</v>
@@ -2317,28 +2312,28 @@
         <v>1</v>
       </c>
       <c r="B29" t="s">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="C29" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D29" t="s">
         <v>39</v>
       </c>
       <c r="E29" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="F29" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="G29" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="H29" t="s">
         <v>43</v>
       </c>
       <c r="I29" t="s">
-        <v>83</v>
+        <v>107</v>
       </c>
       <c r="J29" t="s">
         <v>8</v>
@@ -2361,25 +2356,25 @@
         <v>45</v>
       </c>
       <c r="C30" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D30" t="s">
         <v>39</v>
       </c>
       <c r="E30" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F30" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="G30" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="H30" t="s">
         <v>43</v>
       </c>
       <c r="I30" t="s">
-        <v>8</v>
+        <v>83</v>
       </c>
       <c r="J30" t="s">
         <v>8</v>
@@ -2399,28 +2394,28 @@
         <v>1</v>
       </c>
       <c r="B31" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="C31" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D31" t="s">
         <v>39</v>
       </c>
       <c r="E31" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F31" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G31" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="H31" t="s">
         <v>43</v>
       </c>
       <c r="I31" t="s">
-        <v>120</v>
+        <v>8</v>
       </c>
       <c r="J31" t="s">
         <v>8</v>
@@ -2440,28 +2435,28 @@
         <v>1</v>
       </c>
       <c r="B32" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C32" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D32" t="s">
         <v>39</v>
       </c>
       <c r="E32" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="F32" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="G32" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="H32" t="s">
         <v>43</v>
       </c>
       <c r="I32" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="J32" t="s">
         <v>8</v>
@@ -2484,25 +2479,25 @@
         <v>45</v>
       </c>
       <c r="C33" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D33" t="s">
         <v>39</v>
       </c>
       <c r="E33" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F33" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="G33" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="H33" t="s">
         <v>43</v>
       </c>
       <c r="I33" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="J33" t="s">
         <v>8</v>
@@ -2525,25 +2520,25 @@
         <v>45</v>
       </c>
       <c r="C34" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D34" t="s">
         <v>39</v>
       </c>
       <c r="E34" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="F34" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="G34" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="H34" t="s">
         <v>43</v>
       </c>
       <c r="I34" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="J34" t="s">
         <v>8</v>
@@ -2563,28 +2558,28 @@
         <v>1</v>
       </c>
       <c r="B35" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="C35" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D35" t="s">
         <v>39</v>
       </c>
       <c r="E35" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="F35" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="G35" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="H35" t="s">
         <v>43</v>
       </c>
       <c r="I35" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="J35" t="s">
         <v>8</v>
@@ -2604,28 +2599,28 @@
         <v>1</v>
       </c>
       <c r="B36" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C36" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D36" t="s">
         <v>39</v>
       </c>
       <c r="E36" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F36" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="G36" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="H36" t="s">
         <v>43</v>
       </c>
       <c r="I36" t="s">
-        <v>143</v>
+        <v>120</v>
       </c>
       <c r="J36" t="s">
         <v>8</v>
@@ -2648,25 +2643,25 @@
         <v>45</v>
       </c>
       <c r="C37" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D37" t="s">
         <v>39</v>
       </c>
       <c r="E37" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="F37" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="G37" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="H37" t="s">
         <v>43</v>
       </c>
       <c r="I37" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="J37" t="s">
         <v>8</v>
@@ -2686,28 +2681,28 @@
         <v>1</v>
       </c>
       <c r="B38" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="C38" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D38" t="s">
         <v>39</v>
       </c>
       <c r="E38" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="F38" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="G38" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="H38" t="s">
         <v>43</v>
       </c>
       <c r="I38" t="s">
-        <v>120</v>
+        <v>148</v>
       </c>
       <c r="J38" t="s">
         <v>8</v>
@@ -2724,13 +2719,13 @@
     </row>
     <row r="39" spans="1:13">
       <c r="A39" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="B39" t="s">
-        <v>153</v>
+        <v>37</v>
       </c>
       <c r="C39" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D39" t="s">
         <v>39</v>
@@ -2739,16 +2734,16 @@
         <v>150</v>
       </c>
       <c r="F39" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="G39" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="H39" t="s">
         <v>43</v>
       </c>
       <c r="I39" t="s">
-        <v>157</v>
+        <v>120</v>
       </c>
       <c r="J39" t="s">
         <v>8</v>
@@ -2768,28 +2763,28 @@
         <v>20</v>
       </c>
       <c r="B40" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C40" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D40" t="s">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="F40" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="G40" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="H40" t="s">
         <v>43</v>
       </c>
       <c r="I40" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="J40" t="s">
         <v>8</v>
@@ -2806,13 +2801,13 @@
     </row>
     <row r="41" spans="1:13">
       <c r="A41" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="B41" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="C41" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="D41" t="s">
         <v>39</v>
@@ -2821,16 +2816,16 @@
         <v>160</v>
       </c>
       <c r="F41" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="G41" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="H41" t="s">
         <v>43</v>
       </c>
       <c r="I41" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="J41" t="s">
         <v>8</v>
@@ -2850,28 +2845,28 @@
         <v>1</v>
       </c>
       <c r="B42" t="s">
-        <v>45</v>
+        <v>164</v>
       </c>
       <c r="C42" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D42" t="s">
         <v>39</v>
       </c>
       <c r="E42" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="F42" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="G42" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="H42" t="s">
         <v>43</v>
       </c>
       <c r="I42" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="J42" t="s">
         <v>8</v>
@@ -2894,25 +2889,25 @@
         <v>45</v>
       </c>
       <c r="C43" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D43" t="s">
         <v>39</v>
       </c>
       <c r="E43" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F43" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="G43" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="H43" t="s">
         <v>43</v>
       </c>
       <c r="I43" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="J43" t="s">
         <v>8</v>
@@ -2935,25 +2930,25 @@
         <v>45</v>
       </c>
       <c r="C44" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="D44" t="s">
         <v>39</v>
       </c>
       <c r="E44" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="F44" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="G44" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="H44" t="s">
         <v>43</v>
       </c>
       <c r="I44" t="s">
-        <v>83</v>
+        <v>178</v>
       </c>
       <c r="J44" t="s">
         <v>8</v>
@@ -2976,25 +2971,25 @@
         <v>45</v>
       </c>
       <c r="C45" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D45" t="s">
         <v>39</v>
       </c>
       <c r="E45" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="F45" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G45" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="H45" t="s">
         <v>43</v>
       </c>
       <c r="I45" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="J45" t="s">
         <v>8</v>
@@ -3017,25 +3012,25 @@
         <v>45</v>
       </c>
       <c r="C46" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D46" t="s">
         <v>39</v>
       </c>
       <c r="E46" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="F46" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G46" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="H46" t="s">
         <v>43</v>
       </c>
       <c r="I46" t="s">
-        <v>102</v>
+        <v>59</v>
       </c>
       <c r="J46" t="s">
         <v>8</v>
@@ -3058,25 +3053,25 @@
         <v>45</v>
       </c>
       <c r="C47" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D47" t="s">
         <v>39</v>
       </c>
       <c r="E47" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="F47" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="G47" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="H47" t="s">
         <v>43</v>
       </c>
       <c r="I47" t="s">
-        <v>59</v>
+        <v>102</v>
       </c>
       <c r="J47" t="s">
         <v>8</v>
@@ -3099,25 +3094,25 @@
         <v>45</v>
       </c>
       <c r="C48" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D48" t="s">
         <v>39</v>
       </c>
       <c r="E48" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="F48" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="G48" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="H48" t="s">
         <v>43</v>
       </c>
       <c r="I48" t="s">
-        <v>178</v>
+        <v>59</v>
       </c>
       <c r="J48" t="s">
         <v>8</v>
@@ -3140,25 +3135,25 @@
         <v>45</v>
       </c>
       <c r="C49" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D49" t="s">
         <v>39</v>
       </c>
       <c r="E49" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="F49" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G49" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="H49" t="s">
         <v>43</v>
       </c>
       <c r="I49" t="s">
-        <v>148</v>
+        <v>178</v>
       </c>
       <c r="J49" t="s">
         <v>8</v>
@@ -3181,98 +3176,98 @@
         <v>45</v>
       </c>
       <c r="C50" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D50" t="s">
         <v>39</v>
       </c>
       <c r="E50" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F50" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="G50" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="H50" t="s">
         <v>43</v>
       </c>
       <c r="I50" t="s">
+        <v>148</v>
+      </c>
+      <c r="J50" t="s">
+        <v>8</v>
+      </c>
+      <c r="K50" t="s">
+        <v>8</v>
+      </c>
+      <c r="L50" t="s">
+        <v>8</v>
+      </c>
+      <c r="M50" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
+      <c r="A51" t="s">
+        <v>1</v>
+      </c>
+      <c r="B51" t="s">
+        <v>45</v>
+      </c>
+      <c r="C51" t="s">
+        <v>203</v>
+      </c>
+      <c r="D51" t="s">
+        <v>39</v>
+      </c>
+      <c r="E51" t="s">
+        <v>204</v>
+      </c>
+      <c r="F51" t="s">
+        <v>205</v>
+      </c>
+      <c r="G51" t="s">
+        <v>206</v>
+      </c>
+      <c r="H51" t="s">
+        <v>43</v>
+      </c>
+      <c r="I51" t="s">
         <v>207</v>
       </c>
-      <c r="J50" t="s">
-        <v>8</v>
-      </c>
-      <c r="K50" t="s">
-        <v>8</v>
-      </c>
-      <c r="L50" t="s">
-        <v>8</v>
-      </c>
-      <c r="M50" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
-      <c r="D51" t="s">
+      <c r="J51" t="s">
+        <v>8</v>
+      </c>
+      <c r="K51" t="s">
+        <v>8</v>
+      </c>
+      <c r="L51" t="s">
+        <v>8</v>
+      </c>
+      <c r="M51" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
+      <c r="D52" t="s">
         <v>208</v>
-      </c>
-      <c r="E51" t="s">
-        <v>9</v>
-      </c>
-      <c r="F51" t="s">
-        <v>209</v>
-      </c>
-      <c r="G51" t="s">
-        <v>210</v>
-      </c>
-      <c r="H51" t="s">
-        <v>211</v>
-      </c>
-      <c r="I51" t="s">
-        <v>8</v>
-      </c>
-      <c r="J51" t="s">
-        <v>8</v>
-      </c>
-      <c r="K51" t="s">
-        <v>8</v>
-      </c>
-      <c r="L51" t="s">
-        <v>8</v>
-      </c>
-      <c r="M51" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
-      <c r="A52" t="s">
-        <v>20</v>
-      </c>
-      <c r="B52" t="s">
-        <v>212</v>
-      </c>
-      <c r="C52" t="s">
-        <v>213</v>
-      </c>
-      <c r="D52" t="s">
-        <v>214</v>
       </c>
       <c r="E52" t="s">
         <v>9</v>
       </c>
       <c r="F52" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="G52" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="H52" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="I52" t="s">
-        <v>218</v>
+        <v>8</v>
       </c>
       <c r="J52" t="s">
         <v>8</v>
@@ -3292,10 +3287,10 @@
         <v>20</v>
       </c>
       <c r="B53" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="C53" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="D53" t="s">
         <v>214</v>
@@ -3304,10 +3299,10 @@
         <v>9</v>
       </c>
       <c r="F53" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="G53" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="H53" t="s">
         <v>217</v>
@@ -3333,10 +3328,10 @@
         <v>20</v>
       </c>
       <c r="B54" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="C54" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D54" t="s">
         <v>214</v>
@@ -3345,16 +3340,16 @@
         <v>9</v>
       </c>
       <c r="F54" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G54" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="H54" t="s">
         <v>217</v>
       </c>
       <c r="I54" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="J54" t="s">
         <v>8</v>
@@ -3374,10 +3369,10 @@
         <v>20</v>
       </c>
       <c r="B55" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="C55" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="D55" t="s">
         <v>214</v>
@@ -3386,16 +3381,16 @@
         <v>9</v>
       </c>
       <c r="F55" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="G55" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="H55" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="I55" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="J55" t="s">
         <v>8</v>
@@ -3418,7 +3413,7 @@
         <v>227</v>
       </c>
       <c r="C56" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="D56" t="s">
         <v>214</v>
@@ -3427,10 +3422,10 @@
         <v>9</v>
       </c>
       <c r="F56" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="G56" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="H56" t="s">
         <v>231</v>
@@ -3456,28 +3451,28 @@
         <v>20</v>
       </c>
       <c r="B57" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="C57" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D57" t="s">
         <v>214</v>
       </c>
       <c r="E57" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F57" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G57" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="H57" t="s">
-        <v>217</v>
+        <v>231</v>
       </c>
       <c r="I57" t="s">
-        <v>218</v>
+        <v>232</v>
       </c>
       <c r="J57" t="s">
         <v>8</v>
@@ -3497,10 +3492,10 @@
         <v>20</v>
       </c>
       <c r="B58" t="s">
-        <v>239</v>
+        <v>219</v>
       </c>
       <c r="C58" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D58" t="s">
         <v>214</v>
@@ -3509,16 +3504,16 @@
         <v>4</v>
       </c>
       <c r="F58" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="G58" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="H58" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="I58" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="J58" t="s">
         <v>8</v>
@@ -3538,10 +3533,10 @@
         <v>20</v>
       </c>
       <c r="B59" t="s">
-        <v>212</v>
+        <v>239</v>
       </c>
       <c r="C59" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D59" t="s">
         <v>214</v>
@@ -3550,16 +3545,16 @@
         <v>4</v>
       </c>
       <c r="F59" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G59" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="H59" t="s">
-        <v>217</v>
+        <v>231</v>
       </c>
       <c r="I59" t="s">
-        <v>218</v>
+        <v>232</v>
       </c>
       <c r="J59" t="s">
         <v>8</v>
@@ -3579,10 +3574,10 @@
         <v>20</v>
       </c>
       <c r="B60" t="s">
-        <v>239</v>
+        <v>212</v>
       </c>
       <c r="C60" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D60" t="s">
         <v>214</v>
@@ -3591,16 +3586,16 @@
         <v>4</v>
       </c>
       <c r="F60" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G60" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="H60" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="I60" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="J60" t="s">
         <v>8</v>
@@ -3620,46 +3615,87 @@
         <v>20</v>
       </c>
       <c r="B61" t="s">
+        <v>239</v>
+      </c>
+      <c r="C61" t="s">
+        <v>246</v>
+      </c>
+      <c r="D61" t="s">
+        <v>214</v>
+      </c>
+      <c r="E61" t="s">
+        <v>4</v>
+      </c>
+      <c r="F61" t="s">
+        <v>247</v>
+      </c>
+      <c r="G61" t="s">
+        <v>248</v>
+      </c>
+      <c r="H61" t="s">
+        <v>231</v>
+      </c>
+      <c r="I61" t="s">
+        <v>232</v>
+      </c>
+      <c r="J61" t="s">
+        <v>8</v>
+      </c>
+      <c r="K61" t="s">
+        <v>8</v>
+      </c>
+      <c r="L61" t="s">
+        <v>8</v>
+      </c>
+      <c r="M61" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
+      <c r="A62" t="s">
+        <v>20</v>
+      </c>
+      <c r="B62" t="s">
         <v>249</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C62" t="s">
         <v>250</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D62" t="s">
         <v>208</v>
       </c>
-      <c r="E61" t="s">
+      <c r="E62" t="s">
         <v>9</v>
       </c>
-      <c r="F61" t="s">
+      <c r="F62" t="s">
         <v>251</v>
       </c>
-      <c r="G61" t="s">
+      <c r="G62" t="s">
         <v>252</v>
       </c>
-      <c r="H61" t="s">
+      <c r="H62" t="s">
         <v>217</v>
       </c>
-      <c r="I61" t="s">
-        <v>8</v>
-      </c>
-      <c r="J61" t="s">
-        <v>8</v>
-      </c>
-      <c r="K61" t="s">
-        <v>8</v>
-      </c>
-      <c r="L61" t="s">
-        <v>8</v>
-      </c>
-      <c r="M61" t="s">
+      <c r="I62" t="s">
+        <v>8</v>
+      </c>
+      <c r="J62" t="s">
+        <v>8</v>
+      </c>
+      <c r="K62" t="s">
+        <v>8</v>
+      </c>
+      <c r="L62" t="s">
+        <v>8</v>
+      </c>
+      <c r="M62" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="A2:M2"/>
+    <mergeCell ref="A1:M2"/>
+    <mergeCell ref="A3:M3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Rich Products Corporation - HQ @ Buffalo, NY.xlsx
+++ b/Rich Products Corporation - HQ @ Buffalo, NY.xlsx
@@ -941,8 +941,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:M63" totalsRowCount="1">
-  <autoFilter ref="A3:M62"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A5:M65" totalsRowCount="1">
+  <autoFilter ref="A5:M64"/>
   <tableColumns count="13">
     <tableColumn id="1" name="Column1"/>
     <tableColumn id="2" name="Column2"/>
@@ -1247,168 +1247,97 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M62"/>
+  <dimension ref="A1:M64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="3" spans="1:13">
-      <c r="A3" t="s">
-        <v>253</v>
-      </c>
-      <c r="B3" t="s">
-        <v>254</v>
-      </c>
-      <c r="C3" t="s">
-        <v>255</v>
-      </c>
-      <c r="D3" t="s">
-        <v>256</v>
-      </c>
-      <c r="E3" t="s">
-        <v>257</v>
-      </c>
-      <c r="F3" t="s">
-        <v>258</v>
-      </c>
-      <c r="G3" t="s">
-        <v>259</v>
-      </c>
-      <c r="H3" t="s">
-        <v>260</v>
-      </c>
-      <c r="I3" t="s">
-        <v>261</v>
-      </c>
-      <c r="J3" t="s">
-        <v>262</v>
-      </c>
-      <c r="K3" t="s">
-        <v>263</v>
-      </c>
-      <c r="L3" t="s">
-        <v>264</v>
-      </c>
-      <c r="M3" t="s">
-        <v>265</v>
-      </c>
-    </row>
     <row r="4" spans="1:13">
       <c r="A4" t="s">
-        <v>266</v>
-      </c>
-      <c r="B4" t="s">
-        <v>267</v>
-      </c>
-      <c r="C4" t="s">
-        <v>268</v>
-      </c>
-      <c r="D4" t="s">
-        <v>269</v>
-      </c>
-      <c r="E4" t="s">
-        <v>270</v>
-      </c>
-      <c r="F4" t="s">
-        <v>271</v>
-      </c>
-      <c r="G4" t="s">
-        <v>272</v>
-      </c>
-      <c r="H4" t="s">
-        <v>273</v>
-      </c>
-      <c r="I4" t="s">
-        <v>274</v>
-      </c>
-      <c r="J4" t="s">
-        <v>275</v>
-      </c>
-      <c r="K4" t="s">
-        <v>276</v>
-      </c>
-      <c r="L4" t="s">
-        <v>277</v>
-      </c>
-      <c r="M4" t="s">
-        <v>278</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" t="s">
-        <v>1</v>
+        <v>253</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>254</v>
+      </c>
+      <c r="C5" t="s">
+        <v>255</v>
       </c>
       <c r="D5" t="s">
-        <v>3</v>
+        <v>256</v>
       </c>
       <c r="E5" t="s">
-        <v>4</v>
+        <v>257</v>
       </c>
       <c r="F5" t="s">
-        <v>5</v>
+        <v>258</v>
       </c>
       <c r="G5" t="s">
-        <v>6</v>
+        <v>259</v>
       </c>
       <c r="H5" t="s">
-        <v>7</v>
+        <v>260</v>
       </c>
       <c r="I5" t="s">
-        <v>8</v>
+        <v>261</v>
       </c>
       <c r="J5" t="s">
-        <v>8</v>
+        <v>262</v>
       </c>
       <c r="K5" t="s">
-        <v>8</v>
+        <v>263</v>
       </c>
       <c r="L5" t="s">
-        <v>8</v>
+        <v>264</v>
       </c>
       <c r="M5" t="s">
-        <v>8</v>
+        <v>265</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" t="s">
-        <v>1</v>
+        <v>266</v>
       </c>
       <c r="B6" t="s">
-        <v>2</v>
+        <v>267</v>
+      </c>
+      <c r="C6" t="s">
+        <v>268</v>
       </c>
       <c r="D6" t="s">
-        <v>3</v>
+        <v>269</v>
       </c>
       <c r="E6" t="s">
-        <v>9</v>
+        <v>270</v>
       </c>
       <c r="F6" t="s">
-        <v>10</v>
+        <v>271</v>
       </c>
       <c r="G6" t="s">
-        <v>11</v>
+        <v>272</v>
       </c>
       <c r="H6" t="s">
-        <v>12</v>
+        <v>273</v>
       </c>
       <c r="I6" t="s">
-        <v>8</v>
+        <v>274</v>
       </c>
       <c r="J6" t="s">
-        <v>8</v>
+        <v>275</v>
       </c>
       <c r="K6" t="s">
-        <v>8</v>
+        <v>276</v>
       </c>
       <c r="L6" t="s">
-        <v>8</v>
+        <v>277</v>
       </c>
       <c r="M6" t="s">
-        <v>8</v>
+        <v>278</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -1422,16 +1351,16 @@
         <v>3</v>
       </c>
       <c r="E7" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="G7" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="H7" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="I7" t="s">
         <v>8</v>
@@ -1454,10 +1383,7 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D8" t="s">
         <v>3</v>
@@ -1466,10 +1392,10 @@
         <v>9</v>
       </c>
       <c r="F8" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G8" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H8" t="s">
         <v>12</v>
@@ -1495,10 +1421,7 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D9" t="s">
         <v>3</v>
@@ -1507,10 +1430,10 @@
         <v>9</v>
       </c>
       <c r="F9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s">
         <v>12</v>
@@ -1536,19 +1459,22 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>2</v>
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
       </c>
       <c r="D10" t="s">
         <v>3</v>
       </c>
       <c r="E10" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F10" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G10" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H10" t="s">
         <v>12</v>
@@ -1571,31 +1497,31 @@
     </row>
     <row r="11" spans="1:13">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D11" t="s">
         <v>3</v>
       </c>
       <c r="E11" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="F11" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="G11" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="H11" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I11" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="J11" t="s">
         <v>8</v>
@@ -1612,31 +1538,28 @@
     </row>
     <row r="12" spans="1:13">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" t="s">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="D12" t="s">
         <v>3</v>
       </c>
       <c r="E12" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="F12" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="G12" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="H12" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I12" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="J12" t="s">
         <v>8</v>
@@ -1653,31 +1576,31 @@
     </row>
     <row r="13" spans="1:13">
       <c r="A13" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D13" t="s">
         <v>3</v>
       </c>
       <c r="E13" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="F13" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="G13" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="H13" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I13" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="J13" t="s">
         <v>8</v>
@@ -1694,31 +1617,31 @@
     </row>
     <row r="14" spans="1:13">
       <c r="A14" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="D14" t="s">
         <v>3</v>
       </c>
       <c r="E14" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="F14" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G14" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H14" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I14" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="J14" t="s">
         <v>8</v>
@@ -1738,28 +1661,28 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="D15" t="s">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="E15" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="F15" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G15" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H15" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="I15" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="J15" t="s">
         <v>8</v>
@@ -1779,25 +1702,25 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="D16" t="s">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="E16" t="s">
-        <v>47</v>
+        <v>4</v>
       </c>
       <c r="F16" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="G16" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="H16" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="I16" t="s">
         <v>8</v>
@@ -1820,28 +1743,28 @@
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="C17" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="D17" t="s">
         <v>39</v>
       </c>
       <c r="E17" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="F17" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="G17" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="H17" t="s">
         <v>43</v>
       </c>
       <c r="I17" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="J17" t="s">
         <v>8</v>
@@ -1864,25 +1787,25 @@
         <v>45</v>
       </c>
       <c r="C18" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="D18" t="s">
         <v>39</v>
       </c>
       <c r="E18" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="F18" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="G18" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="H18" t="s">
         <v>43</v>
       </c>
       <c r="I18" t="s">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="J18" t="s">
         <v>8</v>
@@ -1902,28 +1825,28 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C19" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="D19" t="s">
         <v>39</v>
       </c>
       <c r="E19" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="F19" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="G19" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="H19" t="s">
         <v>43</v>
       </c>
       <c r="I19" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="J19" t="s">
         <v>8</v>
@@ -1946,19 +1869,19 @@
         <v>45</v>
       </c>
       <c r="C20" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="D20" t="s">
         <v>39</v>
       </c>
       <c r="E20" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="F20" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="G20" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="H20" t="s">
         <v>43</v>
@@ -1987,25 +1910,25 @@
         <v>45</v>
       </c>
       <c r="C21" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="D21" t="s">
         <v>39</v>
       </c>
       <c r="E21" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="F21" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="G21" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="H21" t="s">
         <v>43</v>
       </c>
       <c r="I21" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="J21" t="s">
         <v>8</v>
@@ -2025,28 +1948,28 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="C22" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="D22" t="s">
         <v>39</v>
       </c>
       <c r="E22" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="F22" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="G22" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="H22" t="s">
         <v>43</v>
       </c>
       <c r="I22" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="J22" t="s">
         <v>8</v>
@@ -2063,31 +1986,31 @@
     </row>
     <row r="23" spans="1:13">
       <c r="A23" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="C23" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="D23" t="s">
         <v>39</v>
       </c>
       <c r="E23" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F23" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="G23" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="H23" t="s">
         <v>43</v>
       </c>
       <c r="I23" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="J23" t="s">
         <v>8</v>
@@ -2107,28 +2030,28 @@
         <v>1</v>
       </c>
       <c r="B24" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="C24" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D24" t="s">
         <v>39</v>
       </c>
       <c r="E24" t="s">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="F24" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G24" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H24" t="s">
         <v>43</v>
       </c>
       <c r="I24" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="J24" t="s">
         <v>8</v>
@@ -2145,31 +2068,31 @@
     </row>
     <row r="25" spans="1:13">
       <c r="A25" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="B25" t="s">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="C25" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="D25" t="s">
         <v>39</v>
       </c>
       <c r="E25" t="s">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="F25" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="G25" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="H25" t="s">
         <v>43</v>
       </c>
       <c r="I25" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="J25" t="s">
         <v>8</v>
@@ -2192,19 +2115,19 @@
         <v>37</v>
       </c>
       <c r="C26" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="D26" t="s">
         <v>39</v>
       </c>
       <c r="E26" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F26" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="G26" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="H26" t="s">
         <v>43</v>
@@ -2230,28 +2153,28 @@
         <v>1</v>
       </c>
       <c r="B27" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C27" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D27" t="s">
         <v>39</v>
       </c>
       <c r="E27" t="s">
-        <v>95</v>
+        <v>9</v>
       </c>
       <c r="F27" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="G27" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="H27" t="s">
         <v>43</v>
       </c>
       <c r="I27" t="s">
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="J27" t="s">
         <v>8</v>
@@ -2271,28 +2194,28 @@
         <v>1</v>
       </c>
       <c r="B28" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C28" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="D28" t="s">
         <v>39</v>
       </c>
       <c r="E28" t="s">
-        <v>99</v>
+        <v>4</v>
       </c>
       <c r="F28" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="G28" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="H28" t="s">
         <v>43</v>
       </c>
       <c r="I28" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="J28" t="s">
         <v>8</v>
@@ -2312,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="B29" t="s">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="C29" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="D29" t="s">
         <v>39</v>
       </c>
       <c r="E29" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F29" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="G29" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="H29" t="s">
         <v>43</v>
       </c>
       <c r="I29" t="s">
-        <v>107</v>
+        <v>59</v>
       </c>
       <c r="J29" t="s">
         <v>8</v>
@@ -2356,25 +2279,25 @@
         <v>45</v>
       </c>
       <c r="C30" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="D30" t="s">
         <v>39</v>
       </c>
       <c r="E30" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="F30" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="G30" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="H30" t="s">
         <v>43</v>
       </c>
       <c r="I30" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="J30" t="s">
         <v>8</v>
@@ -2394,28 +2317,28 @@
         <v>1</v>
       </c>
       <c r="B31" t="s">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="C31" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="D31" t="s">
         <v>39</v>
       </c>
       <c r="E31" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="F31" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="G31" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="H31" t="s">
         <v>43</v>
       </c>
       <c r="I31" t="s">
-        <v>8</v>
+        <v>107</v>
       </c>
       <c r="J31" t="s">
         <v>8</v>
@@ -2435,28 +2358,28 @@
         <v>1</v>
       </c>
       <c r="B32" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="C32" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="D32" t="s">
         <v>39</v>
       </c>
       <c r="E32" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="F32" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="G32" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="H32" t="s">
         <v>43</v>
       </c>
       <c r="I32" t="s">
-        <v>120</v>
+        <v>83</v>
       </c>
       <c r="J32" t="s">
         <v>8</v>
@@ -2479,25 +2402,25 @@
         <v>45</v>
       </c>
       <c r="C33" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="D33" t="s">
         <v>39</v>
       </c>
       <c r="E33" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="F33" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="G33" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="H33" t="s">
         <v>43</v>
       </c>
       <c r="I33" t="s">
-        <v>102</v>
+        <v>8</v>
       </c>
       <c r="J33" t="s">
         <v>8</v>
@@ -2517,28 +2440,28 @@
         <v>1</v>
       </c>
       <c r="B34" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C34" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="D34" t="s">
         <v>39</v>
       </c>
       <c r="E34" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="F34" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="G34" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="H34" t="s">
         <v>43</v>
       </c>
       <c r="I34" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="J34" t="s">
         <v>8</v>
@@ -2561,25 +2484,25 @@
         <v>45</v>
       </c>
       <c r="C35" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="D35" t="s">
         <v>39</v>
       </c>
       <c r="E35" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="F35" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="G35" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="H35" t="s">
         <v>43</v>
       </c>
       <c r="I35" t="s">
-        <v>134</v>
+        <v>102</v>
       </c>
       <c r="J35" t="s">
         <v>8</v>
@@ -2599,28 +2522,28 @@
         <v>1</v>
       </c>
       <c r="B36" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="C36" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="D36" t="s">
         <v>39</v>
       </c>
       <c r="E36" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="F36" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="G36" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="H36" t="s">
         <v>43</v>
       </c>
       <c r="I36" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="J36" t="s">
         <v>8</v>
@@ -2643,25 +2566,25 @@
         <v>45</v>
       </c>
       <c r="C37" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="D37" t="s">
         <v>39</v>
       </c>
       <c r="E37" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="F37" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="G37" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="H37" t="s">
         <v>43</v>
       </c>
       <c r="I37" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="J37" t="s">
         <v>8</v>
@@ -2681,28 +2604,28 @@
         <v>1</v>
       </c>
       <c r="B38" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C38" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="D38" t="s">
         <v>39</v>
       </c>
       <c r="E38" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="F38" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="G38" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="H38" t="s">
         <v>43</v>
       </c>
       <c r="I38" t="s">
-        <v>148</v>
+        <v>120</v>
       </c>
       <c r="J38" t="s">
         <v>8</v>
@@ -2722,28 +2645,28 @@
         <v>1</v>
       </c>
       <c r="B39" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="C39" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="D39" t="s">
         <v>39</v>
       </c>
       <c r="E39" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="F39" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="G39" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="H39" t="s">
         <v>43</v>
       </c>
       <c r="I39" t="s">
-        <v>120</v>
+        <v>143</v>
       </c>
       <c r="J39" t="s">
         <v>8</v>
@@ -2760,31 +2683,31 @@
     </row>
     <row r="40" spans="1:13">
       <c r="A40" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="B40" t="s">
-        <v>153</v>
+        <v>45</v>
       </c>
       <c r="C40" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="D40" t="s">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="F40" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="G40" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="H40" t="s">
         <v>43</v>
       </c>
       <c r="I40" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="J40" t="s">
         <v>8</v>
@@ -2801,31 +2724,31 @@
     </row>
     <row r="41" spans="1:13">
       <c r="A41" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="B41" t="s">
-        <v>158</v>
+        <v>37</v>
       </c>
       <c r="C41" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="D41" t="s">
         <v>39</v>
       </c>
       <c r="E41" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="F41" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="G41" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="H41" t="s">
         <v>43</v>
       </c>
       <c r="I41" t="s">
-        <v>163</v>
+        <v>120</v>
       </c>
       <c r="J41" t="s">
         <v>8</v>
@@ -2842,31 +2765,31 @@
     </row>
     <row r="42" spans="1:13">
       <c r="A42" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="B42" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="C42" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="D42" t="s">
         <v>39</v>
       </c>
       <c r="E42" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="F42" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="G42" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="H42" t="s">
         <v>43</v>
       </c>
       <c r="I42" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="J42" t="s">
         <v>8</v>
@@ -2883,31 +2806,31 @@
     </row>
     <row r="43" spans="1:13">
       <c r="A43" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="B43" t="s">
-        <v>45</v>
+        <v>158</v>
       </c>
       <c r="C43" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="D43" t="s">
         <v>39</v>
       </c>
       <c r="E43" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="F43" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="G43" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="H43" t="s">
         <v>43</v>
       </c>
       <c r="I43" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="J43" t="s">
         <v>8</v>
@@ -2927,28 +2850,28 @@
         <v>1</v>
       </c>
       <c r="B44" t="s">
-        <v>45</v>
+        <v>164</v>
       </c>
       <c r="C44" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="D44" t="s">
         <v>39</v>
       </c>
       <c r="E44" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="F44" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="G44" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="H44" t="s">
         <v>43</v>
       </c>
       <c r="I44" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="J44" t="s">
         <v>8</v>
@@ -2971,25 +2894,25 @@
         <v>45</v>
       </c>
       <c r="C45" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="D45" t="s">
         <v>39</v>
       </c>
       <c r="E45" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="F45" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="G45" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="H45" t="s">
         <v>43</v>
       </c>
       <c r="I45" t="s">
-        <v>83</v>
+        <v>173</v>
       </c>
       <c r="J45" t="s">
         <v>8</v>
@@ -3012,25 +2935,25 @@
         <v>45</v>
       </c>
       <c r="C46" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="D46" t="s">
         <v>39</v>
       </c>
       <c r="E46" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="F46" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="G46" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="H46" t="s">
         <v>43</v>
       </c>
       <c r="I46" t="s">
-        <v>59</v>
+        <v>178</v>
       </c>
       <c r="J46" t="s">
         <v>8</v>
@@ -3053,25 +2976,25 @@
         <v>45</v>
       </c>
       <c r="C47" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="D47" t="s">
         <v>39</v>
       </c>
       <c r="E47" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="F47" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="G47" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="H47" t="s">
         <v>43</v>
       </c>
       <c r="I47" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="J47" t="s">
         <v>8</v>
@@ -3094,19 +3017,19 @@
         <v>45</v>
       </c>
       <c r="C48" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="D48" t="s">
         <v>39</v>
       </c>
       <c r="E48" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="F48" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="G48" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="H48" t="s">
         <v>43</v>
@@ -3135,25 +3058,25 @@
         <v>45</v>
       </c>
       <c r="C49" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="D49" t="s">
         <v>39</v>
       </c>
       <c r="E49" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="F49" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="G49" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="H49" t="s">
         <v>43</v>
       </c>
       <c r="I49" t="s">
-        <v>178</v>
+        <v>102</v>
       </c>
       <c r="J49" t="s">
         <v>8</v>
@@ -3176,25 +3099,25 @@
         <v>45</v>
       </c>
       <c r="C50" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="D50" t="s">
         <v>39</v>
       </c>
       <c r="E50" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="F50" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="G50" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="H50" t="s">
         <v>43</v>
       </c>
       <c r="I50" t="s">
-        <v>148</v>
+        <v>59</v>
       </c>
       <c r="J50" t="s">
         <v>8</v>
@@ -3217,25 +3140,25 @@
         <v>45</v>
       </c>
       <c r="C51" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="D51" t="s">
         <v>39</v>
       </c>
       <c r="E51" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="F51" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="G51" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="H51" t="s">
         <v>43</v>
       </c>
       <c r="I51" t="s">
-        <v>207</v>
+        <v>178</v>
       </c>
       <c r="J51" t="s">
         <v>8</v>
@@ -3251,23 +3174,32 @@
       </c>
     </row>
     <row r="52" spans="1:13">
+      <c r="A52" t="s">
+        <v>1</v>
+      </c>
+      <c r="B52" t="s">
+        <v>45</v>
+      </c>
+      <c r="C52" t="s">
+        <v>199</v>
+      </c>
       <c r="D52" t="s">
-        <v>208</v>
+        <v>39</v>
       </c>
       <c r="E52" t="s">
-        <v>9</v>
+        <v>200</v>
       </c>
       <c r="F52" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="G52" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="H52" t="s">
-        <v>211</v>
+        <v>43</v>
       </c>
       <c r="I52" t="s">
-        <v>8</v>
+        <v>148</v>
       </c>
       <c r="J52" t="s">
         <v>8</v>
@@ -3284,31 +3216,31 @@
     </row>
     <row r="53" spans="1:13">
       <c r="A53" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="B53" t="s">
-        <v>212</v>
+        <v>45</v>
       </c>
       <c r="C53" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="D53" t="s">
-        <v>214</v>
+        <v>39</v>
       </c>
       <c r="E53" t="s">
-        <v>9</v>
+        <v>204</v>
       </c>
       <c r="F53" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="G53" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="H53" t="s">
-        <v>217</v>
+        <v>43</v>
       </c>
       <c r="I53" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="J53" t="s">
         <v>8</v>
@@ -3324,32 +3256,23 @@
       </c>
     </row>
     <row r="54" spans="1:13">
-      <c r="A54" t="s">
-        <v>20</v>
-      </c>
-      <c r="B54" t="s">
-        <v>219</v>
-      </c>
-      <c r="C54" t="s">
-        <v>220</v>
-      </c>
       <c r="D54" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="E54" t="s">
         <v>9</v>
       </c>
       <c r="F54" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="G54" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="H54" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="I54" t="s">
-        <v>218</v>
+        <v>8</v>
       </c>
       <c r="J54" t="s">
         <v>8</v>
@@ -3372,7 +3295,7 @@
         <v>212</v>
       </c>
       <c r="C55" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="D55" t="s">
         <v>214</v>
@@ -3381,16 +3304,16 @@
         <v>9</v>
       </c>
       <c r="F55" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="G55" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="H55" t="s">
         <v>217</v>
       </c>
       <c r="I55" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="J55" t="s">
         <v>8</v>
@@ -3410,10 +3333,10 @@
         <v>20</v>
       </c>
       <c r="B56" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="C56" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="D56" t="s">
         <v>214</v>
@@ -3422,16 +3345,16 @@
         <v>9</v>
       </c>
       <c r="F56" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="G56" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="H56" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="I56" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="J56" t="s">
         <v>8</v>
@@ -3451,10 +3374,10 @@
         <v>20</v>
       </c>
       <c r="B57" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="C57" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="D57" t="s">
         <v>214</v>
@@ -3463,16 +3386,16 @@
         <v>9</v>
       </c>
       <c r="F57" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="G57" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="H57" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="I57" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="J57" t="s">
         <v>8</v>
@@ -3492,28 +3415,28 @@
         <v>20</v>
       </c>
       <c r="B58" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="C58" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="D58" t="s">
         <v>214</v>
       </c>
       <c r="E58" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F58" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="G58" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="H58" t="s">
-        <v>217</v>
+        <v>231</v>
       </c>
       <c r="I58" t="s">
-        <v>218</v>
+        <v>232</v>
       </c>
       <c r="J58" t="s">
         <v>8</v>
@@ -3533,22 +3456,22 @@
         <v>20</v>
       </c>
       <c r="B59" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="C59" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="D59" t="s">
         <v>214</v>
       </c>
       <c r="E59" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F59" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="G59" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="H59" t="s">
         <v>231</v>
@@ -3574,10 +3497,10 @@
         <v>20</v>
       </c>
       <c r="B60" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="C60" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="D60" t="s">
         <v>214</v>
@@ -3586,10 +3509,10 @@
         <v>4</v>
       </c>
       <c r="F60" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="G60" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="H60" t="s">
         <v>217</v>
@@ -3618,7 +3541,7 @@
         <v>239</v>
       </c>
       <c r="C61" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="D61" t="s">
         <v>214</v>
@@ -3627,10 +3550,10 @@
         <v>4</v>
       </c>
       <c r="F61" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="G61" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="H61" t="s">
         <v>231</v>
@@ -3656,28 +3579,28 @@
         <v>20</v>
       </c>
       <c r="B62" t="s">
-        <v>249</v>
+        <v>212</v>
       </c>
       <c r="C62" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="D62" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="E62" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F62" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="G62" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="H62" t="s">
         <v>217</v>
       </c>
       <c r="I62" t="s">
-        <v>8</v>
+        <v>218</v>
       </c>
       <c r="J62" t="s">
         <v>8</v>
@@ -3689,13 +3612,95 @@
         <v>8</v>
       </c>
       <c r="M62" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
+      <c r="A63" t="s">
+        <v>20</v>
+      </c>
+      <c r="B63" t="s">
+        <v>239</v>
+      </c>
+      <c r="C63" t="s">
+        <v>246</v>
+      </c>
+      <c r="D63" t="s">
+        <v>214</v>
+      </c>
+      <c r="E63" t="s">
+        <v>4</v>
+      </c>
+      <c r="F63" t="s">
+        <v>247</v>
+      </c>
+      <c r="G63" t="s">
+        <v>248</v>
+      </c>
+      <c r="H63" t="s">
+        <v>231</v>
+      </c>
+      <c r="I63" t="s">
+        <v>232</v>
+      </c>
+      <c r="J63" t="s">
+        <v>8</v>
+      </c>
+      <c r="K63" t="s">
+        <v>8</v>
+      </c>
+      <c r="L63" t="s">
+        <v>8</v>
+      </c>
+      <c r="M63" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
+      <c r="A64" t="s">
+        <v>20</v>
+      </c>
+      <c r="B64" t="s">
+        <v>249</v>
+      </c>
+      <c r="C64" t="s">
+        <v>250</v>
+      </c>
+      <c r="D64" t="s">
+        <v>208</v>
+      </c>
+      <c r="E64" t="s">
+        <v>9</v>
+      </c>
+      <c r="F64" t="s">
+        <v>251</v>
+      </c>
+      <c r="G64" t="s">
+        <v>252</v>
+      </c>
+      <c r="H64" t="s">
+        <v>217</v>
+      </c>
+      <c r="I64" t="s">
+        <v>8</v>
+      </c>
+      <c r="J64" t="s">
+        <v>8</v>
+      </c>
+      <c r="K64" t="s">
+        <v>8</v>
+      </c>
+      <c r="L64" t="s">
+        <v>8</v>
+      </c>
+      <c r="M64" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:M2"/>
-    <mergeCell ref="A3:M3"/>
+    <mergeCell ref="A1:M3"/>
+    <mergeCell ref="A4:M4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Rich Products Corporation - HQ @ Buffalo, NY.xlsx
+++ b/Rich Products Corporation - HQ @ Buffalo, NY.xlsx
@@ -941,8 +941,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A5:M65" totalsRowCount="1">
-  <autoFilter ref="A5:M64"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A5:M64" totalsRowCount="1">
+  <autoFilter ref="A5:M63"/>
   <tableColumns count="13">
     <tableColumn id="1" name="Column1"/>
     <tableColumn id="2" name="Column2"/>
@@ -1247,7 +1247,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:M63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1260,84 +1260,81 @@
     </row>
     <row r="5" spans="1:13">
       <c r="A5" t="s">
-        <v>253</v>
+        <v>266</v>
       </c>
       <c r="B5" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="C5" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="D5" t="s">
-        <v>256</v>
+        <v>269</v>
       </c>
       <c r="E5" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="F5" t="s">
-        <v>258</v>
+        <v>271</v>
       </c>
       <c r="G5" t="s">
-        <v>259</v>
+        <v>272</v>
       </c>
       <c r="H5" t="s">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c r="I5" t="s">
-        <v>261</v>
+        <v>274</v>
       </c>
       <c r="J5" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="K5" t="s">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="L5" t="s">
-        <v>264</v>
+        <v>277</v>
       </c>
       <c r="M5" t="s">
-        <v>265</v>
+        <v>278</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" t="s">
-        <v>266</v>
+        <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>267</v>
-      </c>
-      <c r="C6" t="s">
-        <v>268</v>
+        <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>269</v>
+        <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>270</v>
+        <v>4</v>
       </c>
       <c r="F6" t="s">
-        <v>271</v>
+        <v>5</v>
       </c>
       <c r="G6" t="s">
-        <v>272</v>
+        <v>6</v>
       </c>
       <c r="H6" t="s">
-        <v>273</v>
+        <v>7</v>
       </c>
       <c r="I6" t="s">
-        <v>274</v>
+        <v>8</v>
       </c>
       <c r="J6" t="s">
-        <v>275</v>
+        <v>8</v>
       </c>
       <c r="K6" t="s">
-        <v>276</v>
+        <v>8</v>
       </c>
       <c r="L6" t="s">
-        <v>277</v>
+        <v>8</v>
       </c>
       <c r="M6" t="s">
-        <v>278</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -1351,16 +1348,16 @@
         <v>3</v>
       </c>
       <c r="E7" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F7" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G7" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="H7" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="I7" t="s">
         <v>8</v>
@@ -1392,10 +1389,10 @@
         <v>9</v>
       </c>
       <c r="F8" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
         <v>12</v>
@@ -1421,7 +1418,10 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>2</v>
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
       </c>
       <c r="D9" t="s">
         <v>3</v>
@@ -1430,10 +1430,10 @@
         <v>9</v>
       </c>
       <c r="F9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H9" t="s">
         <v>12</v>
@@ -1474,7 +1474,7 @@
         <v>15</v>
       </c>
       <c r="G10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H10" t="s">
         <v>12</v>
@@ -1500,22 +1500,19 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D11" t="s">
         <v>3</v>
       </c>
       <c r="E11" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F11" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H11" t="s">
         <v>12</v>
@@ -1538,28 +1535,31 @@
     </row>
     <row r="12" spans="1:13">
       <c r="A12" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>2</v>
+        <v>21</v>
+      </c>
+      <c r="C12" t="s">
+        <v>22</v>
       </c>
       <c r="D12" t="s">
         <v>3</v>
       </c>
       <c r="E12" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="F12" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="G12" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="H12" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I12" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="J12" t="s">
         <v>8</v>
@@ -1579,28 +1579,28 @@
         <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C13" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D13" t="s">
         <v>3</v>
       </c>
       <c r="E13" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F13" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="G13" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H13" t="s">
         <v>26</v>
       </c>
       <c r="I13" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="J13" t="s">
         <v>8</v>
@@ -1617,31 +1617,31 @@
     </row>
     <row r="14" spans="1:13">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="D14" t="s">
         <v>3</v>
       </c>
       <c r="E14" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="F14" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G14" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H14" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I14" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="J14" t="s">
         <v>8</v>
@@ -1676,7 +1676,7 @@
         <v>34</v>
       </c>
       <c r="G15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H15" t="s">
         <v>12</v>
@@ -1702,28 +1702,28 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="D16" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="E16" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="F16" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G16" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H16" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I16" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="J16" t="s">
         <v>8</v>
@@ -1743,28 +1743,28 @@
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="C17" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="D17" t="s">
         <v>39</v>
       </c>
       <c r="E17" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="F17" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G17" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="H17" t="s">
         <v>43</v>
       </c>
       <c r="I17" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="J17" t="s">
         <v>8</v>
@@ -1784,28 +1784,28 @@
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C18" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D18" t="s">
         <v>39</v>
       </c>
       <c r="E18" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="F18" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G18" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H18" t="s">
         <v>43</v>
       </c>
       <c r="I18" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="J18" t="s">
         <v>8</v>
@@ -1825,28 +1825,28 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C19" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D19" t="s">
         <v>39</v>
       </c>
       <c r="E19" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="F19" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="G19" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H19" t="s">
         <v>43</v>
       </c>
       <c r="I19" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="J19" t="s">
         <v>8</v>
@@ -1869,19 +1869,19 @@
         <v>45</v>
       </c>
       <c r="C20" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D20" t="s">
         <v>39</v>
       </c>
       <c r="E20" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="F20" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="G20" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="H20" t="s">
         <v>43</v>
@@ -1910,19 +1910,19 @@
         <v>45</v>
       </c>
       <c r="C21" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D21" t="s">
         <v>39</v>
       </c>
       <c r="E21" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="F21" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="G21" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="H21" t="s">
         <v>43</v>
@@ -1951,25 +1951,25 @@
         <v>45</v>
       </c>
       <c r="C22" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D22" t="s">
         <v>39</v>
       </c>
       <c r="E22" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="F22" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G22" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="H22" t="s">
         <v>43</v>
       </c>
       <c r="I22" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="J22" t="s">
         <v>8</v>
@@ -1989,28 +1989,28 @@
         <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="C23" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D23" t="s">
         <v>39</v>
       </c>
       <c r="E23" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="F23" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="G23" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="H23" t="s">
         <v>43</v>
       </c>
       <c r="I23" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="J23" t="s">
         <v>8</v>
@@ -2027,13 +2027,13 @@
     </row>
     <row r="24" spans="1:13">
       <c r="A24" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="B24" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C24" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D24" t="s">
         <v>39</v>
@@ -2042,16 +2042,16 @@
         <v>75</v>
       </c>
       <c r="F24" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G24" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="H24" t="s">
         <v>43</v>
       </c>
       <c r="I24" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="J24" t="s">
         <v>8</v>
@@ -2068,31 +2068,31 @@
     </row>
     <row r="25" spans="1:13">
       <c r="A25" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="B25" t="s">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="C25" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D25" t="s">
         <v>39</v>
       </c>
       <c r="E25" t="s">
-        <v>75</v>
+        <v>9</v>
       </c>
       <c r="F25" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="G25" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="H25" t="s">
         <v>43</v>
       </c>
       <c r="I25" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="J25" t="s">
         <v>8</v>
@@ -2115,7 +2115,7 @@
         <v>37</v>
       </c>
       <c r="C26" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D26" t="s">
         <v>39</v>
@@ -2124,10 +2124,10 @@
         <v>9</v>
       </c>
       <c r="F26" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="G26" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="H26" t="s">
         <v>43</v>
@@ -2156,19 +2156,19 @@
         <v>37</v>
       </c>
       <c r="C27" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D27" t="s">
         <v>39</v>
       </c>
       <c r="E27" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F27" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="G27" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="H27" t="s">
         <v>43</v>
@@ -2194,28 +2194,28 @@
         <v>1</v>
       </c>
       <c r="B28" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="C28" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D28" t="s">
         <v>39</v>
       </c>
       <c r="E28" t="s">
-        <v>4</v>
+        <v>95</v>
       </c>
       <c r="F28" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="G28" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="H28" t="s">
         <v>43</v>
       </c>
       <c r="I28" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="J28" t="s">
         <v>8</v>
@@ -2238,25 +2238,25 @@
         <v>45</v>
       </c>
       <c r="C29" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D29" t="s">
         <v>39</v>
       </c>
       <c r="E29" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F29" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="G29" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="H29" t="s">
         <v>43</v>
       </c>
       <c r="I29" t="s">
-        <v>59</v>
+        <v>102</v>
       </c>
       <c r="J29" t="s">
         <v>8</v>
@@ -2276,10 +2276,10 @@
         <v>1</v>
       </c>
       <c r="B30" t="s">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="C30" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="D30" t="s">
         <v>39</v>
@@ -2288,16 +2288,16 @@
         <v>99</v>
       </c>
       <c r="F30" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="G30" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="H30" t="s">
         <v>43</v>
       </c>
       <c r="I30" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="J30" t="s">
         <v>8</v>
@@ -2317,28 +2317,28 @@
         <v>1</v>
       </c>
       <c r="B31" t="s">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="C31" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D31" t="s">
         <v>39</v>
       </c>
       <c r="E31" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="F31" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="G31" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="H31" t="s">
         <v>43</v>
       </c>
       <c r="I31" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="J31" t="s">
         <v>8</v>
@@ -2361,25 +2361,25 @@
         <v>45</v>
       </c>
       <c r="C32" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D32" t="s">
         <v>39</v>
       </c>
       <c r="E32" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="F32" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="G32" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="H32" t="s">
         <v>43</v>
       </c>
       <c r="I32" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="J32" t="s">
         <v>8</v>
@@ -2399,28 +2399,28 @@
         <v>1</v>
       </c>
       <c r="B33" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C33" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D33" t="s">
         <v>39</v>
       </c>
       <c r="E33" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="F33" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="G33" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="H33" t="s">
         <v>43</v>
       </c>
       <c r="I33" t="s">
-        <v>8</v>
+        <v>120</v>
       </c>
       <c r="J33" t="s">
         <v>8</v>
@@ -2440,28 +2440,28 @@
         <v>1</v>
       </c>
       <c r="B34" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="C34" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="D34" t="s">
         <v>39</v>
       </c>
       <c r="E34" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="F34" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="G34" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="H34" t="s">
         <v>43</v>
       </c>
       <c r="I34" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="J34" t="s">
         <v>8</v>
@@ -2484,25 +2484,25 @@
         <v>45</v>
       </c>
       <c r="C35" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D35" t="s">
         <v>39</v>
       </c>
       <c r="E35" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="F35" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="G35" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="H35" t="s">
         <v>43</v>
       </c>
       <c r="I35" t="s">
-        <v>102</v>
+        <v>129</v>
       </c>
       <c r="J35" t="s">
         <v>8</v>
@@ -2525,25 +2525,25 @@
         <v>45</v>
       </c>
       <c r="C36" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="D36" t="s">
         <v>39</v>
       </c>
       <c r="E36" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="F36" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="G36" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="H36" t="s">
         <v>43</v>
       </c>
       <c r="I36" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="J36" t="s">
         <v>8</v>
@@ -2563,28 +2563,28 @@
         <v>1</v>
       </c>
       <c r="B37" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C37" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="D37" t="s">
         <v>39</v>
       </c>
       <c r="E37" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="F37" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="G37" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="H37" t="s">
         <v>43</v>
       </c>
       <c r="I37" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="J37" t="s">
         <v>8</v>
@@ -2604,28 +2604,28 @@
         <v>1</v>
       </c>
       <c r="B38" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="C38" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="D38" t="s">
         <v>39</v>
       </c>
       <c r="E38" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="F38" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="G38" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H38" t="s">
         <v>43</v>
       </c>
       <c r="I38" t="s">
-        <v>120</v>
+        <v>143</v>
       </c>
       <c r="J38" t="s">
         <v>8</v>
@@ -2648,25 +2648,25 @@
         <v>45</v>
       </c>
       <c r="C39" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="D39" t="s">
         <v>39</v>
       </c>
       <c r="E39" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="F39" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="G39" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="H39" t="s">
         <v>43</v>
       </c>
       <c r="I39" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="J39" t="s">
         <v>8</v>
@@ -2686,28 +2686,28 @@
         <v>1</v>
       </c>
       <c r="B40" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C40" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="D40" t="s">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="F40" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="G40" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="H40" t="s">
         <v>43</v>
       </c>
       <c r="I40" t="s">
-        <v>148</v>
+        <v>120</v>
       </c>
       <c r="J40" t="s">
         <v>8</v>
@@ -2724,13 +2724,13 @@
     </row>
     <row r="41" spans="1:13">
       <c r="A41" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="B41" t="s">
-        <v>37</v>
+        <v>153</v>
       </c>
       <c r="C41" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="D41" t="s">
         <v>39</v>
@@ -2739,16 +2739,16 @@
         <v>150</v>
       </c>
       <c r="F41" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="G41" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="H41" t="s">
         <v>43</v>
       </c>
       <c r="I41" t="s">
-        <v>120</v>
+        <v>157</v>
       </c>
       <c r="J41" t="s">
         <v>8</v>
@@ -2768,28 +2768,28 @@
         <v>20</v>
       </c>
       <c r="B42" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="C42" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="D42" t="s">
         <v>39</v>
       </c>
       <c r="E42" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="F42" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="G42" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="H42" t="s">
         <v>43</v>
       </c>
       <c r="I42" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="J42" t="s">
         <v>8</v>
@@ -2806,13 +2806,13 @@
     </row>
     <row r="43" spans="1:13">
       <c r="A43" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="B43" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="C43" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="D43" t="s">
         <v>39</v>
@@ -2821,16 +2821,16 @@
         <v>160</v>
       </c>
       <c r="F43" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="G43" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="H43" t="s">
         <v>43</v>
       </c>
       <c r="I43" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="J43" t="s">
         <v>8</v>
@@ -2850,28 +2850,28 @@
         <v>1</v>
       </c>
       <c r="B44" t="s">
-        <v>164</v>
+        <v>45</v>
       </c>
       <c r="C44" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D44" t="s">
         <v>39</v>
       </c>
       <c r="E44" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="F44" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="G44" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="H44" t="s">
         <v>43</v>
       </c>
       <c r="I44" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="J44" t="s">
         <v>8</v>
@@ -2894,25 +2894,25 @@
         <v>45</v>
       </c>
       <c r="C45" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="D45" t="s">
         <v>39</v>
       </c>
       <c r="E45" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="F45" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="G45" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="H45" t="s">
         <v>43</v>
       </c>
       <c r="I45" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="J45" t="s">
         <v>8</v>
@@ -2935,25 +2935,25 @@
         <v>45</v>
       </c>
       <c r="C46" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="D46" t="s">
         <v>39</v>
       </c>
       <c r="E46" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="F46" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="G46" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="H46" t="s">
         <v>43</v>
       </c>
       <c r="I46" t="s">
-        <v>178</v>
+        <v>83</v>
       </c>
       <c r="J46" t="s">
         <v>8</v>
@@ -2976,25 +2976,25 @@
         <v>45</v>
       </c>
       <c r="C47" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="D47" t="s">
         <v>39</v>
       </c>
       <c r="E47" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="F47" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="G47" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="H47" t="s">
         <v>43</v>
       </c>
       <c r="I47" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="J47" t="s">
         <v>8</v>
@@ -3017,25 +3017,25 @@
         <v>45</v>
       </c>
       <c r="C48" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="D48" t="s">
         <v>39</v>
       </c>
       <c r="E48" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="F48" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="G48" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="H48" t="s">
         <v>43</v>
       </c>
       <c r="I48" t="s">
-        <v>59</v>
+        <v>102</v>
       </c>
       <c r="J48" t="s">
         <v>8</v>
@@ -3058,25 +3058,25 @@
         <v>45</v>
       </c>
       <c r="C49" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="D49" t="s">
         <v>39</v>
       </c>
       <c r="E49" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="F49" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="G49" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="H49" t="s">
         <v>43</v>
       </c>
       <c r="I49" t="s">
-        <v>102</v>
+        <v>59</v>
       </c>
       <c r="J49" t="s">
         <v>8</v>
@@ -3099,25 +3099,25 @@
         <v>45</v>
       </c>
       <c r="C50" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="D50" t="s">
         <v>39</v>
       </c>
       <c r="E50" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="F50" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="G50" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="H50" t="s">
         <v>43</v>
       </c>
       <c r="I50" t="s">
-        <v>59</v>
+        <v>178</v>
       </c>
       <c r="J50" t="s">
         <v>8</v>
@@ -3140,25 +3140,25 @@
         <v>45</v>
       </c>
       <c r="C51" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="D51" t="s">
         <v>39</v>
       </c>
       <c r="E51" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="F51" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="G51" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="H51" t="s">
         <v>43</v>
       </c>
       <c r="I51" t="s">
-        <v>178</v>
+        <v>148</v>
       </c>
       <c r="J51" t="s">
         <v>8</v>
@@ -3181,25 +3181,25 @@
         <v>45</v>
       </c>
       <c r="C52" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="D52" t="s">
         <v>39</v>
       </c>
       <c r="E52" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="F52" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="G52" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="H52" t="s">
         <v>43</v>
       </c>
       <c r="I52" t="s">
-        <v>148</v>
+        <v>207</v>
       </c>
       <c r="J52" t="s">
         <v>8</v>
@@ -3215,32 +3215,23 @@
       </c>
     </row>
     <row r="53" spans="1:13">
-      <c r="A53" t="s">
-        <v>1</v>
-      </c>
-      <c r="B53" t="s">
-        <v>45</v>
-      </c>
-      <c r="C53" t="s">
-        <v>203</v>
-      </c>
       <c r="D53" t="s">
-        <v>39</v>
+        <v>208</v>
       </c>
       <c r="E53" t="s">
-        <v>204</v>
+        <v>9</v>
       </c>
       <c r="F53" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="G53" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="H53" t="s">
-        <v>43</v>
+        <v>211</v>
       </c>
       <c r="I53" t="s">
-        <v>207</v>
+        <v>8</v>
       </c>
       <c r="J53" t="s">
         <v>8</v>
@@ -3256,23 +3247,32 @@
       </c>
     </row>
     <row r="54" spans="1:13">
+      <c r="A54" t="s">
+        <v>20</v>
+      </c>
+      <c r="B54" t="s">
+        <v>212</v>
+      </c>
+      <c r="C54" t="s">
+        <v>213</v>
+      </c>
       <c r="D54" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="E54" t="s">
         <v>9</v>
       </c>
       <c r="F54" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="G54" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="H54" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="I54" t="s">
-        <v>8</v>
+        <v>218</v>
       </c>
       <c r="J54" t="s">
         <v>8</v>
@@ -3292,10 +3292,10 @@
         <v>20</v>
       </c>
       <c r="B55" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="C55" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="D55" t="s">
         <v>214</v>
@@ -3304,10 +3304,10 @@
         <v>9</v>
       </c>
       <c r="F55" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="G55" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="H55" t="s">
         <v>217</v>
@@ -3333,10 +3333,10 @@
         <v>20</v>
       </c>
       <c r="B56" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="C56" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="D56" t="s">
         <v>214</v>
@@ -3345,16 +3345,16 @@
         <v>9</v>
       </c>
       <c r="F56" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="G56" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="H56" t="s">
         <v>217</v>
       </c>
       <c r="I56" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="J56" t="s">
         <v>8</v>
@@ -3374,10 +3374,10 @@
         <v>20</v>
       </c>
       <c r="B57" t="s">
-        <v>212</v>
+        <v>227</v>
       </c>
       <c r="C57" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="D57" t="s">
         <v>214</v>
@@ -3386,16 +3386,16 @@
         <v>9</v>
       </c>
       <c r="F57" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="G57" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="H57" t="s">
-        <v>217</v>
+        <v>231</v>
       </c>
       <c r="I57" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="J57" t="s">
         <v>8</v>
@@ -3418,7 +3418,7 @@
         <v>227</v>
       </c>
       <c r="C58" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="D58" t="s">
         <v>214</v>
@@ -3427,10 +3427,10 @@
         <v>9</v>
       </c>
       <c r="F58" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="G58" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="H58" t="s">
         <v>231</v>
@@ -3456,28 +3456,28 @@
         <v>20</v>
       </c>
       <c r="B59" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="C59" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="D59" t="s">
         <v>214</v>
       </c>
       <c r="E59" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F59" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="G59" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="H59" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="I59" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="J59" t="s">
         <v>8</v>
@@ -3497,10 +3497,10 @@
         <v>20</v>
       </c>
       <c r="B60" t="s">
-        <v>219</v>
+        <v>239</v>
       </c>
       <c r="C60" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="D60" t="s">
         <v>214</v>
@@ -3509,16 +3509,16 @@
         <v>4</v>
       </c>
       <c r="F60" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="G60" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="H60" t="s">
-        <v>217</v>
+        <v>231</v>
       </c>
       <c r="I60" t="s">
-        <v>218</v>
+        <v>232</v>
       </c>
       <c r="J60" t="s">
         <v>8</v>
@@ -3538,10 +3538,10 @@
         <v>20</v>
       </c>
       <c r="B61" t="s">
-        <v>239</v>
+        <v>212</v>
       </c>
       <c r="C61" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="D61" t="s">
         <v>214</v>
@@ -3550,16 +3550,16 @@
         <v>4</v>
       </c>
       <c r="F61" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="G61" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="H61" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="I61" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="J61" t="s">
         <v>8</v>
@@ -3579,10 +3579,10 @@
         <v>20</v>
       </c>
       <c r="B62" t="s">
-        <v>212</v>
+        <v>239</v>
       </c>
       <c r="C62" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="D62" t="s">
         <v>214</v>
@@ -3591,16 +3591,16 @@
         <v>4</v>
       </c>
       <c r="F62" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="G62" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="H62" t="s">
-        <v>217</v>
+        <v>231</v>
       </c>
       <c r="I62" t="s">
-        <v>218</v>
+        <v>232</v>
       </c>
       <c r="J62" t="s">
         <v>8</v>
@@ -3620,28 +3620,28 @@
         <v>20</v>
       </c>
       <c r="B63" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="C63" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="D63" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="E63" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F63" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="G63" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="H63" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="I63" t="s">
-        <v>232</v>
+        <v>8</v>
       </c>
       <c r="J63" t="s">
         <v>8</v>
@@ -3653,47 +3653,6 @@
         <v>8</v>
       </c>
       <c r="M63" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13">
-      <c r="A64" t="s">
-        <v>20</v>
-      </c>
-      <c r="B64" t="s">
-        <v>249</v>
-      </c>
-      <c r="C64" t="s">
-        <v>250</v>
-      </c>
-      <c r="D64" t="s">
-        <v>208</v>
-      </c>
-      <c r="E64" t="s">
-        <v>9</v>
-      </c>
-      <c r="F64" t="s">
-        <v>251</v>
-      </c>
-      <c r="G64" t="s">
-        <v>252</v>
-      </c>
-      <c r="H64" t="s">
-        <v>217</v>
-      </c>
-      <c r="I64" t="s">
-        <v>8</v>
-      </c>
-      <c r="J64" t="s">
-        <v>8</v>
-      </c>
-      <c r="K64" t="s">
-        <v>8</v>
-      </c>
-      <c r="L64" t="s">
-        <v>8</v>
-      </c>
-      <c r="M64" t="s">
         <v>8</v>
       </c>
     </row>

--- a/Rich Products Corporation - HQ @ Buffalo, NY.xlsx
+++ b/Rich Products Corporation - HQ @ Buffalo, NY.xlsx
@@ -857,7 +857,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -865,16 +865,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF1E4F87"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF6EA06"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -882,12 +896,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -910,7 +942,7 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>273797</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>147659</xdr:rowOff>
+      <xdr:rowOff>100080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -928,7 +960,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="2102597" cy="528659"/>
+          <a:ext cx="2102597" cy="481080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1254,9 +1286,21 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="4" spans="1:13">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" t="s">

--- a/Rich Products Corporation - HQ @ Buffalo, NY.xlsx
+++ b/Rich Products Corporation - HQ @ Buffalo, NY.xlsx
@@ -868,7 +868,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF1E4F87"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -883,7 +883,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF6EA06"/>
+        <fgColor rgb="FF1E4F87"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
